--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42465FAD-CFC5-4C99-A805-3E1B6FB910EA}"/>
+  <xr:revisionPtr revIDLastSave="461" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52721E21-571B-45DF-B8FD-77634B959A5B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Tâches</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Maturité</t>
   </si>
   <si>
-    <t>Déploiement</t>
-  </si>
-  <si>
     <t>Présentation du projet</t>
   </si>
   <si>
@@ -149,6 +146,18 @@
   <si>
     <t>Projet : Piloter un robot phidget à distance</t>
   </si>
+  <si>
+    <t>Web summary</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Clôture</t>
+  </si>
+  <si>
+    <t>documentation de projet</t>
+  </si>
 </sst>
 </file>
 
@@ -157,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-100C]d\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -182,12 +191,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -242,7 +245,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,12 +266,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -520,30 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -675,12 +696,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -704,37 +806,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -742,16 +814,109 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -762,7 +927,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -770,201 +935,318 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1012,16 +1294,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19844</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>772319</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1036,8 +1318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3515519" y="695325"/>
-          <a:ext cx="408781" cy="5330428"/>
+          <a:off x="5077619" y="676275"/>
+          <a:ext cx="4314031" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1450,18 +1732,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF17"/>
+  <dimension ref="A1:CF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U26" sqref="U26"/>
+      <selection pane="bottomRight" activeCell="AK30" sqref="AK30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" style="3" customWidth="1"/>
@@ -1471,12 +1753,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1519,314 +1801,314 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="30"/>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="30"/>
-      <c r="BL2" s="30"/>
-      <c r="BM2" s="30"/>
-      <c r="BN2" s="30"/>
-      <c r="BO2" s="30"/>
-      <c r="BP2" s="30"/>
-      <c r="BQ2" s="30"/>
-      <c r="BR2" s="30"/>
-      <c r="BS2" s="30"/>
-      <c r="BT2" s="30"/>
-      <c r="BU2" s="30"/>
-      <c r="BV2" s="30"/>
-      <c r="BW2" s="30"/>
-      <c r="BX2" s="30"/>
-      <c r="BY2" s="30"/>
-      <c r="BZ2" s="30"/>
-      <c r="CA2" s="30"/>
-      <c r="CB2" s="30"/>
-      <c r="CC2" s="30"/>
-      <c r="CD2" s="30"/>
-      <c r="CE2" s="30"/>
-      <c r="CF2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="29"/>
+      <c r="BC2" s="29"/>
+      <c r="BD2" s="29"/>
+      <c r="BE2" s="29"/>
+      <c r="BF2" s="29"/>
+      <c r="BG2" s="29"/>
+      <c r="BH2" s="29"/>
+      <c r="BI2" s="29"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="29"/>
+      <c r="BL2" s="29"/>
+      <c r="BM2" s="29"/>
+      <c r="BN2" s="29"/>
+      <c r="BO2" s="29"/>
+      <c r="BP2" s="29"/>
+      <c r="BQ2" s="29"/>
+      <c r="BR2" s="29"/>
+      <c r="BS2" s="29"/>
+      <c r="BT2" s="29"/>
+      <c r="BU2" s="29"/>
+      <c r="BV2" s="29"/>
+      <c r="BW2" s="29"/>
+      <c r="BX2" s="29"/>
+      <c r="BY2" s="29"/>
+      <c r="BZ2" s="29"/>
+      <c r="CA2" s="29"/>
+      <c r="CB2" s="29"/>
+      <c r="CC2" s="29"/>
+      <c r="CD2" s="29"/>
+      <c r="CE2" s="29"/>
+      <c r="CF2" s="29"/>
     </row>
     <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="31"/>
-      <c r="BH3" s="31"/>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="31"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="31"/>
-      <c r="BN3" s="31"/>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="31"/>
-      <c r="BQ3" s="31"/>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="31"/>
-      <c r="BT3" s="31"/>
-      <c r="BU3" s="31"/>
-      <c r="BV3" s="31"/>
-      <c r="BW3" s="31"/>
-      <c r="BX3" s="31"/>
-      <c r="BY3" s="31"/>
-      <c r="BZ3" s="31"/>
-      <c r="CA3" s="31"/>
-      <c r="CB3" s="31"/>
-      <c r="CC3" s="31"/>
-      <c r="CD3" s="31"/>
-      <c r="CE3" s="31"/>
-      <c r="CF3" s="31"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30"/>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
+      <c r="BK3" s="30"/>
+      <c r="BL3" s="30"/>
+      <c r="BM3" s="30"/>
+      <c r="BN3" s="30"/>
+      <c r="BO3" s="30"/>
+      <c r="BP3" s="30"/>
+      <c r="BQ3" s="30"/>
+      <c r="BR3" s="30"/>
+      <c r="BS3" s="30"/>
+      <c r="BT3" s="30"/>
+      <c r="BU3" s="30"/>
+      <c r="BV3" s="30"/>
+      <c r="BW3" s="30"/>
+      <c r="BX3" s="30"/>
+      <c r="BY3" s="30"/>
+      <c r="BZ3" s="30"/>
+      <c r="CA3" s="30"/>
+      <c r="CB3" s="30"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="30"/>
+      <c r="CF3" s="30"/>
     </row>
     <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="25">
         <v>45995</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="26" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="28">
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="25">
         <v>45996</v>
       </c>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="26" t="s">
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="28">
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="25">
         <v>46002</v>
       </c>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="26" t="s">
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="28">
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="25">
         <v>46003</v>
       </c>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="26" t="s">
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27"/>
-      <c r="AO4" s="28">
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="25">
         <v>46009</v>
       </c>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="28"/>
-      <c r="AR4" s="29"/>
-      <c r="AS4" s="26" t="s">
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="28">
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="25">
         <v>46010</v>
       </c>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="29"/>
-      <c r="BA4" s="26" t="s">
+      <c r="AX4" s="25"/>
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BB4" s="27"/>
-      <c r="BC4" s="27"/>
-      <c r="BD4" s="27"/>
-      <c r="BE4" s="28">
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="25">
         <v>46030</v>
       </c>
-      <c r="BF4" s="28"/>
-      <c r="BG4" s="28"/>
-      <c r="BH4" s="29"/>
-      <c r="BI4" s="26" t="s">
+      <c r="BF4" s="25"/>
+      <c r="BG4" s="25"/>
+      <c r="BH4" s="26"/>
+      <c r="BI4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="BJ4" s="27"/>
-      <c r="BK4" s="27"/>
-      <c r="BL4" s="27"/>
-      <c r="BM4" s="28">
+      <c r="BJ4" s="28"/>
+      <c r="BK4" s="28"/>
+      <c r="BL4" s="28"/>
+      <c r="BM4" s="25">
         <v>46031</v>
       </c>
-      <c r="BN4" s="28"/>
-      <c r="BO4" s="28"/>
-      <c r="BP4" s="29"/>
-      <c r="BQ4" s="26" t="s">
+      <c r="BN4" s="25"/>
+      <c r="BO4" s="25"/>
+      <c r="BP4" s="26"/>
+      <c r="BQ4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BR4" s="27"/>
-      <c r="BS4" s="27"/>
-      <c r="BT4" s="27"/>
-      <c r="BU4" s="28">
+      <c r="BR4" s="28"/>
+      <c r="BS4" s="28"/>
+      <c r="BT4" s="28"/>
+      <c r="BU4" s="25">
         <v>46037</v>
       </c>
-      <c r="BV4" s="28"/>
-      <c r="BW4" s="28"/>
-      <c r="BX4" s="29"/>
-      <c r="BY4" s="26" t="s">
+      <c r="BV4" s="25"/>
+      <c r="BW4" s="25"/>
+      <c r="BX4" s="26"/>
+      <c r="BY4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="BZ4" s="27"/>
-      <c r="CA4" s="27"/>
-      <c r="CB4" s="27"/>
-      <c r="CC4" s="28">
+      <c r="BZ4" s="28"/>
+      <c r="CA4" s="28"/>
+      <c r="CB4" s="28"/>
+      <c r="CC4" s="25">
         <v>46038</v>
       </c>
-      <c r="CD4" s="28"/>
-      <c r="CE4" s="28"/>
-      <c r="CF4" s="29"/>
+      <c r="CD4" s="25"/>
+      <c r="CE4" s="25"/>
+      <c r="CF4" s="26"/>
     </row>
     <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4">
@@ -1841,10 +2123,10 @@
       <c r="H5" s="5">
         <v>4</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="46">
         <v>5</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="46">
         <v>6</v>
       </c>
       <c r="K5" s="5">
@@ -2070,1024 +2352,1206 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+    <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="46" t="s">
+      <c r="C6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="20" t="s">
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="52" t="s">
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="52"/>
+      <c r="AK6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="52" t="s">
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="52"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="51"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="51"/>
+      <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="52"/>
+      <c r="BA6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="BB6" s="47"/>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="48"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="10"/>
-      <c r="BJ6" s="8"/>
-      <c r="BK6" s="8"/>
-      <c r="BL6" s="8"/>
-      <c r="BM6" s="8"/>
-      <c r="BN6" s="8"/>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="9"/>
-      <c r="BQ6" s="52" t="s">
+      <c r="BB6" s="42"/>
+      <c r="BC6" s="42"/>
+      <c r="BD6" s="111"/>
+      <c r="BE6" s="51"/>
+      <c r="BF6" s="51"/>
+      <c r="BG6" s="51"/>
+      <c r="BH6" s="52"/>
+      <c r="BI6" s="53"/>
+      <c r="BJ6" s="51"/>
+      <c r="BK6" s="51"/>
+      <c r="BL6" s="51"/>
+      <c r="BM6" s="51"/>
+      <c r="BN6" s="51"/>
+      <c r="BO6" s="51"/>
+      <c r="BP6" s="52"/>
+      <c r="BQ6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="BR6" s="47"/>
-      <c r="BS6" s="47"/>
-      <c r="BT6" s="48"/>
-      <c r="BU6" s="8"/>
-      <c r="BV6" s="8"/>
-      <c r="BW6" s="8"/>
-      <c r="BX6" s="9"/>
-      <c r="BY6" s="10"/>
-      <c r="BZ6" s="8"/>
-      <c r="CA6" s="8"/>
-      <c r="CB6" s="8"/>
-      <c r="CC6" s="8"/>
-      <c r="CD6" s="8"/>
-      <c r="CE6" s="8"/>
-      <c r="CF6" s="9"/>
+      <c r="BR6" s="42"/>
+      <c r="BS6" s="42"/>
+      <c r="BT6" s="111"/>
+      <c r="BU6" s="51"/>
+      <c r="BV6" s="51"/>
+      <c r="BW6" s="51"/>
+      <c r="BX6" s="52"/>
+      <c r="BY6" s="53"/>
+      <c r="BZ6" s="51"/>
+      <c r="CA6" s="51"/>
+      <c r="CB6" s="51"/>
+      <c r="CC6" s="51"/>
+      <c r="CD6" s="51"/>
+      <c r="CE6" s="51"/>
+      <c r="CF6" s="52"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="50"/>
-      <c r="BC7" s="50"/>
-      <c r="BD7" s="51"/>
-      <c r="BE7" s="13"/>
-      <c r="BF7" s="13"/>
-      <c r="BG7" s="13"/>
-      <c r="BH7" s="14"/>
-      <c r="BI7" s="12"/>
-      <c r="BJ7" s="13"/>
-      <c r="BK7" s="13"/>
-      <c r="BL7" s="13"/>
-      <c r="BM7" s="13"/>
-      <c r="BN7" s="13"/>
-      <c r="BO7" s="13"/>
-      <c r="BP7" s="14"/>
-      <c r="BQ7" s="49"/>
-      <c r="BR7" s="50"/>
-      <c r="BS7" s="50"/>
-      <c r="BT7" s="51"/>
-      <c r="BU7" s="13"/>
-      <c r="BV7" s="13"/>
-      <c r="BW7" s="13"/>
-      <c r="BX7" s="14"/>
-      <c r="BY7" s="12"/>
-      <c r="BZ7" s="13"/>
-      <c r="CA7" s="13"/>
-      <c r="CB7" s="13"/>
-      <c r="CC7" s="13"/>
-      <c r="CD7" s="13"/>
-      <c r="CE7" s="13"/>
-      <c r="CF7" s="14"/>
+      <c r="C7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="112"/>
+      <c r="AL7" s="113"/>
+      <c r="AM7" s="113"/>
+      <c r="AN7" s="114"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="55"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="54"/>
+      <c r="AU7" s="54"/>
+      <c r="AV7" s="54"/>
+      <c r="AW7" s="54"/>
+      <c r="AX7" s="54"/>
+      <c r="AY7" s="54"/>
+      <c r="AZ7" s="55"/>
+      <c r="BA7" s="112"/>
+      <c r="BB7" s="113"/>
+      <c r="BC7" s="113"/>
+      <c r="BD7" s="114"/>
+      <c r="BE7" s="54"/>
+      <c r="BF7" s="54"/>
+      <c r="BG7" s="54"/>
+      <c r="BH7" s="55"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="54"/>
+      <c r="BK7" s="54"/>
+      <c r="BL7" s="54"/>
+      <c r="BM7" s="54"/>
+      <c r="BN7" s="54"/>
+      <c r="BO7" s="54"/>
+      <c r="BP7" s="55"/>
+      <c r="BQ7" s="112"/>
+      <c r="BR7" s="113"/>
+      <c r="BS7" s="113"/>
+      <c r="BT7" s="114"/>
+      <c r="BU7" s="54"/>
+      <c r="BV7" s="54"/>
+      <c r="BW7" s="54"/>
+      <c r="BX7" s="55"/>
+      <c r="BY7" s="56"/>
+      <c r="BZ7" s="54"/>
+      <c r="CA7" s="54"/>
+      <c r="CB7" s="54"/>
+      <c r="CC7" s="54"/>
+      <c r="CD7" s="54"/>
+      <c r="CE7" s="54"/>
+      <c r="CF7" s="55"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="50"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="49"/>
-      <c r="BB8" s="50"/>
-      <c r="BC8" s="50"/>
-      <c r="BD8" s="51"/>
-      <c r="BE8" s="13"/>
-      <c r="BF8" s="13"/>
-      <c r="BG8" s="13"/>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="12"/>
-      <c r="BJ8" s="13"/>
-      <c r="BK8" s="13"/>
-      <c r="BL8" s="13"/>
-      <c r="BM8" s="13"/>
-      <c r="BN8" s="13"/>
-      <c r="BO8" s="13"/>
-      <c r="BP8" s="14"/>
-      <c r="BQ8" s="49"/>
-      <c r="BR8" s="50"/>
-      <c r="BS8" s="50"/>
-      <c r="BT8" s="51"/>
-      <c r="BU8" s="13"/>
-      <c r="BV8" s="13"/>
-      <c r="BW8" s="13"/>
-      <c r="BX8" s="14"/>
-      <c r="BY8" s="12"/>
-      <c r="BZ8" s="13"/>
-      <c r="CA8" s="13"/>
-      <c r="CB8" s="13"/>
-      <c r="CC8" s="13"/>
-      <c r="CD8" s="13"/>
-      <c r="CE8" s="13"/>
-      <c r="CF8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="113"/>
+      <c r="AM8" s="113"/>
+      <c r="AN8" s="114"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="54"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="54"/>
+      <c r="AU8" s="54"/>
+      <c r="AV8" s="54"/>
+      <c r="AW8" s="54"/>
+      <c r="AX8" s="54"/>
+      <c r="AY8" s="54"/>
+      <c r="AZ8" s="55"/>
+      <c r="BA8" s="112"/>
+      <c r="BB8" s="113"/>
+      <c r="BC8" s="113"/>
+      <c r="BD8" s="114"/>
+      <c r="BE8" s="54"/>
+      <c r="BF8" s="54"/>
+      <c r="BG8" s="54"/>
+      <c r="BH8" s="55"/>
+      <c r="BI8" s="56"/>
+      <c r="BJ8" s="54"/>
+      <c r="BK8" s="54"/>
+      <c r="BL8" s="54"/>
+      <c r="BM8" s="54"/>
+      <c r="BN8" s="54"/>
+      <c r="BO8" s="54"/>
+      <c r="BP8" s="55"/>
+      <c r="BQ8" s="112"/>
+      <c r="BR8" s="113"/>
+      <c r="BS8" s="113"/>
+      <c r="BT8" s="114"/>
+      <c r="BU8" s="54"/>
+      <c r="BV8" s="54"/>
+      <c r="BW8" s="54"/>
+      <c r="BX8" s="55"/>
+      <c r="BY8" s="56"/>
+      <c r="BZ8" s="54"/>
+      <c r="CA8" s="54"/>
+      <c r="CB8" s="54"/>
+      <c r="CC8" s="54"/>
+      <c r="CD8" s="54"/>
+      <c r="CE8" s="54"/>
+      <c r="CF8" s="55"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="49"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
-      <c r="AX9" s="13"/>
-      <c r="AY9" s="13"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="49"/>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="50"/>
-      <c r="BD9" s="51"/>
-      <c r="BE9" s="13"/>
-      <c r="BF9" s="13"/>
-      <c r="BG9" s="13"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="12"/>
-      <c r="BJ9" s="13"/>
-      <c r="BK9" s="13"/>
-      <c r="BL9" s="13"/>
-      <c r="BM9" s="13"/>
-      <c r="BN9" s="13"/>
-      <c r="BO9" s="13"/>
-      <c r="BP9" s="14"/>
-      <c r="BQ9" s="49"/>
-      <c r="BR9" s="50"/>
-      <c r="BS9" s="50"/>
-      <c r="BT9" s="51"/>
-      <c r="BU9" s="13"/>
-      <c r="BV9" s="13"/>
-      <c r="BW9" s="13"/>
-      <c r="BX9" s="14"/>
-      <c r="BY9" s="12"/>
-      <c r="BZ9" s="13"/>
-      <c r="CA9" s="13"/>
-      <c r="CB9" s="13"/>
-      <c r="CC9" s="13"/>
-      <c r="CD9" s="13"/>
-      <c r="CE9" s="13"/>
-      <c r="CF9" s="14"/>
+      <c r="C9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="112"/>
+      <c r="AL9" s="113"/>
+      <c r="AM9" s="113"/>
+      <c r="AN9" s="114"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="62"/>
+      <c r="AR9" s="63"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="62"/>
+      <c r="AV9" s="62"/>
+      <c r="AW9" s="62"/>
+      <c r="AX9" s="62"/>
+      <c r="AY9" s="62"/>
+      <c r="AZ9" s="63"/>
+      <c r="BA9" s="112"/>
+      <c r="BB9" s="113"/>
+      <c r="BC9" s="113"/>
+      <c r="BD9" s="114"/>
+      <c r="BE9" s="62"/>
+      <c r="BF9" s="62"/>
+      <c r="BG9" s="62"/>
+      <c r="BH9" s="63"/>
+      <c r="BI9" s="64"/>
+      <c r="BJ9" s="62"/>
+      <c r="BK9" s="62"/>
+      <c r="BL9" s="62"/>
+      <c r="BM9" s="62"/>
+      <c r="BN9" s="62"/>
+      <c r="BO9" s="62"/>
+      <c r="BP9" s="63"/>
+      <c r="BQ9" s="112"/>
+      <c r="BR9" s="113"/>
+      <c r="BS9" s="113"/>
+      <c r="BT9" s="114"/>
+      <c r="BU9" s="62"/>
+      <c r="BV9" s="62"/>
+      <c r="BW9" s="62"/>
+      <c r="BX9" s="63"/>
+      <c r="BY9" s="64"/>
+      <c r="BZ9" s="62"/>
+      <c r="CA9" s="62"/>
+      <c r="CB9" s="62"/>
+      <c r="CC9" s="62"/>
+      <c r="CD9" s="62"/>
+      <c r="CE9" s="62"/>
+      <c r="CF9" s="63"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
-      <c r="B10" s="70" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="51"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="12"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="13"/>
-      <c r="AY10" s="13"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="49"/>
-      <c r="BB10" s="50"/>
-      <c r="BC10" s="50"/>
-      <c r="BD10" s="51"/>
-      <c r="BE10" s="13"/>
-      <c r="BF10" s="13"/>
-      <c r="BG10" s="13"/>
-      <c r="BH10" s="14"/>
-      <c r="BI10" s="12"/>
-      <c r="BJ10" s="13"/>
-      <c r="BK10" s="13"/>
-      <c r="BL10" s="13"/>
-      <c r="BM10" s="13"/>
-      <c r="BN10" s="13"/>
-      <c r="BO10" s="13"/>
-      <c r="BP10" s="14"/>
-      <c r="BQ10" s="49"/>
-      <c r="BR10" s="50"/>
-      <c r="BS10" s="50"/>
-      <c r="BT10" s="51"/>
-      <c r="BU10" s="13"/>
-      <c r="BV10" s="13"/>
-      <c r="BW10" s="13"/>
-      <c r="BX10" s="14"/>
-      <c r="BY10" s="12"/>
-      <c r="BZ10" s="13"/>
-      <c r="CA10" s="13"/>
-      <c r="CB10" s="13"/>
-      <c r="CC10" s="13"/>
-      <c r="CD10" s="13"/>
-      <c r="CE10" s="13"/>
-      <c r="CF10" s="14"/>
+      <c r="C10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="112"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="114"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="62"/>
+      <c r="AU10" s="62"/>
+      <c r="AV10" s="62"/>
+      <c r="AW10" s="62"/>
+      <c r="AX10" s="62"/>
+      <c r="AY10" s="62"/>
+      <c r="AZ10" s="63"/>
+      <c r="BA10" s="112"/>
+      <c r="BB10" s="113"/>
+      <c r="BC10" s="113"/>
+      <c r="BD10" s="114"/>
+      <c r="BE10" s="62"/>
+      <c r="BF10" s="62"/>
+      <c r="BG10" s="62"/>
+      <c r="BH10" s="63"/>
+      <c r="BI10" s="64"/>
+      <c r="BJ10" s="62"/>
+      <c r="BK10" s="62"/>
+      <c r="BL10" s="62"/>
+      <c r="BM10" s="62"/>
+      <c r="BN10" s="62"/>
+      <c r="BO10" s="62"/>
+      <c r="BP10" s="63"/>
+      <c r="BQ10" s="112"/>
+      <c r="BR10" s="113"/>
+      <c r="BS10" s="113"/>
+      <c r="BT10" s="114"/>
+      <c r="BU10" s="62"/>
+      <c r="BV10" s="62"/>
+      <c r="BW10" s="62"/>
+      <c r="BX10" s="63"/>
+      <c r="BY10" s="64"/>
+      <c r="BZ10" s="62"/>
+      <c r="CA10" s="62"/>
+      <c r="CB10" s="62"/>
+      <c r="CC10" s="62"/>
+      <c r="CD10" s="62"/>
+      <c r="CE10" s="62"/>
+      <c r="CF10" s="63"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="49"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="14"/>
-      <c r="AS11" s="12"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
-      <c r="AX11" s="13"/>
-      <c r="AY11" s="13"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="49"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
-      <c r="BD11" s="51"/>
-      <c r="BE11" s="13"/>
-      <c r="BF11" s="13"/>
-      <c r="BG11" s="13"/>
-      <c r="BH11" s="14"/>
-      <c r="BI11" s="12"/>
-      <c r="BJ11" s="13"/>
-      <c r="BK11" s="13"/>
-      <c r="BL11" s="13"/>
-      <c r="BM11" s="13"/>
-      <c r="BN11" s="13"/>
-      <c r="BO11" s="13"/>
-      <c r="BP11" s="14"/>
-      <c r="BQ11" s="49"/>
-      <c r="BR11" s="50"/>
-      <c r="BS11" s="50"/>
-      <c r="BT11" s="51"/>
-      <c r="BU11" s="13"/>
-      <c r="BV11" s="13"/>
-      <c r="BW11" s="13"/>
-      <c r="BX11" s="14"/>
-      <c r="BY11" s="12"/>
-      <c r="BZ11" s="13"/>
-      <c r="CA11" s="13"/>
-      <c r="CB11" s="13"/>
-      <c r="CC11" s="13"/>
-      <c r="CD11" s="13"/>
-      <c r="CE11" s="13"/>
-      <c r="CF11" s="14"/>
+      <c r="C11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="62"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="62"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="112"/>
+      <c r="AL11" s="113"/>
+      <c r="AM11" s="113"/>
+      <c r="AN11" s="114"/>
+      <c r="AO11" s="62"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="63"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="62"/>
+      <c r="AU11" s="62"/>
+      <c r="AV11" s="62"/>
+      <c r="AW11" s="62"/>
+      <c r="AX11" s="62"/>
+      <c r="AY11" s="62"/>
+      <c r="AZ11" s="63"/>
+      <c r="BA11" s="112"/>
+      <c r="BB11" s="113"/>
+      <c r="BC11" s="113"/>
+      <c r="BD11" s="114"/>
+      <c r="BE11" s="62"/>
+      <c r="BF11" s="62"/>
+      <c r="BG11" s="62"/>
+      <c r="BH11" s="63"/>
+      <c r="BI11" s="64"/>
+      <c r="BJ11" s="62"/>
+      <c r="BK11" s="62"/>
+      <c r="BL11" s="62"/>
+      <c r="BM11" s="62"/>
+      <c r="BN11" s="62"/>
+      <c r="BO11" s="62"/>
+      <c r="BP11" s="63"/>
+      <c r="BQ11" s="112"/>
+      <c r="BR11" s="113"/>
+      <c r="BS11" s="113"/>
+      <c r="BT11" s="114"/>
+      <c r="BU11" s="62"/>
+      <c r="BV11" s="62"/>
+      <c r="BW11" s="62"/>
+      <c r="BX11" s="63"/>
+      <c r="BY11" s="64"/>
+      <c r="BZ11" s="62"/>
+      <c r="CA11" s="62"/>
+      <c r="CB11" s="62"/>
+      <c r="CC11" s="62"/>
+      <c r="CD11" s="62"/>
+      <c r="CE11" s="62"/>
+      <c r="CF11" s="63"/>
     </row>
     <row r="12" spans="1:84" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="49"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
-      <c r="AX12" s="13"/>
-      <c r="AY12" s="13"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="49"/>
-      <c r="BB12" s="50"/>
-      <c r="BC12" s="50"/>
-      <c r="BD12" s="51"/>
-      <c r="BE12" s="13"/>
-      <c r="BF12" s="13"/>
-      <c r="BG12" s="13"/>
-      <c r="BH12" s="14"/>
-      <c r="BI12" s="12"/>
-      <c r="BJ12" s="13"/>
-      <c r="BK12" s="13"/>
-      <c r="BL12" s="13"/>
-      <c r="BM12" s="13"/>
-      <c r="BN12" s="13"/>
-      <c r="BO12" s="13"/>
-      <c r="BP12" s="14"/>
-      <c r="BQ12" s="49"/>
-      <c r="BR12" s="50"/>
-      <c r="BS12" s="50"/>
-      <c r="BT12" s="51"/>
-      <c r="BU12" s="13"/>
-      <c r="BV12" s="13"/>
-      <c r="BW12" s="13"/>
-      <c r="BX12" s="14"/>
-      <c r="BY12" s="12"/>
-      <c r="BZ12" s="13"/>
-      <c r="CA12" s="13"/>
-      <c r="CB12" s="13"/>
-      <c r="CC12" s="13"/>
-      <c r="CD12" s="13"/>
-      <c r="CE12" s="13"/>
-      <c r="CF12" s="14"/>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
+      <c r="AB12" s="40"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="112"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="114"/>
+      <c r="AO12" s="67"/>
+      <c r="AP12" s="67"/>
+      <c r="AQ12" s="67"/>
+      <c r="AR12" s="68"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="67"/>
+      <c r="AU12" s="67"/>
+      <c r="AV12" s="67"/>
+      <c r="AW12" s="67"/>
+      <c r="AX12" s="67"/>
+      <c r="AY12" s="67"/>
+      <c r="AZ12" s="68"/>
+      <c r="BA12" s="112"/>
+      <c r="BB12" s="113"/>
+      <c r="BC12" s="113"/>
+      <c r="BD12" s="114"/>
+      <c r="BE12" s="67"/>
+      <c r="BF12" s="67"/>
+      <c r="BG12" s="67"/>
+      <c r="BH12" s="68"/>
+      <c r="BI12" s="69"/>
+      <c r="BJ12" s="67"/>
+      <c r="BK12" s="67"/>
+      <c r="BL12" s="67"/>
+      <c r="BM12" s="67"/>
+      <c r="BN12" s="67"/>
+      <c r="BO12" s="67"/>
+      <c r="BP12" s="68"/>
+      <c r="BQ12" s="112"/>
+      <c r="BR12" s="113"/>
+      <c r="BS12" s="113"/>
+      <c r="BT12" s="114"/>
+      <c r="BU12" s="67"/>
+      <c r="BV12" s="67"/>
+      <c r="BW12" s="67"/>
+      <c r="BX12" s="68"/>
+      <c r="BY12" s="69"/>
+      <c r="BZ12" s="67"/>
+      <c r="CA12" s="67"/>
+      <c r="CB12" s="67"/>
+      <c r="CC12" s="67"/>
+      <c r="CD12" s="67"/>
+      <c r="CE12" s="67"/>
+      <c r="CF12" s="68"/>
     </row>
     <row r="13" spans="1:84" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="56"/>
-      <c r="AQ13" s="56"/>
-      <c r="AR13" s="57"/>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="56"/>
-      <c r="AU13" s="56"/>
-      <c r="AV13" s="56"/>
-      <c r="AW13" s="56"/>
-      <c r="AX13" s="56"/>
-      <c r="AY13" s="56"/>
-      <c r="AZ13" s="57"/>
-      <c r="BA13" s="49"/>
-      <c r="BB13" s="50"/>
-      <c r="BC13" s="50"/>
-      <c r="BD13" s="51"/>
-      <c r="BE13" s="13"/>
-      <c r="BF13" s="13"/>
-      <c r="BG13" s="13"/>
-      <c r="BH13" s="14"/>
-      <c r="BI13" s="12"/>
-      <c r="BJ13" s="13"/>
-      <c r="BK13" s="13"/>
-      <c r="BL13" s="13"/>
-      <c r="BM13" s="13"/>
-      <c r="BN13" s="13"/>
-      <c r="BO13" s="13"/>
-      <c r="BP13" s="14"/>
-      <c r="BQ13" s="49"/>
-      <c r="BR13" s="50"/>
-      <c r="BS13" s="50"/>
-      <c r="BT13" s="51"/>
-      <c r="BU13" s="13"/>
-      <c r="BV13" s="13"/>
-      <c r="BW13" s="13"/>
-      <c r="BX13" s="14"/>
-      <c r="BY13" s="12"/>
-      <c r="BZ13" s="13"/>
-      <c r="CA13" s="13"/>
-      <c r="CB13" s="13"/>
-      <c r="CC13" s="13"/>
-      <c r="CD13" s="13"/>
-      <c r="CE13" s="13"/>
-      <c r="CF13" s="14"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="40"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="73"/>
+      <c r="AK13" s="112"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="114"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="22"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="21"/>
+      <c r="BA13" s="112"/>
+      <c r="BB13" s="113"/>
+      <c r="BC13" s="113"/>
+      <c r="BD13" s="114"/>
+      <c r="BE13" s="72"/>
+      <c r="BF13" s="72"/>
+      <c r="BG13" s="72"/>
+      <c r="BH13" s="73"/>
+      <c r="BI13" s="74"/>
+      <c r="BJ13" s="72"/>
+      <c r="BK13" s="72"/>
+      <c r="BL13" s="72"/>
+      <c r="BM13" s="72"/>
+      <c r="BN13" s="72"/>
+      <c r="BO13" s="72"/>
+      <c r="BP13" s="73"/>
+      <c r="BQ13" s="112"/>
+      <c r="BR13" s="113"/>
+      <c r="BS13" s="113"/>
+      <c r="BT13" s="114"/>
+      <c r="BU13" s="72"/>
+      <c r="BV13" s="72"/>
+      <c r="BW13" s="72"/>
+      <c r="BX13" s="73"/>
+      <c r="BY13" s="74"/>
+      <c r="BZ13" s="72"/>
+      <c r="CA13" s="72"/>
+      <c r="CB13" s="72"/>
+      <c r="CC13" s="72"/>
+      <c r="CD13" s="72"/>
+      <c r="CE13" s="72"/>
+      <c r="CF13" s="73"/>
     </row>
     <row r="14" spans="1:84" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="49"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="14"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="13"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="49"/>
-      <c r="BB14" s="50"/>
-      <c r="BC14" s="50"/>
-      <c r="BD14" s="51"/>
-      <c r="BE14" s="56"/>
-      <c r="BF14" s="56"/>
-      <c r="BG14" s="56"/>
-      <c r="BH14" s="57"/>
-      <c r="BI14" s="58"/>
-      <c r="BJ14" s="56"/>
-      <c r="BK14" s="56"/>
-      <c r="BL14" s="56"/>
-      <c r="BM14" s="56"/>
-      <c r="BN14" s="56"/>
-      <c r="BO14" s="56"/>
-      <c r="BP14" s="57"/>
-      <c r="BQ14" s="49"/>
-      <c r="BR14" s="50"/>
-      <c r="BS14" s="50"/>
-      <c r="BT14" s="51"/>
-      <c r="BU14" s="13"/>
-      <c r="BV14" s="13"/>
-      <c r="BW14" s="13"/>
-      <c r="BX14" s="14"/>
-      <c r="BY14" s="12"/>
-      <c r="BZ14" s="13"/>
-      <c r="CA14" s="13"/>
-      <c r="CB14" s="13"/>
-      <c r="CC14" s="13"/>
-      <c r="CD14" s="13"/>
-      <c r="CE14" s="13"/>
-      <c r="CF14" s="14"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="78"/>
+      <c r="AK14" s="112"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="113"/>
+      <c r="AN14" s="114"/>
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="77"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="78"/>
+      <c r="AS14" s="79"/>
+      <c r="AT14" s="77"/>
+      <c r="AU14" s="77"/>
+      <c r="AV14" s="77"/>
+      <c r="AW14" s="77"/>
+      <c r="AX14" s="77"/>
+      <c r="AY14" s="77"/>
+      <c r="AZ14" s="78"/>
+      <c r="BA14" s="112"/>
+      <c r="BB14" s="113"/>
+      <c r="BC14" s="113"/>
+      <c r="BD14" s="114"/>
+      <c r="BE14" s="20"/>
+      <c r="BF14" s="20"/>
+      <c r="BG14" s="20"/>
+      <c r="BH14" s="21"/>
+      <c r="BI14" s="22"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="20"/>
+      <c r="BL14" s="20"/>
+      <c r="BM14" s="20"/>
+      <c r="BN14" s="20"/>
+      <c r="BO14" s="20"/>
+      <c r="BP14" s="21"/>
+      <c r="BQ14" s="112"/>
+      <c r="BR14" s="113"/>
+      <c r="BS14" s="113"/>
+      <c r="BT14" s="114"/>
+      <c r="BU14" s="77"/>
+      <c r="BV14" s="77"/>
+      <c r="BW14" s="77"/>
+      <c r="BX14" s="78"/>
+      <c r="BY14" s="79"/>
+      <c r="BZ14" s="77"/>
+      <c r="CA14" s="77"/>
+      <c r="CB14" s="77"/>
+      <c r="CC14" s="77"/>
+      <c r="CD14" s="77"/>
+      <c r="CE14" s="77"/>
+      <c r="CF14" s="78"/>
     </row>
     <row r="15" spans="1:84" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="49"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="13"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="49"/>
-      <c r="BB15" s="50"/>
-      <c r="BC15" s="50"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="13"/>
-      <c r="BF15" s="13"/>
-      <c r="BG15" s="13"/>
-      <c r="BH15" s="14"/>
-      <c r="BI15" s="12"/>
-      <c r="BJ15" s="13"/>
-      <c r="BK15" s="13"/>
-      <c r="BL15" s="13"/>
-      <c r="BM15" s="13"/>
-      <c r="BN15" s="13"/>
-      <c r="BO15" s="13"/>
-      <c r="BP15" s="14"/>
-      <c r="BQ15" s="49"/>
-      <c r="BR15" s="50"/>
-      <c r="BS15" s="50"/>
-      <c r="BT15" s="51"/>
-      <c r="BU15" s="56"/>
-      <c r="BV15" s="56"/>
-      <c r="BW15" s="56"/>
-      <c r="BX15" s="57"/>
-      <c r="BY15" s="58"/>
-      <c r="BZ15" s="56"/>
-      <c r="CA15" s="56"/>
-      <c r="CB15" s="56"/>
-      <c r="CC15" s="56"/>
-      <c r="CD15" s="56"/>
-      <c r="CE15" s="59"/>
-      <c r="CF15" s="60"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+      <c r="S15" s="82"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="112"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="114"/>
+      <c r="AO15" s="82"/>
+      <c r="AP15" s="82"/>
+      <c r="AQ15" s="82"/>
+      <c r="AR15" s="83"/>
+      <c r="AS15" s="84"/>
+      <c r="AT15" s="82"/>
+      <c r="AU15" s="82"/>
+      <c r="AV15" s="82"/>
+      <c r="AW15" s="82"/>
+      <c r="AX15" s="82"/>
+      <c r="AY15" s="82"/>
+      <c r="AZ15" s="83"/>
+      <c r="BA15" s="112"/>
+      <c r="BB15" s="113"/>
+      <c r="BC15" s="113"/>
+      <c r="BD15" s="114"/>
+      <c r="BE15" s="82"/>
+      <c r="BF15" s="82"/>
+      <c r="BG15" s="82"/>
+      <c r="BH15" s="83"/>
+      <c r="BI15" s="84"/>
+      <c r="BJ15" s="82"/>
+      <c r="BK15" s="82"/>
+      <c r="BL15" s="82"/>
+      <c r="BM15" s="82"/>
+      <c r="BN15" s="82"/>
+      <c r="BO15" s="82"/>
+      <c r="BP15" s="83"/>
+      <c r="BQ15" s="112"/>
+      <c r="BR15" s="113"/>
+      <c r="BS15" s="113"/>
+      <c r="BT15" s="114"/>
+      <c r="BU15" s="20"/>
+      <c r="BV15" s="20"/>
+      <c r="BW15" s="20"/>
+      <c r="BX15" s="21"/>
+      <c r="BY15" s="22"/>
+      <c r="BZ15" s="20"/>
+      <c r="CA15" s="20"/>
+      <c r="CB15" s="20"/>
+      <c r="CC15" s="20"/>
+      <c r="CD15" s="20"/>
+      <c r="CE15" s="20"/>
+      <c r="CF15" s="83"/>
     </row>
     <row r="16" spans="1:84" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="49"/>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="49"/>
-      <c r="BB16" s="50"/>
-      <c r="BC16" s="50"/>
-      <c r="BD16" s="51"/>
-      <c r="BE16" s="13"/>
-      <c r="BF16" s="13"/>
-      <c r="BG16" s="13"/>
-      <c r="BH16" s="14"/>
-      <c r="BI16" s="12"/>
-      <c r="BJ16" s="13"/>
-      <c r="BK16" s="13"/>
-      <c r="BL16" s="13"/>
-      <c r="BM16" s="13"/>
-      <c r="BN16" s="13"/>
-      <c r="BO16" s="13"/>
-      <c r="BP16" s="14"/>
-      <c r="BQ16" s="49"/>
-      <c r="BR16" s="50"/>
-      <c r="BS16" s="50"/>
-      <c r="BT16" s="51"/>
-      <c r="BU16" s="13"/>
-      <c r="BV16" s="13"/>
-      <c r="BW16" s="13"/>
-      <c r="BX16" s="14"/>
-      <c r="BY16" s="12"/>
-      <c r="BZ16" s="13"/>
-      <c r="CA16" s="13"/>
-      <c r="CB16" s="13"/>
-      <c r="CC16" s="13"/>
-      <c r="CD16" s="13"/>
-      <c r="CE16" s="56"/>
-      <c r="CF16" s="57"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="88"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="88"/>
+      <c r="AK16" s="112"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="114"/>
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="88"/>
+      <c r="AS16" s="89"/>
+      <c r="AT16" s="87"/>
+      <c r="AU16" s="87"/>
+      <c r="AV16" s="87"/>
+      <c r="AW16" s="87"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="87"/>
+      <c r="AZ16" s="88"/>
+      <c r="BA16" s="112"/>
+      <c r="BB16" s="113"/>
+      <c r="BC16" s="113"/>
+      <c r="BD16" s="114"/>
+      <c r="BE16" s="87"/>
+      <c r="BF16" s="87"/>
+      <c r="BG16" s="87"/>
+      <c r="BH16" s="88"/>
+      <c r="BI16" s="89"/>
+      <c r="BJ16" s="87"/>
+      <c r="BK16" s="87"/>
+      <c r="BL16" s="87"/>
+      <c r="BM16" s="87"/>
+      <c r="BN16" s="87"/>
+      <c r="BO16" s="87"/>
+      <c r="BP16" s="88"/>
+      <c r="BQ16" s="112"/>
+      <c r="BR16" s="113"/>
+      <c r="BS16" s="113"/>
+      <c r="BT16" s="114"/>
+      <c r="BU16" s="87"/>
+      <c r="BV16" s="87"/>
+      <c r="BW16" s="87"/>
+      <c r="BX16" s="88"/>
+      <c r="BY16" s="89"/>
+      <c r="BZ16" s="87"/>
+      <c r="CA16" s="87"/>
+      <c r="CB16" s="87"/>
+      <c r="CC16" s="87"/>
+      <c r="CD16" s="87"/>
+      <c r="CE16" s="87"/>
+      <c r="CF16" s="41"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
+    <row r="17" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="95"/>
+      <c r="AJ17" s="96"/>
+      <c r="AK17" s="112"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="114"/>
+      <c r="AO17" s="95"/>
+      <c r="AP17" s="95"/>
+      <c r="AQ17" s="95"/>
+      <c r="AR17" s="96"/>
+      <c r="AS17" s="94"/>
+      <c r="AT17" s="95"/>
+      <c r="AU17" s="95"/>
+      <c r="AV17" s="95"/>
+      <c r="AW17" s="95"/>
+      <c r="AX17" s="95"/>
+      <c r="AY17" s="95"/>
+      <c r="AZ17" s="96"/>
+      <c r="BA17" s="112"/>
+      <c r="BB17" s="113"/>
+      <c r="BC17" s="113"/>
+      <c r="BD17" s="114"/>
+      <c r="BE17" s="95"/>
+      <c r="BF17" s="95"/>
+      <c r="BG17" s="95"/>
+      <c r="BH17" s="96"/>
+      <c r="BI17" s="94"/>
+      <c r="BJ17" s="95"/>
+      <c r="BK17" s="95"/>
+      <c r="BL17" s="95"/>
+      <c r="BM17" s="95"/>
+      <c r="BN17" s="95"/>
+      <c r="BO17" s="95"/>
+      <c r="BP17" s="96"/>
+      <c r="BQ17" s="112"/>
+      <c r="BR17" s="113"/>
+      <c r="BS17" s="113"/>
+      <c r="BT17" s="114"/>
+      <c r="BU17" s="95"/>
+      <c r="BV17" s="95"/>
+      <c r="BW17" s="95"/>
+      <c r="BX17" s="96"/>
+      <c r="BY17" s="94"/>
+      <c r="BZ17" s="95"/>
+      <c r="CA17" s="95"/>
+      <c r="CB17" s="95"/>
+      <c r="CC17" s="95"/>
+      <c r="CD17" s="95"/>
+      <c r="CE17" s="95"/>
+      <c r="CF17" s="96"/>
+    </row>
+    <row r="18" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="91"/>
+      <c r="B18" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="105"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="109"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="109"/>
+      <c r="Z18" s="109"/>
+      <c r="AA18" s="109"/>
+      <c r="AB18" s="110"/>
+      <c r="AC18" s="97"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98"/>
+      <c r="AJ18" s="99"/>
+      <c r="AK18" s="115"/>
+      <c r="AL18" s="116"/>
+      <c r="AM18" s="116"/>
+      <c r="AN18" s="117"/>
+      <c r="AO18" s="98"/>
+      <c r="AP18" s="98"/>
+      <c r="AQ18" s="98"/>
+      <c r="AR18" s="99"/>
+      <c r="AS18" s="97"/>
+      <c r="AT18" s="98"/>
+      <c r="AU18" s="98"/>
+      <c r="AV18" s="98"/>
+      <c r="AW18" s="98"/>
+      <c r="AX18" s="98"/>
+      <c r="AY18" s="98"/>
+      <c r="AZ18" s="99"/>
+      <c r="BA18" s="115"/>
+      <c r="BB18" s="116"/>
+      <c r="BC18" s="116"/>
+      <c r="BD18" s="117"/>
+      <c r="BE18" s="98"/>
+      <c r="BF18" s="98"/>
+      <c r="BG18" s="98"/>
+      <c r="BH18" s="99"/>
+      <c r="BI18" s="97"/>
+      <c r="BJ18" s="98"/>
+      <c r="BK18" s="98"/>
+      <c r="BL18" s="98"/>
+      <c r="BM18" s="98"/>
+      <c r="BN18" s="98"/>
+      <c r="BO18" s="98"/>
+      <c r="BP18" s="99"/>
+      <c r="BQ18" s="115"/>
+      <c r="BR18" s="116"/>
+      <c r="BS18" s="116"/>
+      <c r="BT18" s="117"/>
+      <c r="BU18" s="98"/>
+      <c r="BV18" s="98"/>
+      <c r="BW18" s="98"/>
+      <c r="BX18" s="99"/>
+      <c r="BY18" s="97"/>
+      <c r="BZ18" s="98"/>
+      <c r="CA18" s="98"/>
+      <c r="CB18" s="98"/>
+      <c r="CC18" s="98"/>
+      <c r="CD18" s="98"/>
+      <c r="CE18" s="98"/>
+      <c r="CF18" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="E6:H16"/>
-    <mergeCell ref="AK6:AN16"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
+  <mergeCells count="33">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E6:H18"/>
+    <mergeCell ref="U6:AB18"/>
+    <mergeCell ref="AK6:AN18"/>
+    <mergeCell ref="BY4:CB4"/>
+    <mergeCell ref="CC4:CF4"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="BA6:BD18"/>
+    <mergeCell ref="BQ6:BT18"/>
     <mergeCell ref="E2:AR3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -3104,18 +3568,14 @@
     <mergeCell ref="AW4:AZ4"/>
     <mergeCell ref="BU4:BX4"/>
     <mergeCell ref="BQ4:BT4"/>
-    <mergeCell ref="BY4:CB4"/>
-    <mergeCell ref="CC4:CF4"/>
-    <mergeCell ref="U6:AB16"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="BA6:BD16"/>
-    <mergeCell ref="BQ6:BT16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="C6:C16">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="C6:C18">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",C6)))</formula>
     </cfRule>
@@ -3354,15 +3814,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -3371,6 +3822,15 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3393,14 +3853,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3411,4 +3863,12 @@
     <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="461" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52721E21-571B-45DF-B8FD-77634B959A5B}"/>
+  <xr:revisionPtr revIDLastSave="547" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45CADD4E-1170-4AB1-91B3-9E1027F356DA}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Planning!$B:$D,Planning!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$B$1:$CF$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$B$1:$CF$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Tâches</t>
   </si>
@@ -158,6 +158,12 @@
   <si>
     <t>documentation de projet</t>
   </si>
+  <si>
+    <t>Kick-off</t>
+  </si>
+  <si>
+    <t>Sprint review</t>
+  </si>
 </sst>
 </file>
 
@@ -166,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-100C]d\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -191,6 +197,12 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -313,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -679,8 +691,56 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -690,76 +750,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -773,6 +763,21 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -782,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -806,7 +811,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -814,100 +819,100 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -939,7 +944,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -951,7 +956,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyProtection="1">
@@ -1017,10 +1022,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1033,14 +1034,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1053,14 +1046,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1073,14 +1058,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1093,14 +1070,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1117,19 +1086,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1149,7 +1114,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1157,7 +1122,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1173,51 +1138,51 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1233,7 +1198,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1241,12 +1206,116 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1294,16 +1363,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>772319</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>795</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1318,8 +1387,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5077619" y="676275"/>
-          <a:ext cx="4314031" cy="2857500"/>
+          <a:off x="5087145" y="695325"/>
+          <a:ext cx="4304506" cy="3752849"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1372,6 +1441,234 @@
             <a:t> étirer sur la gauche pour montrer l'avancement du projet</a:t>
           </a:r>
           <a:endParaRPr lang="fr-CH" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Losange 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE365392-7CEE-D70B-BE3F-0FC1177EECBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9953625" y="2447925"/>
+          <a:ext cx="123825" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Losange 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC18E89-DE89-4759-BCEF-478FFE091A87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12239625" y="2914650"/>
+          <a:ext cx="142875" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Losange 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6E39F0-EA16-49C9-A7F1-1FD9ED492193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14535150" y="3381374"/>
+          <a:ext cx="123825" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Losange 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30457AFC-0C92-45A2-ADD6-A1183C0CAF1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16668750" y="3829050"/>
+          <a:ext cx="142875" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1732,13 +2029,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF18"/>
+  <dimension ref="A1:CF23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AK30" sqref="AK30"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2366,9 +2663,9 @@
       <c r="E6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="17"/>
@@ -2404,7 +2701,7 @@
       </c>
       <c r="AL6" s="42"/>
       <c r="AM6" s="42"/>
-      <c r="AN6" s="111"/>
+      <c r="AN6" s="101"/>
       <c r="AO6" s="51"/>
       <c r="AP6" s="51"/>
       <c r="AQ6" s="51"/>
@@ -2422,7 +2719,7 @@
       </c>
       <c r="BB6" s="42"/>
       <c r="BC6" s="42"/>
-      <c r="BD6" s="111"/>
+      <c r="BD6" s="101"/>
       <c r="BE6" s="51"/>
       <c r="BF6" s="51"/>
       <c r="BG6" s="51"/>
@@ -2440,9 +2737,9 @@
       </c>
       <c r="BR6" s="42"/>
       <c r="BS6" s="42"/>
-      <c r="BT6" s="111"/>
-      <c r="BU6" s="51"/>
-      <c r="BV6" s="51"/>
+      <c r="BT6" s="101"/>
+      <c r="BU6" s="117"/>
+      <c r="BV6" s="117"/>
       <c r="BW6" s="51"/>
       <c r="BX6" s="52"/>
       <c r="BY6" s="53"/>
@@ -2463,10 +2760,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="45"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
       <c r="I7" s="54"/>
       <c r="J7" s="54"/>
       <c r="K7" s="54"/>
@@ -2495,10 +2792,10 @@
       <c r="AH7" s="54"/>
       <c r="AI7" s="54"/>
       <c r="AJ7" s="55"/>
-      <c r="AK7" s="112"/>
-      <c r="AL7" s="113"/>
-      <c r="AM7" s="113"/>
-      <c r="AN7" s="114"/>
+      <c r="AK7" s="102"/>
+      <c r="AL7" s="103"/>
+      <c r="AM7" s="103"/>
+      <c r="AN7" s="104"/>
       <c r="AO7" s="54"/>
       <c r="AP7" s="54"/>
       <c r="AQ7" s="54"/>
@@ -2511,10 +2808,10 @@
       <c r="AX7" s="54"/>
       <c r="AY7" s="54"/>
       <c r="AZ7" s="55"/>
-      <c r="BA7" s="112"/>
-      <c r="BB7" s="113"/>
-      <c r="BC7" s="113"/>
-      <c r="BD7" s="114"/>
+      <c r="BA7" s="102"/>
+      <c r="BB7" s="103"/>
+      <c r="BC7" s="103"/>
+      <c r="BD7" s="104"/>
       <c r="BE7" s="54"/>
       <c r="BF7" s="54"/>
       <c r="BG7" s="54"/>
@@ -2527,10 +2824,10 @@
       <c r="BN7" s="54"/>
       <c r="BO7" s="54"/>
       <c r="BP7" s="55"/>
-      <c r="BQ7" s="112"/>
-      <c r="BR7" s="113"/>
-      <c r="BS7" s="113"/>
-      <c r="BT7" s="114"/>
+      <c r="BQ7" s="102"/>
+      <c r="BR7" s="103"/>
+      <c r="BS7" s="103"/>
+      <c r="BT7" s="104"/>
       <c r="BU7" s="54"/>
       <c r="BV7" s="54"/>
       <c r="BW7" s="54"/>
@@ -2553,10 +2850,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="45"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="104"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
       <c r="I8" s="54"/>
       <c r="J8" s="54"/>
       <c r="K8" s="54"/>
@@ -2585,10 +2882,10 @@
       <c r="AH8" s="54"/>
       <c r="AI8" s="54"/>
       <c r="AJ8" s="55"/>
-      <c r="AK8" s="112"/>
-      <c r="AL8" s="113"/>
-      <c r="AM8" s="113"/>
-      <c r="AN8" s="114"/>
+      <c r="AK8" s="102"/>
+      <c r="AL8" s="103"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="104"/>
       <c r="AO8" s="54"/>
       <c r="AP8" s="54"/>
       <c r="AQ8" s="54"/>
@@ -2601,10 +2898,10 @@
       <c r="AX8" s="54"/>
       <c r="AY8" s="54"/>
       <c r="AZ8" s="55"/>
-      <c r="BA8" s="112"/>
-      <c r="BB8" s="113"/>
-      <c r="BC8" s="113"/>
-      <c r="BD8" s="114"/>
+      <c r="BA8" s="102"/>
+      <c r="BB8" s="103"/>
+      <c r="BC8" s="103"/>
+      <c r="BD8" s="104"/>
       <c r="BE8" s="54"/>
       <c r="BF8" s="54"/>
       <c r="BG8" s="54"/>
@@ -2617,10 +2914,10 @@
       <c r="BN8" s="54"/>
       <c r="BO8" s="54"/>
       <c r="BP8" s="55"/>
-      <c r="BQ8" s="112"/>
-      <c r="BR8" s="113"/>
-      <c r="BS8" s="113"/>
-      <c r="BT8" s="114"/>
+      <c r="BQ8" s="102"/>
+      <c r="BR8" s="103"/>
+      <c r="BS8" s="103"/>
+      <c r="BT8" s="104"/>
       <c r="BU8" s="54"/>
       <c r="BV8" s="54"/>
       <c r="BW8" s="54"/>
@@ -2645,22 +2942,22 @@
         <v>23</v>
       </c>
       <c r="D9" s="45"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
-      <c r="T9" s="63"/>
+      <c r="T9" s="62"/>
       <c r="U9" s="39"/>
       <c r="V9" s="43"/>
       <c r="W9" s="43"/>
@@ -2669,62 +2966,62 @@
       <c r="Z9" s="43"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="40"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="112"/>
-      <c r="AL9" s="113"/>
-      <c r="AM9" s="113"/>
-      <c r="AN9" s="114"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="63"/>
-      <c r="AS9" s="64"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="62"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="63"/>
-      <c r="BA9" s="112"/>
-      <c r="BB9" s="113"/>
-      <c r="BC9" s="113"/>
-      <c r="BD9" s="114"/>
-      <c r="BE9" s="62"/>
-      <c r="BF9" s="62"/>
-      <c r="BG9" s="62"/>
-      <c r="BH9" s="63"/>
-      <c r="BI9" s="64"/>
-      <c r="BJ9" s="62"/>
-      <c r="BK9" s="62"/>
-      <c r="BL9" s="62"/>
-      <c r="BM9" s="62"/>
-      <c r="BN9" s="62"/>
-      <c r="BO9" s="62"/>
-      <c r="BP9" s="63"/>
-      <c r="BQ9" s="112"/>
-      <c r="BR9" s="113"/>
-      <c r="BS9" s="113"/>
-      <c r="BT9" s="114"/>
-      <c r="BU9" s="62"/>
-      <c r="BV9" s="62"/>
-      <c r="BW9" s="62"/>
-      <c r="BX9" s="63"/>
-      <c r="BY9" s="64"/>
-      <c r="BZ9" s="62"/>
-      <c r="CA9" s="62"/>
-      <c r="CB9" s="62"/>
-      <c r="CC9" s="62"/>
-      <c r="CD9" s="62"/>
-      <c r="CE9" s="62"/>
-      <c r="CF9" s="63"/>
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="102"/>
+      <c r="AL9" s="103"/>
+      <c r="AM9" s="103"/>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="61"/>
+      <c r="AR9" s="62"/>
+      <c r="AS9" s="63"/>
+      <c r="AT9" s="61"/>
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="61"/>
+      <c r="AW9" s="61"/>
+      <c r="AX9" s="61"/>
+      <c r="AY9" s="61"/>
+      <c r="AZ9" s="62"/>
+      <c r="BA9" s="102"/>
+      <c r="BB9" s="103"/>
+      <c r="BC9" s="103"/>
+      <c r="BD9" s="104"/>
+      <c r="BE9" s="61"/>
+      <c r="BF9" s="61"/>
+      <c r="BG9" s="61"/>
+      <c r="BH9" s="62"/>
+      <c r="BI9" s="63"/>
+      <c r="BJ9" s="61"/>
+      <c r="BK9" s="61"/>
+      <c r="BL9" s="61"/>
+      <c r="BM9" s="61"/>
+      <c r="BN9" s="61"/>
+      <c r="BO9" s="61"/>
+      <c r="BP9" s="62"/>
+      <c r="BQ9" s="102"/>
+      <c r="BR9" s="103"/>
+      <c r="BS9" s="103"/>
+      <c r="BT9" s="104"/>
+      <c r="BU9" s="61"/>
+      <c r="BV9" s="61"/>
+      <c r="BW9" s="61"/>
+      <c r="BX9" s="62"/>
+      <c r="BY9" s="63"/>
+      <c r="BZ9" s="61"/>
+      <c r="CA9" s="61"/>
+      <c r="CB9" s="61"/>
+      <c r="CC9" s="61"/>
+      <c r="CD9" s="61"/>
+      <c r="CE9" s="61"/>
+      <c r="CF9" s="62"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" s="58"/>
@@ -2735,22 +3032,22 @@
         <v>23</v>
       </c>
       <c r="D10" s="45"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
-      <c r="T10" s="63"/>
+      <c r="T10" s="62"/>
       <c r="U10" s="39"/>
       <c r="V10" s="43"/>
       <c r="W10" s="43"/>
@@ -2759,87 +3056,87 @@
       <c r="Z10" s="43"/>
       <c r="AA10" s="43"/>
       <c r="AB10" s="40"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="63"/>
-      <c r="AK10" s="112"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="114"/>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="62"/>
-      <c r="AR10" s="63"/>
-      <c r="AS10" s="64"/>
-      <c r="AT10" s="62"/>
-      <c r="AU10" s="62"/>
-      <c r="AV10" s="62"/>
-      <c r="AW10" s="62"/>
-      <c r="AX10" s="62"/>
-      <c r="AY10" s="62"/>
-      <c r="AZ10" s="63"/>
-      <c r="BA10" s="112"/>
-      <c r="BB10" s="113"/>
-      <c r="BC10" s="113"/>
-      <c r="BD10" s="114"/>
-      <c r="BE10" s="62"/>
-      <c r="BF10" s="62"/>
-      <c r="BG10" s="62"/>
-      <c r="BH10" s="63"/>
-      <c r="BI10" s="64"/>
-      <c r="BJ10" s="62"/>
-      <c r="BK10" s="62"/>
-      <c r="BL10" s="62"/>
-      <c r="BM10" s="62"/>
-      <c r="BN10" s="62"/>
-      <c r="BO10" s="62"/>
-      <c r="BP10" s="63"/>
-      <c r="BQ10" s="112"/>
-      <c r="BR10" s="113"/>
-      <c r="BS10" s="113"/>
-      <c r="BT10" s="114"/>
-      <c r="BU10" s="62"/>
-      <c r="BV10" s="62"/>
-      <c r="BW10" s="62"/>
-      <c r="BX10" s="63"/>
-      <c r="BY10" s="64"/>
-      <c r="BZ10" s="62"/>
-      <c r="CA10" s="62"/>
-      <c r="CB10" s="62"/>
-      <c r="CC10" s="62"/>
-      <c r="CD10" s="62"/>
-      <c r="CE10" s="62"/>
-      <c r="CF10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="102"/>
+      <c r="AL10" s="103"/>
+      <c r="AM10" s="103"/>
+      <c r="AN10" s="104"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="62"/>
+      <c r="AS10" s="63"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="61"/>
+      <c r="AX10" s="61"/>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="62"/>
+      <c r="BA10" s="102"/>
+      <c r="BB10" s="103"/>
+      <c r="BC10" s="103"/>
+      <c r="BD10" s="104"/>
+      <c r="BE10" s="61"/>
+      <c r="BF10" s="61"/>
+      <c r="BG10" s="61"/>
+      <c r="BH10" s="62"/>
+      <c r="BI10" s="63"/>
+      <c r="BJ10" s="61"/>
+      <c r="BK10" s="61"/>
+      <c r="BL10" s="61"/>
+      <c r="BM10" s="61"/>
+      <c r="BN10" s="61"/>
+      <c r="BO10" s="61"/>
+      <c r="BP10" s="62"/>
+      <c r="BQ10" s="102"/>
+      <c r="BR10" s="103"/>
+      <c r="BS10" s="103"/>
+      <c r="BT10" s="104"/>
+      <c r="BU10" s="61"/>
+      <c r="BV10" s="61"/>
+      <c r="BW10" s="61"/>
+      <c r="BX10" s="62"/>
+      <c r="BY10" s="63"/>
+      <c r="BZ10" s="61"/>
+      <c r="CA10" s="61"/>
+      <c r="CB10" s="61"/>
+      <c r="CC10" s="61"/>
+      <c r="CD10" s="61"/>
+      <c r="CE10" s="61"/>
+      <c r="CF10" s="62"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11" s="59"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="45"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
       <c r="T11" s="21"/>
       <c r="U11" s="39"/>
       <c r="V11" s="43"/>
@@ -2850,89 +3147,89 @@
       <c r="AA11" s="43"/>
       <c r="AB11" s="40"/>
       <c r="AC11" s="22"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="62"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="63"/>
-      <c r="AK11" s="112"/>
-      <c r="AL11" s="113"/>
-      <c r="AM11" s="113"/>
-      <c r="AN11" s="114"/>
-      <c r="AO11" s="62"/>
-      <c r="AP11" s="62"/>
-      <c r="AQ11" s="62"/>
-      <c r="AR11" s="63"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="62"/>
-      <c r="AU11" s="62"/>
-      <c r="AV11" s="62"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="62"/>
-      <c r="AY11" s="62"/>
-      <c r="AZ11" s="63"/>
-      <c r="BA11" s="112"/>
-      <c r="BB11" s="113"/>
-      <c r="BC11" s="113"/>
-      <c r="BD11" s="114"/>
-      <c r="BE11" s="62"/>
-      <c r="BF11" s="62"/>
-      <c r="BG11" s="62"/>
-      <c r="BH11" s="63"/>
-      <c r="BI11" s="64"/>
-      <c r="BJ11" s="62"/>
-      <c r="BK11" s="62"/>
-      <c r="BL11" s="62"/>
-      <c r="BM11" s="62"/>
-      <c r="BN11" s="62"/>
-      <c r="BO11" s="62"/>
-      <c r="BP11" s="63"/>
-      <c r="BQ11" s="112"/>
-      <c r="BR11" s="113"/>
-      <c r="BS11" s="113"/>
-      <c r="BT11" s="114"/>
-      <c r="BU11" s="62"/>
-      <c r="BV11" s="62"/>
-      <c r="BW11" s="62"/>
-      <c r="BX11" s="63"/>
-      <c r="BY11" s="64"/>
-      <c r="BZ11" s="62"/>
-      <c r="CA11" s="62"/>
-      <c r="CB11" s="62"/>
-      <c r="CC11" s="62"/>
-      <c r="CD11" s="62"/>
-      <c r="CE11" s="62"/>
-      <c r="CF11" s="63"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="61"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="62"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="103"/>
+      <c r="AM11" s="103"/>
+      <c r="AN11" s="104"/>
+      <c r="AO11" s="61"/>
+      <c r="AP11" s="61"/>
+      <c r="AQ11" s="61"/>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="63"/>
+      <c r="AT11" s="61"/>
+      <c r="AU11" s="61"/>
+      <c r="AV11" s="61"/>
+      <c r="AW11" s="61"/>
+      <c r="AX11" s="61"/>
+      <c r="AY11" s="61"/>
+      <c r="AZ11" s="62"/>
+      <c r="BA11" s="102"/>
+      <c r="BB11" s="103"/>
+      <c r="BC11" s="103"/>
+      <c r="BD11" s="104"/>
+      <c r="BE11" s="61"/>
+      <c r="BF11" s="61"/>
+      <c r="BG11" s="61"/>
+      <c r="BH11" s="62"/>
+      <c r="BI11" s="63"/>
+      <c r="BJ11" s="61"/>
+      <c r="BK11" s="61"/>
+      <c r="BL11" s="61"/>
+      <c r="BM11" s="61"/>
+      <c r="BN11" s="61"/>
+      <c r="BO11" s="61"/>
+      <c r="BP11" s="62"/>
+      <c r="BQ11" s="102"/>
+      <c r="BR11" s="103"/>
+      <c r="BS11" s="103"/>
+      <c r="BT11" s="104"/>
+      <c r="BU11" s="61"/>
+      <c r="BV11" s="61"/>
+      <c r="BW11" s="61"/>
+      <c r="BX11" s="62"/>
+      <c r="BY11" s="63"/>
+      <c r="BZ11" s="61"/>
+      <c r="CA11" s="61"/>
+      <c r="CB11" s="61"/>
+      <c r="CC11" s="61"/>
+      <c r="CD11" s="61"/>
+      <c r="CE11" s="61"/>
+      <c r="CF11" s="62"/>
     </row>
-    <row r="12" spans="1:84" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
+    <row r="12" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="68"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="65"/>
       <c r="U12" s="39"/>
       <c r="V12" s="43"/>
       <c r="W12" s="43"/>
@@ -2941,88 +3238,88 @@
       <c r="Z12" s="43"/>
       <c r="AA12" s="43"/>
       <c r="AB12" s="40"/>
-      <c r="AC12" s="69"/>
+      <c r="AC12" s="66"/>
       <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
+      <c r="AE12" s="64"/>
       <c r="AF12" s="20"/>
       <c r="AG12" s="20"/>
       <c r="AH12" s="20"/>
       <c r="AI12" s="20"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="112"/>
-      <c r="AL12" s="113"/>
-      <c r="AM12" s="113"/>
-      <c r="AN12" s="114"/>
-      <c r="AO12" s="67"/>
-      <c r="AP12" s="67"/>
-      <c r="AQ12" s="67"/>
-      <c r="AR12" s="68"/>
-      <c r="AS12" s="69"/>
-      <c r="AT12" s="67"/>
-      <c r="AU12" s="67"/>
-      <c r="AV12" s="67"/>
-      <c r="AW12" s="67"/>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="67"/>
-      <c r="AZ12" s="68"/>
-      <c r="BA12" s="112"/>
-      <c r="BB12" s="113"/>
-      <c r="BC12" s="113"/>
-      <c r="BD12" s="114"/>
-      <c r="BE12" s="67"/>
-      <c r="BF12" s="67"/>
-      <c r="BG12" s="67"/>
-      <c r="BH12" s="68"/>
-      <c r="BI12" s="69"/>
-      <c r="BJ12" s="67"/>
-      <c r="BK12" s="67"/>
-      <c r="BL12" s="67"/>
-      <c r="BM12" s="67"/>
-      <c r="BN12" s="67"/>
-      <c r="BO12" s="67"/>
-      <c r="BP12" s="68"/>
-      <c r="BQ12" s="112"/>
-      <c r="BR12" s="113"/>
-      <c r="BS12" s="113"/>
-      <c r="BT12" s="114"/>
-      <c r="BU12" s="67"/>
-      <c r="BV12" s="67"/>
-      <c r="BW12" s="67"/>
-      <c r="BX12" s="68"/>
-      <c r="BY12" s="69"/>
-      <c r="BZ12" s="67"/>
-      <c r="CA12" s="67"/>
-      <c r="CB12" s="67"/>
-      <c r="CC12" s="67"/>
-      <c r="CD12" s="67"/>
-      <c r="CE12" s="67"/>
-      <c r="CF12" s="68"/>
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="102"/>
+      <c r="AL12" s="103"/>
+      <c r="AM12" s="103"/>
+      <c r="AN12" s="104"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="64"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="64"/>
+      <c r="AW12" s="64"/>
+      <c r="AX12" s="64"/>
+      <c r="AY12" s="64"/>
+      <c r="AZ12" s="65"/>
+      <c r="BA12" s="102"/>
+      <c r="BB12" s="103"/>
+      <c r="BC12" s="103"/>
+      <c r="BD12" s="104"/>
+      <c r="BE12" s="64"/>
+      <c r="BF12" s="64"/>
+      <c r="BG12" s="64"/>
+      <c r="BH12" s="65"/>
+      <c r="BI12" s="66"/>
+      <c r="BJ12" s="64"/>
+      <c r="BK12" s="64"/>
+      <c r="BL12" s="64"/>
+      <c r="BM12" s="64"/>
+      <c r="BN12" s="64"/>
+      <c r="BO12" s="64"/>
+      <c r="BP12" s="65"/>
+      <c r="BQ12" s="102"/>
+      <c r="BR12" s="103"/>
+      <c r="BS12" s="103"/>
+      <c r="BT12" s="104"/>
+      <c r="BU12" s="64"/>
+      <c r="BV12" s="64"/>
+      <c r="BW12" s="64"/>
+      <c r="BX12" s="65"/>
+      <c r="BY12" s="66"/>
+      <c r="BZ12" s="64"/>
+      <c r="CA12" s="64"/>
+      <c r="CB12" s="64"/>
+      <c r="CC12" s="64"/>
+      <c r="CD12" s="64"/>
+      <c r="CE12" s="64"/>
+      <c r="CF12" s="65"/>
     </row>
-    <row r="13" spans="1:84" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7"/>
+    <row r="13" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="126"/>
+      <c r="B13" s="125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="45"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="73"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="65"/>
       <c r="U13" s="39"/>
       <c r="V13" s="43"/>
       <c r="W13" s="43"/>
@@ -3031,88 +3328,86 @@
       <c r="Z13" s="43"/>
       <c r="AA13" s="43"/>
       <c r="AB13" s="40"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="73"/>
-      <c r="AK13" s="112"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="113"/>
-      <c r="AN13" s="114"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="20"/>
-      <c r="AR13" s="21"/>
-      <c r="AS13" s="22"/>
-      <c r="AT13" s="20"/>
-      <c r="AU13" s="20"/>
-      <c r="AV13" s="20"/>
-      <c r="AW13" s="20"/>
-      <c r="AX13" s="20"/>
-      <c r="AY13" s="20"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="112"/>
-      <c r="BB13" s="113"/>
-      <c r="BC13" s="113"/>
-      <c r="BD13" s="114"/>
-      <c r="BE13" s="72"/>
-      <c r="BF13" s="72"/>
-      <c r="BG13" s="72"/>
-      <c r="BH13" s="73"/>
-      <c r="BI13" s="74"/>
-      <c r="BJ13" s="72"/>
-      <c r="BK13" s="72"/>
-      <c r="BL13" s="72"/>
-      <c r="BM13" s="72"/>
-      <c r="BN13" s="72"/>
-      <c r="BO13" s="72"/>
-      <c r="BP13" s="73"/>
-      <c r="BQ13" s="112"/>
-      <c r="BR13" s="113"/>
-      <c r="BS13" s="113"/>
-      <c r="BT13" s="114"/>
-      <c r="BU13" s="72"/>
-      <c r="BV13" s="72"/>
-      <c r="BW13" s="72"/>
-      <c r="BX13" s="73"/>
-      <c r="BY13" s="74"/>
-      <c r="BZ13" s="72"/>
-      <c r="CA13" s="72"/>
-      <c r="CB13" s="72"/>
-      <c r="CC13" s="72"/>
-      <c r="CD13" s="72"/>
-      <c r="CE13" s="72"/>
-      <c r="CF13" s="73"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="115"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="103"/>
+      <c r="AM13" s="103"/>
+      <c r="AN13" s="104"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="64"/>
+      <c r="AZ13" s="65"/>
+      <c r="BA13" s="102"/>
+      <c r="BB13" s="103"/>
+      <c r="BC13" s="103"/>
+      <c r="BD13" s="104"/>
+      <c r="BE13" s="64"/>
+      <c r="BF13" s="64"/>
+      <c r="BG13" s="64"/>
+      <c r="BH13" s="65"/>
+      <c r="BI13" s="66"/>
+      <c r="BJ13" s="64"/>
+      <c r="BK13" s="64"/>
+      <c r="BL13" s="64"/>
+      <c r="BM13" s="64"/>
+      <c r="BN13" s="64"/>
+      <c r="BO13" s="64"/>
+      <c r="BP13" s="65"/>
+      <c r="BQ13" s="102"/>
+      <c r="BR13" s="103"/>
+      <c r="BS13" s="103"/>
+      <c r="BT13" s="104"/>
+      <c r="BU13" s="64"/>
+      <c r="BV13" s="64"/>
+      <c r="BW13" s="64"/>
+      <c r="BX13" s="65"/>
+      <c r="BY13" s="66"/>
+      <c r="BZ13" s="64"/>
+      <c r="CA13" s="64"/>
+      <c r="CB13" s="64"/>
+      <c r="CC13" s="64"/>
+      <c r="CD13" s="64"/>
+      <c r="CE13" s="64"/>
+      <c r="CF13" s="65"/>
     </row>
-    <row r="14" spans="1:84" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="7"/>
+    <row r="14" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="114"/>
+      <c r="B14" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="45"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="78"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="65"/>
       <c r="U14" s="39"/>
       <c r="V14" s="43"/>
       <c r="W14" s="43"/>
@@ -3121,88 +3416,88 @@
       <c r="Z14" s="43"/>
       <c r="AA14" s="43"/>
       <c r="AB14" s="40"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="77"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="78"/>
-      <c r="AK14" s="112"/>
-      <c r="AL14" s="113"/>
-      <c r="AM14" s="113"/>
-      <c r="AN14" s="114"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="77"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="78"/>
-      <c r="AS14" s="79"/>
-      <c r="AT14" s="77"/>
-      <c r="AU14" s="77"/>
-      <c r="AV14" s="77"/>
-      <c r="AW14" s="77"/>
-      <c r="AX14" s="77"/>
-      <c r="AY14" s="77"/>
-      <c r="AZ14" s="78"/>
-      <c r="BA14" s="112"/>
-      <c r="BB14" s="113"/>
-      <c r="BC14" s="113"/>
-      <c r="BD14" s="114"/>
-      <c r="BE14" s="20"/>
-      <c r="BF14" s="20"/>
-      <c r="BG14" s="20"/>
-      <c r="BH14" s="21"/>
-      <c r="BI14" s="22"/>
-      <c r="BJ14" s="20"/>
-      <c r="BK14" s="20"/>
-      <c r="BL14" s="20"/>
-      <c r="BM14" s="20"/>
-      <c r="BN14" s="20"/>
-      <c r="BO14" s="20"/>
-      <c r="BP14" s="21"/>
-      <c r="BQ14" s="112"/>
-      <c r="BR14" s="113"/>
-      <c r="BS14" s="113"/>
-      <c r="BT14" s="114"/>
-      <c r="BU14" s="77"/>
-      <c r="BV14" s="77"/>
-      <c r="BW14" s="77"/>
-      <c r="BX14" s="78"/>
-      <c r="BY14" s="79"/>
-      <c r="BZ14" s="77"/>
-      <c r="CA14" s="77"/>
-      <c r="CB14" s="77"/>
-      <c r="CC14" s="77"/>
-      <c r="CD14" s="77"/>
-      <c r="CE14" s="77"/>
-      <c r="CF14" s="78"/>
+      <c r="AC14" s="66"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="116"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="103"/>
+      <c r="AM14" s="103"/>
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="65"/>
+      <c r="AS14" s="66"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="64"/>
+      <c r="AZ14" s="65"/>
+      <c r="BA14" s="102"/>
+      <c r="BB14" s="103"/>
+      <c r="BC14" s="103"/>
+      <c r="BD14" s="104"/>
+      <c r="BE14" s="64"/>
+      <c r="BF14" s="64"/>
+      <c r="BG14" s="64"/>
+      <c r="BH14" s="65"/>
+      <c r="BI14" s="66"/>
+      <c r="BJ14" s="64"/>
+      <c r="BK14" s="64"/>
+      <c r="BL14" s="64"/>
+      <c r="BM14" s="64"/>
+      <c r="BN14" s="64"/>
+      <c r="BO14" s="64"/>
+      <c r="BP14" s="65"/>
+      <c r="BQ14" s="102"/>
+      <c r="BR14" s="103"/>
+      <c r="BS14" s="103"/>
+      <c r="BT14" s="104"/>
+      <c r="BU14" s="64"/>
+      <c r="BV14" s="64"/>
+      <c r="BW14" s="64"/>
+      <c r="BX14" s="65"/>
+      <c r="BY14" s="66"/>
+      <c r="BZ14" s="64"/>
+      <c r="CA14" s="64"/>
+      <c r="CB14" s="64"/>
+      <c r="CC14" s="64"/>
+      <c r="CD14" s="64"/>
+      <c r="CE14" s="64"/>
+      <c r="CF14" s="65"/>
     </row>
-    <row r="15" spans="1:84" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="7"/>
+    <row r="15" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="15"/>
       <c r="D15" s="45"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="83"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="68"/>
       <c r="U15" s="39"/>
       <c r="V15" s="43"/>
       <c r="W15" s="43"/>
@@ -3211,88 +3506,86 @@
       <c r="Z15" s="43"/>
       <c r="AA15" s="43"/>
       <c r="AB15" s="40"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="82"/>
-      <c r="AJ15" s="83"/>
-      <c r="AK15" s="112"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="113"/>
-      <c r="AN15" s="114"/>
-      <c r="AO15" s="82"/>
-      <c r="AP15" s="82"/>
-      <c r="AQ15" s="82"/>
-      <c r="AR15" s="83"/>
-      <c r="AS15" s="84"/>
-      <c r="AT15" s="82"/>
-      <c r="AU15" s="82"/>
-      <c r="AV15" s="82"/>
-      <c r="AW15" s="82"/>
-      <c r="AX15" s="82"/>
-      <c r="AY15" s="82"/>
-      <c r="AZ15" s="83"/>
-      <c r="BA15" s="112"/>
-      <c r="BB15" s="113"/>
-      <c r="BC15" s="113"/>
-      <c r="BD15" s="114"/>
-      <c r="BE15" s="82"/>
-      <c r="BF15" s="82"/>
-      <c r="BG15" s="82"/>
-      <c r="BH15" s="83"/>
-      <c r="BI15" s="84"/>
-      <c r="BJ15" s="82"/>
-      <c r="BK15" s="82"/>
-      <c r="BL15" s="82"/>
-      <c r="BM15" s="82"/>
-      <c r="BN15" s="82"/>
-      <c r="BO15" s="82"/>
-      <c r="BP15" s="83"/>
-      <c r="BQ15" s="112"/>
-      <c r="BR15" s="113"/>
-      <c r="BS15" s="113"/>
-      <c r="BT15" s="114"/>
-      <c r="BU15" s="20"/>
-      <c r="BV15" s="20"/>
-      <c r="BW15" s="20"/>
-      <c r="BX15" s="21"/>
-      <c r="BY15" s="22"/>
-      <c r="BZ15" s="20"/>
-      <c r="CA15" s="20"/>
-      <c r="CB15" s="20"/>
-      <c r="CC15" s="20"/>
-      <c r="CD15" s="20"/>
-      <c r="CE15" s="20"/>
-      <c r="CF15" s="83"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="67"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="102"/>
+      <c r="AL15" s="103"/>
+      <c r="AM15" s="103"/>
+      <c r="AN15" s="104"/>
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="22"/>
+      <c r="AT15" s="20"/>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="20"/>
+      <c r="AW15" s="20"/>
+      <c r="AX15" s="20"/>
+      <c r="AY15" s="20"/>
+      <c r="AZ15" s="68"/>
+      <c r="BA15" s="102"/>
+      <c r="BB15" s="103"/>
+      <c r="BC15" s="103"/>
+      <c r="BD15" s="104"/>
+      <c r="BE15" s="67"/>
+      <c r="BF15" s="67"/>
+      <c r="BG15" s="67"/>
+      <c r="BH15" s="68"/>
+      <c r="BI15" s="69"/>
+      <c r="BJ15" s="67"/>
+      <c r="BK15" s="67"/>
+      <c r="BL15" s="67"/>
+      <c r="BM15" s="67"/>
+      <c r="BN15" s="67"/>
+      <c r="BO15" s="67"/>
+      <c r="BP15" s="68"/>
+      <c r="BQ15" s="102"/>
+      <c r="BR15" s="103"/>
+      <c r="BS15" s="103"/>
+      <c r="BT15" s="104"/>
+      <c r="BU15" s="67"/>
+      <c r="BV15" s="67"/>
+      <c r="BW15" s="67"/>
+      <c r="BX15" s="68"/>
+      <c r="BY15" s="69"/>
+      <c r="BZ15" s="67"/>
+      <c r="CA15" s="67"/>
+      <c r="CB15" s="67"/>
+      <c r="CC15" s="67"/>
+      <c r="CD15" s="67"/>
+      <c r="CE15" s="67"/>
+      <c r="CF15" s="68"/>
     </row>
-    <row r="16" spans="1:84" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="7"/>
+    <row r="16" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="121"/>
+      <c r="B16" s="133" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="15"/>
       <c r="D16" s="45"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="88"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="68"/>
       <c r="U16" s="39"/>
       <c r="V16" s="43"/>
       <c r="W16" s="43"/>
@@ -3301,89 +3594,88 @@
       <c r="Z16" s="43"/>
       <c r="AA16" s="43"/>
       <c r="AB16" s="40"/>
-      <c r="AC16" s="89"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="88"/>
-      <c r="AK16" s="112"/>
-      <c r="AL16" s="113"/>
-      <c r="AM16" s="113"/>
-      <c r="AN16" s="114"/>
-      <c r="AO16" s="87"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="87"/>
-      <c r="AR16" s="88"/>
-      <c r="AS16" s="89"/>
-      <c r="AT16" s="87"/>
-      <c r="AU16" s="87"/>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="87"/>
-      <c r="AX16" s="87"/>
-      <c r="AY16" s="87"/>
-      <c r="AZ16" s="88"/>
-      <c r="BA16" s="112"/>
-      <c r="BB16" s="113"/>
-      <c r="BC16" s="113"/>
-      <c r="BD16" s="114"/>
-      <c r="BE16" s="87"/>
-      <c r="BF16" s="87"/>
-      <c r="BG16" s="87"/>
-      <c r="BH16" s="88"/>
-      <c r="BI16" s="89"/>
-      <c r="BJ16" s="87"/>
-      <c r="BK16" s="87"/>
-      <c r="BL16" s="87"/>
-      <c r="BM16" s="87"/>
-      <c r="BN16" s="87"/>
-      <c r="BO16" s="87"/>
-      <c r="BP16" s="88"/>
-      <c r="BQ16" s="112"/>
-      <c r="BR16" s="113"/>
-      <c r="BS16" s="113"/>
-      <c r="BT16" s="114"/>
-      <c r="BU16" s="87"/>
-      <c r="BV16" s="87"/>
-      <c r="BW16" s="87"/>
-      <c r="BX16" s="88"/>
-      <c r="BY16" s="89"/>
-      <c r="BZ16" s="87"/>
-      <c r="CA16" s="87"/>
-      <c r="CB16" s="87"/>
-      <c r="CC16" s="87"/>
-      <c r="CD16" s="87"/>
-      <c r="CE16" s="87"/>
-      <c r="CF16" s="41"/>
+      <c r="AC16" s="69"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="67"/>
+      <c r="AJ16" s="68"/>
+      <c r="AK16" s="102"/>
+      <c r="AL16" s="103"/>
+      <c r="AM16" s="103"/>
+      <c r="AN16" s="104"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="67"/>
+      <c r="AQ16" s="67"/>
+      <c r="AR16" s="68"/>
+      <c r="AS16" s="69"/>
+      <c r="AT16" s="67"/>
+      <c r="AU16" s="67"/>
+      <c r="AV16" s="67"/>
+      <c r="AW16" s="67"/>
+      <c r="AX16" s="67"/>
+      <c r="AY16" s="67"/>
+      <c r="AZ16" s="116"/>
+      <c r="BA16" s="102"/>
+      <c r="BB16" s="103"/>
+      <c r="BC16" s="103"/>
+      <c r="BD16" s="104"/>
+      <c r="BE16" s="67"/>
+      <c r="BF16" s="67"/>
+      <c r="BG16" s="67"/>
+      <c r="BH16" s="68"/>
+      <c r="BI16" s="69"/>
+      <c r="BJ16" s="67"/>
+      <c r="BK16" s="67"/>
+      <c r="BL16" s="67"/>
+      <c r="BM16" s="67"/>
+      <c r="BN16" s="67"/>
+      <c r="BO16" s="67"/>
+      <c r="BP16" s="68"/>
+      <c r="BQ16" s="102"/>
+      <c r="BR16" s="103"/>
+      <c r="BS16" s="103"/>
+      <c r="BT16" s="104"/>
+      <c r="BU16" s="67"/>
+      <c r="BV16" s="67"/>
+      <c r="BW16" s="67"/>
+      <c r="BX16" s="68"/>
+      <c r="BY16" s="69"/>
+      <c r="BZ16" s="67"/>
+      <c r="CA16" s="67"/>
+      <c r="CB16" s="67"/>
+      <c r="CC16" s="67"/>
+      <c r="CD16" s="67"/>
+      <c r="CE16" s="67"/>
+      <c r="CF16" s="68"/>
     </row>
-    <row r="17" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="96"/>
+    <row r="17" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="71"/>
       <c r="U17" s="39"/>
       <c r="V17" s="43"/>
       <c r="W17" s="43"/>
@@ -3392,166 +3684,617 @@
       <c r="Z17" s="43"/>
       <c r="AA17" s="43"/>
       <c r="AB17" s="40"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="95"/>
-      <c r="AJ17" s="96"/>
-      <c r="AK17" s="112"/>
-      <c r="AL17" s="113"/>
-      <c r="AM17" s="113"/>
-      <c r="AN17" s="114"/>
-      <c r="AO17" s="95"/>
-      <c r="AP17" s="95"/>
-      <c r="AQ17" s="95"/>
-      <c r="AR17" s="96"/>
-      <c r="AS17" s="94"/>
-      <c r="AT17" s="95"/>
-      <c r="AU17" s="95"/>
-      <c r="AV17" s="95"/>
-      <c r="AW17" s="95"/>
-      <c r="AX17" s="95"/>
-      <c r="AY17" s="95"/>
-      <c r="AZ17" s="96"/>
-      <c r="BA17" s="112"/>
-      <c r="BB17" s="113"/>
-      <c r="BC17" s="113"/>
-      <c r="BD17" s="114"/>
-      <c r="BE17" s="95"/>
-      <c r="BF17" s="95"/>
-      <c r="BG17" s="95"/>
-      <c r="BH17" s="96"/>
-      <c r="BI17" s="94"/>
-      <c r="BJ17" s="95"/>
-      <c r="BK17" s="95"/>
-      <c r="BL17" s="95"/>
-      <c r="BM17" s="95"/>
-      <c r="BN17" s="95"/>
-      <c r="BO17" s="95"/>
-      <c r="BP17" s="96"/>
-      <c r="BQ17" s="112"/>
-      <c r="BR17" s="113"/>
-      <c r="BS17" s="113"/>
-      <c r="BT17" s="114"/>
-      <c r="BU17" s="95"/>
-      <c r="BV17" s="95"/>
-      <c r="BW17" s="95"/>
-      <c r="BX17" s="96"/>
-      <c r="BY17" s="94"/>
-      <c r="BZ17" s="95"/>
-      <c r="CA17" s="95"/>
-      <c r="CB17" s="95"/>
-      <c r="CC17" s="95"/>
-      <c r="CD17" s="95"/>
-      <c r="CE17" s="95"/>
-      <c r="CF17" s="96"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="102"/>
+      <c r="AL17" s="103"/>
+      <c r="AM17" s="103"/>
+      <c r="AN17" s="104"/>
+      <c r="AO17" s="70"/>
+      <c r="AP17" s="70"/>
+      <c r="AQ17" s="70"/>
+      <c r="AR17" s="71"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="70"/>
+      <c r="AU17" s="70"/>
+      <c r="AV17" s="70"/>
+      <c r="AW17" s="70"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="70"/>
+      <c r="AZ17" s="71"/>
+      <c r="BA17" s="102"/>
+      <c r="BB17" s="103"/>
+      <c r="BC17" s="103"/>
+      <c r="BD17" s="104"/>
+      <c r="BE17" s="20"/>
+      <c r="BF17" s="20"/>
+      <c r="BG17" s="20"/>
+      <c r="BH17" s="21"/>
+      <c r="BI17" s="22"/>
+      <c r="BJ17" s="20"/>
+      <c r="BK17" s="20"/>
+      <c r="BL17" s="20"/>
+      <c r="BM17" s="20"/>
+      <c r="BN17" s="20"/>
+      <c r="BO17" s="20"/>
+      <c r="BP17" s="71"/>
+      <c r="BQ17" s="102"/>
+      <c r="BR17" s="103"/>
+      <c r="BS17" s="103"/>
+      <c r="BT17" s="104"/>
+      <c r="BU17" s="70"/>
+      <c r="BV17" s="70"/>
+      <c r="BW17" s="70"/>
+      <c r="BX17" s="71"/>
+      <c r="BY17" s="72"/>
+      <c r="BZ17" s="70"/>
+      <c r="CA17" s="70"/>
+      <c r="CB17" s="70"/>
+      <c r="CC17" s="70"/>
+      <c r="CD17" s="70"/>
+      <c r="CE17" s="70"/>
+      <c r="CF17" s="71"/>
     </row>
-    <row r="18" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
-      <c r="B18" s="92" t="s">
+    <row r="18" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="119"/>
+      <c r="B18" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="70"/>
+      <c r="AG18" s="70"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="102"/>
+      <c r="AL18" s="103"/>
+      <c r="AM18" s="103"/>
+      <c r="AN18" s="104"/>
+      <c r="AO18" s="70"/>
+      <c r="AP18" s="70"/>
+      <c r="AQ18" s="70"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="70"/>
+      <c r="AU18" s="70"/>
+      <c r="AV18" s="70"/>
+      <c r="AW18" s="70"/>
+      <c r="AX18" s="70"/>
+      <c r="AY18" s="70"/>
+      <c r="AZ18" s="71"/>
+      <c r="BA18" s="102"/>
+      <c r="BB18" s="103"/>
+      <c r="BC18" s="103"/>
+      <c r="BD18" s="104"/>
+      <c r="BE18" s="70"/>
+      <c r="BF18" s="70"/>
+      <c r="BG18" s="70"/>
+      <c r="BH18" s="71"/>
+      <c r="BI18" s="72"/>
+      <c r="BJ18" s="70"/>
+      <c r="BK18" s="70"/>
+      <c r="BL18" s="70"/>
+      <c r="BM18" s="70"/>
+      <c r="BN18" s="70"/>
+      <c r="BO18" s="70"/>
+      <c r="BP18" s="21"/>
+      <c r="BQ18" s="102"/>
+      <c r="BR18" s="103"/>
+      <c r="BS18" s="103"/>
+      <c r="BT18" s="104"/>
+      <c r="BU18" s="70"/>
+      <c r="BV18" s="70"/>
+      <c r="BW18" s="70"/>
+      <c r="BX18" s="71"/>
+      <c r="BY18" s="72"/>
+      <c r="BZ18" s="70"/>
+      <c r="CA18" s="70"/>
+      <c r="CB18" s="70"/>
+      <c r="CC18" s="70"/>
+      <c r="CD18" s="70"/>
+      <c r="CE18" s="70"/>
+      <c r="CF18" s="71"/>
+    </row>
+    <row r="19" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="73"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="102"/>
+      <c r="AL19" s="103"/>
+      <c r="AM19" s="103"/>
+      <c r="AN19" s="104"/>
+      <c r="AO19" s="73"/>
+      <c r="AP19" s="73"/>
+      <c r="AQ19" s="73"/>
+      <c r="AR19" s="74"/>
+      <c r="AS19" s="75"/>
+      <c r="AT19" s="73"/>
+      <c r="AU19" s="73"/>
+      <c r="AV19" s="73"/>
+      <c r="AW19" s="73"/>
+      <c r="AX19" s="73"/>
+      <c r="AY19" s="73"/>
+      <c r="AZ19" s="74"/>
+      <c r="BA19" s="102"/>
+      <c r="BB19" s="103"/>
+      <c r="BC19" s="103"/>
+      <c r="BD19" s="104"/>
+      <c r="BE19" s="73"/>
+      <c r="BF19" s="73"/>
+      <c r="BG19" s="73"/>
+      <c r="BH19" s="74"/>
+      <c r="BI19" s="75"/>
+      <c r="BJ19" s="73"/>
+      <c r="BK19" s="73"/>
+      <c r="BL19" s="73"/>
+      <c r="BM19" s="73"/>
+      <c r="BN19" s="73"/>
+      <c r="BO19" s="73"/>
+      <c r="BP19" s="74"/>
+      <c r="BQ19" s="102"/>
+      <c r="BR19" s="103"/>
+      <c r="BS19" s="103"/>
+      <c r="BT19" s="104"/>
+      <c r="BU19" s="20"/>
+      <c r="BV19" s="20"/>
+      <c r="BW19" s="20"/>
+      <c r="BX19" s="21"/>
+      <c r="BY19" s="22"/>
+      <c r="BZ19" s="20"/>
+      <c r="CA19" s="20"/>
+      <c r="CB19" s="20"/>
+      <c r="CC19" s="20"/>
+      <c r="CD19" s="20"/>
+      <c r="CE19" s="73"/>
+      <c r="CF19" s="74"/>
+    </row>
+    <row r="20" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="128"/>
+      <c r="B20" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="109"/>
+      <c r="S20" s="109"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="111"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="109"/>
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="109"/>
+      <c r="AH20" s="109"/>
+      <c r="AI20" s="109"/>
+      <c r="AJ20" s="110"/>
+      <c r="AK20" s="102"/>
+      <c r="AL20" s="103"/>
+      <c r="AM20" s="103"/>
+      <c r="AN20" s="104"/>
+      <c r="AO20" s="109"/>
+      <c r="AP20" s="109"/>
+      <c r="AQ20" s="109"/>
+      <c r="AR20" s="110"/>
+      <c r="AS20" s="111"/>
+      <c r="AT20" s="109"/>
+      <c r="AU20" s="109"/>
+      <c r="AV20" s="109"/>
+      <c r="AW20" s="109"/>
+      <c r="AX20" s="109"/>
+      <c r="AY20" s="109"/>
+      <c r="AZ20" s="110"/>
+      <c r="BA20" s="102"/>
+      <c r="BB20" s="103"/>
+      <c r="BC20" s="103"/>
+      <c r="BD20" s="104"/>
+      <c r="BE20" s="109"/>
+      <c r="BF20" s="109"/>
+      <c r="BG20" s="109"/>
+      <c r="BH20" s="110"/>
+      <c r="BI20" s="111"/>
+      <c r="BJ20" s="109"/>
+      <c r="BK20" s="109"/>
+      <c r="BL20" s="109"/>
+      <c r="BM20" s="109"/>
+      <c r="BN20" s="109"/>
+      <c r="BO20" s="109"/>
+      <c r="BP20" s="110"/>
+      <c r="BQ20" s="102"/>
+      <c r="BR20" s="103"/>
+      <c r="BS20" s="103"/>
+      <c r="BT20" s="104"/>
+      <c r="BU20" s="109"/>
+      <c r="BV20" s="109"/>
+      <c r="BW20" s="109"/>
+      <c r="BX20" s="110"/>
+      <c r="BY20" s="111"/>
+      <c r="BZ20" s="109"/>
+      <c r="CA20" s="109"/>
+      <c r="CB20" s="109"/>
+      <c r="CC20" s="109"/>
+      <c r="CD20" s="109"/>
+      <c r="CE20" s="112"/>
+      <c r="CF20" s="110"/>
+    </row>
+    <row r="21" spans="1:84" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="77"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="77"/>
+      <c r="AI21" s="77"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="102"/>
+      <c r="AL21" s="103"/>
+      <c r="AM21" s="103"/>
+      <c r="AN21" s="104"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="77"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="79"/>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="77"/>
+      <c r="AV21" s="77"/>
+      <c r="AW21" s="77"/>
+      <c r="AX21" s="77"/>
+      <c r="AY21" s="77"/>
+      <c r="AZ21" s="78"/>
+      <c r="BA21" s="102"/>
+      <c r="BB21" s="103"/>
+      <c r="BC21" s="103"/>
+      <c r="BD21" s="104"/>
+      <c r="BE21" s="77"/>
+      <c r="BF21" s="77"/>
+      <c r="BG21" s="77"/>
+      <c r="BH21" s="78"/>
+      <c r="BI21" s="79"/>
+      <c r="BJ21" s="77"/>
+      <c r="BK21" s="77"/>
+      <c r="BL21" s="77"/>
+      <c r="BM21" s="77"/>
+      <c r="BN21" s="77"/>
+      <c r="BO21" s="77"/>
+      <c r="BP21" s="78"/>
+      <c r="BQ21" s="102"/>
+      <c r="BR21" s="103"/>
+      <c r="BS21" s="103"/>
+      <c r="BT21" s="104"/>
+      <c r="BU21" s="77"/>
+      <c r="BV21" s="77"/>
+      <c r="BW21" s="77"/>
+      <c r="BX21" s="78"/>
+      <c r="BY21" s="79"/>
+      <c r="BZ21" s="77"/>
+      <c r="CA21" s="77"/>
+      <c r="CB21" s="77"/>
+      <c r="CC21" s="77"/>
+      <c r="CD21" s="77"/>
+      <c r="CE21" s="77"/>
+      <c r="CF21" s="41"/>
+    </row>
+    <row r="22" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="92"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="85"/>
+      <c r="S22" s="85"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="85"/>
+      <c r="AE22" s="85"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="85"/>
+      <c r="AH22" s="85"/>
+      <c r="AI22" s="85"/>
+      <c r="AJ22" s="86"/>
+      <c r="AK22" s="102"/>
+      <c r="AL22" s="103"/>
+      <c r="AM22" s="103"/>
+      <c r="AN22" s="104"/>
+      <c r="AO22" s="85"/>
+      <c r="AP22" s="85"/>
+      <c r="AQ22" s="85"/>
+      <c r="AR22" s="86"/>
+      <c r="AS22" s="84"/>
+      <c r="AT22" s="85"/>
+      <c r="AU22" s="85"/>
+      <c r="AV22" s="85"/>
+      <c r="AW22" s="85"/>
+      <c r="AX22" s="85"/>
+      <c r="AY22" s="85"/>
+      <c r="AZ22" s="86"/>
+      <c r="BA22" s="102"/>
+      <c r="BB22" s="103"/>
+      <c r="BC22" s="103"/>
+      <c r="BD22" s="104"/>
+      <c r="BE22" s="85"/>
+      <c r="BF22" s="85"/>
+      <c r="BG22" s="85"/>
+      <c r="BH22" s="86"/>
+      <c r="BI22" s="84"/>
+      <c r="BJ22" s="85"/>
+      <c r="BK22" s="85"/>
+      <c r="BL22" s="85"/>
+      <c r="BM22" s="85"/>
+      <c r="BN22" s="85"/>
+      <c r="BO22" s="85"/>
+      <c r="BP22" s="86"/>
+      <c r="BQ22" s="102"/>
+      <c r="BR22" s="103"/>
+      <c r="BS22" s="103"/>
+      <c r="BT22" s="104"/>
+      <c r="BU22" s="85"/>
+      <c r="BV22" s="85"/>
+      <c r="BW22" s="85"/>
+      <c r="BX22" s="86"/>
+      <c r="BY22" s="84"/>
+      <c r="BZ22" s="85"/>
+      <c r="CA22" s="85"/>
+      <c r="CB22" s="85"/>
+      <c r="CC22" s="85"/>
+      <c r="CD22" s="85"/>
+      <c r="CE22" s="85"/>
+      <c r="CF22" s="86"/>
+    </row>
+    <row r="23" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="81"/>
+      <c r="B23" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="105"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="108"/>
-      <c r="V18" s="109"/>
-      <c r="W18" s="109"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="109"/>
-      <c r="Z18" s="109"/>
-      <c r="AA18" s="109"/>
-      <c r="AB18" s="110"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="98"/>
-      <c r="AE18" s="98"/>
-      <c r="AF18" s="98"/>
-      <c r="AG18" s="98"/>
-      <c r="AH18" s="98"/>
-      <c r="AI18" s="98"/>
-      <c r="AJ18" s="99"/>
-      <c r="AK18" s="115"/>
-      <c r="AL18" s="116"/>
-      <c r="AM18" s="116"/>
-      <c r="AN18" s="117"/>
-      <c r="AO18" s="98"/>
-      <c r="AP18" s="98"/>
-      <c r="AQ18" s="98"/>
-      <c r="AR18" s="99"/>
-      <c r="AS18" s="97"/>
-      <c r="AT18" s="98"/>
-      <c r="AU18" s="98"/>
-      <c r="AV18" s="98"/>
-      <c r="AW18" s="98"/>
-      <c r="AX18" s="98"/>
-      <c r="AY18" s="98"/>
-      <c r="AZ18" s="99"/>
-      <c r="BA18" s="115"/>
-      <c r="BB18" s="116"/>
-      <c r="BC18" s="116"/>
-      <c r="BD18" s="117"/>
-      <c r="BE18" s="98"/>
-      <c r="BF18" s="98"/>
-      <c r="BG18" s="98"/>
-      <c r="BH18" s="99"/>
-      <c r="BI18" s="97"/>
-      <c r="BJ18" s="98"/>
-      <c r="BK18" s="98"/>
-      <c r="BL18" s="98"/>
-      <c r="BM18" s="98"/>
-      <c r="BN18" s="98"/>
-      <c r="BO18" s="98"/>
-      <c r="BP18" s="99"/>
-      <c r="BQ18" s="115"/>
-      <c r="BR18" s="116"/>
-      <c r="BS18" s="116"/>
-      <c r="BT18" s="117"/>
-      <c r="BU18" s="98"/>
-      <c r="BV18" s="98"/>
-      <c r="BW18" s="98"/>
-      <c r="BX18" s="99"/>
-      <c r="BY18" s="97"/>
-      <c r="BZ18" s="98"/>
-      <c r="CA18" s="98"/>
-      <c r="CB18" s="98"/>
-      <c r="CC18" s="98"/>
-      <c r="CD18" s="98"/>
-      <c r="CE18" s="98"/>
-      <c r="CF18" s="99"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="99"/>
+      <c r="AA23" s="99"/>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="87"/>
+      <c r="AD23" s="88"/>
+      <c r="AE23" s="88"/>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="88"/>
+      <c r="AH23" s="88"/>
+      <c r="AI23" s="88"/>
+      <c r="AJ23" s="89"/>
+      <c r="AK23" s="105"/>
+      <c r="AL23" s="106"/>
+      <c r="AM23" s="106"/>
+      <c r="AN23" s="107"/>
+      <c r="AO23" s="88"/>
+      <c r="AP23" s="88"/>
+      <c r="AQ23" s="88"/>
+      <c r="AR23" s="89"/>
+      <c r="AS23" s="87"/>
+      <c r="AT23" s="88"/>
+      <c r="AU23" s="88"/>
+      <c r="AV23" s="88"/>
+      <c r="AW23" s="88"/>
+      <c r="AX23" s="88"/>
+      <c r="AY23" s="88"/>
+      <c r="AZ23" s="89"/>
+      <c r="BA23" s="105"/>
+      <c r="BB23" s="106"/>
+      <c r="BC23" s="106"/>
+      <c r="BD23" s="107"/>
+      <c r="BE23" s="88"/>
+      <c r="BF23" s="88"/>
+      <c r="BG23" s="88"/>
+      <c r="BH23" s="89"/>
+      <c r="BI23" s="87"/>
+      <c r="BJ23" s="88"/>
+      <c r="BK23" s="88"/>
+      <c r="BL23" s="88"/>
+      <c r="BM23" s="88"/>
+      <c r="BN23" s="88"/>
+      <c r="BO23" s="88"/>
+      <c r="BP23" s="89"/>
+      <c r="BQ23" s="105"/>
+      <c r="BR23" s="106"/>
+      <c r="BS23" s="106"/>
+      <c r="BT23" s="107"/>
+      <c r="BU23" s="88"/>
+      <c r="BV23" s="88"/>
+      <c r="BW23" s="88"/>
+      <c r="BX23" s="89"/>
+      <c r="BY23" s="87"/>
+      <c r="BZ23" s="88"/>
+      <c r="CA23" s="88"/>
+      <c r="CB23" s="88"/>
+      <c r="CC23" s="88"/>
+      <c r="CD23" s="88"/>
+      <c r="CE23" s="88"/>
+      <c r="CF23" s="89"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="37">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E6:H23"/>
+    <mergeCell ref="U6:AB23"/>
+    <mergeCell ref="AK6:AN23"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E6:H18"/>
-    <mergeCell ref="U6:AB18"/>
-    <mergeCell ref="AK6:AN18"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="BY4:CB4"/>
     <mergeCell ref="CC4:CF4"/>
     <mergeCell ref="BA4:BD4"/>
     <mergeCell ref="BE4:BH4"/>
     <mergeCell ref="BI4:BL4"/>
     <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="BA6:BD18"/>
-    <mergeCell ref="BQ6:BT18"/>
+    <mergeCell ref="BA6:BD23"/>
+    <mergeCell ref="BQ6:BT23"/>
     <mergeCell ref="E2:AR3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -3574,8 +4317,8 @@
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="Y4:AB4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="C6:C18">
+  <phoneticPr fontId="13" type="noConversion"/>
+  <conditionalFormatting sqref="C6:C23">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",C6)))</formula>
     </cfRule>

--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="547" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45CADD4E-1170-4AB1-91B3-9E1027F356DA}"/>
+  <xr:revisionPtr revIDLastSave="548" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{007E7C72-24A6-48FD-8C8E-3BB250EB8517}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -872,12 +872,398 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -888,14 +1274,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -924,88 +1302,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1016,306 +1316,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1364,15 +1364,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>795</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1387,8 +1387,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5087145" y="695325"/>
-          <a:ext cx="4304506" cy="3752849"/>
+          <a:off x="5086350" y="685801"/>
+          <a:ext cx="4305301" cy="3990974"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1416,30 +1416,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-CH" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Zone d'avancement &gt;&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CH" sz="900" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CH" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> étirer sur la gauche pour montrer l'avancement du projet</a:t>
-          </a:r>
           <a:endParaRPr lang="fr-CH" sz="900"/>
         </a:p>
       </xdr:txBody>
@@ -2035,7 +2011,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="AI32" sqref="AI32:AJ32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2050,10 +2026,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="126"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="1"/>
@@ -2098,310 +2074,310 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BC2" s="29"/>
-      <c r="BD2" s="29"/>
-      <c r="BE2" s="29"/>
-      <c r="BF2" s="29"/>
-      <c r="BG2" s="29"/>
-      <c r="BH2" s="29"/>
-      <c r="BI2" s="29"/>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="29"/>
-      <c r="BL2" s="29"/>
-      <c r="BM2" s="29"/>
-      <c r="BN2" s="29"/>
-      <c r="BO2" s="29"/>
-      <c r="BP2" s="29"/>
-      <c r="BQ2" s="29"/>
-      <c r="BR2" s="29"/>
-      <c r="BS2" s="29"/>
-      <c r="BT2" s="29"/>
-      <c r="BU2" s="29"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="29"/>
-      <c r="BX2" s="29"/>
-      <c r="BY2" s="29"/>
-      <c r="BZ2" s="29"/>
-      <c r="CA2" s="29"/>
-      <c r="CB2" s="29"/>
-      <c r="CC2" s="29"/>
-      <c r="CD2" s="29"/>
-      <c r="CE2" s="29"/>
-      <c r="CF2" s="29"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="124"/>
+      <c r="AH2" s="124"/>
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="124"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="124"/>
+      <c r="AO2" s="124"/>
+      <c r="AP2" s="124"/>
+      <c r="AQ2" s="124"/>
+      <c r="AR2" s="124"/>
+      <c r="AS2" s="124"/>
+      <c r="AT2" s="124"/>
+      <c r="AU2" s="124"/>
+      <c r="AV2" s="124"/>
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="124"/>
+      <c r="AY2" s="124"/>
+      <c r="AZ2" s="124"/>
+      <c r="BA2" s="124"/>
+      <c r="BB2" s="124"/>
+      <c r="BC2" s="124"/>
+      <c r="BD2" s="124"/>
+      <c r="BE2" s="124"/>
+      <c r="BF2" s="124"/>
+      <c r="BG2" s="124"/>
+      <c r="BH2" s="124"/>
+      <c r="BI2" s="124"/>
+      <c r="BJ2" s="124"/>
+      <c r="BK2" s="124"/>
+      <c r="BL2" s="124"/>
+      <c r="BM2" s="124"/>
+      <c r="BN2" s="124"/>
+      <c r="BO2" s="124"/>
+      <c r="BP2" s="124"/>
+      <c r="BQ2" s="124"/>
+      <c r="BR2" s="124"/>
+      <c r="BS2" s="124"/>
+      <c r="BT2" s="124"/>
+      <c r="BU2" s="124"/>
+      <c r="BV2" s="124"/>
+      <c r="BW2" s="124"/>
+      <c r="BX2" s="124"/>
+      <c r="BY2" s="124"/>
+      <c r="BZ2" s="124"/>
+      <c r="CA2" s="124"/>
+      <c r="CB2" s="124"/>
+      <c r="CC2" s="124"/>
+      <c r="CD2" s="124"/>
+      <c r="CE2" s="124"/>
+      <c r="CF2" s="124"/>
     </row>
     <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="30"/>
-      <c r="BL3" s="30"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="30"/>
-      <c r="BO3" s="30"/>
-      <c r="BP3" s="30"/>
-      <c r="BQ3" s="30"/>
-      <c r="BR3" s="30"/>
-      <c r="BS3" s="30"/>
-      <c r="BT3" s="30"/>
-      <c r="BU3" s="30"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="30"/>
-      <c r="BZ3" s="30"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="30"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="125"/>
+      <c r="AG3" s="125"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="125"/>
+      <c r="AL3" s="125"/>
+      <c r="AM3" s="125"/>
+      <c r="AN3" s="125"/>
+      <c r="AO3" s="125"/>
+      <c r="AP3" s="125"/>
+      <c r="AQ3" s="125"/>
+      <c r="AR3" s="125"/>
+      <c r="AS3" s="125"/>
+      <c r="AT3" s="125"/>
+      <c r="AU3" s="125"/>
+      <c r="AV3" s="125"/>
+      <c r="AW3" s="125"/>
+      <c r="AX3" s="125"/>
+      <c r="AY3" s="125"/>
+      <c r="AZ3" s="125"/>
+      <c r="BA3" s="125"/>
+      <c r="BB3" s="125"/>
+      <c r="BC3" s="125"/>
+      <c r="BD3" s="125"/>
+      <c r="BE3" s="125"/>
+      <c r="BF3" s="125"/>
+      <c r="BG3" s="125"/>
+      <c r="BH3" s="125"/>
+      <c r="BI3" s="125"/>
+      <c r="BJ3" s="125"/>
+      <c r="BK3" s="125"/>
+      <c r="BL3" s="125"/>
+      <c r="BM3" s="125"/>
+      <c r="BN3" s="125"/>
+      <c r="BO3" s="125"/>
+      <c r="BP3" s="125"/>
+      <c r="BQ3" s="125"/>
+      <c r="BR3" s="125"/>
+      <c r="BS3" s="125"/>
+      <c r="BT3" s="125"/>
+      <c r="BU3" s="125"/>
+      <c r="BV3" s="125"/>
+      <c r="BW3" s="125"/>
+      <c r="BX3" s="125"/>
+      <c r="BY3" s="125"/>
+      <c r="BZ3" s="125"/>
+      <c r="CA3" s="125"/>
+      <c r="CB3" s="125"/>
+      <c r="CC3" s="125"/>
+      <c r="CD3" s="125"/>
+      <c r="CE3" s="125"/>
+      <c r="CF3" s="125"/>
     </row>
     <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="130"/>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="25">
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="122">
         <v>45995</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27" t="s">
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="25">
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="122">
         <v>45996</v>
       </c>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="27" t="s">
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="25">
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="122">
         <v>46002</v>
       </c>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="27" t="s">
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="25">
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="121"/>
+      <c r="AG4" s="122">
         <v>46003</v>
       </c>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="27" t="s">
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="25">
+      <c r="AL4" s="121"/>
+      <c r="AM4" s="121"/>
+      <c r="AN4" s="121"/>
+      <c r="AO4" s="122">
         <v>46009</v>
       </c>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="27" t="s">
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="122"/>
+      <c r="AR4" s="123"/>
+      <c r="AS4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="25">
+      <c r="AT4" s="121"/>
+      <c r="AU4" s="121"/>
+      <c r="AV4" s="121"/>
+      <c r="AW4" s="122">
         <v>46010</v>
       </c>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="27" t="s">
+      <c r="AX4" s="122"/>
+      <c r="AY4" s="122"/>
+      <c r="AZ4" s="123"/>
+      <c r="BA4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="BB4" s="28"/>
-      <c r="BC4" s="28"/>
-      <c r="BD4" s="28"/>
-      <c r="BE4" s="25">
+      <c r="BB4" s="121"/>
+      <c r="BC4" s="121"/>
+      <c r="BD4" s="121"/>
+      <c r="BE4" s="122">
         <v>46030</v>
       </c>
-      <c r="BF4" s="25"/>
-      <c r="BG4" s="25"/>
-      <c r="BH4" s="26"/>
-      <c r="BI4" s="27" t="s">
+      <c r="BF4" s="122"/>
+      <c r="BG4" s="122"/>
+      <c r="BH4" s="123"/>
+      <c r="BI4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="BJ4" s="28"/>
-      <c r="BK4" s="28"/>
-      <c r="BL4" s="28"/>
-      <c r="BM4" s="25">
+      <c r="BJ4" s="121"/>
+      <c r="BK4" s="121"/>
+      <c r="BL4" s="121"/>
+      <c r="BM4" s="122">
         <v>46031</v>
       </c>
-      <c r="BN4" s="25"/>
-      <c r="BO4" s="25"/>
-      <c r="BP4" s="26"/>
-      <c r="BQ4" s="27" t="s">
+      <c r="BN4" s="122"/>
+      <c r="BO4" s="122"/>
+      <c r="BP4" s="123"/>
+      <c r="BQ4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="BR4" s="28"/>
-      <c r="BS4" s="28"/>
-      <c r="BT4" s="28"/>
-      <c r="BU4" s="25">
+      <c r="BR4" s="121"/>
+      <c r="BS4" s="121"/>
+      <c r="BT4" s="121"/>
+      <c r="BU4" s="122">
         <v>46037</v>
       </c>
-      <c r="BV4" s="25"/>
-      <c r="BW4" s="25"/>
-      <c r="BX4" s="26"/>
-      <c r="BY4" s="27" t="s">
+      <c r="BV4" s="122"/>
+      <c r="BW4" s="122"/>
+      <c r="BX4" s="123"/>
+      <c r="BY4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="BZ4" s="28"/>
-      <c r="CA4" s="28"/>
-      <c r="CB4" s="28"/>
-      <c r="CC4" s="25">
+      <c r="BZ4" s="121"/>
+      <c r="CA4" s="121"/>
+      <c r="CB4" s="121"/>
+      <c r="CC4" s="122">
         <v>46038</v>
       </c>
-      <c r="CD4" s="25"/>
-      <c r="CE4" s="25"/>
-      <c r="CF4" s="26"/>
+      <c r="CD4" s="122"/>
+      <c r="CE4" s="122"/>
+      <c r="CF4" s="123"/>
     </row>
     <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2420,10 +2396,10 @@
       <c r="H5" s="5">
         <v>4</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="26">
         <v>5</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="26">
         <v>6</v>
       </c>
       <c r="K5" s="5">
@@ -2650,874 +2626,874 @@
       </c>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="86"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="17"/>
       <c r="L6" s="18"/>
       <c r="M6" s="19"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="36" t="s">
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="53"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="24" t="s">
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="AL6" s="42"/>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="101"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="52"/>
-      <c r="BA6" s="24" t="s">
+      <c r="AL6" s="103"/>
+      <c r="AM6" s="103"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="30"/>
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="30"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="30"/>
+      <c r="AX6" s="30"/>
+      <c r="AY6" s="30"/>
+      <c r="AZ6" s="31"/>
+      <c r="BA6" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="BB6" s="42"/>
-      <c r="BC6" s="42"/>
-      <c r="BD6" s="101"/>
-      <c r="BE6" s="51"/>
-      <c r="BF6" s="51"/>
-      <c r="BG6" s="51"/>
-      <c r="BH6" s="52"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="51"/>
-      <c r="BK6" s="51"/>
-      <c r="BL6" s="51"/>
-      <c r="BM6" s="51"/>
-      <c r="BN6" s="51"/>
-      <c r="BO6" s="51"/>
-      <c r="BP6" s="52"/>
-      <c r="BQ6" s="24" t="s">
+      <c r="BB6" s="103"/>
+      <c r="BC6" s="103"/>
+      <c r="BD6" s="104"/>
+      <c r="BE6" s="30"/>
+      <c r="BF6" s="30"/>
+      <c r="BG6" s="30"/>
+      <c r="BH6" s="31"/>
+      <c r="BI6" s="32"/>
+      <c r="BJ6" s="30"/>
+      <c r="BK6" s="30"/>
+      <c r="BL6" s="30"/>
+      <c r="BM6" s="30"/>
+      <c r="BN6" s="30"/>
+      <c r="BO6" s="30"/>
+      <c r="BP6" s="31"/>
+      <c r="BQ6" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="BR6" s="42"/>
-      <c r="BS6" s="42"/>
-      <c r="BT6" s="101"/>
-      <c r="BU6" s="117"/>
-      <c r="BV6" s="117"/>
-      <c r="BW6" s="51"/>
-      <c r="BX6" s="52"/>
-      <c r="BY6" s="53"/>
-      <c r="BZ6" s="51"/>
-      <c r="CA6" s="51"/>
-      <c r="CB6" s="51"/>
-      <c r="CC6" s="51"/>
-      <c r="CD6" s="51"/>
-      <c r="CE6" s="51"/>
-      <c r="CF6" s="52"/>
+      <c r="BR6" s="103"/>
+      <c r="BS6" s="103"/>
+      <c r="BT6" s="104"/>
+      <c r="BU6" s="71"/>
+      <c r="BV6" s="71"/>
+      <c r="BW6" s="30"/>
+      <c r="BX6" s="31"/>
+      <c r="BY6" s="32"/>
+      <c r="BZ6" s="30"/>
+      <c r="CA6" s="30"/>
+      <c r="CB6" s="30"/>
+      <c r="CC6" s="30"/>
+      <c r="CD6" s="30"/>
+      <c r="CE6" s="30"/>
+      <c r="CF6" s="31"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="131"/>
+      <c r="B7" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="54"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="33"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="102"/>
-      <c r="AL7" s="103"/>
-      <c r="AM7" s="103"/>
-      <c r="AN7" s="104"/>
-      <c r="AO7" s="54"/>
-      <c r="AP7" s="54"/>
-      <c r="AQ7" s="54"/>
-      <c r="AR7" s="55"/>
-      <c r="AS7" s="56"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54"/>
-      <c r="AV7" s="54"/>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54"/>
-      <c r="AY7" s="54"/>
-      <c r="AZ7" s="55"/>
-      <c r="BA7" s="102"/>
-      <c r="BB7" s="103"/>
-      <c r="BC7" s="103"/>
-      <c r="BD7" s="104"/>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="54"/>
-      <c r="BH7" s="55"/>
-      <c r="BI7" s="56"/>
-      <c r="BJ7" s="54"/>
-      <c r="BK7" s="54"/>
-      <c r="BL7" s="54"/>
-      <c r="BM7" s="54"/>
-      <c r="BN7" s="54"/>
-      <c r="BO7" s="54"/>
-      <c r="BP7" s="55"/>
-      <c r="BQ7" s="102"/>
-      <c r="BR7" s="103"/>
-      <c r="BS7" s="103"/>
-      <c r="BT7" s="104"/>
-      <c r="BU7" s="54"/>
-      <c r="BV7" s="54"/>
-      <c r="BW7" s="54"/>
-      <c r="BX7" s="55"/>
-      <c r="BY7" s="56"/>
-      <c r="BZ7" s="54"/>
-      <c r="CA7" s="54"/>
-      <c r="CB7" s="54"/>
-      <c r="CC7" s="54"/>
-      <c r="CD7" s="54"/>
-      <c r="CE7" s="54"/>
-      <c r="CF7" s="55"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="106"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="33"/>
+      <c r="AQ7" s="33"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="33"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="33"/>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="33"/>
+      <c r="AZ7" s="34"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="106"/>
+      <c r="BC7" s="106"/>
+      <c r="BD7" s="107"/>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="33"/>
+      <c r="BG7" s="33"/>
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="33"/>
+      <c r="BK7" s="33"/>
+      <c r="BL7" s="33"/>
+      <c r="BM7" s="33"/>
+      <c r="BN7" s="33"/>
+      <c r="BO7" s="33"/>
+      <c r="BP7" s="34"/>
+      <c r="BQ7" s="105"/>
+      <c r="BR7" s="106"/>
+      <c r="BS7" s="106"/>
+      <c r="BT7" s="107"/>
+      <c r="BU7" s="33"/>
+      <c r="BV7" s="33"/>
+      <c r="BW7" s="33"/>
+      <c r="BX7" s="34"/>
+      <c r="BY7" s="35"/>
+      <c r="BZ7" s="33"/>
+      <c r="CA7" s="33"/>
+      <c r="CB7" s="33"/>
+      <c r="CC7" s="33"/>
+      <c r="CD7" s="33"/>
+      <c r="CE7" s="33"/>
+      <c r="CF7" s="34"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="131"/>
+      <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
       <c r="P8" s="20"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="102"/>
-      <c r="AL8" s="103"/>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="104"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="56"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
-      <c r="AY8" s="54"/>
-      <c r="AZ8" s="55"/>
-      <c r="BA8" s="102"/>
-      <c r="BB8" s="103"/>
-      <c r="BC8" s="103"/>
-      <c r="BD8" s="104"/>
-      <c r="BE8" s="54"/>
-      <c r="BF8" s="54"/>
-      <c r="BG8" s="54"/>
-      <c r="BH8" s="55"/>
-      <c r="BI8" s="56"/>
-      <c r="BJ8" s="54"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="54"/>
-      <c r="BM8" s="54"/>
-      <c r="BN8" s="54"/>
-      <c r="BO8" s="54"/>
-      <c r="BP8" s="55"/>
-      <c r="BQ8" s="102"/>
-      <c r="BR8" s="103"/>
-      <c r="BS8" s="103"/>
-      <c r="BT8" s="104"/>
-      <c r="BU8" s="54"/>
-      <c r="BV8" s="54"/>
-      <c r="BW8" s="54"/>
-      <c r="BX8" s="55"/>
-      <c r="BY8" s="56"/>
-      <c r="BZ8" s="54"/>
-      <c r="CA8" s="54"/>
-      <c r="CB8" s="54"/>
-      <c r="CC8" s="54"/>
-      <c r="CD8" s="54"/>
-      <c r="CE8" s="54"/>
-      <c r="CF8" s="55"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="106"/>
+      <c r="AM8" s="106"/>
+      <c r="AN8" s="107"/>
+      <c r="AO8" s="33"/>
+      <c r="AP8" s="33"/>
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="34"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="33"/>
+      <c r="AU8" s="33"/>
+      <c r="AV8" s="33"/>
+      <c r="AW8" s="33"/>
+      <c r="AX8" s="33"/>
+      <c r="AY8" s="33"/>
+      <c r="AZ8" s="34"/>
+      <c r="BA8" s="105"/>
+      <c r="BB8" s="106"/>
+      <c r="BC8" s="106"/>
+      <c r="BD8" s="107"/>
+      <c r="BE8" s="33"/>
+      <c r="BF8" s="33"/>
+      <c r="BG8" s="33"/>
+      <c r="BH8" s="34"/>
+      <c r="BI8" s="35"/>
+      <c r="BJ8" s="33"/>
+      <c r="BK8" s="33"/>
+      <c r="BL8" s="33"/>
+      <c r="BM8" s="33"/>
+      <c r="BN8" s="33"/>
+      <c r="BO8" s="33"/>
+      <c r="BP8" s="34"/>
+      <c r="BQ8" s="105"/>
+      <c r="BR8" s="106"/>
+      <c r="BS8" s="106"/>
+      <c r="BT8" s="107"/>
+      <c r="BU8" s="33"/>
+      <c r="BV8" s="33"/>
+      <c r="BW8" s="33"/>
+      <c r="BX8" s="34"/>
+      <c r="BY8" s="35"/>
+      <c r="BZ8" s="33"/>
+      <c r="CA8" s="33"/>
+      <c r="CB8" s="33"/>
+      <c r="CC8" s="33"/>
+      <c r="CD8" s="33"/>
+      <c r="CE8" s="33"/>
+      <c r="CF8" s="34"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="36" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="63"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="103"/>
-      <c r="AM9" s="103"/>
-      <c r="AN9" s="104"/>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="63"/>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="61"/>
-      <c r="AV9" s="61"/>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="61"/>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="62"/>
-      <c r="BA9" s="102"/>
-      <c r="BB9" s="103"/>
-      <c r="BC9" s="103"/>
-      <c r="BD9" s="104"/>
-      <c r="BE9" s="61"/>
-      <c r="BF9" s="61"/>
-      <c r="BG9" s="61"/>
-      <c r="BH9" s="62"/>
-      <c r="BI9" s="63"/>
-      <c r="BJ9" s="61"/>
-      <c r="BK9" s="61"/>
-      <c r="BL9" s="61"/>
-      <c r="BM9" s="61"/>
-      <c r="BN9" s="61"/>
-      <c r="BO9" s="61"/>
-      <c r="BP9" s="62"/>
-      <c r="BQ9" s="102"/>
-      <c r="BR9" s="103"/>
-      <c r="BS9" s="103"/>
-      <c r="BT9" s="104"/>
-      <c r="BU9" s="61"/>
-      <c r="BV9" s="61"/>
-      <c r="BW9" s="61"/>
-      <c r="BX9" s="62"/>
-      <c r="BY9" s="63"/>
-      <c r="BZ9" s="61"/>
-      <c r="CA9" s="61"/>
-      <c r="CB9" s="61"/>
-      <c r="CC9" s="61"/>
-      <c r="CD9" s="61"/>
-      <c r="CE9" s="61"/>
-      <c r="CF9" s="62"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="105"/>
+      <c r="AL9" s="106"/>
+      <c r="AM9" s="106"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="37"/>
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37"/>
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="105"/>
+      <c r="BB9" s="106"/>
+      <c r="BC9" s="106"/>
+      <c r="BD9" s="107"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37"/>
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="39"/>
+      <c r="BJ9" s="37"/>
+      <c r="BK9" s="37"/>
+      <c r="BL9" s="37"/>
+      <c r="BM9" s="37"/>
+      <c r="BN9" s="37"/>
+      <c r="BO9" s="37"/>
+      <c r="BP9" s="38"/>
+      <c r="BQ9" s="105"/>
+      <c r="BR9" s="106"/>
+      <c r="BS9" s="106"/>
+      <c r="BT9" s="107"/>
+      <c r="BU9" s="37"/>
+      <c r="BV9" s="37"/>
+      <c r="BW9" s="37"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="39"/>
+      <c r="BZ9" s="37"/>
+      <c r="CA9" s="37"/>
+      <c r="CB9" s="37"/>
+      <c r="CC9" s="37"/>
+      <c r="CD9" s="37"/>
+      <c r="CE9" s="37"/>
+      <c r="CF9" s="38"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="60" t="s">
+      <c r="A10" s="133"/>
+      <c r="B10" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="103"/>
-      <c r="AM10" s="103"/>
-      <c r="AN10" s="104"/>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="63"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="61"/>
-      <c r="AV10" s="61"/>
-      <c r="AW10" s="61"/>
-      <c r="AX10" s="61"/>
-      <c r="AY10" s="61"/>
-      <c r="AZ10" s="62"/>
-      <c r="BA10" s="102"/>
-      <c r="BB10" s="103"/>
-      <c r="BC10" s="103"/>
-      <c r="BD10" s="104"/>
-      <c r="BE10" s="61"/>
-      <c r="BF10" s="61"/>
-      <c r="BG10" s="61"/>
-      <c r="BH10" s="62"/>
-      <c r="BI10" s="63"/>
-      <c r="BJ10" s="61"/>
-      <c r="BK10" s="61"/>
-      <c r="BL10" s="61"/>
-      <c r="BM10" s="61"/>
-      <c r="BN10" s="61"/>
-      <c r="BO10" s="61"/>
-      <c r="BP10" s="62"/>
-      <c r="BQ10" s="102"/>
-      <c r="BR10" s="103"/>
-      <c r="BS10" s="103"/>
-      <c r="BT10" s="104"/>
-      <c r="BU10" s="61"/>
-      <c r="BV10" s="61"/>
-      <c r="BW10" s="61"/>
-      <c r="BX10" s="62"/>
-      <c r="BY10" s="63"/>
-      <c r="BZ10" s="61"/>
-      <c r="CA10" s="61"/>
-      <c r="CB10" s="61"/>
-      <c r="CC10" s="61"/>
-      <c r="CD10" s="61"/>
-      <c r="CE10" s="61"/>
-      <c r="CF10" s="62"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="38"/>
+      <c r="AK10" s="105"/>
+      <c r="AL10" s="106"/>
+      <c r="AM10" s="106"/>
+      <c r="AN10" s="107"/>
+      <c r="AO10" s="37"/>
+      <c r="AP10" s="37"/>
+      <c r="AQ10" s="37"/>
+      <c r="AR10" s="38"/>
+      <c r="AS10" s="39"/>
+      <c r="AT10" s="37"/>
+      <c r="AU10" s="37"/>
+      <c r="AV10" s="37"/>
+      <c r="AW10" s="37"/>
+      <c r="AX10" s="37"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="38"/>
+      <c r="BA10" s="105"/>
+      <c r="BB10" s="106"/>
+      <c r="BC10" s="106"/>
+      <c r="BD10" s="107"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="37"/>
+      <c r="BG10" s="37"/>
+      <c r="BH10" s="38"/>
+      <c r="BI10" s="39"/>
+      <c r="BJ10" s="37"/>
+      <c r="BK10" s="37"/>
+      <c r="BL10" s="37"/>
+      <c r="BM10" s="37"/>
+      <c r="BN10" s="37"/>
+      <c r="BO10" s="37"/>
+      <c r="BP10" s="38"/>
+      <c r="BQ10" s="105"/>
+      <c r="BR10" s="106"/>
+      <c r="BS10" s="106"/>
+      <c r="BT10" s="107"/>
+      <c r="BU10" s="37"/>
+      <c r="BV10" s="37"/>
+      <c r="BW10" s="37"/>
+      <c r="BX10" s="38"/>
+      <c r="BY10" s="39"/>
+      <c r="BZ10" s="37"/>
+      <c r="CA10" s="37"/>
+      <c r="CB10" s="37"/>
+      <c r="CC10" s="37"/>
+      <c r="CD10" s="37"/>
+      <c r="CE10" s="37"/>
+      <c r="CF10" s="38"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60" t="s">
+      <c r="A11" s="134"/>
+      <c r="B11" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="40"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="98"/>
       <c r="AC11" s="22"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="61"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="102"/>
-      <c r="AL11" s="103"/>
-      <c r="AM11" s="103"/>
-      <c r="AN11" s="104"/>
-      <c r="AO11" s="61"/>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="61"/>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="63"/>
-      <c r="AT11" s="61"/>
-      <c r="AU11" s="61"/>
-      <c r="AV11" s="61"/>
-      <c r="AW11" s="61"/>
-      <c r="AX11" s="61"/>
-      <c r="AY11" s="61"/>
-      <c r="AZ11" s="62"/>
-      <c r="BA11" s="102"/>
-      <c r="BB11" s="103"/>
-      <c r="BC11" s="103"/>
-      <c r="BD11" s="104"/>
-      <c r="BE11" s="61"/>
-      <c r="BF11" s="61"/>
-      <c r="BG11" s="61"/>
-      <c r="BH11" s="62"/>
-      <c r="BI11" s="63"/>
-      <c r="BJ11" s="61"/>
-      <c r="BK11" s="61"/>
-      <c r="BL11" s="61"/>
-      <c r="BM11" s="61"/>
-      <c r="BN11" s="61"/>
-      <c r="BO11" s="61"/>
-      <c r="BP11" s="62"/>
-      <c r="BQ11" s="102"/>
-      <c r="BR11" s="103"/>
-      <c r="BS11" s="103"/>
-      <c r="BT11" s="104"/>
-      <c r="BU11" s="61"/>
-      <c r="BV11" s="61"/>
-      <c r="BW11" s="61"/>
-      <c r="BX11" s="62"/>
-      <c r="BY11" s="63"/>
-      <c r="BZ11" s="61"/>
-      <c r="CA11" s="61"/>
-      <c r="CB11" s="61"/>
-      <c r="CC11" s="61"/>
-      <c r="CD11" s="61"/>
-      <c r="CE11" s="61"/>
-      <c r="CF11" s="62"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="105"/>
+      <c r="AL11" s="106"/>
+      <c r="AM11" s="106"/>
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="37"/>
+      <c r="AP11" s="37"/>
+      <c r="AQ11" s="37"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="39"/>
+      <c r="AT11" s="37"/>
+      <c r="AU11" s="37"/>
+      <c r="AV11" s="37"/>
+      <c r="AW11" s="37"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="105"/>
+      <c r="BB11" s="106"/>
+      <c r="BC11" s="106"/>
+      <c r="BD11" s="107"/>
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="37"/>
+      <c r="BG11" s="37"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="39"/>
+      <c r="BJ11" s="37"/>
+      <c r="BK11" s="37"/>
+      <c r="BL11" s="37"/>
+      <c r="BM11" s="37"/>
+      <c r="BN11" s="37"/>
+      <c r="BO11" s="37"/>
+      <c r="BP11" s="38"/>
+      <c r="BQ11" s="105"/>
+      <c r="BR11" s="106"/>
+      <c r="BS11" s="106"/>
+      <c r="BT11" s="107"/>
+      <c r="BU11" s="37"/>
+      <c r="BV11" s="37"/>
+      <c r="BW11" s="37"/>
+      <c r="BX11" s="38"/>
+      <c r="BY11" s="39"/>
+      <c r="BZ11" s="37"/>
+      <c r="CA11" s="37"/>
+      <c r="CB11" s="37"/>
+      <c r="CC11" s="37"/>
+      <c r="CD11" s="37"/>
+      <c r="CE11" s="37"/>
+      <c r="CF11" s="38"/>
     </row>
     <row r="12" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="74" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="66"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="42"/>
       <c r="AD12" s="20"/>
-      <c r="AE12" s="64"/>
+      <c r="AE12" s="40"/>
       <c r="AF12" s="20"/>
       <c r="AG12" s="20"/>
       <c r="AH12" s="20"/>
       <c r="AI12" s="20"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="102"/>
-      <c r="AL12" s="103"/>
-      <c r="AM12" s="103"/>
-      <c r="AN12" s="104"/>
-      <c r="AO12" s="64"/>
-      <c r="AP12" s="64"/>
-      <c r="AQ12" s="64"/>
-      <c r="AR12" s="65"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="64"/>
-      <c r="AU12" s="64"/>
-      <c r="AV12" s="64"/>
-      <c r="AW12" s="64"/>
-      <c r="AX12" s="64"/>
-      <c r="AY12" s="64"/>
-      <c r="AZ12" s="65"/>
-      <c r="BA12" s="102"/>
-      <c r="BB12" s="103"/>
-      <c r="BC12" s="103"/>
-      <c r="BD12" s="104"/>
-      <c r="BE12" s="64"/>
-      <c r="BF12" s="64"/>
-      <c r="BG12" s="64"/>
-      <c r="BH12" s="65"/>
-      <c r="BI12" s="66"/>
-      <c r="BJ12" s="64"/>
-      <c r="BK12" s="64"/>
-      <c r="BL12" s="64"/>
-      <c r="BM12" s="64"/>
-      <c r="BN12" s="64"/>
-      <c r="BO12" s="64"/>
-      <c r="BP12" s="65"/>
-      <c r="BQ12" s="102"/>
-      <c r="BR12" s="103"/>
-      <c r="BS12" s="103"/>
-      <c r="BT12" s="104"/>
-      <c r="BU12" s="64"/>
-      <c r="BV12" s="64"/>
-      <c r="BW12" s="64"/>
-      <c r="BX12" s="65"/>
-      <c r="BY12" s="66"/>
-      <c r="BZ12" s="64"/>
-      <c r="CA12" s="64"/>
-      <c r="CB12" s="64"/>
-      <c r="CC12" s="64"/>
-      <c r="CD12" s="64"/>
-      <c r="CE12" s="64"/>
-      <c r="CF12" s="65"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="105"/>
+      <c r="AL12" s="106"/>
+      <c r="AM12" s="106"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="40"/>
+      <c r="AP12" s="40"/>
+      <c r="AQ12" s="40"/>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="40"/>
+      <c r="AU12" s="40"/>
+      <c r="AV12" s="40"/>
+      <c r="AW12" s="40"/>
+      <c r="AX12" s="40"/>
+      <c r="AY12" s="40"/>
+      <c r="AZ12" s="41"/>
+      <c r="BA12" s="105"/>
+      <c r="BB12" s="106"/>
+      <c r="BC12" s="106"/>
+      <c r="BD12" s="107"/>
+      <c r="BE12" s="40"/>
+      <c r="BF12" s="40"/>
+      <c r="BG12" s="40"/>
+      <c r="BH12" s="41"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="40"/>
+      <c r="BK12" s="40"/>
+      <c r="BL12" s="40"/>
+      <c r="BM12" s="40"/>
+      <c r="BN12" s="40"/>
+      <c r="BO12" s="40"/>
+      <c r="BP12" s="41"/>
+      <c r="BQ12" s="105"/>
+      <c r="BR12" s="106"/>
+      <c r="BS12" s="106"/>
+      <c r="BT12" s="107"/>
+      <c r="BU12" s="40"/>
+      <c r="BV12" s="40"/>
+      <c r="BW12" s="40"/>
+      <c r="BX12" s="41"/>
+      <c r="BY12" s="42"/>
+      <c r="BZ12" s="40"/>
+      <c r="CA12" s="40"/>
+      <c r="CB12" s="40"/>
+      <c r="CC12" s="40"/>
+      <c r="CD12" s="40"/>
+      <c r="CE12" s="40"/>
+      <c r="CF12" s="41"/>
     </row>
     <row r="13" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="126"/>
-      <c r="B13" s="125" t="s">
+      <c r="A13" s="116"/>
+      <c r="B13" s="75" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="64"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="40"/>
       <c r="AE13" s="20"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="115"/>
-      <c r="AK13" s="102"/>
-      <c r="AL13" s="103"/>
-      <c r="AM13" s="103"/>
-      <c r="AN13" s="104"/>
-      <c r="AO13" s="64"/>
-      <c r="AP13" s="64"/>
-      <c r="AQ13" s="64"/>
-      <c r="AR13" s="65"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="64"/>
-      <c r="AU13" s="64"/>
-      <c r="AV13" s="64"/>
-      <c r="AW13" s="64"/>
-      <c r="AX13" s="64"/>
-      <c r="AY13" s="64"/>
-      <c r="AZ13" s="65"/>
-      <c r="BA13" s="102"/>
-      <c r="BB13" s="103"/>
-      <c r="BC13" s="103"/>
-      <c r="BD13" s="104"/>
-      <c r="BE13" s="64"/>
-      <c r="BF13" s="64"/>
-      <c r="BG13" s="64"/>
-      <c r="BH13" s="65"/>
-      <c r="BI13" s="66"/>
-      <c r="BJ13" s="64"/>
-      <c r="BK13" s="64"/>
-      <c r="BL13" s="64"/>
-      <c r="BM13" s="64"/>
-      <c r="BN13" s="64"/>
-      <c r="BO13" s="64"/>
-      <c r="BP13" s="65"/>
-      <c r="BQ13" s="102"/>
-      <c r="BR13" s="103"/>
-      <c r="BS13" s="103"/>
-      <c r="BT13" s="104"/>
-      <c r="BU13" s="64"/>
-      <c r="BV13" s="64"/>
-      <c r="BW13" s="64"/>
-      <c r="BX13" s="65"/>
-      <c r="BY13" s="66"/>
-      <c r="BZ13" s="64"/>
-      <c r="CA13" s="64"/>
-      <c r="CB13" s="64"/>
-      <c r="CC13" s="64"/>
-      <c r="CD13" s="64"/>
-      <c r="CE13" s="64"/>
-      <c r="CF13" s="65"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="40"/>
+      <c r="AH13" s="40"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="105"/>
+      <c r="AL13" s="106"/>
+      <c r="AM13" s="106"/>
+      <c r="AN13" s="107"/>
+      <c r="AO13" s="40"/>
+      <c r="AP13" s="40"/>
+      <c r="AQ13" s="40"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="40"/>
+      <c r="AU13" s="40"/>
+      <c r="AV13" s="40"/>
+      <c r="AW13" s="40"/>
+      <c r="AX13" s="40"/>
+      <c r="AY13" s="40"/>
+      <c r="AZ13" s="41"/>
+      <c r="BA13" s="105"/>
+      <c r="BB13" s="106"/>
+      <c r="BC13" s="106"/>
+      <c r="BD13" s="107"/>
+      <c r="BE13" s="40"/>
+      <c r="BF13" s="40"/>
+      <c r="BG13" s="40"/>
+      <c r="BH13" s="41"/>
+      <c r="BI13" s="42"/>
+      <c r="BJ13" s="40"/>
+      <c r="BK13" s="40"/>
+      <c r="BL13" s="40"/>
+      <c r="BM13" s="40"/>
+      <c r="BN13" s="40"/>
+      <c r="BO13" s="40"/>
+      <c r="BP13" s="41"/>
+      <c r="BQ13" s="105"/>
+      <c r="BR13" s="106"/>
+      <c r="BS13" s="106"/>
+      <c r="BT13" s="107"/>
+      <c r="BU13" s="40"/>
+      <c r="BV13" s="40"/>
+      <c r="BW13" s="40"/>
+      <c r="BX13" s="41"/>
+      <c r="BY13" s="42"/>
+      <c r="BZ13" s="40"/>
+      <c r="CA13" s="40"/>
+      <c r="CB13" s="40"/>
+      <c r="CC13" s="40"/>
+      <c r="CD13" s="40"/>
+      <c r="CE13" s="40"/>
+      <c r="CF13" s="41"/>
     </row>
     <row r="14" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="114"/>
-      <c r="B14" s="131" t="s">
+      <c r="A14" s="117"/>
+      <c r="B14" s="78" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="116"/>
-      <c r="AK14" s="102"/>
-      <c r="AL14" s="103"/>
-      <c r="AM14" s="103"/>
-      <c r="AN14" s="104"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="65"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="64"/>
-      <c r="AX14" s="64"/>
-      <c r="AY14" s="64"/>
-      <c r="AZ14" s="65"/>
-      <c r="BA14" s="102"/>
-      <c r="BB14" s="103"/>
-      <c r="BC14" s="103"/>
-      <c r="BD14" s="104"/>
-      <c r="BE14" s="64"/>
-      <c r="BF14" s="64"/>
-      <c r="BG14" s="64"/>
-      <c r="BH14" s="65"/>
-      <c r="BI14" s="66"/>
-      <c r="BJ14" s="64"/>
-      <c r="BK14" s="64"/>
-      <c r="BL14" s="64"/>
-      <c r="BM14" s="64"/>
-      <c r="BN14" s="64"/>
-      <c r="BO14" s="64"/>
-      <c r="BP14" s="65"/>
-      <c r="BQ14" s="102"/>
-      <c r="BR14" s="103"/>
-      <c r="BS14" s="103"/>
-      <c r="BT14" s="104"/>
-      <c r="BU14" s="64"/>
-      <c r="BV14" s="64"/>
-      <c r="BW14" s="64"/>
-      <c r="BX14" s="65"/>
-      <c r="BY14" s="66"/>
-      <c r="BZ14" s="64"/>
-      <c r="CA14" s="64"/>
-      <c r="CB14" s="64"/>
-      <c r="CC14" s="64"/>
-      <c r="CD14" s="64"/>
-      <c r="CE14" s="64"/>
-      <c r="CF14" s="65"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="97"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="105"/>
+      <c r="AL14" s="106"/>
+      <c r="AM14" s="106"/>
+      <c r="AN14" s="107"/>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="40"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="42"/>
+      <c r="AT14" s="40"/>
+      <c r="AU14" s="40"/>
+      <c r="AV14" s="40"/>
+      <c r="AW14" s="40"/>
+      <c r="AX14" s="40"/>
+      <c r="AY14" s="40"/>
+      <c r="AZ14" s="41"/>
+      <c r="BA14" s="105"/>
+      <c r="BB14" s="106"/>
+      <c r="BC14" s="106"/>
+      <c r="BD14" s="107"/>
+      <c r="BE14" s="40"/>
+      <c r="BF14" s="40"/>
+      <c r="BG14" s="40"/>
+      <c r="BH14" s="41"/>
+      <c r="BI14" s="42"/>
+      <c r="BJ14" s="40"/>
+      <c r="BK14" s="40"/>
+      <c r="BL14" s="40"/>
+      <c r="BM14" s="40"/>
+      <c r="BN14" s="40"/>
+      <c r="BO14" s="40"/>
+      <c r="BP14" s="41"/>
+      <c r="BQ14" s="105"/>
+      <c r="BR14" s="106"/>
+      <c r="BS14" s="106"/>
+      <c r="BT14" s="107"/>
+      <c r="BU14" s="40"/>
+      <c r="BV14" s="40"/>
+      <c r="BW14" s="40"/>
+      <c r="BX14" s="41"/>
+      <c r="BY14" s="42"/>
+      <c r="BZ14" s="40"/>
+      <c r="CA14" s="40"/>
+      <c r="CB14" s="40"/>
+      <c r="CC14" s="40"/>
+      <c r="CD14" s="40"/>
+      <c r="CE14" s="40"/>
+      <c r="CF14" s="41"/>
     </row>
     <row r="15" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="73" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="15"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="67"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="102"/>
-      <c r="AL15" s="103"/>
-      <c r="AM15" s="103"/>
-      <c r="AN15" s="104"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="43"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="105"/>
+      <c r="AL15" s="106"/>
+      <c r="AM15" s="106"/>
+      <c r="AN15" s="107"/>
       <c r="AO15" s="20"/>
       <c r="AP15" s="20"/>
       <c r="AQ15" s="20"/>
@@ -3529,189 +3505,189 @@
       <c r="AW15" s="20"/>
       <c r="AX15" s="20"/>
       <c r="AY15" s="20"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="102"/>
-      <c r="BB15" s="103"/>
-      <c r="BC15" s="103"/>
-      <c r="BD15" s="104"/>
-      <c r="BE15" s="67"/>
-      <c r="BF15" s="67"/>
-      <c r="BG15" s="67"/>
-      <c r="BH15" s="68"/>
-      <c r="BI15" s="69"/>
-      <c r="BJ15" s="67"/>
-      <c r="BK15" s="67"/>
-      <c r="BL15" s="67"/>
-      <c r="BM15" s="67"/>
-      <c r="BN15" s="67"/>
-      <c r="BO15" s="67"/>
-      <c r="BP15" s="68"/>
-      <c r="BQ15" s="102"/>
-      <c r="BR15" s="103"/>
-      <c r="BS15" s="103"/>
-      <c r="BT15" s="104"/>
-      <c r="BU15" s="67"/>
-      <c r="BV15" s="67"/>
-      <c r="BW15" s="67"/>
-      <c r="BX15" s="68"/>
-      <c r="BY15" s="69"/>
-      <c r="BZ15" s="67"/>
-      <c r="CA15" s="67"/>
-      <c r="CB15" s="67"/>
-      <c r="CC15" s="67"/>
-      <c r="CD15" s="67"/>
-      <c r="CE15" s="67"/>
-      <c r="CF15" s="68"/>
+      <c r="AZ15" s="44"/>
+      <c r="BA15" s="105"/>
+      <c r="BB15" s="106"/>
+      <c r="BC15" s="106"/>
+      <c r="BD15" s="107"/>
+      <c r="BE15" s="43"/>
+      <c r="BF15" s="43"/>
+      <c r="BG15" s="43"/>
+      <c r="BH15" s="44"/>
+      <c r="BI15" s="45"/>
+      <c r="BJ15" s="43"/>
+      <c r="BK15" s="43"/>
+      <c r="BL15" s="43"/>
+      <c r="BM15" s="43"/>
+      <c r="BN15" s="43"/>
+      <c r="BO15" s="43"/>
+      <c r="BP15" s="44"/>
+      <c r="BQ15" s="105"/>
+      <c r="BR15" s="106"/>
+      <c r="BS15" s="106"/>
+      <c r="BT15" s="107"/>
+      <c r="BU15" s="43"/>
+      <c r="BV15" s="43"/>
+      <c r="BW15" s="43"/>
+      <c r="BX15" s="44"/>
+      <c r="BY15" s="45"/>
+      <c r="BZ15" s="43"/>
+      <c r="CA15" s="43"/>
+      <c r="CB15" s="43"/>
+      <c r="CC15" s="43"/>
+      <c r="CD15" s="43"/>
+      <c r="CE15" s="43"/>
+      <c r="CF15" s="44"/>
     </row>
     <row r="16" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="121"/>
-      <c r="B16" s="133" t="s">
+      <c r="A16" s="112"/>
+      <c r="B16" s="80" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="67"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="67"/>
-      <c r="AJ16" s="68"/>
-      <c r="AK16" s="102"/>
-      <c r="AL16" s="103"/>
-      <c r="AM16" s="103"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="67"/>
-      <c r="AQ16" s="67"/>
-      <c r="AR16" s="68"/>
-      <c r="AS16" s="69"/>
-      <c r="AT16" s="67"/>
-      <c r="AU16" s="67"/>
-      <c r="AV16" s="67"/>
-      <c r="AW16" s="67"/>
-      <c r="AX16" s="67"/>
-      <c r="AY16" s="67"/>
-      <c r="AZ16" s="116"/>
-      <c r="BA16" s="102"/>
-      <c r="BB16" s="103"/>
-      <c r="BC16" s="103"/>
-      <c r="BD16" s="104"/>
-      <c r="BE16" s="67"/>
-      <c r="BF16" s="67"/>
-      <c r="BG16" s="67"/>
-      <c r="BH16" s="68"/>
-      <c r="BI16" s="69"/>
-      <c r="BJ16" s="67"/>
-      <c r="BK16" s="67"/>
-      <c r="BL16" s="67"/>
-      <c r="BM16" s="67"/>
-      <c r="BN16" s="67"/>
-      <c r="BO16" s="67"/>
-      <c r="BP16" s="68"/>
-      <c r="BQ16" s="102"/>
-      <c r="BR16" s="103"/>
-      <c r="BS16" s="103"/>
-      <c r="BT16" s="104"/>
-      <c r="BU16" s="67"/>
-      <c r="BV16" s="67"/>
-      <c r="BW16" s="67"/>
-      <c r="BX16" s="68"/>
-      <c r="BY16" s="69"/>
-      <c r="BZ16" s="67"/>
-      <c r="CA16" s="67"/>
-      <c r="CB16" s="67"/>
-      <c r="CC16" s="67"/>
-      <c r="CD16" s="67"/>
-      <c r="CE16" s="67"/>
-      <c r="CF16" s="68"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="43"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="43"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="105"/>
+      <c r="AL16" s="106"/>
+      <c r="AM16" s="106"/>
+      <c r="AN16" s="107"/>
+      <c r="AO16" s="43"/>
+      <c r="AP16" s="43"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="43"/>
+      <c r="AU16" s="43"/>
+      <c r="AV16" s="43"/>
+      <c r="AW16" s="43"/>
+      <c r="AX16" s="43"/>
+      <c r="AY16" s="43"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="105"/>
+      <c r="BB16" s="106"/>
+      <c r="BC16" s="106"/>
+      <c r="BD16" s="107"/>
+      <c r="BE16" s="43"/>
+      <c r="BF16" s="43"/>
+      <c r="BG16" s="43"/>
+      <c r="BH16" s="44"/>
+      <c r="BI16" s="45"/>
+      <c r="BJ16" s="43"/>
+      <c r="BK16" s="43"/>
+      <c r="BL16" s="43"/>
+      <c r="BM16" s="43"/>
+      <c r="BN16" s="43"/>
+      <c r="BO16" s="43"/>
+      <c r="BP16" s="44"/>
+      <c r="BQ16" s="105"/>
+      <c r="BR16" s="106"/>
+      <c r="BS16" s="106"/>
+      <c r="BT16" s="107"/>
+      <c r="BU16" s="43"/>
+      <c r="BV16" s="43"/>
+      <c r="BW16" s="43"/>
+      <c r="BX16" s="44"/>
+      <c r="BY16" s="45"/>
+      <c r="BZ16" s="43"/>
+      <c r="CA16" s="43"/>
+      <c r="CB16" s="43"/>
+      <c r="CC16" s="43"/>
+      <c r="CD16" s="43"/>
+      <c r="CE16" s="43"/>
+      <c r="CF16" s="44"/>
     </row>
     <row r="17" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="102"/>
-      <c r="AL17" s="103"/>
-      <c r="AM17" s="103"/>
-      <c r="AN17" s="104"/>
-      <c r="AO17" s="70"/>
-      <c r="AP17" s="70"/>
-      <c r="AQ17" s="70"/>
-      <c r="AR17" s="71"/>
-      <c r="AS17" s="72"/>
-      <c r="AT17" s="70"/>
-      <c r="AU17" s="70"/>
-      <c r="AV17" s="70"/>
-      <c r="AW17" s="70"/>
-      <c r="AX17" s="70"/>
-      <c r="AY17" s="70"/>
-      <c r="AZ17" s="71"/>
-      <c r="BA17" s="102"/>
-      <c r="BB17" s="103"/>
-      <c r="BC17" s="103"/>
-      <c r="BD17" s="104"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="97"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="97"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="105"/>
+      <c r="AL17" s="106"/>
+      <c r="AM17" s="106"/>
+      <c r="AN17" s="107"/>
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="46"/>
+      <c r="AQ17" s="46"/>
+      <c r="AR17" s="47"/>
+      <c r="AS17" s="48"/>
+      <c r="AT17" s="46"/>
+      <c r="AU17" s="46"/>
+      <c r="AV17" s="46"/>
+      <c r="AW17" s="46"/>
+      <c r="AX17" s="46"/>
+      <c r="AY17" s="46"/>
+      <c r="AZ17" s="47"/>
+      <c r="BA17" s="105"/>
+      <c r="BB17" s="106"/>
+      <c r="BC17" s="106"/>
+      <c r="BD17" s="107"/>
       <c r="BE17" s="20"/>
       <c r="BF17" s="20"/>
       <c r="BG17" s="20"/>
@@ -3723,189 +3699,189 @@
       <c r="BM17" s="20"/>
       <c r="BN17" s="20"/>
       <c r="BO17" s="20"/>
-      <c r="BP17" s="71"/>
-      <c r="BQ17" s="102"/>
-      <c r="BR17" s="103"/>
-      <c r="BS17" s="103"/>
-      <c r="BT17" s="104"/>
-      <c r="BU17" s="70"/>
-      <c r="BV17" s="70"/>
-      <c r="BW17" s="70"/>
-      <c r="BX17" s="71"/>
-      <c r="BY17" s="72"/>
-      <c r="BZ17" s="70"/>
-      <c r="CA17" s="70"/>
-      <c r="CB17" s="70"/>
-      <c r="CC17" s="70"/>
-      <c r="CD17" s="70"/>
-      <c r="CE17" s="70"/>
-      <c r="CF17" s="71"/>
+      <c r="BP17" s="47"/>
+      <c r="BQ17" s="105"/>
+      <c r="BR17" s="106"/>
+      <c r="BS17" s="106"/>
+      <c r="BT17" s="107"/>
+      <c r="BU17" s="46"/>
+      <c r="BV17" s="46"/>
+      <c r="BW17" s="46"/>
+      <c r="BX17" s="47"/>
+      <c r="BY17" s="48"/>
+      <c r="BZ17" s="46"/>
+      <c r="CA17" s="46"/>
+      <c r="CB17" s="46"/>
+      <c r="CC17" s="46"/>
+      <c r="CD17" s="46"/>
+      <c r="CE17" s="46"/>
+      <c r="CF17" s="47"/>
     </row>
     <row r="18" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="119"/>
-      <c r="B18" s="132" t="s">
+      <c r="A18" s="114"/>
+      <c r="B18" s="79" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="70"/>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="70"/>
-      <c r="AG18" s="70"/>
-      <c r="AH18" s="70"/>
-      <c r="AI18" s="70"/>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="102"/>
-      <c r="AL18" s="103"/>
-      <c r="AM18" s="103"/>
-      <c r="AN18" s="104"/>
-      <c r="AO18" s="70"/>
-      <c r="AP18" s="70"/>
-      <c r="AQ18" s="70"/>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="70"/>
-      <c r="AU18" s="70"/>
-      <c r="AV18" s="70"/>
-      <c r="AW18" s="70"/>
-      <c r="AX18" s="70"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="71"/>
-      <c r="BA18" s="102"/>
-      <c r="BB18" s="103"/>
-      <c r="BC18" s="103"/>
-      <c r="BD18" s="104"/>
-      <c r="BE18" s="70"/>
-      <c r="BF18" s="70"/>
-      <c r="BG18" s="70"/>
-      <c r="BH18" s="71"/>
-      <c r="BI18" s="72"/>
-      <c r="BJ18" s="70"/>
-      <c r="BK18" s="70"/>
-      <c r="BL18" s="70"/>
-      <c r="BM18" s="70"/>
-      <c r="BN18" s="70"/>
-      <c r="BO18" s="70"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="97"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="105"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="106"/>
+      <c r="AN18" s="107"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="47"/>
+      <c r="AS18" s="48"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="46"/>
+      <c r="AV18" s="46"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="46"/>
+      <c r="AY18" s="46"/>
+      <c r="AZ18" s="47"/>
+      <c r="BA18" s="105"/>
+      <c r="BB18" s="106"/>
+      <c r="BC18" s="106"/>
+      <c r="BD18" s="107"/>
+      <c r="BE18" s="46"/>
+      <c r="BF18" s="46"/>
+      <c r="BG18" s="46"/>
+      <c r="BH18" s="47"/>
+      <c r="BI18" s="48"/>
+      <c r="BJ18" s="46"/>
+      <c r="BK18" s="46"/>
+      <c r="BL18" s="46"/>
+      <c r="BM18" s="46"/>
+      <c r="BN18" s="46"/>
+      <c r="BO18" s="46"/>
       <c r="BP18" s="21"/>
-      <c r="BQ18" s="102"/>
-      <c r="BR18" s="103"/>
-      <c r="BS18" s="103"/>
-      <c r="BT18" s="104"/>
-      <c r="BU18" s="70"/>
-      <c r="BV18" s="70"/>
-      <c r="BW18" s="70"/>
-      <c r="BX18" s="71"/>
-      <c r="BY18" s="72"/>
-      <c r="BZ18" s="70"/>
-      <c r="CA18" s="70"/>
-      <c r="CB18" s="70"/>
-      <c r="CC18" s="70"/>
-      <c r="CD18" s="70"/>
-      <c r="CE18" s="70"/>
-      <c r="CF18" s="71"/>
+      <c r="BQ18" s="105"/>
+      <c r="BR18" s="106"/>
+      <c r="BS18" s="106"/>
+      <c r="BT18" s="107"/>
+      <c r="BU18" s="46"/>
+      <c r="BV18" s="46"/>
+      <c r="BW18" s="46"/>
+      <c r="BX18" s="47"/>
+      <c r="BY18" s="48"/>
+      <c r="BZ18" s="46"/>
+      <c r="CA18" s="46"/>
+      <c r="CB18" s="46"/>
+      <c r="CC18" s="46"/>
+      <c r="CD18" s="46"/>
+      <c r="CE18" s="46"/>
+      <c r="CF18" s="47"/>
     </row>
     <row r="19" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="73"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="74"/>
-      <c r="AK19" s="102"/>
-      <c r="AL19" s="103"/>
-      <c r="AM19" s="103"/>
-      <c r="AN19" s="104"/>
-      <c r="AO19" s="73"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="74"/>
-      <c r="AS19" s="75"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="73"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="73"/>
-      <c r="AY19" s="73"/>
-      <c r="AZ19" s="74"/>
-      <c r="BA19" s="102"/>
-      <c r="BB19" s="103"/>
-      <c r="BC19" s="103"/>
-      <c r="BD19" s="104"/>
-      <c r="BE19" s="73"/>
-      <c r="BF19" s="73"/>
-      <c r="BG19" s="73"/>
-      <c r="BH19" s="74"/>
-      <c r="BI19" s="75"/>
-      <c r="BJ19" s="73"/>
-      <c r="BK19" s="73"/>
-      <c r="BL19" s="73"/>
-      <c r="BM19" s="73"/>
-      <c r="BN19" s="73"/>
-      <c r="BO19" s="73"/>
-      <c r="BP19" s="74"/>
-      <c r="BQ19" s="102"/>
-      <c r="BR19" s="103"/>
-      <c r="BS19" s="103"/>
-      <c r="BT19" s="104"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="97"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="97"/>
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="49"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="49"/>
+      <c r="AI19" s="49"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="105"/>
+      <c r="AL19" s="106"/>
+      <c r="AM19" s="106"/>
+      <c r="AN19" s="107"/>
+      <c r="AO19" s="49"/>
+      <c r="AP19" s="49"/>
+      <c r="AQ19" s="49"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="49"/>
+      <c r="AU19" s="49"/>
+      <c r="AV19" s="49"/>
+      <c r="AW19" s="49"/>
+      <c r="AX19" s="49"/>
+      <c r="AY19" s="49"/>
+      <c r="AZ19" s="50"/>
+      <c r="BA19" s="105"/>
+      <c r="BB19" s="106"/>
+      <c r="BC19" s="106"/>
+      <c r="BD19" s="107"/>
+      <c r="BE19" s="49"/>
+      <c r="BF19" s="49"/>
+      <c r="BG19" s="49"/>
+      <c r="BH19" s="50"/>
+      <c r="BI19" s="51"/>
+      <c r="BJ19" s="49"/>
+      <c r="BK19" s="49"/>
+      <c r="BL19" s="49"/>
+      <c r="BM19" s="49"/>
+      <c r="BN19" s="49"/>
+      <c r="BO19" s="49"/>
+      <c r="BP19" s="50"/>
+      <c r="BQ19" s="105"/>
+      <c r="BR19" s="106"/>
+      <c r="BS19" s="106"/>
+      <c r="BT19" s="107"/>
       <c r="BU19" s="20"/>
       <c r="BV19" s="20"/>
       <c r="BW19" s="20"/>
@@ -3916,383 +3892,372 @@
       <c r="CB19" s="20"/>
       <c r="CC19" s="20"/>
       <c r="CD19" s="20"/>
-      <c r="CE19" s="73"/>
-      <c r="CF19" s="74"/>
+      <c r="CE19" s="49"/>
+      <c r="CF19" s="50"/>
     </row>
     <row r="20" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="128"/>
-      <c r="B20" s="134" t="s">
+      <c r="A20" s="119"/>
+      <c r="B20" s="81" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="109"/>
-      <c r="AE20" s="109"/>
-      <c r="AF20" s="109"/>
-      <c r="AG20" s="109"/>
-      <c r="AH20" s="109"/>
-      <c r="AI20" s="109"/>
-      <c r="AJ20" s="110"/>
-      <c r="AK20" s="102"/>
-      <c r="AL20" s="103"/>
-      <c r="AM20" s="103"/>
-      <c r="AN20" s="104"/>
-      <c r="AO20" s="109"/>
-      <c r="AP20" s="109"/>
-      <c r="AQ20" s="109"/>
-      <c r="AR20" s="110"/>
-      <c r="AS20" s="111"/>
-      <c r="AT20" s="109"/>
-      <c r="AU20" s="109"/>
-      <c r="AV20" s="109"/>
-      <c r="AW20" s="109"/>
-      <c r="AX20" s="109"/>
-      <c r="AY20" s="109"/>
-      <c r="AZ20" s="110"/>
-      <c r="BA20" s="102"/>
-      <c r="BB20" s="103"/>
-      <c r="BC20" s="103"/>
-      <c r="BD20" s="104"/>
-      <c r="BE20" s="109"/>
-      <c r="BF20" s="109"/>
-      <c r="BG20" s="109"/>
-      <c r="BH20" s="110"/>
-      <c r="BI20" s="111"/>
-      <c r="BJ20" s="109"/>
-      <c r="BK20" s="109"/>
-      <c r="BL20" s="109"/>
-      <c r="BM20" s="109"/>
-      <c r="BN20" s="109"/>
-      <c r="BO20" s="109"/>
-      <c r="BP20" s="110"/>
-      <c r="BQ20" s="102"/>
-      <c r="BR20" s="103"/>
-      <c r="BS20" s="103"/>
-      <c r="BT20" s="104"/>
-      <c r="BU20" s="109"/>
-      <c r="BV20" s="109"/>
-      <c r="BW20" s="109"/>
-      <c r="BX20" s="110"/>
-      <c r="BY20" s="111"/>
-      <c r="BZ20" s="109"/>
-      <c r="CA20" s="109"/>
-      <c r="CB20" s="109"/>
-      <c r="CC20" s="109"/>
-      <c r="CD20" s="109"/>
-      <c r="CE20" s="112"/>
-      <c r="CF20" s="110"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="97"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="105"/>
+      <c r="AL20" s="106"/>
+      <c r="AM20" s="106"/>
+      <c r="AN20" s="107"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="67"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="66"/>
+      <c r="BA20" s="105"/>
+      <c r="BB20" s="106"/>
+      <c r="BC20" s="106"/>
+      <c r="BD20" s="107"/>
+      <c r="BE20" s="65"/>
+      <c r="BF20" s="65"/>
+      <c r="BG20" s="65"/>
+      <c r="BH20" s="66"/>
+      <c r="BI20" s="67"/>
+      <c r="BJ20" s="65"/>
+      <c r="BK20" s="65"/>
+      <c r="BL20" s="65"/>
+      <c r="BM20" s="65"/>
+      <c r="BN20" s="65"/>
+      <c r="BO20" s="65"/>
+      <c r="BP20" s="66"/>
+      <c r="BQ20" s="105"/>
+      <c r="BR20" s="106"/>
+      <c r="BS20" s="106"/>
+      <c r="BT20" s="107"/>
+      <c r="BU20" s="65"/>
+      <c r="BV20" s="65"/>
+      <c r="BW20" s="65"/>
+      <c r="BX20" s="66"/>
+      <c r="BY20" s="67"/>
+      <c r="BZ20" s="65"/>
+      <c r="CA20" s="65"/>
+      <c r="CB20" s="65"/>
+      <c r="CC20" s="65"/>
+      <c r="CD20" s="65"/>
+      <c r="CE20" s="68"/>
+      <c r="CF20" s="66"/>
     </row>
     <row r="21" spans="1:84" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="76" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="77"/>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="77"/>
-      <c r="AH21" s="77"/>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="102"/>
-      <c r="AL21" s="103"/>
-      <c r="AM21" s="103"/>
-      <c r="AN21" s="104"/>
-      <c r="AO21" s="77"/>
-      <c r="AP21" s="77"/>
-      <c r="AQ21" s="77"/>
-      <c r="AR21" s="78"/>
-      <c r="AS21" s="79"/>
-      <c r="AT21" s="77"/>
-      <c r="AU21" s="77"/>
-      <c r="AV21" s="77"/>
-      <c r="AW21" s="77"/>
-      <c r="AX21" s="77"/>
-      <c r="AY21" s="77"/>
-      <c r="AZ21" s="78"/>
-      <c r="BA21" s="102"/>
-      <c r="BB21" s="103"/>
-      <c r="BC21" s="103"/>
-      <c r="BD21" s="104"/>
-      <c r="BE21" s="77"/>
-      <c r="BF21" s="77"/>
-      <c r="BG21" s="77"/>
-      <c r="BH21" s="78"/>
-      <c r="BI21" s="79"/>
-      <c r="BJ21" s="77"/>
-      <c r="BK21" s="77"/>
-      <c r="BL21" s="77"/>
-      <c r="BM21" s="77"/>
-      <c r="BN21" s="77"/>
-      <c r="BO21" s="77"/>
-      <c r="BP21" s="78"/>
-      <c r="BQ21" s="102"/>
-      <c r="BR21" s="103"/>
-      <c r="BS21" s="103"/>
-      <c r="BT21" s="104"/>
-      <c r="BU21" s="77"/>
-      <c r="BV21" s="77"/>
-      <c r="BW21" s="77"/>
-      <c r="BX21" s="78"/>
-      <c r="BY21" s="79"/>
-      <c r="BZ21" s="77"/>
-      <c r="CA21" s="77"/>
-      <c r="CB21" s="77"/>
-      <c r="CC21" s="77"/>
-      <c r="CD21" s="77"/>
-      <c r="CE21" s="77"/>
-      <c r="CF21" s="41"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="53"/>
+      <c r="AE21" s="53"/>
+      <c r="AF21" s="53"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="53"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="105"/>
+      <c r="AL21" s="106"/>
+      <c r="AM21" s="106"/>
+      <c r="AN21" s="107"/>
+      <c r="AO21" s="53"/>
+      <c r="AP21" s="53"/>
+      <c r="AQ21" s="53"/>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="53"/>
+      <c r="AU21" s="53"/>
+      <c r="AV21" s="53"/>
+      <c r="AW21" s="53"/>
+      <c r="AX21" s="53"/>
+      <c r="AY21" s="53"/>
+      <c r="AZ21" s="54"/>
+      <c r="BA21" s="105"/>
+      <c r="BB21" s="106"/>
+      <c r="BC21" s="106"/>
+      <c r="BD21" s="107"/>
+      <c r="BE21" s="53"/>
+      <c r="BF21" s="53"/>
+      <c r="BG21" s="53"/>
+      <c r="BH21" s="54"/>
+      <c r="BI21" s="55"/>
+      <c r="BJ21" s="53"/>
+      <c r="BK21" s="53"/>
+      <c r="BL21" s="53"/>
+      <c r="BM21" s="53"/>
+      <c r="BN21" s="53"/>
+      <c r="BO21" s="53"/>
+      <c r="BP21" s="54"/>
+      <c r="BQ21" s="105"/>
+      <c r="BR21" s="106"/>
+      <c r="BS21" s="106"/>
+      <c r="BT21" s="107"/>
+      <c r="BU21" s="53"/>
+      <c r="BV21" s="53"/>
+      <c r="BW21" s="53"/>
+      <c r="BX21" s="54"/>
+      <c r="BY21" s="55"/>
+      <c r="BZ21" s="53"/>
+      <c r="CA21" s="53"/>
+      <c r="CB21" s="53"/>
+      <c r="CC21" s="53"/>
+      <c r="CD21" s="53"/>
+      <c r="CE21" s="53"/>
+      <c r="CF21" s="23"/>
     </row>
     <row r="22" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="57" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="85"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="85"/>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="86"/>
-      <c r="AK22" s="102"/>
-      <c r="AL22" s="103"/>
-      <c r="AM22" s="103"/>
-      <c r="AN22" s="104"/>
-      <c r="AO22" s="85"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="86"/>
-      <c r="AS22" s="84"/>
-      <c r="AT22" s="85"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="85"/>
-      <c r="AW22" s="85"/>
-      <c r="AX22" s="85"/>
-      <c r="AY22" s="85"/>
-      <c r="AZ22" s="86"/>
-      <c r="BA22" s="102"/>
-      <c r="BB22" s="103"/>
-      <c r="BC22" s="103"/>
-      <c r="BD22" s="104"/>
-      <c r="BE22" s="85"/>
-      <c r="BF22" s="85"/>
-      <c r="BG22" s="85"/>
-      <c r="BH22" s="86"/>
-      <c r="BI22" s="84"/>
-      <c r="BJ22" s="85"/>
-      <c r="BK22" s="85"/>
-      <c r="BL22" s="85"/>
-      <c r="BM22" s="85"/>
-      <c r="BN22" s="85"/>
-      <c r="BO22" s="85"/>
-      <c r="BP22" s="86"/>
-      <c r="BQ22" s="102"/>
-      <c r="BR22" s="103"/>
-      <c r="BS22" s="103"/>
-      <c r="BT22" s="104"/>
-      <c r="BU22" s="85"/>
-      <c r="BV22" s="85"/>
-      <c r="BW22" s="85"/>
-      <c r="BX22" s="86"/>
-      <c r="BY22" s="84"/>
-      <c r="BZ22" s="85"/>
-      <c r="CA22" s="85"/>
-      <c r="CB22" s="85"/>
-      <c r="CC22" s="85"/>
-      <c r="CD22" s="85"/>
-      <c r="CE22" s="85"/>
-      <c r="CF22" s="86"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="97"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="105"/>
+      <c r="AL22" s="106"/>
+      <c r="AM22" s="106"/>
+      <c r="AN22" s="107"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="60"/>
+      <c r="AS22" s="58"/>
+      <c r="AT22" s="59"/>
+      <c r="AU22" s="59"/>
+      <c r="AV22" s="59"/>
+      <c r="AW22" s="59"/>
+      <c r="AX22" s="59"/>
+      <c r="AY22" s="59"/>
+      <c r="AZ22" s="60"/>
+      <c r="BA22" s="105"/>
+      <c r="BB22" s="106"/>
+      <c r="BC22" s="106"/>
+      <c r="BD22" s="107"/>
+      <c r="BE22" s="59"/>
+      <c r="BF22" s="59"/>
+      <c r="BG22" s="59"/>
+      <c r="BH22" s="60"/>
+      <c r="BI22" s="58"/>
+      <c r="BJ22" s="59"/>
+      <c r="BK22" s="59"/>
+      <c r="BL22" s="59"/>
+      <c r="BM22" s="59"/>
+      <c r="BN22" s="59"/>
+      <c r="BO22" s="59"/>
+      <c r="BP22" s="60"/>
+      <c r="BQ22" s="105"/>
+      <c r="BR22" s="106"/>
+      <c r="BS22" s="106"/>
+      <c r="BT22" s="107"/>
+      <c r="BU22" s="59"/>
+      <c r="BV22" s="59"/>
+      <c r="BW22" s="59"/>
+      <c r="BX22" s="60"/>
+      <c r="BY22" s="58"/>
+      <c r="BZ22" s="59"/>
+      <c r="CA22" s="59"/>
+      <c r="CB22" s="59"/>
+      <c r="CC22" s="59"/>
+      <c r="CD22" s="59"/>
+      <c r="CE22" s="59"/>
+      <c r="CF22" s="60"/>
     </row>
     <row r="23" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="82" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="99"/>
-      <c r="AA23" s="99"/>
-      <c r="AB23" s="100"/>
-      <c r="AC23" s="87"/>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="88"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="88"/>
-      <c r="AH23" s="88"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="89"/>
-      <c r="AK23" s="105"/>
-      <c r="AL23" s="106"/>
-      <c r="AM23" s="106"/>
-      <c r="AN23" s="107"/>
-      <c r="AO23" s="88"/>
-      <c r="AP23" s="88"/>
-      <c r="AQ23" s="88"/>
-      <c r="AR23" s="89"/>
-      <c r="AS23" s="87"/>
-      <c r="AT23" s="88"/>
-      <c r="AU23" s="88"/>
-      <c r="AV23" s="88"/>
-      <c r="AW23" s="88"/>
-      <c r="AX23" s="88"/>
-      <c r="AY23" s="88"/>
-      <c r="AZ23" s="89"/>
-      <c r="BA23" s="105"/>
-      <c r="BB23" s="106"/>
-      <c r="BC23" s="106"/>
-      <c r="BD23" s="107"/>
-      <c r="BE23" s="88"/>
-      <c r="BF23" s="88"/>
-      <c r="BG23" s="88"/>
-      <c r="BH23" s="89"/>
-      <c r="BI23" s="87"/>
-      <c r="BJ23" s="88"/>
-      <c r="BK23" s="88"/>
-      <c r="BL23" s="88"/>
-      <c r="BM23" s="88"/>
-      <c r="BN23" s="88"/>
-      <c r="BO23" s="88"/>
-      <c r="BP23" s="89"/>
-      <c r="BQ23" s="105"/>
-      <c r="BR23" s="106"/>
-      <c r="BS23" s="106"/>
-      <c r="BT23" s="107"/>
-      <c r="BU23" s="88"/>
-      <c r="BV23" s="88"/>
-      <c r="BW23" s="88"/>
-      <c r="BX23" s="89"/>
-      <c r="BY23" s="87"/>
-      <c r="BZ23" s="88"/>
-      <c r="CA23" s="88"/>
-      <c r="CB23" s="88"/>
-      <c r="CC23" s="88"/>
-      <c r="CD23" s="88"/>
-      <c r="CE23" s="88"/>
-      <c r="CF23" s="89"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="100"/>
+      <c r="AB23" s="101"/>
+      <c r="AC23" s="61"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="108"/>
+      <c r="AL23" s="109"/>
+      <c r="AM23" s="109"/>
+      <c r="AN23" s="110"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="63"/>
+      <c r="AS23" s="61"/>
+      <c r="AT23" s="62"/>
+      <c r="AU23" s="62"/>
+      <c r="AV23" s="62"/>
+      <c r="AW23" s="62"/>
+      <c r="AX23" s="62"/>
+      <c r="AY23" s="62"/>
+      <c r="AZ23" s="63"/>
+      <c r="BA23" s="108"/>
+      <c r="BB23" s="109"/>
+      <c r="BC23" s="109"/>
+      <c r="BD23" s="110"/>
+      <c r="BE23" s="62"/>
+      <c r="BF23" s="62"/>
+      <c r="BG23" s="62"/>
+      <c r="BH23" s="63"/>
+      <c r="BI23" s="61"/>
+      <c r="BJ23" s="62"/>
+      <c r="BK23" s="62"/>
+      <c r="BL23" s="62"/>
+      <c r="BM23" s="62"/>
+      <c r="BN23" s="62"/>
+      <c r="BO23" s="62"/>
+      <c r="BP23" s="63"/>
+      <c r="BQ23" s="108"/>
+      <c r="BR23" s="109"/>
+      <c r="BS23" s="109"/>
+      <c r="BT23" s="110"/>
+      <c r="BU23" s="62"/>
+      <c r="BV23" s="62"/>
+      <c r="BW23" s="62"/>
+      <c r="BX23" s="63"/>
+      <c r="BY23" s="61"/>
+      <c r="BZ23" s="62"/>
+      <c r="CA23" s="62"/>
+      <c r="CB23" s="62"/>
+      <c r="CC23" s="62"/>
+      <c r="CD23" s="62"/>
+      <c r="CE23" s="62"/>
+      <c r="CF23" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E6:H23"/>
-    <mergeCell ref="U6:AB23"/>
-    <mergeCell ref="AK6:AN23"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="BY4:CB4"/>
-    <mergeCell ref="CC4:CF4"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
     <mergeCell ref="BA6:BD23"/>
     <mergeCell ref="BQ6:BT23"/>
     <mergeCell ref="E2:AR3"/>
@@ -4309,13 +4274,24 @@
     <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="AS4:AV4"/>
     <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="BY4:CB4"/>
+    <mergeCell ref="CC4:CF4"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="BU4:BX4"/>
     <mergeCell ref="BQ4:BT4"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E6:H23"/>
+    <mergeCell ref="U6:AB23"/>
+    <mergeCell ref="AK6:AN23"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="C6:C23">
@@ -4557,6 +4533,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -4565,15 +4550,6 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4596,6 +4572,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4606,12 +4590,4 @@
     <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="548" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{007E7C72-24A6-48FD-8C8E-3BB250EB8517}"/>
+  <xr:revisionPtr revIDLastSave="565" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E452995-2E53-4286-95B3-DFAB6ED4D4BC}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1316,6 +1316,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1369,8 +1381,8 @@
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -1388,7 +1400,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="5086350" y="685801"/>
-          <a:ext cx="4305301" cy="3990974"/>
+          <a:ext cx="4591050" cy="3990974"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2011,7 +2023,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AI32" sqref="AI32:AJ32"/>
+      <selection pane="bottomRight" activeCell="CA30" sqref="CA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4122,15 +4134,15 @@
       <c r="AO22" s="59"/>
       <c r="AP22" s="59"/>
       <c r="AQ22" s="59"/>
-      <c r="AR22" s="60"/>
+      <c r="AR22" s="136"/>
       <c r="AS22" s="58"/>
       <c r="AT22" s="59"/>
       <c r="AU22" s="59"/>
       <c r="AV22" s="59"/>
       <c r="AW22" s="59"/>
-      <c r="AX22" s="59"/>
-      <c r="AY22" s="59"/>
-      <c r="AZ22" s="60"/>
+      <c r="AX22" s="135"/>
+      <c r="AY22" s="135"/>
+      <c r="AZ22" s="136"/>
       <c r="BA22" s="105"/>
       <c r="BB22" s="106"/>
       <c r="BC22" s="106"/>
@@ -4138,15 +4150,15 @@
       <c r="BE22" s="59"/>
       <c r="BF22" s="59"/>
       <c r="BG22" s="59"/>
-      <c r="BH22" s="60"/>
+      <c r="BH22" s="136"/>
       <c r="BI22" s="58"/>
       <c r="BJ22" s="59"/>
       <c r="BK22" s="59"/>
       <c r="BL22" s="59"/>
       <c r="BM22" s="59"/>
-      <c r="BN22" s="59"/>
-      <c r="BO22" s="59"/>
-      <c r="BP22" s="60"/>
+      <c r="BN22" s="135"/>
+      <c r="BO22" s="135"/>
+      <c r="BP22" s="136"/>
       <c r="BQ22" s="105"/>
       <c r="BR22" s="106"/>
       <c r="BS22" s="106"/>
@@ -4154,14 +4166,14 @@
       <c r="BU22" s="59"/>
       <c r="BV22" s="59"/>
       <c r="BW22" s="59"/>
-      <c r="BX22" s="60"/>
+      <c r="BX22" s="136"/>
       <c r="BY22" s="58"/>
       <c r="BZ22" s="59"/>
       <c r="CA22" s="59"/>
-      <c r="CB22" s="59"/>
-      <c r="CC22" s="59"/>
-      <c r="CD22" s="59"/>
-      <c r="CE22" s="59"/>
+      <c r="CB22" s="135"/>
+      <c r="CC22" s="135"/>
+      <c r="CD22" s="135"/>
+      <c r="CE22" s="135"/>
       <c r="CF22" s="60"/>
     </row>
     <row r="23" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4247,10 +4259,10 @@
       <c r="BY23" s="61"/>
       <c r="BZ23" s="62"/>
       <c r="CA23" s="62"/>
-      <c r="CB23" s="62"/>
-      <c r="CC23" s="62"/>
-      <c r="CD23" s="62"/>
-      <c r="CE23" s="62"/>
+      <c r="CB23" s="137"/>
+      <c r="CC23" s="137"/>
+      <c r="CD23" s="137"/>
+      <c r="CE23" s="137"/>
       <c r="CF23" s="63"/>
     </row>
   </sheetData>

--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="565" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E452995-2E53-4286-95B3-DFAB6ED4D4BC}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64637A20-91FE-4518-9853-634E9E5FED83}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1378,13 +1378,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1399,7 +1399,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5086350" y="685801"/>
+          <a:off x="5086350" y="657226"/>
           <a:ext cx="4591050" cy="3990974"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2023,7 +2023,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CA30" sqref="CA30"/>
+      <selection pane="bottomRight" activeCell="AU32" sqref="AU32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4125,8 +4125,8 @@
       <c r="AF22" s="59"/>
       <c r="AG22" s="59"/>
       <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="60"/>
+      <c r="AI22" s="135"/>
+      <c r="AJ22" s="136"/>
       <c r="AK22" s="105"/>
       <c r="AL22" s="106"/>
       <c r="AM22" s="106"/>

--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="567" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64637A20-91FE-4518-9853-634E9E5FED83}"/>
+  <xr:revisionPtr revIDLastSave="596" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC739C07-F651-4C10-A8A9-8BB83FFCE789}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Tâches</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Sprint review</t>
+  </si>
+  <si>
+    <t>En Cours</t>
   </si>
 </sst>
 </file>
@@ -1106,6 +1109,98 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1186,42 +1281,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1258,50 +1317,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1316,18 +1331,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1375,16 +1378,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1399,11 +1402,13 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5086350" y="657226"/>
-          <a:ext cx="4591050" cy="3990974"/>
+          <a:off x="5057775" y="676275"/>
+          <a:ext cx="5753100" cy="4010024"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 17854"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent6">
@@ -1429,63 +1434,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="fr-CH" sz="900"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Losange 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE365392-7CEE-D70B-BE3F-0FC1177EECBF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9953625" y="2447925"/>
-          <a:ext cx="123825" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CH" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1632,6 +1580,63 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="16668750" y="3829050"/>
+          <a:ext cx="142875" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Losange 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C016B22A-05F8-4D01-860A-D3CF90744875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10953750" y="2447925"/>
           <a:ext cx="142875" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -2023,7 +2028,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AU32" sqref="AU32"/>
+      <selection pane="bottomRight" activeCell="AT27" sqref="AT27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2038,10 +2043,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="100"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="1"/>
@@ -2086,310 +2091,310 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="128"/>
+      <c r="B2" s="102"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="124"/>
-      <c r="AA2" s="124"/>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="124"/>
-      <c r="AM2" s="124"/>
-      <c r="AN2" s="124"/>
-      <c r="AO2" s="124"/>
-      <c r="AP2" s="124"/>
-      <c r="AQ2" s="124"/>
-      <c r="AR2" s="124"/>
-      <c r="AS2" s="124"/>
-      <c r="AT2" s="124"/>
-      <c r="AU2" s="124"/>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="124"/>
-      <c r="AY2" s="124"/>
-      <c r="AZ2" s="124"/>
-      <c r="BA2" s="124"/>
-      <c r="BB2" s="124"/>
-      <c r="BC2" s="124"/>
-      <c r="BD2" s="124"/>
-      <c r="BE2" s="124"/>
-      <c r="BF2" s="124"/>
-      <c r="BG2" s="124"/>
-      <c r="BH2" s="124"/>
-      <c r="BI2" s="124"/>
-      <c r="BJ2" s="124"/>
-      <c r="BK2" s="124"/>
-      <c r="BL2" s="124"/>
-      <c r="BM2" s="124"/>
-      <c r="BN2" s="124"/>
-      <c r="BO2" s="124"/>
-      <c r="BP2" s="124"/>
-      <c r="BQ2" s="124"/>
-      <c r="BR2" s="124"/>
-      <c r="BS2" s="124"/>
-      <c r="BT2" s="124"/>
-      <c r="BU2" s="124"/>
-      <c r="BV2" s="124"/>
-      <c r="BW2" s="124"/>
-      <c r="BX2" s="124"/>
-      <c r="BY2" s="124"/>
-      <c r="BZ2" s="124"/>
-      <c r="CA2" s="124"/>
-      <c r="CB2" s="124"/>
-      <c r="CC2" s="124"/>
-      <c r="CD2" s="124"/>
-      <c r="CE2" s="124"/>
-      <c r="CF2" s="124"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="98"/>
+      <c r="AW2" s="98"/>
+      <c r="AX2" s="98"/>
+      <c r="AY2" s="98"/>
+      <c r="AZ2" s="98"/>
+      <c r="BA2" s="98"/>
+      <c r="BB2" s="98"/>
+      <c r="BC2" s="98"/>
+      <c r="BD2" s="98"/>
+      <c r="BE2" s="98"/>
+      <c r="BF2" s="98"/>
+      <c r="BG2" s="98"/>
+      <c r="BH2" s="98"/>
+      <c r="BI2" s="98"/>
+      <c r="BJ2" s="98"/>
+      <c r="BK2" s="98"/>
+      <c r="BL2" s="98"/>
+      <c r="BM2" s="98"/>
+      <c r="BN2" s="98"/>
+      <c r="BO2" s="98"/>
+      <c r="BP2" s="98"/>
+      <c r="BQ2" s="98"/>
+      <c r="BR2" s="98"/>
+      <c r="BS2" s="98"/>
+      <c r="BT2" s="98"/>
+      <c r="BU2" s="98"/>
+      <c r="BV2" s="98"/>
+      <c r="BW2" s="98"/>
+      <c r="BX2" s="98"/>
+      <c r="BY2" s="98"/>
+      <c r="BZ2" s="98"/>
+      <c r="CA2" s="98"/>
+      <c r="CB2" s="98"/>
+      <c r="CC2" s="98"/>
+      <c r="CD2" s="98"/>
+      <c r="CE2" s="98"/>
+      <c r="CF2" s="98"/>
     </row>
     <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
-      <c r="AL3" s="125"/>
-      <c r="AM3" s="125"/>
-      <c r="AN3" s="125"/>
-      <c r="AO3" s="125"/>
-      <c r="AP3" s="125"/>
-      <c r="AQ3" s="125"/>
-      <c r="AR3" s="125"/>
-      <c r="AS3" s="125"/>
-      <c r="AT3" s="125"/>
-      <c r="AU3" s="125"/>
-      <c r="AV3" s="125"/>
-      <c r="AW3" s="125"/>
-      <c r="AX3" s="125"/>
-      <c r="AY3" s="125"/>
-      <c r="AZ3" s="125"/>
-      <c r="BA3" s="125"/>
-      <c r="BB3" s="125"/>
-      <c r="BC3" s="125"/>
-      <c r="BD3" s="125"/>
-      <c r="BE3" s="125"/>
-      <c r="BF3" s="125"/>
-      <c r="BG3" s="125"/>
-      <c r="BH3" s="125"/>
-      <c r="BI3" s="125"/>
-      <c r="BJ3" s="125"/>
-      <c r="BK3" s="125"/>
-      <c r="BL3" s="125"/>
-      <c r="BM3" s="125"/>
-      <c r="BN3" s="125"/>
-      <c r="BO3" s="125"/>
-      <c r="BP3" s="125"/>
-      <c r="BQ3" s="125"/>
-      <c r="BR3" s="125"/>
-      <c r="BS3" s="125"/>
-      <c r="BT3" s="125"/>
-      <c r="BU3" s="125"/>
-      <c r="BV3" s="125"/>
-      <c r="BW3" s="125"/>
-      <c r="BX3" s="125"/>
-      <c r="BY3" s="125"/>
-      <c r="BZ3" s="125"/>
-      <c r="CA3" s="125"/>
-      <c r="CB3" s="125"/>
-      <c r="CC3" s="125"/>
-      <c r="CD3" s="125"/>
-      <c r="CE3" s="125"/>
-      <c r="CF3" s="125"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="99"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
+      <c r="AL3" s="99"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="99"/>
+      <c r="AP3" s="99"/>
+      <c r="AQ3" s="99"/>
+      <c r="AR3" s="99"/>
+      <c r="AS3" s="99"/>
+      <c r="AT3" s="99"/>
+      <c r="AU3" s="99"/>
+      <c r="AV3" s="99"/>
+      <c r="AW3" s="99"/>
+      <c r="AX3" s="99"/>
+      <c r="AY3" s="99"/>
+      <c r="AZ3" s="99"/>
+      <c r="BA3" s="99"/>
+      <c r="BB3" s="99"/>
+      <c r="BC3" s="99"/>
+      <c r="BD3" s="99"/>
+      <c r="BE3" s="99"/>
+      <c r="BF3" s="99"/>
+      <c r="BG3" s="99"/>
+      <c r="BH3" s="99"/>
+      <c r="BI3" s="99"/>
+      <c r="BJ3" s="99"/>
+      <c r="BK3" s="99"/>
+      <c r="BL3" s="99"/>
+      <c r="BM3" s="99"/>
+      <c r="BN3" s="99"/>
+      <c r="BO3" s="99"/>
+      <c r="BP3" s="99"/>
+      <c r="BQ3" s="99"/>
+      <c r="BR3" s="99"/>
+      <c r="BS3" s="99"/>
+      <c r="BT3" s="99"/>
+      <c r="BU3" s="99"/>
+      <c r="BV3" s="99"/>
+      <c r="BW3" s="99"/>
+      <c r="BX3" s="99"/>
+      <c r="BY3" s="99"/>
+      <c r="BZ3" s="99"/>
+      <c r="CA3" s="99"/>
+      <c r="CB3" s="99"/>
+      <c r="CC3" s="99"/>
+      <c r="CD3" s="99"/>
+      <c r="CE3" s="99"/>
+      <c r="CF3" s="99"/>
     </row>
     <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="130"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="122">
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="85">
         <v>45995</v>
       </c>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="120" t="s">
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="122">
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="85">
         <v>45996</v>
       </c>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="120" t="s">
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="122">
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="85">
         <v>46002</v>
       </c>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="120" t="s">
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="121"/>
-      <c r="AG4" s="122">
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="85">
         <v>46003</v>
       </c>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="122"/>
-      <c r="AJ4" s="123"/>
-      <c r="AK4" s="120" t="s">
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="121"/>
-      <c r="AM4" s="121"/>
-      <c r="AN4" s="121"/>
-      <c r="AO4" s="122">
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="85">
         <v>46009</v>
       </c>
-      <c r="AP4" s="122"/>
-      <c r="AQ4" s="122"/>
-      <c r="AR4" s="123"/>
-      <c r="AS4" s="120" t="s">
+      <c r="AP4" s="85"/>
+      <c r="AQ4" s="85"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="AT4" s="121"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="121"/>
-      <c r="AW4" s="122">
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="85">
         <v>46010</v>
       </c>
-      <c r="AX4" s="122"/>
-      <c r="AY4" s="122"/>
-      <c r="AZ4" s="123"/>
-      <c r="BA4" s="120" t="s">
+      <c r="AX4" s="85"/>
+      <c r="AY4" s="85"/>
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="BB4" s="121"/>
-      <c r="BC4" s="121"/>
-      <c r="BD4" s="121"/>
-      <c r="BE4" s="122">
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="85">
         <v>46030</v>
       </c>
-      <c r="BF4" s="122"/>
-      <c r="BG4" s="122"/>
-      <c r="BH4" s="123"/>
-      <c r="BI4" s="120" t="s">
+      <c r="BF4" s="85"/>
+      <c r="BG4" s="85"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="BJ4" s="121"/>
-      <c r="BK4" s="121"/>
-      <c r="BL4" s="121"/>
-      <c r="BM4" s="122">
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="88"/>
+      <c r="BM4" s="85">
         <v>46031</v>
       </c>
-      <c r="BN4" s="122"/>
-      <c r="BO4" s="122"/>
-      <c r="BP4" s="123"/>
-      <c r="BQ4" s="120" t="s">
+      <c r="BN4" s="85"/>
+      <c r="BO4" s="85"/>
+      <c r="BP4" s="86"/>
+      <c r="BQ4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="BR4" s="121"/>
-      <c r="BS4" s="121"/>
-      <c r="BT4" s="121"/>
-      <c r="BU4" s="122">
+      <c r="BR4" s="88"/>
+      <c r="BS4" s="88"/>
+      <c r="BT4" s="88"/>
+      <c r="BU4" s="85">
         <v>46037</v>
       </c>
-      <c r="BV4" s="122"/>
-      <c r="BW4" s="122"/>
-      <c r="BX4" s="123"/>
-      <c r="BY4" s="120" t="s">
+      <c r="BV4" s="85"/>
+      <c r="BW4" s="85"/>
+      <c r="BX4" s="86"/>
+      <c r="BY4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="BZ4" s="121"/>
-      <c r="CA4" s="121"/>
-      <c r="CB4" s="121"/>
-      <c r="CC4" s="122">
+      <c r="BZ4" s="88"/>
+      <c r="CA4" s="88"/>
+      <c r="CB4" s="88"/>
+      <c r="CC4" s="85">
         <v>46038</v>
       </c>
-      <c r="CD4" s="122"/>
-      <c r="CE4" s="122"/>
-      <c r="CF4" s="123"/>
+      <c r="CD4" s="85"/>
+      <c r="CE4" s="85"/>
+      <c r="CF4" s="86"/>
     </row>
     <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2638,7 +2643,7 @@
       </c>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="134" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -2648,12 +2653,12 @@
         <v>23</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="86"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="109"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="17"/>
@@ -2666,16 +2671,16 @@
       <c r="R6" s="30"/>
       <c r="S6" s="30"/>
       <c r="T6" s="31"/>
-      <c r="U6" s="93" t="s">
+      <c r="U6" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="94"/>
-      <c r="Y6" s="94"/>
-      <c r="Z6" s="94"/>
-      <c r="AA6" s="94"/>
-      <c r="AB6" s="95"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="117"/>
+      <c r="AA6" s="117"/>
+      <c r="AB6" s="118"/>
       <c r="AC6" s="32"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
@@ -2684,12 +2689,12 @@
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="31"/>
-      <c r="AK6" s="102" t="s">
+      <c r="AK6" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="AL6" s="103"/>
-      <c r="AM6" s="103"/>
-      <c r="AN6" s="104"/>
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="91"/>
       <c r="AO6" s="30"/>
       <c r="AP6" s="30"/>
       <c r="AQ6" s="30"/>
@@ -2702,12 +2707,12 @@
       <c r="AX6" s="30"/>
       <c r="AY6" s="30"/>
       <c r="AZ6" s="31"/>
-      <c r="BA6" s="102" t="s">
+      <c r="BA6" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="BB6" s="103"/>
-      <c r="BC6" s="103"/>
-      <c r="BD6" s="104"/>
+      <c r="BB6" s="90"/>
+      <c r="BC6" s="90"/>
+      <c r="BD6" s="91"/>
       <c r="BE6" s="30"/>
       <c r="BF6" s="30"/>
       <c r="BG6" s="30"/>
@@ -2720,12 +2725,12 @@
       <c r="BN6" s="30"/>
       <c r="BO6" s="30"/>
       <c r="BP6" s="31"/>
-      <c r="BQ6" s="102" t="s">
+      <c r="BQ6" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="BR6" s="103"/>
-      <c r="BS6" s="103"/>
-      <c r="BT6" s="104"/>
+      <c r="BR6" s="90"/>
+      <c r="BS6" s="90"/>
+      <c r="BT6" s="91"/>
       <c r="BU6" s="71"/>
       <c r="BV6" s="71"/>
       <c r="BW6" s="30"/>
@@ -2740,7 +2745,7 @@
       <c r="CF6" s="31"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A7" s="131"/>
+      <c r="A7" s="134"/>
       <c r="B7" s="28" t="s">
         <v>11</v>
       </c>
@@ -2748,10 +2753,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="89"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="112"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
@@ -2764,14 +2769,14 @@
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
       <c r="T7" s="34"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="98"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="120"/>
+      <c r="Y7" s="120"/>
+      <c r="Z7" s="120"/>
+      <c r="AA7" s="120"/>
+      <c r="AB7" s="121"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="33"/>
       <c r="AE7" s="33"/>
@@ -2780,10 +2785,10 @@
       <c r="AH7" s="33"/>
       <c r="AI7" s="33"/>
       <c r="AJ7" s="34"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="106"/>
-      <c r="AM7" s="106"/>
-      <c r="AN7" s="107"/>
+      <c r="AK7" s="92"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="94"/>
       <c r="AO7" s="33"/>
       <c r="AP7" s="33"/>
       <c r="AQ7" s="33"/>
@@ -2796,10 +2801,10 @@
       <c r="AX7" s="33"/>
       <c r="AY7" s="33"/>
       <c r="AZ7" s="34"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="106"/>
-      <c r="BC7" s="106"/>
-      <c r="BD7" s="107"/>
+      <c r="BA7" s="92"/>
+      <c r="BB7" s="93"/>
+      <c r="BC7" s="93"/>
+      <c r="BD7" s="94"/>
       <c r="BE7" s="33"/>
       <c r="BF7" s="33"/>
       <c r="BG7" s="33"/>
@@ -2812,10 +2817,10 @@
       <c r="BN7" s="33"/>
       <c r="BO7" s="33"/>
       <c r="BP7" s="34"/>
-      <c r="BQ7" s="105"/>
-      <c r="BR7" s="106"/>
-      <c r="BS7" s="106"/>
-      <c r="BT7" s="107"/>
+      <c r="BQ7" s="92"/>
+      <c r="BR7" s="93"/>
+      <c r="BS7" s="93"/>
+      <c r="BT7" s="94"/>
       <c r="BU7" s="33"/>
       <c r="BV7" s="33"/>
       <c r="BW7" s="33"/>
@@ -2830,7 +2835,7 @@
       <c r="CF7" s="34"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A8" s="131"/>
+      <c r="A8" s="134"/>
       <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
@@ -2838,10 +2843,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="25"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="89"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="112"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -2854,14 +2859,14 @@
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
       <c r="T8" s="34"/>
-      <c r="U8" s="96"/>
-      <c r="V8" s="97"/>
-      <c r="W8" s="97"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="98"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="120"/>
+      <c r="Z8" s="120"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="121"/>
       <c r="AC8" s="35"/>
       <c r="AD8" s="33"/>
       <c r="AE8" s="33"/>
@@ -2870,10 +2875,10 @@
       <c r="AH8" s="33"/>
       <c r="AI8" s="33"/>
       <c r="AJ8" s="34"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="106"/>
-      <c r="AM8" s="106"/>
-      <c r="AN8" s="107"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="94"/>
       <c r="AO8" s="33"/>
       <c r="AP8" s="33"/>
       <c r="AQ8" s="33"/>
@@ -2886,10 +2891,10 @@
       <c r="AX8" s="33"/>
       <c r="AY8" s="33"/>
       <c r="AZ8" s="34"/>
-      <c r="BA8" s="105"/>
-      <c r="BB8" s="106"/>
-      <c r="BC8" s="106"/>
-      <c r="BD8" s="107"/>
+      <c r="BA8" s="92"/>
+      <c r="BB8" s="93"/>
+      <c r="BC8" s="93"/>
+      <c r="BD8" s="94"/>
       <c r="BE8" s="33"/>
       <c r="BF8" s="33"/>
       <c r="BG8" s="33"/>
@@ -2902,10 +2907,10 @@
       <c r="BN8" s="33"/>
       <c r="BO8" s="33"/>
       <c r="BP8" s="34"/>
-      <c r="BQ8" s="105"/>
-      <c r="BR8" s="106"/>
-      <c r="BS8" s="106"/>
-      <c r="BT8" s="107"/>
+      <c r="BQ8" s="92"/>
+      <c r="BR8" s="93"/>
+      <c r="BS8" s="93"/>
+      <c r="BT8" s="94"/>
       <c r="BU8" s="33"/>
       <c r="BV8" s="33"/>
       <c r="BW8" s="33"/>
@@ -2920,7 +2925,7 @@
       <c r="CF8" s="34"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="135" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -2930,10 +2935,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="112"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -2946,14 +2951,14 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="38"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="98"/>
+      <c r="U9" s="119"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="120"/>
+      <c r="Z9" s="120"/>
+      <c r="AA9" s="120"/>
+      <c r="AB9" s="121"/>
       <c r="AC9" s="39"/>
       <c r="AD9" s="37"/>
       <c r="AE9" s="37"/>
@@ -2962,10 +2967,10 @@
       <c r="AH9" s="37"/>
       <c r="AI9" s="37"/>
       <c r="AJ9" s="38"/>
-      <c r="AK9" s="105"/>
-      <c r="AL9" s="106"/>
-      <c r="AM9" s="106"/>
-      <c r="AN9" s="107"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="94"/>
       <c r="AO9" s="37"/>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -2978,10 +2983,10 @@
       <c r="AX9" s="37"/>
       <c r="AY9" s="37"/>
       <c r="AZ9" s="38"/>
-      <c r="BA9" s="105"/>
-      <c r="BB9" s="106"/>
-      <c r="BC9" s="106"/>
-      <c r="BD9" s="107"/>
+      <c r="BA9" s="92"/>
+      <c r="BB9" s="93"/>
+      <c r="BC9" s="93"/>
+      <c r="BD9" s="94"/>
       <c r="BE9" s="37"/>
       <c r="BF9" s="37"/>
       <c r="BG9" s="37"/>
@@ -2994,10 +2999,10 @@
       <c r="BN9" s="37"/>
       <c r="BO9" s="37"/>
       <c r="BP9" s="38"/>
-      <c r="BQ9" s="105"/>
-      <c r="BR9" s="106"/>
-      <c r="BS9" s="106"/>
-      <c r="BT9" s="107"/>
+      <c r="BQ9" s="92"/>
+      <c r="BR9" s="93"/>
+      <c r="BS9" s="93"/>
+      <c r="BT9" s="94"/>
       <c r="BU9" s="37"/>
       <c r="BV9" s="37"/>
       <c r="BW9" s="37"/>
@@ -3012,7 +3017,7 @@
       <c r="CF9" s="38"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A10" s="133"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="36" t="s">
         <v>15</v>
       </c>
@@ -3020,10 +3025,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="25"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
@@ -3036,14 +3041,14 @@
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="38"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="97"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="97"/>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="98"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="120"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="121"/>
       <c r="AC10" s="39"/>
       <c r="AD10" s="37"/>
       <c r="AE10" s="37"/>
@@ -3052,10 +3057,10 @@
       <c r="AH10" s="37"/>
       <c r="AI10" s="37"/>
       <c r="AJ10" s="38"/>
-      <c r="AK10" s="105"/>
-      <c r="AL10" s="106"/>
-      <c r="AM10" s="106"/>
-      <c r="AN10" s="107"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="94"/>
       <c r="AO10" s="37"/>
       <c r="AP10" s="37"/>
       <c r="AQ10" s="37"/>
@@ -3068,10 +3073,10 @@
       <c r="AX10" s="37"/>
       <c r="AY10" s="37"/>
       <c r="AZ10" s="38"/>
-      <c r="BA10" s="105"/>
-      <c r="BB10" s="106"/>
-      <c r="BC10" s="106"/>
-      <c r="BD10" s="107"/>
+      <c r="BA10" s="92"/>
+      <c r="BB10" s="93"/>
+      <c r="BC10" s="93"/>
+      <c r="BD10" s="94"/>
       <c r="BE10" s="37"/>
       <c r="BF10" s="37"/>
       <c r="BG10" s="37"/>
@@ -3084,10 +3089,10 @@
       <c r="BN10" s="37"/>
       <c r="BO10" s="37"/>
       <c r="BP10" s="38"/>
-      <c r="BQ10" s="105"/>
-      <c r="BR10" s="106"/>
-      <c r="BS10" s="106"/>
-      <c r="BT10" s="107"/>
+      <c r="BQ10" s="92"/>
+      <c r="BR10" s="93"/>
+      <c r="BS10" s="93"/>
+      <c r="BT10" s="94"/>
       <c r="BU10" s="37"/>
       <c r="BV10" s="37"/>
       <c r="BW10" s="37"/>
@@ -3102,7 +3107,7 @@
       <c r="CF10" s="38"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A11" s="134"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="36" t="s">
         <v>16</v>
       </c>
@@ -3110,10 +3115,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="25"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="89"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
@@ -3126,14 +3131,14 @@
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="98"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="120"/>
+      <c r="Y11" s="120"/>
+      <c r="Z11" s="120"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="121"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="37"/>
       <c r="AE11" s="37"/>
@@ -3142,10 +3147,10 @@
       <c r="AH11" s="37"/>
       <c r="AI11" s="37"/>
       <c r="AJ11" s="38"/>
-      <c r="AK11" s="105"/>
-      <c r="AL11" s="106"/>
-      <c r="AM11" s="106"/>
-      <c r="AN11" s="107"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="94"/>
       <c r="AO11" s="37"/>
       <c r="AP11" s="37"/>
       <c r="AQ11" s="37"/>
@@ -3158,10 +3163,10 @@
       <c r="AX11" s="37"/>
       <c r="AY11" s="37"/>
       <c r="AZ11" s="38"/>
-      <c r="BA11" s="105"/>
-      <c r="BB11" s="106"/>
-      <c r="BC11" s="106"/>
-      <c r="BD11" s="107"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="93"/>
+      <c r="BC11" s="93"/>
+      <c r="BD11" s="94"/>
       <c r="BE11" s="37"/>
       <c r="BF11" s="37"/>
       <c r="BG11" s="37"/>
@@ -3174,10 +3179,10 @@
       <c r="BN11" s="37"/>
       <c r="BO11" s="37"/>
       <c r="BP11" s="38"/>
-      <c r="BQ11" s="105"/>
-      <c r="BR11" s="106"/>
-      <c r="BS11" s="106"/>
-      <c r="BT11" s="107"/>
+      <c r="BQ11" s="92"/>
+      <c r="BR11" s="93"/>
+      <c r="BS11" s="93"/>
+      <c r="BT11" s="94"/>
       <c r="BU11" s="37"/>
       <c r="BV11" s="37"/>
       <c r="BW11" s="37"/>
@@ -3192,7 +3197,7 @@
       <c r="CF11" s="38"/>
     </row>
     <row r="12" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="129" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="74" t="s">
@@ -3202,10 +3207,10 @@
         <v>24</v>
       </c>
       <c r="D12" s="25"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="89"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="112"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -3218,14 +3223,14 @@
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="98"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="121"/>
       <c r="AC12" s="42"/>
       <c r="AD12" s="20"/>
       <c r="AE12" s="40"/>
@@ -3234,12 +3239,12 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="20"/>
       <c r="AJ12" s="41"/>
-      <c r="AK12" s="105"/>
-      <c r="AL12" s="106"/>
-      <c r="AM12" s="106"/>
-      <c r="AN12" s="107"/>
-      <c r="AO12" s="40"/>
-      <c r="AP12" s="40"/>
+      <c r="AK12" s="92"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
       <c r="AQ12" s="40"/>
       <c r="AR12" s="41"/>
       <c r="AS12" s="42"/>
@@ -3250,10 +3255,10 @@
       <c r="AX12" s="40"/>
       <c r="AY12" s="40"/>
       <c r="AZ12" s="41"/>
-      <c r="BA12" s="105"/>
-      <c r="BB12" s="106"/>
-      <c r="BC12" s="106"/>
-      <c r="BD12" s="107"/>
+      <c r="BA12" s="92"/>
+      <c r="BB12" s="93"/>
+      <c r="BC12" s="93"/>
+      <c r="BD12" s="94"/>
       <c r="BE12" s="40"/>
       <c r="BF12" s="40"/>
       <c r="BG12" s="40"/>
@@ -3266,10 +3271,10 @@
       <c r="BN12" s="40"/>
       <c r="BO12" s="40"/>
       <c r="BP12" s="41"/>
-      <c r="BQ12" s="105"/>
-      <c r="BR12" s="106"/>
-      <c r="BS12" s="106"/>
-      <c r="BT12" s="107"/>
+      <c r="BQ12" s="92"/>
+      <c r="BR12" s="93"/>
+      <c r="BS12" s="93"/>
+      <c r="BT12" s="94"/>
       <c r="BU12" s="40"/>
       <c r="BV12" s="40"/>
       <c r="BW12" s="40"/>
@@ -3284,7 +3289,7 @@
       <c r="CF12" s="41"/>
     </row>
     <row r="13" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="116"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="75" t="s">
         <v>30</v>
       </c>
@@ -3292,10 +3297,10 @@
         <v>23</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="89"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="112"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -3308,14 +3313,14 @@
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="98"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120"/>
+      <c r="Y13" s="120"/>
+      <c r="Z13" s="120"/>
+      <c r="AA13" s="120"/>
+      <c r="AB13" s="121"/>
       <c r="AC13" s="42"/>
       <c r="AD13" s="40"/>
       <c r="AE13" s="20"/>
@@ -3324,10 +3329,10 @@
       <c r="AH13" s="40"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="69"/>
-      <c r="AK13" s="105"/>
-      <c r="AL13" s="106"/>
-      <c r="AM13" s="106"/>
-      <c r="AN13" s="107"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="94"/>
       <c r="AO13" s="40"/>
       <c r="AP13" s="40"/>
       <c r="AQ13" s="40"/>
@@ -3340,10 +3345,10 @@
       <c r="AX13" s="40"/>
       <c r="AY13" s="40"/>
       <c r="AZ13" s="41"/>
-      <c r="BA13" s="105"/>
-      <c r="BB13" s="106"/>
-      <c r="BC13" s="106"/>
-      <c r="BD13" s="107"/>
+      <c r="BA13" s="92"/>
+      <c r="BB13" s="93"/>
+      <c r="BC13" s="93"/>
+      <c r="BD13" s="94"/>
       <c r="BE13" s="40"/>
       <c r="BF13" s="40"/>
       <c r="BG13" s="40"/>
@@ -3356,10 +3361,10 @@
       <c r="BN13" s="40"/>
       <c r="BO13" s="40"/>
       <c r="BP13" s="41"/>
-      <c r="BQ13" s="105"/>
-      <c r="BR13" s="106"/>
-      <c r="BS13" s="106"/>
-      <c r="BT13" s="107"/>
+      <c r="BQ13" s="92"/>
+      <c r="BR13" s="93"/>
+      <c r="BS13" s="93"/>
+      <c r="BT13" s="94"/>
       <c r="BU13" s="40"/>
       <c r="BV13" s="40"/>
       <c r="BW13" s="40"/>
@@ -3374,16 +3379,18 @@
       <c r="CF13" s="41"/>
     </row>
     <row r="14" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="117"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="D14" s="25"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="89"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="112"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -3396,14 +3403,14 @@
       <c r="R14" s="40"/>
       <c r="S14" s="40"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="98"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="120"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="121"/>
       <c r="AC14" s="42"/>
       <c r="AD14" s="40"/>
       <c r="AE14" s="40"/>
@@ -3412,13 +3419,13 @@
       <c r="AH14" s="40"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="70"/>
-      <c r="AK14" s="105"/>
-      <c r="AL14" s="106"/>
-      <c r="AM14" s="106"/>
-      <c r="AN14" s="107"/>
+      <c r="AK14" s="92"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="94"/>
       <c r="AO14" s="40"/>
       <c r="AP14" s="40"/>
-      <c r="AQ14" s="40"/>
+      <c r="AQ14" s="20"/>
       <c r="AR14" s="41"/>
       <c r="AS14" s="42"/>
       <c r="AT14" s="40"/>
@@ -3428,10 +3435,10 @@
       <c r="AX14" s="40"/>
       <c r="AY14" s="40"/>
       <c r="AZ14" s="41"/>
-      <c r="BA14" s="105"/>
-      <c r="BB14" s="106"/>
-      <c r="BC14" s="106"/>
-      <c r="BD14" s="107"/>
+      <c r="BA14" s="92"/>
+      <c r="BB14" s="93"/>
+      <c r="BC14" s="93"/>
+      <c r="BD14" s="94"/>
       <c r="BE14" s="40"/>
       <c r="BF14" s="40"/>
       <c r="BG14" s="40"/>
@@ -3444,10 +3451,10 @@
       <c r="BN14" s="40"/>
       <c r="BO14" s="40"/>
       <c r="BP14" s="41"/>
-      <c r="BQ14" s="105"/>
-      <c r="BR14" s="106"/>
-      <c r="BS14" s="106"/>
-      <c r="BT14" s="107"/>
+      <c r="BQ14" s="92"/>
+      <c r="BR14" s="93"/>
+      <c r="BS14" s="93"/>
+      <c r="BT14" s="94"/>
       <c r="BU14" s="40"/>
       <c r="BV14" s="40"/>
       <c r="BW14" s="40"/>
@@ -3462,7 +3469,7 @@
       <c r="CF14" s="41"/>
     </row>
     <row r="15" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="125" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="73" t="s">
@@ -3470,10 +3477,10 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="25"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="112"/>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
@@ -3486,14 +3493,14 @@
       <c r="R15" s="43"/>
       <c r="S15" s="43"/>
       <c r="T15" s="44"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="98"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="120"/>
+      <c r="Y15" s="120"/>
+      <c r="Z15" s="120"/>
+      <c r="AA15" s="120"/>
+      <c r="AB15" s="121"/>
       <c r="AC15" s="45"/>
       <c r="AD15" s="43"/>
       <c r="AE15" s="43"/>
@@ -3502,13 +3509,13 @@
       <c r="AH15" s="43"/>
       <c r="AI15" s="43"/>
       <c r="AJ15" s="44"/>
-      <c r="AK15" s="105"/>
-      <c r="AL15" s="106"/>
-      <c r="AM15" s="106"/>
-      <c r="AN15" s="107"/>
-      <c r="AO15" s="20"/>
-      <c r="AP15" s="20"/>
-      <c r="AQ15" s="20"/>
+      <c r="AK15" s="92"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
       <c r="AR15" s="21"/>
       <c r="AS15" s="22"/>
       <c r="AT15" s="20"/>
@@ -3518,10 +3525,10 @@
       <c r="AX15" s="20"/>
       <c r="AY15" s="20"/>
       <c r="AZ15" s="44"/>
-      <c r="BA15" s="105"/>
-      <c r="BB15" s="106"/>
-      <c r="BC15" s="106"/>
-      <c r="BD15" s="107"/>
+      <c r="BA15" s="92"/>
+      <c r="BB15" s="93"/>
+      <c r="BC15" s="93"/>
+      <c r="BD15" s="94"/>
       <c r="BE15" s="43"/>
       <c r="BF15" s="43"/>
       <c r="BG15" s="43"/>
@@ -3534,10 +3541,10 @@
       <c r="BN15" s="43"/>
       <c r="BO15" s="43"/>
       <c r="BP15" s="44"/>
-      <c r="BQ15" s="105"/>
-      <c r="BR15" s="106"/>
-      <c r="BS15" s="106"/>
-      <c r="BT15" s="107"/>
+      <c r="BQ15" s="92"/>
+      <c r="BR15" s="93"/>
+      <c r="BS15" s="93"/>
+      <c r="BT15" s="94"/>
       <c r="BU15" s="43"/>
       <c r="BV15" s="43"/>
       <c r="BW15" s="43"/>
@@ -3552,16 +3559,16 @@
       <c r="CF15" s="44"/>
     </row>
     <row r="16" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="112"/>
+      <c r="A16" s="126"/>
       <c r="B16" s="80" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="112"/>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
@@ -3574,14 +3581,14 @@
       <c r="R16" s="43"/>
       <c r="S16" s="43"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="98"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
+      <c r="Y16" s="120"/>
+      <c r="Z16" s="120"/>
+      <c r="AA16" s="120"/>
+      <c r="AB16" s="121"/>
       <c r="AC16" s="45"/>
       <c r="AD16" s="43"/>
       <c r="AE16" s="43"/>
@@ -3590,10 +3597,10 @@
       <c r="AH16" s="43"/>
       <c r="AI16" s="43"/>
       <c r="AJ16" s="44"/>
-      <c r="AK16" s="105"/>
-      <c r="AL16" s="106"/>
-      <c r="AM16" s="106"/>
-      <c r="AN16" s="107"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="94"/>
       <c r="AO16" s="43"/>
       <c r="AP16" s="43"/>
       <c r="AQ16" s="43"/>
@@ -3606,10 +3613,10 @@
       <c r="AX16" s="43"/>
       <c r="AY16" s="43"/>
       <c r="AZ16" s="70"/>
-      <c r="BA16" s="105"/>
-      <c r="BB16" s="106"/>
-      <c r="BC16" s="106"/>
-      <c r="BD16" s="107"/>
+      <c r="BA16" s="92"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="93"/>
+      <c r="BD16" s="94"/>
       <c r="BE16" s="43"/>
       <c r="BF16" s="43"/>
       <c r="BG16" s="43"/>
@@ -3622,10 +3629,10 @@
       <c r="BN16" s="43"/>
       <c r="BO16" s="43"/>
       <c r="BP16" s="44"/>
-      <c r="BQ16" s="105"/>
-      <c r="BR16" s="106"/>
-      <c r="BS16" s="106"/>
-      <c r="BT16" s="107"/>
+      <c r="BQ16" s="92"/>
+      <c r="BR16" s="93"/>
+      <c r="BS16" s="93"/>
+      <c r="BT16" s="94"/>
       <c r="BU16" s="43"/>
       <c r="BV16" s="43"/>
       <c r="BW16" s="43"/>
@@ -3640,7 +3647,7 @@
       <c r="CF16" s="44"/>
     </row>
     <row r="17" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="127" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="72" t="s">
@@ -3648,10 +3655,10 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="25"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="112"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
@@ -3664,14 +3671,14 @@
       <c r="R17" s="46"/>
       <c r="S17" s="46"/>
       <c r="T17" s="47"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="97"/>
-      <c r="AB17" s="98"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="120"/>
+      <c r="X17" s="120"/>
+      <c r="Y17" s="120"/>
+      <c r="Z17" s="120"/>
+      <c r="AA17" s="120"/>
+      <c r="AB17" s="121"/>
       <c r="AC17" s="48"/>
       <c r="AD17" s="46"/>
       <c r="AE17" s="46"/>
@@ -3680,10 +3687,10 @@
       <c r="AH17" s="46"/>
       <c r="AI17" s="46"/>
       <c r="AJ17" s="47"/>
-      <c r="AK17" s="105"/>
-      <c r="AL17" s="106"/>
-      <c r="AM17" s="106"/>
-      <c r="AN17" s="107"/>
+      <c r="AK17" s="92"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="94"/>
       <c r="AO17" s="46"/>
       <c r="AP17" s="46"/>
       <c r="AQ17" s="46"/>
@@ -3696,10 +3703,10 @@
       <c r="AX17" s="46"/>
       <c r="AY17" s="46"/>
       <c r="AZ17" s="47"/>
-      <c r="BA17" s="105"/>
-      <c r="BB17" s="106"/>
-      <c r="BC17" s="106"/>
-      <c r="BD17" s="107"/>
+      <c r="BA17" s="92"/>
+      <c r="BB17" s="93"/>
+      <c r="BC17" s="93"/>
+      <c r="BD17" s="94"/>
       <c r="BE17" s="20"/>
       <c r="BF17" s="20"/>
       <c r="BG17" s="20"/>
@@ -3712,10 +3719,10 @@
       <c r="BN17" s="20"/>
       <c r="BO17" s="20"/>
       <c r="BP17" s="47"/>
-      <c r="BQ17" s="105"/>
-      <c r="BR17" s="106"/>
-      <c r="BS17" s="106"/>
-      <c r="BT17" s="107"/>
+      <c r="BQ17" s="92"/>
+      <c r="BR17" s="93"/>
+      <c r="BS17" s="93"/>
+      <c r="BT17" s="94"/>
       <c r="BU17" s="46"/>
       <c r="BV17" s="46"/>
       <c r="BW17" s="46"/>
@@ -3730,16 +3737,16 @@
       <c r="CF17" s="47"/>
     </row>
     <row r="18" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="114"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="79" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="25"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
@@ -3752,14 +3759,14 @@
       <c r="R18" s="46"/>
       <c r="S18" s="46"/>
       <c r="T18" s="47"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="97"/>
-      <c r="AB18" s="98"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="120"/>
+      <c r="Z18" s="120"/>
+      <c r="AA18" s="120"/>
+      <c r="AB18" s="121"/>
       <c r="AC18" s="48"/>
       <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
@@ -3768,10 +3775,10 @@
       <c r="AH18" s="46"/>
       <c r="AI18" s="46"/>
       <c r="AJ18" s="47"/>
-      <c r="AK18" s="105"/>
-      <c r="AL18" s="106"/>
-      <c r="AM18" s="106"/>
-      <c r="AN18" s="107"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="94"/>
       <c r="AO18" s="46"/>
       <c r="AP18" s="46"/>
       <c r="AQ18" s="46"/>
@@ -3784,10 +3791,10 @@
       <c r="AX18" s="46"/>
       <c r="AY18" s="46"/>
       <c r="AZ18" s="47"/>
-      <c r="BA18" s="105"/>
-      <c r="BB18" s="106"/>
-      <c r="BC18" s="106"/>
-      <c r="BD18" s="107"/>
+      <c r="BA18" s="92"/>
+      <c r="BB18" s="93"/>
+      <c r="BC18" s="93"/>
+      <c r="BD18" s="94"/>
       <c r="BE18" s="46"/>
       <c r="BF18" s="46"/>
       <c r="BG18" s="46"/>
@@ -3800,10 +3807,10 @@
       <c r="BN18" s="46"/>
       <c r="BO18" s="46"/>
       <c r="BP18" s="21"/>
-      <c r="BQ18" s="105"/>
-      <c r="BR18" s="106"/>
-      <c r="BS18" s="106"/>
-      <c r="BT18" s="107"/>
+      <c r="BQ18" s="92"/>
+      <c r="BR18" s="93"/>
+      <c r="BS18" s="93"/>
+      <c r="BT18" s="94"/>
       <c r="BU18" s="46"/>
       <c r="BV18" s="46"/>
       <c r="BW18" s="46"/>
@@ -3818,7 +3825,7 @@
       <c r="CF18" s="47"/>
     </row>
     <row r="19" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="132" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="77" t="s">
@@ -3826,10 +3833,10 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="89"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
@@ -3842,14 +3849,14 @@
       <c r="R19" s="49"/>
       <c r="S19" s="49"/>
       <c r="T19" s="50"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="98"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="120"/>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="Z19" s="120"/>
+      <c r="AA19" s="120"/>
+      <c r="AB19" s="121"/>
       <c r="AC19" s="51"/>
       <c r="AD19" s="49"/>
       <c r="AE19" s="49"/>
@@ -3858,10 +3865,10 @@
       <c r="AH19" s="49"/>
       <c r="AI19" s="49"/>
       <c r="AJ19" s="50"/>
-      <c r="AK19" s="105"/>
-      <c r="AL19" s="106"/>
-      <c r="AM19" s="106"/>
-      <c r="AN19" s="107"/>
+      <c r="AK19" s="92"/>
+      <c r="AL19" s="93"/>
+      <c r="AM19" s="93"/>
+      <c r="AN19" s="94"/>
       <c r="AO19" s="49"/>
       <c r="AP19" s="49"/>
       <c r="AQ19" s="49"/>
@@ -3874,10 +3881,10 @@
       <c r="AX19" s="49"/>
       <c r="AY19" s="49"/>
       <c r="AZ19" s="50"/>
-      <c r="BA19" s="105"/>
-      <c r="BB19" s="106"/>
-      <c r="BC19" s="106"/>
-      <c r="BD19" s="107"/>
+      <c r="BA19" s="92"/>
+      <c r="BB19" s="93"/>
+      <c r="BC19" s="93"/>
+      <c r="BD19" s="94"/>
       <c r="BE19" s="49"/>
       <c r="BF19" s="49"/>
       <c r="BG19" s="49"/>
@@ -3890,10 +3897,10 @@
       <c r="BN19" s="49"/>
       <c r="BO19" s="49"/>
       <c r="BP19" s="50"/>
-      <c r="BQ19" s="105"/>
-      <c r="BR19" s="106"/>
-      <c r="BS19" s="106"/>
-      <c r="BT19" s="107"/>
+      <c r="BQ19" s="92"/>
+      <c r="BR19" s="93"/>
+      <c r="BS19" s="93"/>
+      <c r="BT19" s="94"/>
       <c r="BU19" s="20"/>
       <c r="BV19" s="20"/>
       <c r="BW19" s="20"/>
@@ -3908,16 +3915,16 @@
       <c r="CF19" s="50"/>
     </row>
     <row r="20" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="119"/>
+      <c r="A20" s="133"/>
       <c r="B20" s="81" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="89"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="112"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
@@ -3930,14 +3937,14 @@
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
       <c r="T20" s="66"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="98"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="120"/>
+      <c r="AB20" s="121"/>
       <c r="AC20" s="67"/>
       <c r="AD20" s="65"/>
       <c r="AE20" s="65"/>
@@ -3946,10 +3953,10 @@
       <c r="AH20" s="65"/>
       <c r="AI20" s="65"/>
       <c r="AJ20" s="66"/>
-      <c r="AK20" s="105"/>
-      <c r="AL20" s="106"/>
-      <c r="AM20" s="106"/>
-      <c r="AN20" s="107"/>
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="93"/>
+      <c r="AM20" s="93"/>
+      <c r="AN20" s="94"/>
       <c r="AO20" s="65"/>
       <c r="AP20" s="65"/>
       <c r="AQ20" s="65"/>
@@ -3962,10 +3969,10 @@
       <c r="AX20" s="65"/>
       <c r="AY20" s="65"/>
       <c r="AZ20" s="66"/>
-      <c r="BA20" s="105"/>
-      <c r="BB20" s="106"/>
-      <c r="BC20" s="106"/>
-      <c r="BD20" s="107"/>
+      <c r="BA20" s="92"/>
+      <c r="BB20" s="93"/>
+      <c r="BC20" s="93"/>
+      <c r="BD20" s="94"/>
       <c r="BE20" s="65"/>
       <c r="BF20" s="65"/>
       <c r="BG20" s="65"/>
@@ -3978,10 +3985,10 @@
       <c r="BN20" s="65"/>
       <c r="BO20" s="65"/>
       <c r="BP20" s="66"/>
-      <c r="BQ20" s="105"/>
-      <c r="BR20" s="106"/>
-      <c r="BS20" s="106"/>
-      <c r="BT20" s="107"/>
+      <c r="BQ20" s="92"/>
+      <c r="BR20" s="93"/>
+      <c r="BS20" s="93"/>
+      <c r="BT20" s="94"/>
       <c r="BU20" s="65"/>
       <c r="BV20" s="65"/>
       <c r="BW20" s="65"/>
@@ -4004,10 +4011,10 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="89"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="112"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
@@ -4020,14 +4027,14 @@
       <c r="R21" s="53"/>
       <c r="S21" s="53"/>
       <c r="T21" s="54"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="98"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="121"/>
       <c r="AC21" s="55"/>
       <c r="AD21" s="53"/>
       <c r="AE21" s="53"/>
@@ -4036,10 +4043,10 @@
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="54"/>
-      <c r="AK21" s="105"/>
-      <c r="AL21" s="106"/>
-      <c r="AM21" s="106"/>
-      <c r="AN21" s="107"/>
+      <c r="AK21" s="92"/>
+      <c r="AL21" s="93"/>
+      <c r="AM21" s="93"/>
+      <c r="AN21" s="94"/>
       <c r="AO21" s="53"/>
       <c r="AP21" s="53"/>
       <c r="AQ21" s="53"/>
@@ -4052,10 +4059,10 @@
       <c r="AX21" s="53"/>
       <c r="AY21" s="53"/>
       <c r="AZ21" s="54"/>
-      <c r="BA21" s="105"/>
-      <c r="BB21" s="106"/>
-      <c r="BC21" s="106"/>
-      <c r="BD21" s="107"/>
+      <c r="BA21" s="92"/>
+      <c r="BB21" s="93"/>
+      <c r="BC21" s="93"/>
+      <c r="BD21" s="94"/>
       <c r="BE21" s="53"/>
       <c r="BF21" s="53"/>
       <c r="BG21" s="53"/>
@@ -4068,10 +4075,10 @@
       <c r="BN21" s="53"/>
       <c r="BO21" s="53"/>
       <c r="BP21" s="54"/>
-      <c r="BQ21" s="105"/>
-      <c r="BR21" s="106"/>
-      <c r="BS21" s="106"/>
-      <c r="BT21" s="107"/>
+      <c r="BQ21" s="92"/>
+      <c r="BR21" s="93"/>
+      <c r="BS21" s="93"/>
+      <c r="BT21" s="94"/>
       <c r="BU21" s="53"/>
       <c r="BV21" s="53"/>
       <c r="BW21" s="53"/>
@@ -4086,7 +4093,7 @@
       <c r="CF21" s="23"/>
     </row>
     <row r="22" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="105" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="57" t="s">
@@ -4095,10 +4102,10 @@
       <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="89"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="112"/>
       <c r="I22" s="59"/>
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
@@ -4111,83 +4118,83 @@
       <c r="R22" s="59"/>
       <c r="S22" s="59"/>
       <c r="T22" s="60"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="98"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
+      <c r="Z22" s="120"/>
+      <c r="AA22" s="120"/>
+      <c r="AB22" s="121"/>
       <c r="AC22" s="58"/>
       <c r="AD22" s="59"/>
       <c r="AE22" s="59"/>
       <c r="AF22" s="59"/>
       <c r="AG22" s="59"/>
       <c r="AH22" s="59"/>
-      <c r="AI22" s="135"/>
-      <c r="AJ22" s="136"/>
-      <c r="AK22" s="105"/>
-      <c r="AL22" s="106"/>
-      <c r="AM22" s="106"/>
-      <c r="AN22" s="107"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="136"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="83"/>
+      <c r="AK22" s="92"/>
+      <c r="AL22" s="93"/>
+      <c r="AM22" s="93"/>
+      <c r="AN22" s="94"/>
+      <c r="AO22" s="82"/>
+      <c r="AP22" s="82"/>
+      <c r="AQ22" s="82"/>
+      <c r="AR22" s="83"/>
       <c r="AS22" s="58"/>
       <c r="AT22" s="59"/>
       <c r="AU22" s="59"/>
       <c r="AV22" s="59"/>
       <c r="AW22" s="59"/>
-      <c r="AX22" s="135"/>
-      <c r="AY22" s="135"/>
-      <c r="AZ22" s="136"/>
-      <c r="BA22" s="105"/>
-      <c r="BB22" s="106"/>
-      <c r="BC22" s="106"/>
-      <c r="BD22" s="107"/>
-      <c r="BE22" s="59"/>
-      <c r="BF22" s="59"/>
+      <c r="AX22" s="59"/>
+      <c r="AY22" s="59"/>
+      <c r="AZ22" s="60"/>
+      <c r="BA22" s="92"/>
+      <c r="BB22" s="93"/>
+      <c r="BC22" s="93"/>
+      <c r="BD22" s="94"/>
+      <c r="BE22" s="82"/>
+      <c r="BF22" s="82"/>
       <c r="BG22" s="59"/>
-      <c r="BH22" s="136"/>
+      <c r="BH22" s="60"/>
       <c r="BI22" s="58"/>
       <c r="BJ22" s="59"/>
       <c r="BK22" s="59"/>
       <c r="BL22" s="59"/>
       <c r="BM22" s="59"/>
-      <c r="BN22" s="135"/>
-      <c r="BO22" s="135"/>
-      <c r="BP22" s="136"/>
-      <c r="BQ22" s="105"/>
-      <c r="BR22" s="106"/>
-      <c r="BS22" s="106"/>
-      <c r="BT22" s="107"/>
+      <c r="BN22" s="82"/>
+      <c r="BO22" s="82"/>
+      <c r="BP22" s="83"/>
+      <c r="BQ22" s="92"/>
+      <c r="BR22" s="93"/>
+      <c r="BS22" s="93"/>
+      <c r="BT22" s="94"/>
       <c r="BU22" s="59"/>
       <c r="BV22" s="59"/>
       <c r="BW22" s="59"/>
-      <c r="BX22" s="136"/>
+      <c r="BX22" s="83"/>
       <c r="BY22" s="58"/>
       <c r="BZ22" s="59"/>
       <c r="CA22" s="59"/>
-      <c r="CB22" s="135"/>
-      <c r="CC22" s="135"/>
-      <c r="CD22" s="135"/>
-      <c r="CE22" s="135"/>
+      <c r="CB22" s="82"/>
+      <c r="CC22" s="82"/>
+      <c r="CD22" s="82"/>
+      <c r="CE22" s="82"/>
       <c r="CF22" s="60"/>
     </row>
     <row r="23" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
+      <c r="A23" s="106"/>
       <c r="B23" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="115"/>
       <c r="I23" s="64"/>
       <c r="J23" s="64"/>
       <c r="K23" s="62"/>
@@ -4200,14 +4207,14 @@
       <c r="R23" s="62"/>
       <c r="S23" s="62"/>
       <c r="T23" s="63"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="100"/>
-      <c r="X23" s="100"/>
-      <c r="Y23" s="100"/>
-      <c r="Z23" s="100"/>
-      <c r="AA23" s="100"/>
-      <c r="AB23" s="101"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="123"/>
+      <c r="W23" s="123"/>
+      <c r="X23" s="123"/>
+      <c r="Y23" s="123"/>
+      <c r="Z23" s="123"/>
+      <c r="AA23" s="123"/>
+      <c r="AB23" s="124"/>
       <c r="AC23" s="61"/>
       <c r="AD23" s="62"/>
       <c r="AE23" s="62"/>
@@ -4216,10 +4223,10 @@
       <c r="AH23" s="62"/>
       <c r="AI23" s="62"/>
       <c r="AJ23" s="63"/>
-      <c r="AK23" s="108"/>
-      <c r="AL23" s="109"/>
-      <c r="AM23" s="109"/>
-      <c r="AN23" s="110"/>
+      <c r="AK23" s="95"/>
+      <c r="AL23" s="96"/>
+      <c r="AM23" s="96"/>
+      <c r="AN23" s="97"/>
       <c r="AO23" s="62"/>
       <c r="AP23" s="62"/>
       <c r="AQ23" s="62"/>
@@ -4232,10 +4239,10 @@
       <c r="AX23" s="62"/>
       <c r="AY23" s="62"/>
       <c r="AZ23" s="63"/>
-      <c r="BA23" s="108"/>
-      <c r="BB23" s="109"/>
-      <c r="BC23" s="109"/>
-      <c r="BD23" s="110"/>
+      <c r="BA23" s="95"/>
+      <c r="BB23" s="96"/>
+      <c r="BC23" s="96"/>
+      <c r="BD23" s="97"/>
       <c r="BE23" s="62"/>
       <c r="BF23" s="62"/>
       <c r="BG23" s="62"/>
@@ -4248,10 +4255,10 @@
       <c r="BN23" s="62"/>
       <c r="BO23" s="62"/>
       <c r="BP23" s="63"/>
-      <c r="BQ23" s="108"/>
-      <c r="BR23" s="109"/>
-      <c r="BS23" s="109"/>
-      <c r="BT23" s="110"/>
+      <c r="BQ23" s="95"/>
+      <c r="BR23" s="96"/>
+      <c r="BS23" s="96"/>
+      <c r="BT23" s="97"/>
       <c r="BU23" s="62"/>
       <c r="BV23" s="62"/>
       <c r="BW23" s="62"/>
@@ -4259,19 +4266,26 @@
       <c r="BY23" s="61"/>
       <c r="BZ23" s="62"/>
       <c r="CA23" s="62"/>
-      <c r="CB23" s="137"/>
-      <c r="CC23" s="137"/>
-      <c r="CD23" s="137"/>
-      <c r="CE23" s="137"/>
+      <c r="CB23" s="84"/>
+      <c r="CC23" s="84"/>
+      <c r="CD23" s="84"/>
+      <c r="CE23" s="84"/>
       <c r="CF23" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="BA6:BD23"/>
-    <mergeCell ref="BQ6:BT23"/>
+    <mergeCell ref="BU4:BX4"/>
+    <mergeCell ref="BQ4:BT4"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E6:H23"/>
+    <mergeCell ref="U6:AB23"/>
+    <mergeCell ref="AK6:AN23"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="E2:AR3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -4288,22 +4302,15 @@
     <mergeCell ref="AW4:AZ4"/>
     <mergeCell ref="BY4:CB4"/>
     <mergeCell ref="CC4:CF4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="BA6:BD23"/>
+    <mergeCell ref="BQ6:BT23"/>
     <mergeCell ref="BA4:BD4"/>
     <mergeCell ref="BE4:BH4"/>
     <mergeCell ref="BI4:BL4"/>
     <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="BU4:BX4"/>
-    <mergeCell ref="BQ4:BT4"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E6:H23"/>
-    <mergeCell ref="U6:AB23"/>
-    <mergeCell ref="AK6:AN23"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="C6:C23">
@@ -4545,15 +4552,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -4562,6 +4560,15 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4584,14 +4591,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4602,4 +4601,12 @@
     <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="596" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC739C07-F651-4C10-A8A9-8BB83FFCE789}"/>
+  <xr:revisionPtr revIDLastSave="607" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46CE29D1-0B35-4968-8E0E-EB098827C9E7}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-100C]d\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -259,6 +259,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8" tint="0.59999389629810485"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -790,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1330,6 +1336,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1379,15 +1393,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1402,8 +1416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5057775" y="676275"/>
-          <a:ext cx="5753100" cy="4010024"/>
+          <a:off x="5057774" y="704850"/>
+          <a:ext cx="6181725" cy="4010024"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1612,16 +1626,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1636,7 +1650,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10953750" y="2447925"/>
+          <a:off x="11239500" y="2457450"/>
           <a:ext cx="142875" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -2028,7 +2042,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AT27" sqref="AT27"/>
+      <selection pane="bottomRight" activeCell="AY32" sqref="AY32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3245,8 +3259,8 @@
       <c r="AN12" s="94"/>
       <c r="AO12" s="20"/>
       <c r="AP12" s="20"/>
-      <c r="AQ12" s="40"/>
-      <c r="AR12" s="41"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="21"/>
       <c r="AS12" s="42"/>
       <c r="AT12" s="40"/>
       <c r="AU12" s="40"/>
@@ -3425,9 +3439,9 @@
       <c r="AN14" s="94"/>
       <c r="AO14" s="40"/>
       <c r="AP14" s="40"/>
-      <c r="AQ14" s="20"/>
+      <c r="AQ14" s="40"/>
       <c r="AR14" s="41"/>
-      <c r="AS14" s="42"/>
+      <c r="AS14" s="22"/>
       <c r="AT14" s="40"/>
       <c r="AU14" s="40"/>
       <c r="AV14" s="40"/>
@@ -3516,8 +3530,8 @@
       <c r="AO15" s="43"/>
       <c r="AP15" s="43"/>
       <c r="AQ15" s="43"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="22"/>
+      <c r="AR15" s="138"/>
+      <c r="AS15" s="139"/>
       <c r="AT15" s="20"/>
       <c r="AU15" s="20"/>
       <c r="AV15" s="20"/>

--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="607" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46CE29D1-0B35-4968-8E0E-EB098827C9E7}"/>
+  <xr:revisionPtr revIDLastSave="608" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BDDF510-CEA7-40CD-984F-C75D10D71724}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="1320" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1127,6 +1132,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1143,6 +1156,86 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1176,6 +1269,58 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1205,146 +1350,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1393,13 +1398,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>752474</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>752473</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
@@ -1416,8 +1421,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5057774" y="704850"/>
-          <a:ext cx="6181725" cy="4010024"/>
+          <a:off x="5057773" y="685800"/>
+          <a:ext cx="7315201" cy="4029074"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2039,10 +2044,10 @@
   <dimension ref="A1:CF23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AY32" sqref="AY32"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2057,10 +2062,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="135"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="1"/>
@@ -2105,310 +2110,310 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="102"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="98"/>
-      <c r="AL2" s="98"/>
-      <c r="AM2" s="98"/>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="98"/>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="98"/>
-      <c r="AR2" s="98"/>
-      <c r="AS2" s="98"/>
-      <c r="AT2" s="98"/>
-      <c r="AU2" s="98"/>
-      <c r="AV2" s="98"/>
-      <c r="AW2" s="98"/>
-      <c r="AX2" s="98"/>
-      <c r="AY2" s="98"/>
-      <c r="AZ2" s="98"/>
-      <c r="BA2" s="98"/>
-      <c r="BB2" s="98"/>
-      <c r="BC2" s="98"/>
-      <c r="BD2" s="98"/>
-      <c r="BE2" s="98"/>
-      <c r="BF2" s="98"/>
-      <c r="BG2" s="98"/>
-      <c r="BH2" s="98"/>
-      <c r="BI2" s="98"/>
-      <c r="BJ2" s="98"/>
-      <c r="BK2" s="98"/>
-      <c r="BL2" s="98"/>
-      <c r="BM2" s="98"/>
-      <c r="BN2" s="98"/>
-      <c r="BO2" s="98"/>
-      <c r="BP2" s="98"/>
-      <c r="BQ2" s="98"/>
-      <c r="BR2" s="98"/>
-      <c r="BS2" s="98"/>
-      <c r="BT2" s="98"/>
-      <c r="BU2" s="98"/>
-      <c r="BV2" s="98"/>
-      <c r="BW2" s="98"/>
-      <c r="BX2" s="98"/>
-      <c r="BY2" s="98"/>
-      <c r="BZ2" s="98"/>
-      <c r="CA2" s="98"/>
-      <c r="CB2" s="98"/>
-      <c r="CC2" s="98"/>
-      <c r="CD2" s="98"/>
-      <c r="CE2" s="98"/>
-      <c r="CF2" s="98"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="133"/>
+      <c r="AB2" s="133"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="133"/>
+      <c r="AF2" s="133"/>
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="133"/>
+      <c r="AI2" s="133"/>
+      <c r="AJ2" s="133"/>
+      <c r="AK2" s="133"/>
+      <c r="AL2" s="133"/>
+      <c r="AM2" s="133"/>
+      <c r="AN2" s="133"/>
+      <c r="AO2" s="133"/>
+      <c r="AP2" s="133"/>
+      <c r="AQ2" s="133"/>
+      <c r="AR2" s="133"/>
+      <c r="AS2" s="133"/>
+      <c r="AT2" s="133"/>
+      <c r="AU2" s="133"/>
+      <c r="AV2" s="133"/>
+      <c r="AW2" s="133"/>
+      <c r="AX2" s="133"/>
+      <c r="AY2" s="133"/>
+      <c r="AZ2" s="133"/>
+      <c r="BA2" s="133"/>
+      <c r="BB2" s="133"/>
+      <c r="BC2" s="133"/>
+      <c r="BD2" s="133"/>
+      <c r="BE2" s="133"/>
+      <c r="BF2" s="133"/>
+      <c r="BG2" s="133"/>
+      <c r="BH2" s="133"/>
+      <c r="BI2" s="133"/>
+      <c r="BJ2" s="133"/>
+      <c r="BK2" s="133"/>
+      <c r="BL2" s="133"/>
+      <c r="BM2" s="133"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="133"/>
+      <c r="BP2" s="133"/>
+      <c r="BQ2" s="133"/>
+      <c r="BR2" s="133"/>
+      <c r="BS2" s="133"/>
+      <c r="BT2" s="133"/>
+      <c r="BU2" s="133"/>
+      <c r="BV2" s="133"/>
+      <c r="BW2" s="133"/>
+      <c r="BX2" s="133"/>
+      <c r="BY2" s="133"/>
+      <c r="BZ2" s="133"/>
+      <c r="CA2" s="133"/>
+      <c r="CB2" s="133"/>
+      <c r="CC2" s="133"/>
+      <c r="CD2" s="133"/>
+      <c r="CE2" s="133"/>
+      <c r="CF2" s="133"/>
     </row>
     <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="99"/>
-      <c r="AL3" s="99"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="99"/>
-      <c r="AP3" s="99"/>
-      <c r="AQ3" s="99"/>
-      <c r="AR3" s="99"/>
-      <c r="AS3" s="99"/>
-      <c r="AT3" s="99"/>
-      <c r="AU3" s="99"/>
-      <c r="AV3" s="99"/>
-      <c r="AW3" s="99"/>
-      <c r="AX3" s="99"/>
-      <c r="AY3" s="99"/>
-      <c r="AZ3" s="99"/>
-      <c r="BA3" s="99"/>
-      <c r="BB3" s="99"/>
-      <c r="BC3" s="99"/>
-      <c r="BD3" s="99"/>
-      <c r="BE3" s="99"/>
-      <c r="BF3" s="99"/>
-      <c r="BG3" s="99"/>
-      <c r="BH3" s="99"/>
-      <c r="BI3" s="99"/>
-      <c r="BJ3" s="99"/>
-      <c r="BK3" s="99"/>
-      <c r="BL3" s="99"/>
-      <c r="BM3" s="99"/>
-      <c r="BN3" s="99"/>
-      <c r="BO3" s="99"/>
-      <c r="BP3" s="99"/>
-      <c r="BQ3" s="99"/>
-      <c r="BR3" s="99"/>
-      <c r="BS3" s="99"/>
-      <c r="BT3" s="99"/>
-      <c r="BU3" s="99"/>
-      <c r="BV3" s="99"/>
-      <c r="BW3" s="99"/>
-      <c r="BX3" s="99"/>
-      <c r="BY3" s="99"/>
-      <c r="BZ3" s="99"/>
-      <c r="CA3" s="99"/>
-      <c r="CB3" s="99"/>
-      <c r="CC3" s="99"/>
-      <c r="CD3" s="99"/>
-      <c r="CE3" s="99"/>
-      <c r="CF3" s="99"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="134"/>
+      <c r="AU3" s="134"/>
+      <c r="AV3" s="134"/>
+      <c r="AW3" s="134"/>
+      <c r="AX3" s="134"/>
+      <c r="AY3" s="134"/>
+      <c r="AZ3" s="134"/>
+      <c r="BA3" s="134"/>
+      <c r="BB3" s="134"/>
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="134"/>
+      <c r="BK3" s="134"/>
+      <c r="BL3" s="134"/>
+      <c r="BM3" s="134"/>
+      <c r="BN3" s="134"/>
+      <c r="BO3" s="134"/>
+      <c r="BP3" s="134"/>
+      <c r="BQ3" s="134"/>
+      <c r="BR3" s="134"/>
+      <c r="BS3" s="134"/>
+      <c r="BT3" s="134"/>
+      <c r="BU3" s="134"/>
+      <c r="BV3" s="134"/>
+      <c r="BW3" s="134"/>
+      <c r="BX3" s="134"/>
+      <c r="BY3" s="134"/>
+      <c r="BZ3" s="134"/>
+      <c r="CA3" s="134"/>
+      <c r="CB3" s="134"/>
+      <c r="CC3" s="134"/>
+      <c r="CD3" s="134"/>
+      <c r="CE3" s="134"/>
+      <c r="CF3" s="134"/>
     </row>
     <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="85">
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="87">
         <v>45995</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="87" t="s">
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="85">
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="87">
         <v>45996</v>
       </c>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="87" t="s">
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="85">
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="87">
         <v>46002</v>
       </c>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87" t="s">
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="88"/>
-      <c r="AG4" s="85">
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="87">
         <v>46003</v>
       </c>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="85"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="87" t="s">
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="88"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="85">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="87">
         <v>46009</v>
       </c>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="85"/>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="87" t="s">
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="AT4" s="88"/>
-      <c r="AU4" s="88"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="85">
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="87">
         <v>46010</v>
       </c>
-      <c r="AX4" s="85"/>
-      <c r="AY4" s="85"/>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="87" t="s">
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="87"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="BB4" s="88"/>
-      <c r="BC4" s="88"/>
-      <c r="BD4" s="88"/>
-      <c r="BE4" s="85">
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="87">
         <v>46030</v>
       </c>
-      <c r="BF4" s="85"/>
-      <c r="BG4" s="85"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="87" t="s">
+      <c r="BF4" s="87"/>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="BJ4" s="88"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="88"/>
-      <c r="BM4" s="85">
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="90"/>
+      <c r="BM4" s="87">
         <v>46031</v>
       </c>
-      <c r="BN4" s="85"/>
-      <c r="BO4" s="85"/>
-      <c r="BP4" s="86"/>
-      <c r="BQ4" s="87" t="s">
+      <c r="BN4" s="87"/>
+      <c r="BO4" s="87"/>
+      <c r="BP4" s="88"/>
+      <c r="BQ4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="BR4" s="88"/>
-      <c r="BS4" s="88"/>
-      <c r="BT4" s="88"/>
-      <c r="BU4" s="85">
+      <c r="BR4" s="90"/>
+      <c r="BS4" s="90"/>
+      <c r="BT4" s="90"/>
+      <c r="BU4" s="87">
         <v>46037</v>
       </c>
-      <c r="BV4" s="85"/>
-      <c r="BW4" s="85"/>
-      <c r="BX4" s="86"/>
-      <c r="BY4" s="87" t="s">
+      <c r="BV4" s="87"/>
+      <c r="BW4" s="87"/>
+      <c r="BX4" s="88"/>
+      <c r="BY4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="BZ4" s="88"/>
-      <c r="CA4" s="88"/>
-      <c r="CB4" s="88"/>
-      <c r="CC4" s="85">
+      <c r="BZ4" s="90"/>
+      <c r="CA4" s="90"/>
+      <c r="CB4" s="90"/>
+      <c r="CC4" s="87">
         <v>46038</v>
       </c>
-      <c r="CD4" s="85"/>
-      <c r="CE4" s="85"/>
-      <c r="CF4" s="86"/>
+      <c r="CD4" s="87"/>
+      <c r="CE4" s="87"/>
+      <c r="CF4" s="88"/>
     </row>
     <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="104"/>
+      <c r="A5" s="138"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2657,7 +2662,7 @@
       </c>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="129" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -2667,12 +2672,12 @@
         <v>23</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="109"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="17"/>
@@ -2685,16 +2690,16 @@
       <c r="R6" s="30"/>
       <c r="S6" s="30"/>
       <c r="T6" s="31"/>
-      <c r="U6" s="116" t="s">
+      <c r="U6" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="117"/>
-      <c r="AA6" s="117"/>
-      <c r="AB6" s="118"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="104"/>
       <c r="AC6" s="32"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
@@ -2703,12 +2708,12 @@
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="31"/>
-      <c r="AK6" s="89" t="s">
+      <c r="AK6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="90"/>
-      <c r="AN6" s="91"/>
+      <c r="AL6" s="112"/>
+      <c r="AM6" s="112"/>
+      <c r="AN6" s="113"/>
       <c r="AO6" s="30"/>
       <c r="AP6" s="30"/>
       <c r="AQ6" s="30"/>
@@ -2721,12 +2726,12 @@
       <c r="AX6" s="30"/>
       <c r="AY6" s="30"/>
       <c r="AZ6" s="31"/>
-      <c r="BA6" s="89" t="s">
+      <c r="BA6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="BB6" s="90"/>
-      <c r="BC6" s="90"/>
-      <c r="BD6" s="91"/>
+      <c r="BB6" s="112"/>
+      <c r="BC6" s="112"/>
+      <c r="BD6" s="113"/>
       <c r="BE6" s="30"/>
       <c r="BF6" s="30"/>
       <c r="BG6" s="30"/>
@@ -2739,12 +2744,12 @@
       <c r="BN6" s="30"/>
       <c r="BO6" s="30"/>
       <c r="BP6" s="31"/>
-      <c r="BQ6" s="89" t="s">
+      <c r="BQ6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="BR6" s="90"/>
-      <c r="BS6" s="90"/>
-      <c r="BT6" s="91"/>
+      <c r="BR6" s="112"/>
+      <c r="BS6" s="112"/>
+      <c r="BT6" s="113"/>
       <c r="BU6" s="71"/>
       <c r="BV6" s="71"/>
       <c r="BW6" s="30"/>
@@ -2759,7 +2764,7 @@
       <c r="CF6" s="31"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A7" s="134"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="28" t="s">
         <v>11</v>
       </c>
@@ -2767,10 +2772,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="98"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
@@ -2783,14 +2788,14 @@
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
       <c r="T7" s="34"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="120"/>
-      <c r="Y7" s="120"/>
-      <c r="Z7" s="120"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="121"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="107"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="33"/>
       <c r="AE7" s="33"/>
@@ -2799,10 +2804,10 @@
       <c r="AH7" s="33"/>
       <c r="AI7" s="33"/>
       <c r="AJ7" s="34"/>
-      <c r="AK7" s="92"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="94"/>
+      <c r="AK7" s="114"/>
+      <c r="AL7" s="115"/>
+      <c r="AM7" s="115"/>
+      <c r="AN7" s="116"/>
       <c r="AO7" s="33"/>
       <c r="AP7" s="33"/>
       <c r="AQ7" s="33"/>
@@ -2815,10 +2820,10 @@
       <c r="AX7" s="33"/>
       <c r="AY7" s="33"/>
       <c r="AZ7" s="34"/>
-      <c r="BA7" s="92"/>
-      <c r="BB7" s="93"/>
-      <c r="BC7" s="93"/>
-      <c r="BD7" s="94"/>
+      <c r="BA7" s="114"/>
+      <c r="BB7" s="115"/>
+      <c r="BC7" s="115"/>
+      <c r="BD7" s="116"/>
       <c r="BE7" s="33"/>
       <c r="BF7" s="33"/>
       <c r="BG7" s="33"/>
@@ -2831,10 +2836,10 @@
       <c r="BN7" s="33"/>
       <c r="BO7" s="33"/>
       <c r="BP7" s="34"/>
-      <c r="BQ7" s="92"/>
-      <c r="BR7" s="93"/>
-      <c r="BS7" s="93"/>
-      <c r="BT7" s="94"/>
+      <c r="BQ7" s="114"/>
+      <c r="BR7" s="115"/>
+      <c r="BS7" s="115"/>
+      <c r="BT7" s="116"/>
       <c r="BU7" s="33"/>
       <c r="BV7" s="33"/>
       <c r="BW7" s="33"/>
@@ -2849,7 +2854,7 @@
       <c r="CF7" s="34"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A8" s="134"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
@@ -2857,10 +2862,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="25"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="112"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="98"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -2873,14 +2878,14 @@
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
       <c r="T8" s="34"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="120"/>
-      <c r="W8" s="120"/>
-      <c r="X8" s="120"/>
-      <c r="Y8" s="120"/>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="120"/>
-      <c r="AB8" s="121"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="107"/>
       <c r="AC8" s="35"/>
       <c r="AD8" s="33"/>
       <c r="AE8" s="33"/>
@@ -2889,10 +2894,10 @@
       <c r="AH8" s="33"/>
       <c r="AI8" s="33"/>
       <c r="AJ8" s="34"/>
-      <c r="AK8" s="92"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="94"/>
+      <c r="AK8" s="114"/>
+      <c r="AL8" s="115"/>
+      <c r="AM8" s="115"/>
+      <c r="AN8" s="116"/>
       <c r="AO8" s="33"/>
       <c r="AP8" s="33"/>
       <c r="AQ8" s="33"/>
@@ -2905,10 +2910,10 @@
       <c r="AX8" s="33"/>
       <c r="AY8" s="33"/>
       <c r="AZ8" s="34"/>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="93"/>
-      <c r="BC8" s="93"/>
-      <c r="BD8" s="94"/>
+      <c r="BA8" s="114"/>
+      <c r="BB8" s="115"/>
+      <c r="BC8" s="115"/>
+      <c r="BD8" s="116"/>
       <c r="BE8" s="33"/>
       <c r="BF8" s="33"/>
       <c r="BG8" s="33"/>
@@ -2921,10 +2926,10 @@
       <c r="BN8" s="33"/>
       <c r="BO8" s="33"/>
       <c r="BP8" s="34"/>
-      <c r="BQ8" s="92"/>
-      <c r="BR8" s="93"/>
-      <c r="BS8" s="93"/>
-      <c r="BT8" s="94"/>
+      <c r="BQ8" s="114"/>
+      <c r="BR8" s="115"/>
+      <c r="BS8" s="115"/>
+      <c r="BT8" s="116"/>
       <c r="BU8" s="33"/>
       <c r="BV8" s="33"/>
       <c r="BW8" s="33"/>
@@ -2939,7 +2944,7 @@
       <c r="CF8" s="34"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="130" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -2949,10 +2954,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="112"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="98"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -2965,14 +2970,14 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="38"/>
-      <c r="U9" s="119"/>
-      <c r="V9" s="120"/>
-      <c r="W9" s="120"/>
-      <c r="X9" s="120"/>
-      <c r="Y9" s="120"/>
-      <c r="Z9" s="120"/>
-      <c r="AA9" s="120"/>
-      <c r="AB9" s="121"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="107"/>
       <c r="AC9" s="39"/>
       <c r="AD9" s="37"/>
       <c r="AE9" s="37"/>
@@ -2981,10 +2986,10 @@
       <c r="AH9" s="37"/>
       <c r="AI9" s="37"/>
       <c r="AJ9" s="38"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="94"/>
+      <c r="AK9" s="114"/>
+      <c r="AL9" s="115"/>
+      <c r="AM9" s="115"/>
+      <c r="AN9" s="116"/>
       <c r="AO9" s="37"/>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -2997,10 +3002,10 @@
       <c r="AX9" s="37"/>
       <c r="AY9" s="37"/>
       <c r="AZ9" s="38"/>
-      <c r="BA9" s="92"/>
-      <c r="BB9" s="93"/>
-      <c r="BC9" s="93"/>
-      <c r="BD9" s="94"/>
+      <c r="BA9" s="114"/>
+      <c r="BB9" s="115"/>
+      <c r="BC9" s="115"/>
+      <c r="BD9" s="116"/>
       <c r="BE9" s="37"/>
       <c r="BF9" s="37"/>
       <c r="BG9" s="37"/>
@@ -3013,10 +3018,10 @@
       <c r="BN9" s="37"/>
       <c r="BO9" s="37"/>
       <c r="BP9" s="38"/>
-      <c r="BQ9" s="92"/>
-      <c r="BR9" s="93"/>
-      <c r="BS9" s="93"/>
-      <c r="BT9" s="94"/>
+      <c r="BQ9" s="114"/>
+      <c r="BR9" s="115"/>
+      <c r="BS9" s="115"/>
+      <c r="BT9" s="116"/>
       <c r="BU9" s="37"/>
       <c r="BV9" s="37"/>
       <c r="BW9" s="37"/>
@@ -3031,7 +3036,7 @@
       <c r="CF9" s="38"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A10" s="136"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="36" t="s">
         <v>15</v>
       </c>
@@ -3039,10 +3044,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="25"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="112"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
@@ -3055,14 +3060,14 @@
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="38"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="121"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="107"/>
       <c r="AC10" s="39"/>
       <c r="AD10" s="37"/>
       <c r="AE10" s="37"/>
@@ -3071,10 +3076,10 @@
       <c r="AH10" s="37"/>
       <c r="AI10" s="37"/>
       <c r="AJ10" s="38"/>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="93"/>
-      <c r="AN10" s="94"/>
+      <c r="AK10" s="114"/>
+      <c r="AL10" s="115"/>
+      <c r="AM10" s="115"/>
+      <c r="AN10" s="116"/>
       <c r="AO10" s="37"/>
       <c r="AP10" s="37"/>
       <c r="AQ10" s="37"/>
@@ -3087,10 +3092,10 @@
       <c r="AX10" s="37"/>
       <c r="AY10" s="37"/>
       <c r="AZ10" s="38"/>
-      <c r="BA10" s="92"/>
-      <c r="BB10" s="93"/>
-      <c r="BC10" s="93"/>
-      <c r="BD10" s="94"/>
+      <c r="BA10" s="114"/>
+      <c r="BB10" s="115"/>
+      <c r="BC10" s="115"/>
+      <c r="BD10" s="116"/>
       <c r="BE10" s="37"/>
       <c r="BF10" s="37"/>
       <c r="BG10" s="37"/>
@@ -3103,10 +3108,10 @@
       <c r="BN10" s="37"/>
       <c r="BO10" s="37"/>
       <c r="BP10" s="38"/>
-      <c r="BQ10" s="92"/>
-      <c r="BR10" s="93"/>
-      <c r="BS10" s="93"/>
-      <c r="BT10" s="94"/>
+      <c r="BQ10" s="114"/>
+      <c r="BR10" s="115"/>
+      <c r="BS10" s="115"/>
+      <c r="BT10" s="116"/>
       <c r="BU10" s="37"/>
       <c r="BV10" s="37"/>
       <c r="BW10" s="37"/>
@@ -3121,7 +3126,7 @@
       <c r="CF10" s="38"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A11" s="137"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="36" t="s">
         <v>16</v>
       </c>
@@ -3129,10 +3134,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="25"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="112"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="98"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
@@ -3145,14 +3150,14 @@
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="120"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="120"/>
-      <c r="Y11" s="120"/>
-      <c r="Z11" s="120"/>
-      <c r="AA11" s="120"/>
-      <c r="AB11" s="121"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="107"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="37"/>
       <c r="AE11" s="37"/>
@@ -3161,10 +3166,10 @@
       <c r="AH11" s="37"/>
       <c r="AI11" s="37"/>
       <c r="AJ11" s="38"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="94"/>
+      <c r="AK11" s="114"/>
+      <c r="AL11" s="115"/>
+      <c r="AM11" s="115"/>
+      <c r="AN11" s="116"/>
       <c r="AO11" s="37"/>
       <c r="AP11" s="37"/>
       <c r="AQ11" s="37"/>
@@ -3177,10 +3182,10 @@
       <c r="AX11" s="37"/>
       <c r="AY11" s="37"/>
       <c r="AZ11" s="38"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="93"/>
-      <c r="BC11" s="93"/>
-      <c r="BD11" s="94"/>
+      <c r="BA11" s="114"/>
+      <c r="BB11" s="115"/>
+      <c r="BC11" s="115"/>
+      <c r="BD11" s="116"/>
       <c r="BE11" s="37"/>
       <c r="BF11" s="37"/>
       <c r="BG11" s="37"/>
@@ -3193,10 +3198,10 @@
       <c r="BN11" s="37"/>
       <c r="BO11" s="37"/>
       <c r="BP11" s="38"/>
-      <c r="BQ11" s="92"/>
-      <c r="BR11" s="93"/>
-      <c r="BS11" s="93"/>
-      <c r="BT11" s="94"/>
+      <c r="BQ11" s="114"/>
+      <c r="BR11" s="115"/>
+      <c r="BS11" s="115"/>
+      <c r="BT11" s="116"/>
       <c r="BU11" s="37"/>
       <c r="BV11" s="37"/>
       <c r="BW11" s="37"/>
@@ -3211,7 +3216,7 @@
       <c r="CF11" s="38"/>
     </row>
     <row r="12" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="124" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="74" t="s">
@@ -3221,10 +3226,10 @@
         <v>24</v>
       </c>
       <c r="D12" s="25"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="112"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="98"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -3237,14 +3242,14 @@
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="119"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="120"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="121"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="107"/>
       <c r="AC12" s="42"/>
       <c r="AD12" s="20"/>
       <c r="AE12" s="40"/>
@@ -3253,10 +3258,10 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="20"/>
       <c r="AJ12" s="41"/>
-      <c r="AK12" s="92"/>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="93"/>
-      <c r="AN12" s="94"/>
+      <c r="AK12" s="114"/>
+      <c r="AL12" s="115"/>
+      <c r="AM12" s="115"/>
+      <c r="AN12" s="116"/>
       <c r="AO12" s="20"/>
       <c r="AP12" s="20"/>
       <c r="AQ12" s="20"/>
@@ -3269,10 +3274,10 @@
       <c r="AX12" s="40"/>
       <c r="AY12" s="40"/>
       <c r="AZ12" s="41"/>
-      <c r="BA12" s="92"/>
-      <c r="BB12" s="93"/>
-      <c r="BC12" s="93"/>
-      <c r="BD12" s="94"/>
+      <c r="BA12" s="114"/>
+      <c r="BB12" s="115"/>
+      <c r="BC12" s="115"/>
+      <c r="BD12" s="116"/>
       <c r="BE12" s="40"/>
       <c r="BF12" s="40"/>
       <c r="BG12" s="40"/>
@@ -3285,10 +3290,10 @@
       <c r="BN12" s="40"/>
       <c r="BO12" s="40"/>
       <c r="BP12" s="41"/>
-      <c r="BQ12" s="92"/>
-      <c r="BR12" s="93"/>
-      <c r="BS12" s="93"/>
-      <c r="BT12" s="94"/>
+      <c r="BQ12" s="114"/>
+      <c r="BR12" s="115"/>
+      <c r="BS12" s="115"/>
+      <c r="BT12" s="116"/>
       <c r="BU12" s="40"/>
       <c r="BV12" s="40"/>
       <c r="BW12" s="40"/>
@@ -3303,7 +3308,7 @@
       <c r="CF12" s="41"/>
     </row>
     <row r="13" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="130"/>
+      <c r="A13" s="125"/>
       <c r="B13" s="75" t="s">
         <v>30</v>
       </c>
@@ -3311,10 +3316,10 @@
         <v>23</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="98"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -3327,14 +3332,14 @@
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="119"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="120"/>
-      <c r="AB13" s="121"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="107"/>
       <c r="AC13" s="42"/>
       <c r="AD13" s="40"/>
       <c r="AE13" s="20"/>
@@ -3343,10 +3348,10 @@
       <c r="AH13" s="40"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="69"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="93"/>
-      <c r="AN13" s="94"/>
+      <c r="AK13" s="114"/>
+      <c r="AL13" s="115"/>
+      <c r="AM13" s="115"/>
+      <c r="AN13" s="116"/>
       <c r="AO13" s="40"/>
       <c r="AP13" s="40"/>
       <c r="AQ13" s="40"/>
@@ -3359,10 +3364,10 @@
       <c r="AX13" s="40"/>
       <c r="AY13" s="40"/>
       <c r="AZ13" s="41"/>
-      <c r="BA13" s="92"/>
-      <c r="BB13" s="93"/>
-      <c r="BC13" s="93"/>
-      <c r="BD13" s="94"/>
+      <c r="BA13" s="114"/>
+      <c r="BB13" s="115"/>
+      <c r="BC13" s="115"/>
+      <c r="BD13" s="116"/>
       <c r="BE13" s="40"/>
       <c r="BF13" s="40"/>
       <c r="BG13" s="40"/>
@@ -3375,10 +3380,10 @@
       <c r="BN13" s="40"/>
       <c r="BO13" s="40"/>
       <c r="BP13" s="41"/>
-      <c r="BQ13" s="92"/>
-      <c r="BR13" s="93"/>
-      <c r="BS13" s="93"/>
-      <c r="BT13" s="94"/>
+      <c r="BQ13" s="114"/>
+      <c r="BR13" s="115"/>
+      <c r="BS13" s="115"/>
+      <c r="BT13" s="116"/>
       <c r="BU13" s="40"/>
       <c r="BV13" s="40"/>
       <c r="BW13" s="40"/>
@@ -3393,7 +3398,7 @@
       <c r="CF13" s="41"/>
     </row>
     <row r="14" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="131"/>
+      <c r="A14" s="126"/>
       <c r="B14" s="78" t="s">
         <v>31</v>
       </c>
@@ -3401,10 +3406,10 @@
         <v>32</v>
       </c>
       <c r="D14" s="25"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="112"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="98"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -3417,14 +3422,14 @@
       <c r="R14" s="40"/>
       <c r="S14" s="40"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="120"/>
-      <c r="X14" s="120"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="121"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="106"/>
+      <c r="Y14" s="106"/>
+      <c r="Z14" s="106"/>
+      <c r="AA14" s="106"/>
+      <c r="AB14" s="107"/>
       <c r="AC14" s="42"/>
       <c r="AD14" s="40"/>
       <c r="AE14" s="40"/>
@@ -3433,10 +3438,10 @@
       <c r="AH14" s="40"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="70"/>
-      <c r="AK14" s="92"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="94"/>
+      <c r="AK14" s="114"/>
+      <c r="AL14" s="115"/>
+      <c r="AM14" s="115"/>
+      <c r="AN14" s="116"/>
       <c r="AO14" s="40"/>
       <c r="AP14" s="40"/>
       <c r="AQ14" s="40"/>
@@ -3449,10 +3454,10 @@
       <c r="AX14" s="40"/>
       <c r="AY14" s="40"/>
       <c r="AZ14" s="41"/>
-      <c r="BA14" s="92"/>
-      <c r="BB14" s="93"/>
-      <c r="BC14" s="93"/>
-      <c r="BD14" s="94"/>
+      <c r="BA14" s="114"/>
+      <c r="BB14" s="115"/>
+      <c r="BC14" s="115"/>
+      <c r="BD14" s="116"/>
       <c r="BE14" s="40"/>
       <c r="BF14" s="40"/>
       <c r="BG14" s="40"/>
@@ -3465,10 +3470,10 @@
       <c r="BN14" s="40"/>
       <c r="BO14" s="40"/>
       <c r="BP14" s="41"/>
-      <c r="BQ14" s="92"/>
-      <c r="BR14" s="93"/>
-      <c r="BS14" s="93"/>
-      <c r="BT14" s="94"/>
+      <c r="BQ14" s="114"/>
+      <c r="BR14" s="115"/>
+      <c r="BS14" s="115"/>
+      <c r="BT14" s="116"/>
       <c r="BU14" s="40"/>
       <c r="BV14" s="40"/>
       <c r="BW14" s="40"/>
@@ -3483,7 +3488,7 @@
       <c r="CF14" s="41"/>
     </row>
     <row r="15" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="120" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="73" t="s">
@@ -3491,10 +3496,10 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="25"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="112"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="98"/>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
@@ -3507,14 +3512,14 @@
       <c r="R15" s="43"/>
       <c r="S15" s="43"/>
       <c r="T15" s="44"/>
-      <c r="U15" s="119"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="120"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="121"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="106"/>
+      <c r="Y15" s="106"/>
+      <c r="Z15" s="106"/>
+      <c r="AA15" s="106"/>
+      <c r="AB15" s="107"/>
       <c r="AC15" s="45"/>
       <c r="AD15" s="43"/>
       <c r="AE15" s="43"/>
@@ -3523,15 +3528,15 @@
       <c r="AH15" s="43"/>
       <c r="AI15" s="43"/>
       <c r="AJ15" s="44"/>
-      <c r="AK15" s="92"/>
-      <c r="AL15" s="93"/>
-      <c r="AM15" s="93"/>
-      <c r="AN15" s="94"/>
+      <c r="AK15" s="114"/>
+      <c r="AL15" s="115"/>
+      <c r="AM15" s="115"/>
+      <c r="AN15" s="116"/>
       <c r="AO15" s="43"/>
       <c r="AP15" s="43"/>
       <c r="AQ15" s="43"/>
-      <c r="AR15" s="138"/>
-      <c r="AS15" s="139"/>
+      <c r="AR15" s="85"/>
+      <c r="AS15" s="86"/>
       <c r="AT15" s="20"/>
       <c r="AU15" s="20"/>
       <c r="AV15" s="20"/>
@@ -3539,10 +3544,10 @@
       <c r="AX15" s="20"/>
       <c r="AY15" s="20"/>
       <c r="AZ15" s="44"/>
-      <c r="BA15" s="92"/>
-      <c r="BB15" s="93"/>
-      <c r="BC15" s="93"/>
-      <c r="BD15" s="94"/>
+      <c r="BA15" s="114"/>
+      <c r="BB15" s="115"/>
+      <c r="BC15" s="115"/>
+      <c r="BD15" s="116"/>
       <c r="BE15" s="43"/>
       <c r="BF15" s="43"/>
       <c r="BG15" s="43"/>
@@ -3555,10 +3560,10 @@
       <c r="BN15" s="43"/>
       <c r="BO15" s="43"/>
       <c r="BP15" s="44"/>
-      <c r="BQ15" s="92"/>
-      <c r="BR15" s="93"/>
-      <c r="BS15" s="93"/>
-      <c r="BT15" s="94"/>
+      <c r="BQ15" s="114"/>
+      <c r="BR15" s="115"/>
+      <c r="BS15" s="115"/>
+      <c r="BT15" s="116"/>
       <c r="BU15" s="43"/>
       <c r="BV15" s="43"/>
       <c r="BW15" s="43"/>
@@ -3573,16 +3578,16 @@
       <c r="CF15" s="44"/>
     </row>
     <row r="16" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="126"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="80" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="25"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="112"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
@@ -3595,14 +3600,14 @@
       <c r="R16" s="43"/>
       <c r="S16" s="43"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="120"/>
-      <c r="W16" s="120"/>
-      <c r="X16" s="120"/>
-      <c r="Y16" s="120"/>
-      <c r="Z16" s="120"/>
-      <c r="AA16" s="120"/>
-      <c r="AB16" s="121"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="107"/>
       <c r="AC16" s="45"/>
       <c r="AD16" s="43"/>
       <c r="AE16" s="43"/>
@@ -3611,10 +3616,10 @@
       <c r="AH16" s="43"/>
       <c r="AI16" s="43"/>
       <c r="AJ16" s="44"/>
-      <c r="AK16" s="92"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="94"/>
+      <c r="AK16" s="114"/>
+      <c r="AL16" s="115"/>
+      <c r="AM16" s="115"/>
+      <c r="AN16" s="116"/>
       <c r="AO16" s="43"/>
       <c r="AP16" s="43"/>
       <c r="AQ16" s="43"/>
@@ -3627,10 +3632,10 @@
       <c r="AX16" s="43"/>
       <c r="AY16" s="43"/>
       <c r="AZ16" s="70"/>
-      <c r="BA16" s="92"/>
-      <c r="BB16" s="93"/>
-      <c r="BC16" s="93"/>
-      <c r="BD16" s="94"/>
+      <c r="BA16" s="114"/>
+      <c r="BB16" s="115"/>
+      <c r="BC16" s="115"/>
+      <c r="BD16" s="116"/>
       <c r="BE16" s="43"/>
       <c r="BF16" s="43"/>
       <c r="BG16" s="43"/>
@@ -3643,10 +3648,10 @@
       <c r="BN16" s="43"/>
       <c r="BO16" s="43"/>
       <c r="BP16" s="44"/>
-      <c r="BQ16" s="92"/>
-      <c r="BR16" s="93"/>
-      <c r="BS16" s="93"/>
-      <c r="BT16" s="94"/>
+      <c r="BQ16" s="114"/>
+      <c r="BR16" s="115"/>
+      <c r="BS16" s="115"/>
+      <c r="BT16" s="116"/>
       <c r="BU16" s="43"/>
       <c r="BV16" s="43"/>
       <c r="BW16" s="43"/>
@@ -3661,7 +3666,7 @@
       <c r="CF16" s="44"/>
     </row>
     <row r="17" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="122" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="72" t="s">
@@ -3669,10 +3674,10 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="25"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="112"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="98"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
@@ -3685,14 +3690,14 @@
       <c r="R17" s="46"/>
       <c r="S17" s="46"/>
       <c r="T17" s="47"/>
-      <c r="U17" s="119"/>
-      <c r="V17" s="120"/>
-      <c r="W17" s="120"/>
-      <c r="X17" s="120"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="120"/>
-      <c r="AA17" s="120"/>
-      <c r="AB17" s="121"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="106"/>
+      <c r="AB17" s="107"/>
       <c r="AC17" s="48"/>
       <c r="AD17" s="46"/>
       <c r="AE17" s="46"/>
@@ -3701,10 +3706,10 @@
       <c r="AH17" s="46"/>
       <c r="AI17" s="46"/>
       <c r="AJ17" s="47"/>
-      <c r="AK17" s="92"/>
-      <c r="AL17" s="93"/>
-      <c r="AM17" s="93"/>
-      <c r="AN17" s="94"/>
+      <c r="AK17" s="114"/>
+      <c r="AL17" s="115"/>
+      <c r="AM17" s="115"/>
+      <c r="AN17" s="116"/>
       <c r="AO17" s="46"/>
       <c r="AP17" s="46"/>
       <c r="AQ17" s="46"/>
@@ -3717,10 +3722,10 @@
       <c r="AX17" s="46"/>
       <c r="AY17" s="46"/>
       <c r="AZ17" s="47"/>
-      <c r="BA17" s="92"/>
-      <c r="BB17" s="93"/>
-      <c r="BC17" s="93"/>
-      <c r="BD17" s="94"/>
+      <c r="BA17" s="114"/>
+      <c r="BB17" s="115"/>
+      <c r="BC17" s="115"/>
+      <c r="BD17" s="116"/>
       <c r="BE17" s="20"/>
       <c r="BF17" s="20"/>
       <c r="BG17" s="20"/>
@@ -3733,10 +3738,10 @@
       <c r="BN17" s="20"/>
       <c r="BO17" s="20"/>
       <c r="BP17" s="47"/>
-      <c r="BQ17" s="92"/>
-      <c r="BR17" s="93"/>
-      <c r="BS17" s="93"/>
-      <c r="BT17" s="94"/>
+      <c r="BQ17" s="114"/>
+      <c r="BR17" s="115"/>
+      <c r="BS17" s="115"/>
+      <c r="BT17" s="116"/>
       <c r="BU17" s="46"/>
       <c r="BV17" s="46"/>
       <c r="BW17" s="46"/>
@@ -3751,16 +3756,16 @@
       <c r="CF17" s="47"/>
     </row>
     <row r="18" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="128"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="79" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="25"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="112"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
@@ -3773,14 +3778,14 @@
       <c r="R18" s="46"/>
       <c r="S18" s="46"/>
       <c r="T18" s="47"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="120"/>
-      <c r="AA18" s="120"/>
-      <c r="AB18" s="121"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="107"/>
       <c r="AC18" s="48"/>
       <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
@@ -3789,10 +3794,10 @@
       <c r="AH18" s="46"/>
       <c r="AI18" s="46"/>
       <c r="AJ18" s="47"/>
-      <c r="AK18" s="92"/>
-      <c r="AL18" s="93"/>
-      <c r="AM18" s="93"/>
-      <c r="AN18" s="94"/>
+      <c r="AK18" s="114"/>
+      <c r="AL18" s="115"/>
+      <c r="AM18" s="115"/>
+      <c r="AN18" s="116"/>
       <c r="AO18" s="46"/>
       <c r="AP18" s="46"/>
       <c r="AQ18" s="46"/>
@@ -3805,10 +3810,10 @@
       <c r="AX18" s="46"/>
       <c r="AY18" s="46"/>
       <c r="AZ18" s="47"/>
-      <c r="BA18" s="92"/>
-      <c r="BB18" s="93"/>
-      <c r="BC18" s="93"/>
-      <c r="BD18" s="94"/>
+      <c r="BA18" s="114"/>
+      <c r="BB18" s="115"/>
+      <c r="BC18" s="115"/>
+      <c r="BD18" s="116"/>
       <c r="BE18" s="46"/>
       <c r="BF18" s="46"/>
       <c r="BG18" s="46"/>
@@ -3821,10 +3826,10 @@
       <c r="BN18" s="46"/>
       <c r="BO18" s="46"/>
       <c r="BP18" s="21"/>
-      <c r="BQ18" s="92"/>
-      <c r="BR18" s="93"/>
-      <c r="BS18" s="93"/>
-      <c r="BT18" s="94"/>
+      <c r="BQ18" s="114"/>
+      <c r="BR18" s="115"/>
+      <c r="BS18" s="115"/>
+      <c r="BT18" s="116"/>
       <c r="BU18" s="46"/>
       <c r="BV18" s="46"/>
       <c r="BW18" s="46"/>
@@ -3839,7 +3844,7 @@
       <c r="CF18" s="47"/>
     </row>
     <row r="19" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="132" t="s">
+      <c r="A19" s="127" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="77" t="s">
@@ -3847,10 +3852,10 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="112"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
@@ -3863,14 +3868,14 @@
       <c r="R19" s="49"/>
       <c r="S19" s="49"/>
       <c r="T19" s="50"/>
-      <c r="U19" s="119"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="120"/>
-      <c r="AA19" s="120"/>
-      <c r="AB19" s="121"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="106"/>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="106"/>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="107"/>
       <c r="AC19" s="51"/>
       <c r="AD19" s="49"/>
       <c r="AE19" s="49"/>
@@ -3879,10 +3884,10 @@
       <c r="AH19" s="49"/>
       <c r="AI19" s="49"/>
       <c r="AJ19" s="50"/>
-      <c r="AK19" s="92"/>
-      <c r="AL19" s="93"/>
-      <c r="AM19" s="93"/>
-      <c r="AN19" s="94"/>
+      <c r="AK19" s="114"/>
+      <c r="AL19" s="115"/>
+      <c r="AM19" s="115"/>
+      <c r="AN19" s="116"/>
       <c r="AO19" s="49"/>
       <c r="AP19" s="49"/>
       <c r="AQ19" s="49"/>
@@ -3895,10 +3900,10 @@
       <c r="AX19" s="49"/>
       <c r="AY19" s="49"/>
       <c r="AZ19" s="50"/>
-      <c r="BA19" s="92"/>
-      <c r="BB19" s="93"/>
-      <c r="BC19" s="93"/>
-      <c r="BD19" s="94"/>
+      <c r="BA19" s="114"/>
+      <c r="BB19" s="115"/>
+      <c r="BC19" s="115"/>
+      <c r="BD19" s="116"/>
       <c r="BE19" s="49"/>
       <c r="BF19" s="49"/>
       <c r="BG19" s="49"/>
@@ -3911,10 +3916,10 @@
       <c r="BN19" s="49"/>
       <c r="BO19" s="49"/>
       <c r="BP19" s="50"/>
-      <c r="BQ19" s="92"/>
-      <c r="BR19" s="93"/>
-      <c r="BS19" s="93"/>
-      <c r="BT19" s="94"/>
+      <c r="BQ19" s="114"/>
+      <c r="BR19" s="115"/>
+      <c r="BS19" s="115"/>
+      <c r="BT19" s="116"/>
       <c r="BU19" s="20"/>
       <c r="BV19" s="20"/>
       <c r="BW19" s="20"/>
@@ -3929,16 +3934,16 @@
       <c r="CF19" s="50"/>
     </row>
     <row r="20" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="133"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="81" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="112"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
@@ -3951,14 +3956,14 @@
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
       <c r="T20" s="66"/>
-      <c r="U20" s="119"/>
-      <c r="V20" s="120"/>
-      <c r="W20" s="120"/>
-      <c r="X20" s="120"/>
-      <c r="Y20" s="120"/>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="120"/>
-      <c r="AB20" s="121"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="106"/>
+      <c r="W20" s="106"/>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="106"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="107"/>
       <c r="AC20" s="67"/>
       <c r="AD20" s="65"/>
       <c r="AE20" s="65"/>
@@ -3967,10 +3972,10 @@
       <c r="AH20" s="65"/>
       <c r="AI20" s="65"/>
       <c r="AJ20" s="66"/>
-      <c r="AK20" s="92"/>
-      <c r="AL20" s="93"/>
-      <c r="AM20" s="93"/>
-      <c r="AN20" s="94"/>
+      <c r="AK20" s="114"/>
+      <c r="AL20" s="115"/>
+      <c r="AM20" s="115"/>
+      <c r="AN20" s="116"/>
       <c r="AO20" s="65"/>
       <c r="AP20" s="65"/>
       <c r="AQ20" s="65"/>
@@ -3983,10 +3988,10 @@
       <c r="AX20" s="65"/>
       <c r="AY20" s="65"/>
       <c r="AZ20" s="66"/>
-      <c r="BA20" s="92"/>
-      <c r="BB20" s="93"/>
-      <c r="BC20" s="93"/>
-      <c r="BD20" s="94"/>
+      <c r="BA20" s="114"/>
+      <c r="BB20" s="115"/>
+      <c r="BC20" s="115"/>
+      <c r="BD20" s="116"/>
       <c r="BE20" s="65"/>
       <c r="BF20" s="65"/>
       <c r="BG20" s="65"/>
@@ -3999,10 +4004,10 @@
       <c r="BN20" s="65"/>
       <c r="BO20" s="65"/>
       <c r="BP20" s="66"/>
-      <c r="BQ20" s="92"/>
-      <c r="BR20" s="93"/>
-      <c r="BS20" s="93"/>
-      <c r="BT20" s="94"/>
+      <c r="BQ20" s="114"/>
+      <c r="BR20" s="115"/>
+      <c r="BS20" s="115"/>
+      <c r="BT20" s="116"/>
       <c r="BU20" s="65"/>
       <c r="BV20" s="65"/>
       <c r="BW20" s="65"/>
@@ -4025,10 +4030,10 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="112"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
@@ -4041,14 +4046,14 @@
       <c r="R21" s="53"/>
       <c r="S21" s="53"/>
       <c r="T21" s="54"/>
-      <c r="U21" s="119"/>
-      <c r="V21" s="120"/>
-      <c r="W21" s="120"/>
-      <c r="X21" s="120"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="120"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="121"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="107"/>
       <c r="AC21" s="55"/>
       <c r="AD21" s="53"/>
       <c r="AE21" s="53"/>
@@ -4057,10 +4062,10 @@
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="54"/>
-      <c r="AK21" s="92"/>
-      <c r="AL21" s="93"/>
-      <c r="AM21" s="93"/>
-      <c r="AN21" s="94"/>
+      <c r="AK21" s="114"/>
+      <c r="AL21" s="115"/>
+      <c r="AM21" s="115"/>
+      <c r="AN21" s="116"/>
       <c r="AO21" s="53"/>
       <c r="AP21" s="53"/>
       <c r="AQ21" s="53"/>
@@ -4073,10 +4078,10 @@
       <c r="AX21" s="53"/>
       <c r="AY21" s="53"/>
       <c r="AZ21" s="54"/>
-      <c r="BA21" s="92"/>
-      <c r="BB21" s="93"/>
-      <c r="BC21" s="93"/>
-      <c r="BD21" s="94"/>
+      <c r="BA21" s="114"/>
+      <c r="BB21" s="115"/>
+      <c r="BC21" s="115"/>
+      <c r="BD21" s="116"/>
       <c r="BE21" s="53"/>
       <c r="BF21" s="53"/>
       <c r="BG21" s="53"/>
@@ -4089,10 +4094,10 @@
       <c r="BN21" s="53"/>
       <c r="BO21" s="53"/>
       <c r="BP21" s="54"/>
-      <c r="BQ21" s="92"/>
-      <c r="BR21" s="93"/>
-      <c r="BS21" s="93"/>
-      <c r="BT21" s="94"/>
+      <c r="BQ21" s="114"/>
+      <c r="BR21" s="115"/>
+      <c r="BS21" s="115"/>
+      <c r="BT21" s="116"/>
       <c r="BU21" s="53"/>
       <c r="BV21" s="53"/>
       <c r="BW21" s="53"/>
@@ -4107,7 +4112,7 @@
       <c r="CF21" s="23"/>
     </row>
     <row r="22" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105" t="s">
+      <c r="A22" s="91" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="57" t="s">
@@ -4116,10 +4121,10 @@
       <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="110"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="112"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
       <c r="I22" s="59"/>
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
@@ -4132,14 +4137,14 @@
       <c r="R22" s="59"/>
       <c r="S22" s="59"/>
       <c r="T22" s="60"/>
-      <c r="U22" s="119"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="120"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="120"/>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="120"/>
-      <c r="AB22" s="121"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="106"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="106"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="107"/>
       <c r="AC22" s="58"/>
       <c r="AD22" s="59"/>
       <c r="AE22" s="59"/>
@@ -4148,10 +4153,10 @@
       <c r="AH22" s="59"/>
       <c r="AI22" s="82"/>
       <c r="AJ22" s="83"/>
-      <c r="AK22" s="92"/>
-      <c r="AL22" s="93"/>
-      <c r="AM22" s="93"/>
-      <c r="AN22" s="94"/>
+      <c r="AK22" s="114"/>
+      <c r="AL22" s="115"/>
+      <c r="AM22" s="115"/>
+      <c r="AN22" s="116"/>
       <c r="AO22" s="82"/>
       <c r="AP22" s="82"/>
       <c r="AQ22" s="82"/>
@@ -4164,10 +4169,10 @@
       <c r="AX22" s="59"/>
       <c r="AY22" s="59"/>
       <c r="AZ22" s="60"/>
-      <c r="BA22" s="92"/>
-      <c r="BB22" s="93"/>
-      <c r="BC22" s="93"/>
-      <c r="BD22" s="94"/>
+      <c r="BA22" s="114"/>
+      <c r="BB22" s="115"/>
+      <c r="BC22" s="115"/>
+      <c r="BD22" s="116"/>
       <c r="BE22" s="82"/>
       <c r="BF22" s="82"/>
       <c r="BG22" s="59"/>
@@ -4180,10 +4185,10 @@
       <c r="BN22" s="82"/>
       <c r="BO22" s="82"/>
       <c r="BP22" s="83"/>
-      <c r="BQ22" s="92"/>
-      <c r="BR22" s="93"/>
-      <c r="BS22" s="93"/>
-      <c r="BT22" s="94"/>
+      <c r="BQ22" s="114"/>
+      <c r="BR22" s="115"/>
+      <c r="BS22" s="115"/>
+      <c r="BT22" s="116"/>
       <c r="BU22" s="59"/>
       <c r="BV22" s="59"/>
       <c r="BW22" s="59"/>
@@ -4198,17 +4203,17 @@
       <c r="CF22" s="60"/>
     </row>
     <row r="23" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="115"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
       <c r="I23" s="64"/>
       <c r="J23" s="64"/>
       <c r="K23" s="62"/>
@@ -4221,14 +4226,14 @@
       <c r="R23" s="62"/>
       <c r="S23" s="62"/>
       <c r="T23" s="63"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="123"/>
-      <c r="W23" s="123"/>
-      <c r="X23" s="123"/>
-      <c r="Y23" s="123"/>
-      <c r="Z23" s="123"/>
-      <c r="AA23" s="123"/>
-      <c r="AB23" s="124"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="109"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="109"/>
+      <c r="Z23" s="109"/>
+      <c r="AA23" s="109"/>
+      <c r="AB23" s="110"/>
       <c r="AC23" s="61"/>
       <c r="AD23" s="62"/>
       <c r="AE23" s="62"/>
@@ -4237,10 +4242,10 @@
       <c r="AH23" s="62"/>
       <c r="AI23" s="62"/>
       <c r="AJ23" s="63"/>
-      <c r="AK23" s="95"/>
-      <c r="AL23" s="96"/>
-      <c r="AM23" s="96"/>
-      <c r="AN23" s="97"/>
+      <c r="AK23" s="117"/>
+      <c r="AL23" s="118"/>
+      <c r="AM23" s="118"/>
+      <c r="AN23" s="119"/>
       <c r="AO23" s="62"/>
       <c r="AP23" s="62"/>
       <c r="AQ23" s="62"/>
@@ -4253,10 +4258,10 @@
       <c r="AX23" s="62"/>
       <c r="AY23" s="62"/>
       <c r="AZ23" s="63"/>
-      <c r="BA23" s="95"/>
-      <c r="BB23" s="96"/>
-      <c r="BC23" s="96"/>
-      <c r="BD23" s="97"/>
+      <c r="BA23" s="117"/>
+      <c r="BB23" s="118"/>
+      <c r="BC23" s="118"/>
+      <c r="BD23" s="119"/>
       <c r="BE23" s="62"/>
       <c r="BF23" s="62"/>
       <c r="BG23" s="62"/>
@@ -4269,10 +4274,10 @@
       <c r="BN23" s="62"/>
       <c r="BO23" s="62"/>
       <c r="BP23" s="63"/>
-      <c r="BQ23" s="95"/>
-      <c r="BR23" s="96"/>
-      <c r="BS23" s="96"/>
-      <c r="BT23" s="97"/>
+      <c r="BQ23" s="117"/>
+      <c r="BR23" s="118"/>
+      <c r="BS23" s="118"/>
+      <c r="BT23" s="119"/>
       <c r="BU23" s="62"/>
       <c r="BV23" s="62"/>
       <c r="BW23" s="62"/>
@@ -4288,18 +4293,11 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="BU4:BX4"/>
-    <mergeCell ref="BQ4:BT4"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E6:H23"/>
-    <mergeCell ref="U6:AB23"/>
-    <mergeCell ref="AK6:AN23"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="BQ6:BT23"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="E2:AR3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -4316,15 +4314,22 @@
     <mergeCell ref="AW4:AZ4"/>
     <mergeCell ref="BY4:CB4"/>
     <mergeCell ref="CC4:CF4"/>
+    <mergeCell ref="BU4:BX4"/>
+    <mergeCell ref="BQ4:BT4"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E6:H23"/>
+    <mergeCell ref="U6:AB23"/>
+    <mergeCell ref="AK6:AN23"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="Q4:T4"/>
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="Y4:AB4"/>
     <mergeCell ref="BA6:BD23"/>
-    <mergeCell ref="BQ6:BT23"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="C6:C23">
@@ -4566,6 +4571,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
@@ -4574,15 +4588,6 @@
     <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4605,6 +4610,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4615,12 +4628,4 @@
     <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="608" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BDDF510-CEA7-40CD-984F-C75D10D71724}"/>
+  <xr:revisionPtr revIDLastSave="633" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD8DF272-B55E-4358-A579-D5E07843148F}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1320" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Tâches</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>Sprint review</t>
-  </si>
-  <si>
-    <t>En Cours</t>
   </si>
 </sst>
 </file>
@@ -801,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1138,6 +1135,10 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1398,15 +1399,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>752473</xdr:colOff>
+      <xdr:colOff>771524</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1421,8 +1422,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5057773" y="685800"/>
-          <a:ext cx="7315201" cy="4029074"/>
+          <a:off x="5076824" y="685800"/>
+          <a:ext cx="8448675" cy="3990975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1574,16 +1575,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1598,7 +1599,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16668750" y="3829050"/>
+          <a:off x="16249650" y="3819525"/>
           <a:ext cx="142875" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -2047,7 +2048,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1"/>
+      <selection pane="bottomRight" activeCell="AN28" sqref="AN28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2062,10 +2063,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="135"/>
+      <c r="B1" s="136"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="1"/>
@@ -2110,310 +2111,310 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="137"/>
+      <c r="B2" s="138"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="133"/>
-      <c r="AG2" s="133"/>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="133"/>
-      <c r="AJ2" s="133"/>
-      <c r="AK2" s="133"/>
-      <c r="AL2" s="133"/>
-      <c r="AM2" s="133"/>
-      <c r="AN2" s="133"/>
-      <c r="AO2" s="133"/>
-      <c r="AP2" s="133"/>
-      <c r="AQ2" s="133"/>
-      <c r="AR2" s="133"/>
-      <c r="AS2" s="133"/>
-      <c r="AT2" s="133"/>
-      <c r="AU2" s="133"/>
-      <c r="AV2" s="133"/>
-      <c r="AW2" s="133"/>
-      <c r="AX2" s="133"/>
-      <c r="AY2" s="133"/>
-      <c r="AZ2" s="133"/>
-      <c r="BA2" s="133"/>
-      <c r="BB2" s="133"/>
-      <c r="BC2" s="133"/>
-      <c r="BD2" s="133"/>
-      <c r="BE2" s="133"/>
-      <c r="BF2" s="133"/>
-      <c r="BG2" s="133"/>
-      <c r="BH2" s="133"/>
-      <c r="BI2" s="133"/>
-      <c r="BJ2" s="133"/>
-      <c r="BK2" s="133"/>
-      <c r="BL2" s="133"/>
-      <c r="BM2" s="133"/>
-      <c r="BN2" s="133"/>
-      <c r="BO2" s="133"/>
-      <c r="BP2" s="133"/>
-      <c r="BQ2" s="133"/>
-      <c r="BR2" s="133"/>
-      <c r="BS2" s="133"/>
-      <c r="BT2" s="133"/>
-      <c r="BU2" s="133"/>
-      <c r="BV2" s="133"/>
-      <c r="BW2" s="133"/>
-      <c r="BX2" s="133"/>
-      <c r="BY2" s="133"/>
-      <c r="BZ2" s="133"/>
-      <c r="CA2" s="133"/>
-      <c r="CB2" s="133"/>
-      <c r="CC2" s="133"/>
-      <c r="CD2" s="133"/>
-      <c r="CE2" s="133"/>
-      <c r="CF2" s="133"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="134"/>
+      <c r="AQ2" s="134"/>
+      <c r="AR2" s="134"/>
+      <c r="AS2" s="134"/>
+      <c r="AT2" s="134"/>
+      <c r="AU2" s="134"/>
+      <c r="AV2" s="134"/>
+      <c r="AW2" s="134"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="134"/>
+      <c r="AZ2" s="134"/>
+      <c r="BA2" s="134"/>
+      <c r="BB2" s="134"/>
+      <c r="BC2" s="134"/>
+      <c r="BD2" s="134"/>
+      <c r="BE2" s="134"/>
+      <c r="BF2" s="134"/>
+      <c r="BG2" s="134"/>
+      <c r="BH2" s="134"/>
+      <c r="BI2" s="134"/>
+      <c r="BJ2" s="134"/>
+      <c r="BK2" s="134"/>
+      <c r="BL2" s="134"/>
+      <c r="BM2" s="134"/>
+      <c r="BN2" s="134"/>
+      <c r="BO2" s="134"/>
+      <c r="BP2" s="134"/>
+      <c r="BQ2" s="134"/>
+      <c r="BR2" s="134"/>
+      <c r="BS2" s="134"/>
+      <c r="BT2" s="134"/>
+      <c r="BU2" s="134"/>
+      <c r="BV2" s="134"/>
+      <c r="BW2" s="134"/>
+      <c r="BX2" s="134"/>
+      <c r="BY2" s="134"/>
+      <c r="BZ2" s="134"/>
+      <c r="CA2" s="134"/>
+      <c r="CB2" s="134"/>
+      <c r="CC2" s="134"/>
+      <c r="CD2" s="134"/>
+      <c r="CE2" s="134"/>
+      <c r="CF2" s="134"/>
     </row>
     <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="134"/>
-      <c r="AG3" s="134"/>
-      <c r="AH3" s="134"/>
-      <c r="AI3" s="134"/>
-      <c r="AJ3" s="134"/>
-      <c r="AK3" s="134"/>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="134"/>
-      <c r="AN3" s="134"/>
-      <c r="AO3" s="134"/>
-      <c r="AP3" s="134"/>
-      <c r="AQ3" s="134"/>
-      <c r="AR3" s="134"/>
-      <c r="AS3" s="134"/>
-      <c r="AT3" s="134"/>
-      <c r="AU3" s="134"/>
-      <c r="AV3" s="134"/>
-      <c r="AW3" s="134"/>
-      <c r="AX3" s="134"/>
-      <c r="AY3" s="134"/>
-      <c r="AZ3" s="134"/>
-      <c r="BA3" s="134"/>
-      <c r="BB3" s="134"/>
-      <c r="BC3" s="134"/>
-      <c r="BD3" s="134"/>
-      <c r="BE3" s="134"/>
-      <c r="BF3" s="134"/>
-      <c r="BG3" s="134"/>
-      <c r="BH3" s="134"/>
-      <c r="BI3" s="134"/>
-      <c r="BJ3" s="134"/>
-      <c r="BK3" s="134"/>
-      <c r="BL3" s="134"/>
-      <c r="BM3" s="134"/>
-      <c r="BN3" s="134"/>
-      <c r="BO3" s="134"/>
-      <c r="BP3" s="134"/>
-      <c r="BQ3" s="134"/>
-      <c r="BR3" s="134"/>
-      <c r="BS3" s="134"/>
-      <c r="BT3" s="134"/>
-      <c r="BU3" s="134"/>
-      <c r="BV3" s="134"/>
-      <c r="BW3" s="134"/>
-      <c r="BX3" s="134"/>
-      <c r="BY3" s="134"/>
-      <c r="BZ3" s="134"/>
-      <c r="CA3" s="134"/>
-      <c r="CB3" s="134"/>
-      <c r="CC3" s="134"/>
-      <c r="CD3" s="134"/>
-      <c r="CE3" s="134"/>
-      <c r="CF3" s="134"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="135"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="135"/>
+      <c r="W3" s="135"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="135"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="135"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="135"/>
+      <c r="AH3" s="135"/>
+      <c r="AI3" s="135"/>
+      <c r="AJ3" s="135"/>
+      <c r="AK3" s="135"/>
+      <c r="AL3" s="135"/>
+      <c r="AM3" s="135"/>
+      <c r="AN3" s="135"/>
+      <c r="AO3" s="135"/>
+      <c r="AP3" s="135"/>
+      <c r="AQ3" s="135"/>
+      <c r="AR3" s="135"/>
+      <c r="AS3" s="135"/>
+      <c r="AT3" s="135"/>
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
+      <c r="AX3" s="135"/>
+      <c r="AY3" s="135"/>
+      <c r="AZ3" s="135"/>
+      <c r="BA3" s="135"/>
+      <c r="BB3" s="135"/>
+      <c r="BC3" s="135"/>
+      <c r="BD3" s="135"/>
+      <c r="BE3" s="135"/>
+      <c r="BF3" s="135"/>
+      <c r="BG3" s="135"/>
+      <c r="BH3" s="135"/>
+      <c r="BI3" s="135"/>
+      <c r="BJ3" s="135"/>
+      <c r="BK3" s="135"/>
+      <c r="BL3" s="135"/>
+      <c r="BM3" s="135"/>
+      <c r="BN3" s="135"/>
+      <c r="BO3" s="135"/>
+      <c r="BP3" s="135"/>
+      <c r="BQ3" s="135"/>
+      <c r="BR3" s="135"/>
+      <c r="BS3" s="135"/>
+      <c r="BT3" s="135"/>
+      <c r="BU3" s="135"/>
+      <c r="BV3" s="135"/>
+      <c r="BW3" s="135"/>
+      <c r="BX3" s="135"/>
+      <c r="BY3" s="135"/>
+      <c r="BZ3" s="135"/>
+      <c r="CA3" s="135"/>
+      <c r="CB3" s="135"/>
+      <c r="CC3" s="135"/>
+      <c r="CD3" s="135"/>
+      <c r="CE3" s="135"/>
+      <c r="CF3" s="135"/>
     </row>
     <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="87">
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="88">
         <v>45995</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89" t="s">
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="87">
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="88">
         <v>45996</v>
       </c>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="89" t="s">
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="87">
+      <c r="V4" s="91"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="88">
         <v>46002</v>
       </c>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="89" t="s">
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="87">
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="88">
         <v>46003</v>
       </c>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="89" t="s">
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="87">
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="91"/>
+      <c r="AN4" s="91"/>
+      <c r="AO4" s="88">
         <v>46009</v>
       </c>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="89" t="s">
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="87">
+      <c r="AT4" s="91"/>
+      <c r="AU4" s="91"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="88">
         <v>46010</v>
       </c>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="87"/>
-      <c r="AZ4" s="88"/>
-      <c r="BA4" s="89" t="s">
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="87">
+      <c r="BB4" s="91"/>
+      <c r="BC4" s="91"/>
+      <c r="BD4" s="91"/>
+      <c r="BE4" s="88">
         <v>46030</v>
       </c>
-      <c r="BF4" s="87"/>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="88"/>
-      <c r="BI4" s="89" t="s">
+      <c r="BF4" s="88"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="90"/>
-      <c r="BM4" s="87">
+      <c r="BJ4" s="91"/>
+      <c r="BK4" s="91"/>
+      <c r="BL4" s="91"/>
+      <c r="BM4" s="88">
         <v>46031</v>
       </c>
-      <c r="BN4" s="87"/>
-      <c r="BO4" s="87"/>
-      <c r="BP4" s="88"/>
-      <c r="BQ4" s="89" t="s">
+      <c r="BN4" s="88"/>
+      <c r="BO4" s="88"/>
+      <c r="BP4" s="89"/>
+      <c r="BQ4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="BR4" s="90"/>
-      <c r="BS4" s="90"/>
-      <c r="BT4" s="90"/>
-      <c r="BU4" s="87">
+      <c r="BR4" s="91"/>
+      <c r="BS4" s="91"/>
+      <c r="BT4" s="91"/>
+      <c r="BU4" s="88">
         <v>46037</v>
       </c>
-      <c r="BV4" s="87"/>
-      <c r="BW4" s="87"/>
-      <c r="BX4" s="88"/>
-      <c r="BY4" s="89" t="s">
+      <c r="BV4" s="88"/>
+      <c r="BW4" s="88"/>
+      <c r="BX4" s="89"/>
+      <c r="BY4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="BZ4" s="90"/>
-      <c r="CA4" s="90"/>
-      <c r="CB4" s="90"/>
-      <c r="CC4" s="87">
+      <c r="BZ4" s="91"/>
+      <c r="CA4" s="91"/>
+      <c r="CB4" s="91"/>
+      <c r="CC4" s="88">
         <v>46038</v>
       </c>
-      <c r="CD4" s="87"/>
-      <c r="CE4" s="87"/>
-      <c r="CF4" s="88"/>
+      <c r="CD4" s="88"/>
+      <c r="CE4" s="88"/>
+      <c r="CF4" s="89"/>
     </row>
     <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="138"/>
-      <c r="B5" s="139"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2662,7 +2663,7 @@
       </c>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="130" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -2672,12 +2673,12 @@
         <v>23</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="17"/>
@@ -2690,16 +2691,16 @@
       <c r="R6" s="30"/>
       <c r="S6" s="30"/>
       <c r="T6" s="31"/>
-      <c r="U6" s="102" t="s">
+      <c r="U6" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="103"/>
-      <c r="AA6" s="103"/>
-      <c r="AB6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="105"/>
       <c r="AC6" s="32"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
@@ -2708,12 +2709,12 @@
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="31"/>
-      <c r="AK6" s="111" t="s">
+      <c r="AK6" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="AL6" s="112"/>
-      <c r="AM6" s="112"/>
-      <c r="AN6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="114"/>
       <c r="AO6" s="30"/>
       <c r="AP6" s="30"/>
       <c r="AQ6" s="30"/>
@@ -2726,12 +2727,12 @@
       <c r="AX6" s="30"/>
       <c r="AY6" s="30"/>
       <c r="AZ6" s="31"/>
-      <c r="BA6" s="111" t="s">
+      <c r="BA6" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="BB6" s="112"/>
-      <c r="BC6" s="112"/>
-      <c r="BD6" s="113"/>
+      <c r="BB6" s="113"/>
+      <c r="BC6" s="113"/>
+      <c r="BD6" s="114"/>
       <c r="BE6" s="30"/>
       <c r="BF6" s="30"/>
       <c r="BG6" s="30"/>
@@ -2744,12 +2745,12 @@
       <c r="BN6" s="30"/>
       <c r="BO6" s="30"/>
       <c r="BP6" s="31"/>
-      <c r="BQ6" s="111" t="s">
+      <c r="BQ6" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="BR6" s="112"/>
-      <c r="BS6" s="112"/>
-      <c r="BT6" s="113"/>
+      <c r="BR6" s="113"/>
+      <c r="BS6" s="113"/>
+      <c r="BT6" s="114"/>
       <c r="BU6" s="71"/>
       <c r="BV6" s="71"/>
       <c r="BW6" s="30"/>
@@ -2764,7 +2765,7 @@
       <c r="CF6" s="31"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A7" s="129"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="28" t="s">
         <v>11</v>
       </c>
@@ -2772,10 +2773,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="98"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="99"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
@@ -2788,14 +2789,14 @@
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
       <c r="T7" s="34"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="106"/>
-      <c r="X7" s="106"/>
-      <c r="Y7" s="106"/>
-      <c r="Z7" s="106"/>
-      <c r="AA7" s="106"/>
-      <c r="AB7" s="107"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="108"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="33"/>
       <c r="AE7" s="33"/>
@@ -2804,10 +2805,10 @@
       <c r="AH7" s="33"/>
       <c r="AI7" s="33"/>
       <c r="AJ7" s="34"/>
-      <c r="AK7" s="114"/>
-      <c r="AL7" s="115"/>
-      <c r="AM7" s="115"/>
-      <c r="AN7" s="116"/>
+      <c r="AK7" s="115"/>
+      <c r="AL7" s="116"/>
+      <c r="AM7" s="116"/>
+      <c r="AN7" s="117"/>
       <c r="AO7" s="33"/>
       <c r="AP7" s="33"/>
       <c r="AQ7" s="33"/>
@@ -2820,10 +2821,10 @@
       <c r="AX7" s="33"/>
       <c r="AY7" s="33"/>
       <c r="AZ7" s="34"/>
-      <c r="BA7" s="114"/>
-      <c r="BB7" s="115"/>
-      <c r="BC7" s="115"/>
-      <c r="BD7" s="116"/>
+      <c r="BA7" s="115"/>
+      <c r="BB7" s="116"/>
+      <c r="BC7" s="116"/>
+      <c r="BD7" s="117"/>
       <c r="BE7" s="33"/>
       <c r="BF7" s="33"/>
       <c r="BG7" s="33"/>
@@ -2836,10 +2837,10 @@
       <c r="BN7" s="33"/>
       <c r="BO7" s="33"/>
       <c r="BP7" s="34"/>
-      <c r="BQ7" s="114"/>
-      <c r="BR7" s="115"/>
-      <c r="BS7" s="115"/>
-      <c r="BT7" s="116"/>
+      <c r="BQ7" s="115"/>
+      <c r="BR7" s="116"/>
+      <c r="BS7" s="116"/>
+      <c r="BT7" s="117"/>
       <c r="BU7" s="33"/>
       <c r="BV7" s="33"/>
       <c r="BW7" s="33"/>
@@ -2854,7 +2855,7 @@
       <c r="CF7" s="34"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A8" s="129"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
@@ -2862,10 +2863,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="25"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="98"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -2878,14 +2879,14 @@
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
       <c r="T8" s="34"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="107"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="108"/>
       <c r="AC8" s="35"/>
       <c r="AD8" s="33"/>
       <c r="AE8" s="33"/>
@@ -2894,10 +2895,10 @@
       <c r="AH8" s="33"/>
       <c r="AI8" s="33"/>
       <c r="AJ8" s="34"/>
-      <c r="AK8" s="114"/>
-      <c r="AL8" s="115"/>
-      <c r="AM8" s="115"/>
-      <c r="AN8" s="116"/>
+      <c r="AK8" s="115"/>
+      <c r="AL8" s="116"/>
+      <c r="AM8" s="116"/>
+      <c r="AN8" s="117"/>
       <c r="AO8" s="33"/>
       <c r="AP8" s="33"/>
       <c r="AQ8" s="33"/>
@@ -2910,10 +2911,10 @@
       <c r="AX8" s="33"/>
       <c r="AY8" s="33"/>
       <c r="AZ8" s="34"/>
-      <c r="BA8" s="114"/>
-      <c r="BB8" s="115"/>
-      <c r="BC8" s="115"/>
-      <c r="BD8" s="116"/>
+      <c r="BA8" s="115"/>
+      <c r="BB8" s="116"/>
+      <c r="BC8" s="116"/>
+      <c r="BD8" s="117"/>
       <c r="BE8" s="33"/>
       <c r="BF8" s="33"/>
       <c r="BG8" s="33"/>
@@ -2926,10 +2927,10 @@
       <c r="BN8" s="33"/>
       <c r="BO8" s="33"/>
       <c r="BP8" s="34"/>
-      <c r="BQ8" s="114"/>
-      <c r="BR8" s="115"/>
-      <c r="BS8" s="115"/>
-      <c r="BT8" s="116"/>
+      <c r="BQ8" s="115"/>
+      <c r="BR8" s="116"/>
+      <c r="BS8" s="116"/>
+      <c r="BT8" s="117"/>
       <c r="BU8" s="33"/>
       <c r="BV8" s="33"/>
       <c r="BW8" s="33"/>
@@ -2944,7 +2945,7 @@
       <c r="CF8" s="34"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="131" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -2954,10 +2955,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="98"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="99"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -2970,14 +2971,14 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="38"/>
-      <c r="U9" s="105"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="107"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="108"/>
       <c r="AC9" s="39"/>
       <c r="AD9" s="37"/>
       <c r="AE9" s="37"/>
@@ -2986,10 +2987,10 @@
       <c r="AH9" s="37"/>
       <c r="AI9" s="37"/>
       <c r="AJ9" s="38"/>
-      <c r="AK9" s="114"/>
-      <c r="AL9" s="115"/>
-      <c r="AM9" s="115"/>
-      <c r="AN9" s="116"/>
+      <c r="AK9" s="115"/>
+      <c r="AL9" s="116"/>
+      <c r="AM9" s="116"/>
+      <c r="AN9" s="117"/>
       <c r="AO9" s="37"/>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -3002,10 +3003,10 @@
       <c r="AX9" s="37"/>
       <c r="AY9" s="37"/>
       <c r="AZ9" s="38"/>
-      <c r="BA9" s="114"/>
-      <c r="BB9" s="115"/>
-      <c r="BC9" s="115"/>
-      <c r="BD9" s="116"/>
+      <c r="BA9" s="115"/>
+      <c r="BB9" s="116"/>
+      <c r="BC9" s="116"/>
+      <c r="BD9" s="117"/>
       <c r="BE9" s="37"/>
       <c r="BF9" s="37"/>
       <c r="BG9" s="37"/>
@@ -3018,10 +3019,10 @@
       <c r="BN9" s="37"/>
       <c r="BO9" s="37"/>
       <c r="BP9" s="38"/>
-      <c r="BQ9" s="114"/>
-      <c r="BR9" s="115"/>
-      <c r="BS9" s="115"/>
-      <c r="BT9" s="116"/>
+      <c r="BQ9" s="115"/>
+      <c r="BR9" s="116"/>
+      <c r="BS9" s="116"/>
+      <c r="BT9" s="117"/>
       <c r="BU9" s="37"/>
       <c r="BV9" s="37"/>
       <c r="BW9" s="37"/>
@@ -3036,7 +3037,7 @@
       <c r="CF9" s="38"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A10" s="131"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="36" t="s">
         <v>15</v>
       </c>
@@ -3044,10 +3045,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="25"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="99"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
@@ -3060,14 +3061,14 @@
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="38"/>
-      <c r="U10" s="105"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="107"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="108"/>
       <c r="AC10" s="39"/>
       <c r="AD10" s="37"/>
       <c r="AE10" s="37"/>
@@ -3076,10 +3077,10 @@
       <c r="AH10" s="37"/>
       <c r="AI10" s="37"/>
       <c r="AJ10" s="38"/>
-      <c r="AK10" s="114"/>
-      <c r="AL10" s="115"/>
-      <c r="AM10" s="115"/>
-      <c r="AN10" s="116"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="116"/>
+      <c r="AM10" s="116"/>
+      <c r="AN10" s="117"/>
       <c r="AO10" s="37"/>
       <c r="AP10" s="37"/>
       <c r="AQ10" s="37"/>
@@ -3092,10 +3093,10 @@
       <c r="AX10" s="37"/>
       <c r="AY10" s="37"/>
       <c r="AZ10" s="38"/>
-      <c r="BA10" s="114"/>
-      <c r="BB10" s="115"/>
-      <c r="BC10" s="115"/>
-      <c r="BD10" s="116"/>
+      <c r="BA10" s="115"/>
+      <c r="BB10" s="116"/>
+      <c r="BC10" s="116"/>
+      <c r="BD10" s="117"/>
       <c r="BE10" s="37"/>
       <c r="BF10" s="37"/>
       <c r="BG10" s="37"/>
@@ -3108,10 +3109,10 @@
       <c r="BN10" s="37"/>
       <c r="BO10" s="37"/>
       <c r="BP10" s="38"/>
-      <c r="BQ10" s="114"/>
-      <c r="BR10" s="115"/>
-      <c r="BS10" s="115"/>
-      <c r="BT10" s="116"/>
+      <c r="BQ10" s="115"/>
+      <c r="BR10" s="116"/>
+      <c r="BS10" s="116"/>
+      <c r="BT10" s="117"/>
       <c r="BU10" s="37"/>
       <c r="BV10" s="37"/>
       <c r="BW10" s="37"/>
@@ -3126,7 +3127,7 @@
       <c r="CF10" s="38"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A11" s="132"/>
+      <c r="A11" s="133"/>
       <c r="B11" s="36" t="s">
         <v>16</v>
       </c>
@@ -3134,10 +3135,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="25"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="99"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
@@ -3150,14 +3151,14 @@
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="107"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="108"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="37"/>
       <c r="AE11" s="37"/>
@@ -3166,10 +3167,10 @@
       <c r="AH11" s="37"/>
       <c r="AI11" s="37"/>
       <c r="AJ11" s="38"/>
-      <c r="AK11" s="114"/>
-      <c r="AL11" s="115"/>
-      <c r="AM11" s="115"/>
-      <c r="AN11" s="116"/>
+      <c r="AK11" s="115"/>
+      <c r="AL11" s="116"/>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="117"/>
       <c r="AO11" s="37"/>
       <c r="AP11" s="37"/>
       <c r="AQ11" s="37"/>
@@ -3182,10 +3183,10 @@
       <c r="AX11" s="37"/>
       <c r="AY11" s="37"/>
       <c r="AZ11" s="38"/>
-      <c r="BA11" s="114"/>
-      <c r="BB11" s="115"/>
-      <c r="BC11" s="115"/>
-      <c r="BD11" s="116"/>
+      <c r="BA11" s="115"/>
+      <c r="BB11" s="116"/>
+      <c r="BC11" s="116"/>
+      <c r="BD11" s="117"/>
       <c r="BE11" s="37"/>
       <c r="BF11" s="37"/>
       <c r="BG11" s="37"/>
@@ -3198,10 +3199,10 @@
       <c r="BN11" s="37"/>
       <c r="BO11" s="37"/>
       <c r="BP11" s="38"/>
-      <c r="BQ11" s="114"/>
-      <c r="BR11" s="115"/>
-      <c r="BS11" s="115"/>
-      <c r="BT11" s="116"/>
+      <c r="BQ11" s="115"/>
+      <c r="BR11" s="116"/>
+      <c r="BS11" s="116"/>
+      <c r="BT11" s="117"/>
       <c r="BU11" s="37"/>
       <c r="BV11" s="37"/>
       <c r="BW11" s="37"/>
@@ -3216,20 +3217,20 @@
       <c r="CF11" s="38"/>
     </row>
     <row r="12" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="125" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="74" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="25"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="98"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -3242,14 +3243,14 @@
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="107"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="108"/>
       <c r="AC12" s="42"/>
       <c r="AD12" s="20"/>
       <c r="AE12" s="40"/>
@@ -3258,10 +3259,10 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="20"/>
       <c r="AJ12" s="41"/>
-      <c r="AK12" s="114"/>
-      <c r="AL12" s="115"/>
-      <c r="AM12" s="115"/>
-      <c r="AN12" s="116"/>
+      <c r="AK12" s="115"/>
+      <c r="AL12" s="116"/>
+      <c r="AM12" s="116"/>
+      <c r="AN12" s="117"/>
       <c r="AO12" s="20"/>
       <c r="AP12" s="20"/>
       <c r="AQ12" s="20"/>
@@ -3274,10 +3275,10 @@
       <c r="AX12" s="40"/>
       <c r="AY12" s="40"/>
       <c r="AZ12" s="41"/>
-      <c r="BA12" s="114"/>
-      <c r="BB12" s="115"/>
-      <c r="BC12" s="115"/>
-      <c r="BD12" s="116"/>
+      <c r="BA12" s="115"/>
+      <c r="BB12" s="116"/>
+      <c r="BC12" s="116"/>
+      <c r="BD12" s="117"/>
       <c r="BE12" s="40"/>
       <c r="BF12" s="40"/>
       <c r="BG12" s="40"/>
@@ -3290,10 +3291,10 @@
       <c r="BN12" s="40"/>
       <c r="BO12" s="40"/>
       <c r="BP12" s="41"/>
-      <c r="BQ12" s="114"/>
-      <c r="BR12" s="115"/>
-      <c r="BS12" s="115"/>
-      <c r="BT12" s="116"/>
+      <c r="BQ12" s="115"/>
+      <c r="BR12" s="116"/>
+      <c r="BS12" s="116"/>
+      <c r="BT12" s="117"/>
       <c r="BU12" s="40"/>
       <c r="BV12" s="40"/>
       <c r="BW12" s="40"/>
@@ -3308,7 +3309,7 @@
       <c r="CF12" s="41"/>
     </row>
     <row r="13" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="125"/>
+      <c r="A13" s="126"/>
       <c r="B13" s="75" t="s">
         <v>30</v>
       </c>
@@ -3316,10 +3317,10 @@
         <v>23</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -3332,14 +3333,14 @@
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="107"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="108"/>
       <c r="AC13" s="42"/>
       <c r="AD13" s="40"/>
       <c r="AE13" s="20"/>
@@ -3348,10 +3349,10 @@
       <c r="AH13" s="40"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="69"/>
-      <c r="AK13" s="114"/>
-      <c r="AL13" s="115"/>
-      <c r="AM13" s="115"/>
-      <c r="AN13" s="116"/>
+      <c r="AK13" s="115"/>
+      <c r="AL13" s="116"/>
+      <c r="AM13" s="116"/>
+      <c r="AN13" s="117"/>
       <c r="AO13" s="40"/>
       <c r="AP13" s="40"/>
       <c r="AQ13" s="40"/>
@@ -3364,10 +3365,10 @@
       <c r="AX13" s="40"/>
       <c r="AY13" s="40"/>
       <c r="AZ13" s="41"/>
-      <c r="BA13" s="114"/>
-      <c r="BB13" s="115"/>
-      <c r="BC13" s="115"/>
-      <c r="BD13" s="116"/>
+      <c r="BA13" s="115"/>
+      <c r="BB13" s="116"/>
+      <c r="BC13" s="116"/>
+      <c r="BD13" s="117"/>
       <c r="BE13" s="40"/>
       <c r="BF13" s="40"/>
       <c r="BG13" s="40"/>
@@ -3380,10 +3381,10 @@
       <c r="BN13" s="40"/>
       <c r="BO13" s="40"/>
       <c r="BP13" s="41"/>
-      <c r="BQ13" s="114"/>
-      <c r="BR13" s="115"/>
-      <c r="BS13" s="115"/>
-      <c r="BT13" s="116"/>
+      <c r="BQ13" s="115"/>
+      <c r="BR13" s="116"/>
+      <c r="BS13" s="116"/>
+      <c r="BT13" s="117"/>
       <c r="BU13" s="40"/>
       <c r="BV13" s="40"/>
       <c r="BW13" s="40"/>
@@ -3398,18 +3399,18 @@
       <c r="CF13" s="41"/>
     </row>
     <row r="14" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="126"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="78" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D14" s="25"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="98"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -3422,14 +3423,14 @@
       <c r="R14" s="40"/>
       <c r="S14" s="40"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="105"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="107"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="108"/>
       <c r="AC14" s="42"/>
       <c r="AD14" s="40"/>
       <c r="AE14" s="40"/>
@@ -3438,10 +3439,10 @@
       <c r="AH14" s="40"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="70"/>
-      <c r="AK14" s="114"/>
-      <c r="AL14" s="115"/>
-      <c r="AM14" s="115"/>
-      <c r="AN14" s="116"/>
+      <c r="AK14" s="115"/>
+      <c r="AL14" s="116"/>
+      <c r="AM14" s="116"/>
+      <c r="AN14" s="117"/>
       <c r="AO14" s="40"/>
       <c r="AP14" s="40"/>
       <c r="AQ14" s="40"/>
@@ -3454,10 +3455,10 @@
       <c r="AX14" s="40"/>
       <c r="AY14" s="40"/>
       <c r="AZ14" s="41"/>
-      <c r="BA14" s="114"/>
-      <c r="BB14" s="115"/>
-      <c r="BC14" s="115"/>
-      <c r="BD14" s="116"/>
+      <c r="BA14" s="115"/>
+      <c r="BB14" s="116"/>
+      <c r="BC14" s="116"/>
+      <c r="BD14" s="117"/>
       <c r="BE14" s="40"/>
       <c r="BF14" s="40"/>
       <c r="BG14" s="40"/>
@@ -3470,10 +3471,10 @@
       <c r="BN14" s="40"/>
       <c r="BO14" s="40"/>
       <c r="BP14" s="41"/>
-      <c r="BQ14" s="114"/>
-      <c r="BR14" s="115"/>
-      <c r="BS14" s="115"/>
-      <c r="BT14" s="116"/>
+      <c r="BQ14" s="115"/>
+      <c r="BR14" s="116"/>
+      <c r="BS14" s="116"/>
+      <c r="BT14" s="117"/>
       <c r="BU14" s="40"/>
       <c r="BV14" s="40"/>
       <c r="BW14" s="40"/>
@@ -3488,18 +3489,20 @@
       <c r="CF14" s="41"/>
     </row>
     <row r="15" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="121" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="25"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="98"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
@@ -3512,14 +3515,14 @@
       <c r="R15" s="43"/>
       <c r="S15" s="43"/>
       <c r="T15" s="44"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="106"/>
-      <c r="AA15" s="106"/>
-      <c r="AB15" s="107"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="108"/>
       <c r="AC15" s="45"/>
       <c r="AD15" s="43"/>
       <c r="AE15" s="43"/>
@@ -3528,10 +3531,10 @@
       <c r="AH15" s="43"/>
       <c r="AI15" s="43"/>
       <c r="AJ15" s="44"/>
-      <c r="AK15" s="114"/>
-      <c r="AL15" s="115"/>
-      <c r="AM15" s="115"/>
-      <c r="AN15" s="116"/>
+      <c r="AK15" s="115"/>
+      <c r="AL15" s="116"/>
+      <c r="AM15" s="116"/>
+      <c r="AN15" s="117"/>
       <c r="AO15" s="43"/>
       <c r="AP15" s="43"/>
       <c r="AQ15" s="43"/>
@@ -3544,10 +3547,10 @@
       <c r="AX15" s="20"/>
       <c r="AY15" s="20"/>
       <c r="AZ15" s="44"/>
-      <c r="BA15" s="114"/>
-      <c r="BB15" s="115"/>
-      <c r="BC15" s="115"/>
-      <c r="BD15" s="116"/>
+      <c r="BA15" s="115"/>
+      <c r="BB15" s="116"/>
+      <c r="BC15" s="116"/>
+      <c r="BD15" s="117"/>
       <c r="BE15" s="43"/>
       <c r="BF15" s="43"/>
       <c r="BG15" s="43"/>
@@ -3560,10 +3563,10 @@
       <c r="BN15" s="43"/>
       <c r="BO15" s="43"/>
       <c r="BP15" s="44"/>
-      <c r="BQ15" s="114"/>
-      <c r="BR15" s="115"/>
-      <c r="BS15" s="115"/>
-      <c r="BT15" s="116"/>
+      <c r="BQ15" s="115"/>
+      <c r="BR15" s="116"/>
+      <c r="BS15" s="116"/>
+      <c r="BT15" s="117"/>
       <c r="BU15" s="43"/>
       <c r="BV15" s="43"/>
       <c r="BW15" s="43"/>
@@ -3578,16 +3581,18 @@
       <c r="CF15" s="44"/>
     </row>
     <row r="16" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="121"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
@@ -3600,14 +3605,14 @@
       <c r="R16" s="43"/>
       <c r="S16" s="43"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="107"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="108"/>
       <c r="AC16" s="45"/>
       <c r="AD16" s="43"/>
       <c r="AE16" s="43"/>
@@ -3616,10 +3621,10 @@
       <c r="AH16" s="43"/>
       <c r="AI16" s="43"/>
       <c r="AJ16" s="44"/>
-      <c r="AK16" s="114"/>
-      <c r="AL16" s="115"/>
-      <c r="AM16" s="115"/>
-      <c r="AN16" s="116"/>
+      <c r="AK16" s="115"/>
+      <c r="AL16" s="116"/>
+      <c r="AM16" s="116"/>
+      <c r="AN16" s="117"/>
       <c r="AO16" s="43"/>
       <c r="AP16" s="43"/>
       <c r="AQ16" s="43"/>
@@ -3632,10 +3637,10 @@
       <c r="AX16" s="43"/>
       <c r="AY16" s="43"/>
       <c r="AZ16" s="70"/>
-      <c r="BA16" s="114"/>
-      <c r="BB16" s="115"/>
-      <c r="BC16" s="115"/>
-      <c r="BD16" s="116"/>
+      <c r="BA16" s="115"/>
+      <c r="BB16" s="116"/>
+      <c r="BC16" s="116"/>
+      <c r="BD16" s="117"/>
       <c r="BE16" s="43"/>
       <c r="BF16" s="43"/>
       <c r="BG16" s="43"/>
@@ -3648,10 +3653,10 @@
       <c r="BN16" s="43"/>
       <c r="BO16" s="43"/>
       <c r="BP16" s="44"/>
-      <c r="BQ16" s="114"/>
-      <c r="BR16" s="115"/>
-      <c r="BS16" s="115"/>
-      <c r="BT16" s="116"/>
+      <c r="BQ16" s="115"/>
+      <c r="BR16" s="116"/>
+      <c r="BS16" s="116"/>
+      <c r="BT16" s="117"/>
       <c r="BU16" s="43"/>
       <c r="BV16" s="43"/>
       <c r="BW16" s="43"/>
@@ -3666,18 +3671,20 @@
       <c r="CF16" s="44"/>
     </row>
     <row r="17" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="123" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="25"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
@@ -3690,14 +3697,14 @@
       <c r="R17" s="46"/>
       <c r="S17" s="46"/>
       <c r="T17" s="47"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="106"/>
-      <c r="AB17" s="107"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="108"/>
       <c r="AC17" s="48"/>
       <c r="AD17" s="46"/>
       <c r="AE17" s="46"/>
@@ -3706,10 +3713,10 @@
       <c r="AH17" s="46"/>
       <c r="AI17" s="46"/>
       <c r="AJ17" s="47"/>
-      <c r="AK17" s="114"/>
-      <c r="AL17" s="115"/>
-      <c r="AM17" s="115"/>
-      <c r="AN17" s="116"/>
+      <c r="AK17" s="115"/>
+      <c r="AL17" s="116"/>
+      <c r="AM17" s="116"/>
+      <c r="AN17" s="117"/>
       <c r="AO17" s="46"/>
       <c r="AP17" s="46"/>
       <c r="AQ17" s="46"/>
@@ -3722,10 +3729,10 @@
       <c r="AX17" s="46"/>
       <c r="AY17" s="46"/>
       <c r="AZ17" s="47"/>
-      <c r="BA17" s="114"/>
-      <c r="BB17" s="115"/>
-      <c r="BC17" s="115"/>
-      <c r="BD17" s="116"/>
+      <c r="BA17" s="115"/>
+      <c r="BB17" s="116"/>
+      <c r="BC17" s="116"/>
+      <c r="BD17" s="117"/>
       <c r="BE17" s="20"/>
       <c r="BF17" s="20"/>
       <c r="BG17" s="20"/>
@@ -3738,10 +3745,10 @@
       <c r="BN17" s="20"/>
       <c r="BO17" s="20"/>
       <c r="BP17" s="47"/>
-      <c r="BQ17" s="114"/>
-      <c r="BR17" s="115"/>
-      <c r="BS17" s="115"/>
-      <c r="BT17" s="116"/>
+      <c r="BQ17" s="115"/>
+      <c r="BR17" s="116"/>
+      <c r="BS17" s="116"/>
+      <c r="BT17" s="117"/>
       <c r="BU17" s="46"/>
       <c r="BV17" s="46"/>
       <c r="BW17" s="46"/>
@@ -3756,16 +3763,16 @@
       <c r="CF17" s="47"/>
     </row>
     <row r="18" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="123"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="79" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="25"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="98"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
@@ -3778,14 +3785,14 @@
       <c r="R18" s="46"/>
       <c r="S18" s="46"/>
       <c r="T18" s="47"/>
-      <c r="U18" s="105"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="106"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="107"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="108"/>
       <c r="AC18" s="48"/>
       <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
@@ -3794,10 +3801,10 @@
       <c r="AH18" s="46"/>
       <c r="AI18" s="46"/>
       <c r="AJ18" s="47"/>
-      <c r="AK18" s="114"/>
-      <c r="AL18" s="115"/>
-      <c r="AM18" s="115"/>
-      <c r="AN18" s="116"/>
+      <c r="AK18" s="115"/>
+      <c r="AL18" s="116"/>
+      <c r="AM18" s="116"/>
+      <c r="AN18" s="117"/>
       <c r="AO18" s="46"/>
       <c r="AP18" s="46"/>
       <c r="AQ18" s="46"/>
@@ -3810,10 +3817,10 @@
       <c r="AX18" s="46"/>
       <c r="AY18" s="46"/>
       <c r="AZ18" s="47"/>
-      <c r="BA18" s="114"/>
-      <c r="BB18" s="115"/>
-      <c r="BC18" s="115"/>
-      <c r="BD18" s="116"/>
+      <c r="BA18" s="115"/>
+      <c r="BB18" s="116"/>
+      <c r="BC18" s="116"/>
+      <c r="BD18" s="117"/>
       <c r="BE18" s="46"/>
       <c r="BF18" s="46"/>
       <c r="BG18" s="46"/>
@@ -3826,10 +3833,10 @@
       <c r="BN18" s="46"/>
       <c r="BO18" s="46"/>
       <c r="BP18" s="21"/>
-      <c r="BQ18" s="114"/>
-      <c r="BR18" s="115"/>
-      <c r="BS18" s="115"/>
-      <c r="BT18" s="116"/>
+      <c r="BQ18" s="115"/>
+      <c r="BR18" s="116"/>
+      <c r="BS18" s="116"/>
+      <c r="BT18" s="117"/>
       <c r="BU18" s="46"/>
       <c r="BV18" s="46"/>
       <c r="BW18" s="46"/>
@@ -3844,7 +3851,7 @@
       <c r="CF18" s="47"/>
     </row>
     <row r="19" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="128" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="77" t="s">
@@ -3852,10 +3859,10 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="98"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
@@ -3868,14 +3875,14 @@
       <c r="R19" s="49"/>
       <c r="S19" s="49"/>
       <c r="T19" s="50"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="107"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="107"/>
+      <c r="AB19" s="108"/>
       <c r="AC19" s="51"/>
       <c r="AD19" s="49"/>
       <c r="AE19" s="49"/>
@@ -3884,10 +3891,10 @@
       <c r="AH19" s="49"/>
       <c r="AI19" s="49"/>
       <c r="AJ19" s="50"/>
-      <c r="AK19" s="114"/>
-      <c r="AL19" s="115"/>
-      <c r="AM19" s="115"/>
-      <c r="AN19" s="116"/>
+      <c r="AK19" s="115"/>
+      <c r="AL19" s="116"/>
+      <c r="AM19" s="116"/>
+      <c r="AN19" s="117"/>
       <c r="AO19" s="49"/>
       <c r="AP19" s="49"/>
       <c r="AQ19" s="49"/>
@@ -3900,10 +3907,10 @@
       <c r="AX19" s="49"/>
       <c r="AY19" s="49"/>
       <c r="AZ19" s="50"/>
-      <c r="BA19" s="114"/>
-      <c r="BB19" s="115"/>
-      <c r="BC19" s="115"/>
-      <c r="BD19" s="116"/>
+      <c r="BA19" s="115"/>
+      <c r="BB19" s="116"/>
+      <c r="BC19" s="116"/>
+      <c r="BD19" s="117"/>
       <c r="BE19" s="49"/>
       <c r="BF19" s="49"/>
       <c r="BG19" s="49"/>
@@ -3916,10 +3923,10 @@
       <c r="BN19" s="49"/>
       <c r="BO19" s="49"/>
       <c r="BP19" s="50"/>
-      <c r="BQ19" s="114"/>
-      <c r="BR19" s="115"/>
-      <c r="BS19" s="115"/>
-      <c r="BT19" s="116"/>
+      <c r="BQ19" s="115"/>
+      <c r="BR19" s="116"/>
+      <c r="BS19" s="116"/>
+      <c r="BT19" s="117"/>
       <c r="BU19" s="20"/>
       <c r="BV19" s="20"/>
       <c r="BW19" s="20"/>
@@ -3927,23 +3934,23 @@
       <c r="BY19" s="22"/>
       <c r="BZ19" s="20"/>
       <c r="CA19" s="20"/>
-      <c r="CB19" s="20"/>
-      <c r="CC19" s="20"/>
-      <c r="CD19" s="20"/>
+      <c r="CB19" s="49"/>
+      <c r="CC19" s="49"/>
+      <c r="CD19" s="49"/>
       <c r="CE19" s="49"/>
       <c r="CF19" s="50"/>
     </row>
     <row r="20" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="128"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="81" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="98"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
@@ -3956,14 +3963,14 @@
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
       <c r="T20" s="66"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="107"/>
+      <c r="U20" s="106"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="107"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="107"/>
+      <c r="AB20" s="108"/>
       <c r="AC20" s="67"/>
       <c r="AD20" s="65"/>
       <c r="AE20" s="65"/>
@@ -3972,10 +3979,10 @@
       <c r="AH20" s="65"/>
       <c r="AI20" s="65"/>
       <c r="AJ20" s="66"/>
-      <c r="AK20" s="114"/>
-      <c r="AL20" s="115"/>
-      <c r="AM20" s="115"/>
-      <c r="AN20" s="116"/>
+      <c r="AK20" s="115"/>
+      <c r="AL20" s="116"/>
+      <c r="AM20" s="116"/>
+      <c r="AN20" s="117"/>
       <c r="AO20" s="65"/>
       <c r="AP20" s="65"/>
       <c r="AQ20" s="65"/>
@@ -3988,10 +3995,10 @@
       <c r="AX20" s="65"/>
       <c r="AY20" s="65"/>
       <c r="AZ20" s="66"/>
-      <c r="BA20" s="114"/>
-      <c r="BB20" s="115"/>
-      <c r="BC20" s="115"/>
-      <c r="BD20" s="116"/>
+      <c r="BA20" s="115"/>
+      <c r="BB20" s="116"/>
+      <c r="BC20" s="116"/>
+      <c r="BD20" s="117"/>
       <c r="BE20" s="65"/>
       <c r="BF20" s="65"/>
       <c r="BG20" s="65"/>
@@ -4004,10 +4011,10 @@
       <c r="BN20" s="65"/>
       <c r="BO20" s="65"/>
       <c r="BP20" s="66"/>
-      <c r="BQ20" s="114"/>
-      <c r="BR20" s="115"/>
-      <c r="BS20" s="115"/>
-      <c r="BT20" s="116"/>
+      <c r="BQ20" s="115"/>
+      <c r="BR20" s="116"/>
+      <c r="BS20" s="116"/>
+      <c r="BT20" s="117"/>
       <c r="BU20" s="65"/>
       <c r="BV20" s="65"/>
       <c r="BW20" s="65"/>
@@ -4015,10 +4022,10 @@
       <c r="BY20" s="67"/>
       <c r="BZ20" s="65"/>
       <c r="CA20" s="65"/>
-      <c r="CB20" s="65"/>
+      <c r="CB20" s="68"/>
       <c r="CC20" s="65"/>
       <c r="CD20" s="65"/>
-      <c r="CE20" s="68"/>
+      <c r="CE20" s="65"/>
       <c r="CF20" s="66"/>
     </row>
     <row r="21" spans="1:84" ht="18" x14ac:dyDescent="0.2">
@@ -4030,10 +4037,10 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="98"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
@@ -4046,14 +4053,14 @@
       <c r="R21" s="53"/>
       <c r="S21" s="53"/>
       <c r="T21" s="54"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="107"/>
+      <c r="U21" s="106"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="107"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="107"/>
+      <c r="AB21" s="108"/>
       <c r="AC21" s="55"/>
       <c r="AD21" s="53"/>
       <c r="AE21" s="53"/>
@@ -4062,10 +4069,10 @@
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="54"/>
-      <c r="AK21" s="114"/>
-      <c r="AL21" s="115"/>
-      <c r="AM21" s="115"/>
-      <c r="AN21" s="116"/>
+      <c r="AK21" s="115"/>
+      <c r="AL21" s="116"/>
+      <c r="AM21" s="116"/>
+      <c r="AN21" s="117"/>
       <c r="AO21" s="53"/>
       <c r="AP21" s="53"/>
       <c r="AQ21" s="53"/>
@@ -4078,10 +4085,10 @@
       <c r="AX21" s="53"/>
       <c r="AY21" s="53"/>
       <c r="AZ21" s="54"/>
-      <c r="BA21" s="114"/>
-      <c r="BB21" s="115"/>
-      <c r="BC21" s="115"/>
-      <c r="BD21" s="116"/>
+      <c r="BA21" s="115"/>
+      <c r="BB21" s="116"/>
+      <c r="BC21" s="116"/>
+      <c r="BD21" s="117"/>
       <c r="BE21" s="53"/>
       <c r="BF21" s="53"/>
       <c r="BG21" s="53"/>
@@ -4094,10 +4101,10 @@
       <c r="BN21" s="53"/>
       <c r="BO21" s="53"/>
       <c r="BP21" s="54"/>
-      <c r="BQ21" s="114"/>
-      <c r="BR21" s="115"/>
-      <c r="BS21" s="115"/>
-      <c r="BT21" s="116"/>
+      <c r="BQ21" s="115"/>
+      <c r="BR21" s="116"/>
+      <c r="BS21" s="116"/>
+      <c r="BT21" s="117"/>
       <c r="BU21" s="53"/>
       <c r="BV21" s="53"/>
       <c r="BW21" s="53"/>
@@ -4106,13 +4113,13 @@
       <c r="BZ21" s="53"/>
       <c r="CA21" s="53"/>
       <c r="CB21" s="53"/>
-      <c r="CC21" s="53"/>
-      <c r="CD21" s="53"/>
-      <c r="CE21" s="53"/>
+      <c r="CC21" s="68"/>
+      <c r="CD21" s="68"/>
+      <c r="CE21" s="68"/>
       <c r="CF21" s="23"/>
     </row>
     <row r="22" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="92" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="57" t="s">
@@ -4121,10 +4128,10 @@
       <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="98"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="99"/>
       <c r="I22" s="59"/>
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
@@ -4137,14 +4144,14 @@
       <c r="R22" s="59"/>
       <c r="S22" s="59"/>
       <c r="T22" s="60"/>
-      <c r="U22" s="105"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="107"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="107"/>
+      <c r="X22" s="107"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="107"/>
+      <c r="AB22" s="108"/>
       <c r="AC22" s="58"/>
       <c r="AD22" s="59"/>
       <c r="AE22" s="59"/>
@@ -4153,30 +4160,30 @@
       <c r="AH22" s="59"/>
       <c r="AI22" s="82"/>
       <c r="AJ22" s="83"/>
-      <c r="AK22" s="114"/>
-      <c r="AL22" s="115"/>
-      <c r="AM22" s="115"/>
-      <c r="AN22" s="116"/>
+      <c r="AK22" s="115"/>
+      <c r="AL22" s="116"/>
+      <c r="AM22" s="116"/>
+      <c r="AN22" s="117"/>
       <c r="AO22" s="82"/>
       <c r="AP22" s="82"/>
-      <c r="AQ22" s="82"/>
-      <c r="AR22" s="83"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="60"/>
       <c r="AS22" s="58"/>
       <c r="AT22" s="59"/>
       <c r="AU22" s="59"/>
       <c r="AV22" s="59"/>
-      <c r="AW22" s="59"/>
-      <c r="AX22" s="59"/>
-      <c r="AY22" s="59"/>
-      <c r="AZ22" s="60"/>
-      <c r="BA22" s="114"/>
-      <c r="BB22" s="115"/>
-      <c r="BC22" s="115"/>
-      <c r="BD22" s="116"/>
+      <c r="AW22" s="82"/>
+      <c r="AX22" s="82"/>
+      <c r="AY22" s="82"/>
+      <c r="AZ22" s="83"/>
+      <c r="BA22" s="115"/>
+      <c r="BB22" s="116"/>
+      <c r="BC22" s="116"/>
+      <c r="BD22" s="117"/>
       <c r="BE22" s="82"/>
       <c r="BF22" s="82"/>
-      <c r="BG22" s="59"/>
-      <c r="BH22" s="60"/>
+      <c r="BG22" s="82"/>
+      <c r="BH22" s="83"/>
       <c r="BI22" s="58"/>
       <c r="BJ22" s="59"/>
       <c r="BK22" s="59"/>
@@ -4185,35 +4192,35 @@
       <c r="BN22" s="82"/>
       <c r="BO22" s="82"/>
       <c r="BP22" s="83"/>
-      <c r="BQ22" s="114"/>
-      <c r="BR22" s="115"/>
-      <c r="BS22" s="115"/>
-      <c r="BT22" s="116"/>
-      <c r="BU22" s="59"/>
-      <c r="BV22" s="59"/>
-      <c r="BW22" s="59"/>
+      <c r="BQ22" s="115"/>
+      <c r="BR22" s="116"/>
+      <c r="BS22" s="116"/>
+      <c r="BT22" s="117"/>
+      <c r="BU22" s="82"/>
+      <c r="BV22" s="82"/>
+      <c r="BW22" s="82"/>
       <c r="BX22" s="83"/>
       <c r="BY22" s="58"/>
       <c r="BZ22" s="59"/>
       <c r="CA22" s="59"/>
-      <c r="CB22" s="82"/>
-      <c r="CC22" s="82"/>
-      <c r="CD22" s="82"/>
-      <c r="CE22" s="82"/>
+      <c r="CB22" s="59"/>
+      <c r="CC22" s="59"/>
+      <c r="CD22" s="59"/>
+      <c r="CE22" s="59"/>
       <c r="CF22" s="60"/>
     </row>
     <row r="23" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="102"/>
       <c r="I23" s="64"/>
       <c r="J23" s="64"/>
       <c r="K23" s="62"/>
@@ -4226,14 +4233,14 @@
       <c r="R23" s="62"/>
       <c r="S23" s="62"/>
       <c r="T23" s="63"/>
-      <c r="U23" s="108"/>
-      <c r="V23" s="109"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="109"/>
-      <c r="Y23" s="109"/>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="109"/>
-      <c r="AB23" s="110"/>
+      <c r="U23" s="109"/>
+      <c r="V23" s="110"/>
+      <c r="W23" s="110"/>
+      <c r="X23" s="110"/>
+      <c r="Y23" s="110"/>
+      <c r="Z23" s="110"/>
+      <c r="AA23" s="110"/>
+      <c r="AB23" s="111"/>
       <c r="AC23" s="61"/>
       <c r="AD23" s="62"/>
       <c r="AE23" s="62"/>
@@ -4242,10 +4249,10 @@
       <c r="AH23" s="62"/>
       <c r="AI23" s="62"/>
       <c r="AJ23" s="63"/>
-      <c r="AK23" s="117"/>
-      <c r="AL23" s="118"/>
-      <c r="AM23" s="118"/>
-      <c r="AN23" s="119"/>
+      <c r="AK23" s="118"/>
+      <c r="AL23" s="119"/>
+      <c r="AM23" s="119"/>
+      <c r="AN23" s="120"/>
       <c r="AO23" s="62"/>
       <c r="AP23" s="62"/>
       <c r="AQ23" s="62"/>
@@ -4258,10 +4265,10 @@
       <c r="AX23" s="62"/>
       <c r="AY23" s="62"/>
       <c r="AZ23" s="63"/>
-      <c r="BA23" s="117"/>
-      <c r="BB23" s="118"/>
-      <c r="BC23" s="118"/>
-      <c r="BD23" s="119"/>
+      <c r="BA23" s="118"/>
+      <c r="BB23" s="119"/>
+      <c r="BC23" s="119"/>
+      <c r="BD23" s="120"/>
       <c r="BE23" s="62"/>
       <c r="BF23" s="62"/>
       <c r="BG23" s="62"/>
@@ -4274,21 +4281,21 @@
       <c r="BN23" s="62"/>
       <c r="BO23" s="62"/>
       <c r="BP23" s="63"/>
-      <c r="BQ23" s="117"/>
-      <c r="BR23" s="118"/>
-      <c r="BS23" s="118"/>
-      <c r="BT23" s="119"/>
+      <c r="BQ23" s="118"/>
+      <c r="BR23" s="119"/>
+      <c r="BS23" s="119"/>
+      <c r="BT23" s="120"/>
       <c r="BU23" s="62"/>
       <c r="BV23" s="62"/>
       <c r="BW23" s="62"/>
       <c r="BX23" s="63"/>
-      <c r="BY23" s="61"/>
-      <c r="BZ23" s="62"/>
-      <c r="CA23" s="62"/>
-      <c r="CB23" s="84"/>
-      <c r="CC23" s="84"/>
-      <c r="CD23" s="84"/>
-      <c r="CE23" s="84"/>
+      <c r="BY23" s="87"/>
+      <c r="BZ23" s="84"/>
+      <c r="CA23" s="84"/>
+      <c r="CB23" s="62"/>
+      <c r="CC23" s="62"/>
+      <c r="CD23" s="62"/>
+      <c r="CE23" s="62"/>
       <c r="CF23" s="63"/>
     </row>
   </sheetData>
@@ -4358,6 +4365,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -4570,27 +4597,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C334E08-C15B-4283-B082-739F59C9FCA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4607,25 +4635,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="633" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD8DF272-B55E-4358-A579-D5E07843148F}"/>
+  <xr:revisionPtr revIDLastSave="634" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{366F4357-08F8-4E9F-A3C5-B113CF5B64C1}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1141,6 +1141,50 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1149,12 +1193,32 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1237,42 +1301,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1323,34 +1351,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1404,8 +1404,8 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -1423,7 +1423,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="5076824" y="685800"/>
-          <a:ext cx="8448675" cy="3990975"/>
+          <a:ext cx="8734426" cy="3990975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2048,7 +2048,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AN28" sqref="AN28"/>
+      <selection pane="bottomRight" activeCell="AS2" sqref="AS2:CF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2063,10 +2063,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="103"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="1"/>
@@ -2111,310 +2111,310 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="138"/>
+      <c r="B2" s="105"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="134"/>
-      <c r="AM2" s="134"/>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="134"/>
-      <c r="AQ2" s="134"/>
-      <c r="AR2" s="134"/>
-      <c r="AS2" s="134"/>
-      <c r="AT2" s="134"/>
-      <c r="AU2" s="134"/>
-      <c r="AV2" s="134"/>
-      <c r="AW2" s="134"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="134"/>
-      <c r="AZ2" s="134"/>
-      <c r="BA2" s="134"/>
-      <c r="BB2" s="134"/>
-      <c r="BC2" s="134"/>
-      <c r="BD2" s="134"/>
-      <c r="BE2" s="134"/>
-      <c r="BF2" s="134"/>
-      <c r="BG2" s="134"/>
-      <c r="BH2" s="134"/>
-      <c r="BI2" s="134"/>
-      <c r="BJ2" s="134"/>
-      <c r="BK2" s="134"/>
-      <c r="BL2" s="134"/>
-      <c r="BM2" s="134"/>
-      <c r="BN2" s="134"/>
-      <c r="BO2" s="134"/>
-      <c r="BP2" s="134"/>
-      <c r="BQ2" s="134"/>
-      <c r="BR2" s="134"/>
-      <c r="BS2" s="134"/>
-      <c r="BT2" s="134"/>
-      <c r="BU2" s="134"/>
-      <c r="BV2" s="134"/>
-      <c r="BW2" s="134"/>
-      <c r="BX2" s="134"/>
-      <c r="BY2" s="134"/>
-      <c r="BZ2" s="134"/>
-      <c r="CA2" s="134"/>
-      <c r="CB2" s="134"/>
-      <c r="CC2" s="134"/>
-      <c r="CD2" s="134"/>
-      <c r="CE2" s="134"/>
-      <c r="CF2" s="134"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="101"/>
+      <c r="AT2" s="101"/>
+      <c r="AU2" s="101"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="101"/>
+      <c r="BA2" s="101"/>
+      <c r="BB2" s="101"/>
+      <c r="BC2" s="101"/>
+      <c r="BD2" s="101"/>
+      <c r="BE2" s="101"/>
+      <c r="BF2" s="101"/>
+      <c r="BG2" s="101"/>
+      <c r="BH2" s="101"/>
+      <c r="BI2" s="101"/>
+      <c r="BJ2" s="101"/>
+      <c r="BK2" s="101"/>
+      <c r="BL2" s="101"/>
+      <c r="BM2" s="101"/>
+      <c r="BN2" s="101"/>
+      <c r="BO2" s="101"/>
+      <c r="BP2" s="101"/>
+      <c r="BQ2" s="101"/>
+      <c r="BR2" s="101"/>
+      <c r="BS2" s="101"/>
+      <c r="BT2" s="101"/>
+      <c r="BU2" s="101"/>
+      <c r="BV2" s="101"/>
+      <c r="BW2" s="101"/>
+      <c r="BX2" s="101"/>
+      <c r="BY2" s="101"/>
+      <c r="BZ2" s="101"/>
+      <c r="CA2" s="101"/>
+      <c r="CB2" s="101"/>
+      <c r="CC2" s="101"/>
+      <c r="CD2" s="101"/>
+      <c r="CE2" s="101"/>
+      <c r="CF2" s="101"/>
     </row>
     <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="135"/>
-      <c r="AT3" s="135"/>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="135"/>
-      <c r="BC3" s="135"/>
-      <c r="BD3" s="135"/>
-      <c r="BE3" s="135"/>
-      <c r="BF3" s="135"/>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135"/>
-      <c r="BI3" s="135"/>
-      <c r="BJ3" s="135"/>
-      <c r="BK3" s="135"/>
-      <c r="BL3" s="135"/>
-      <c r="BM3" s="135"/>
-      <c r="BN3" s="135"/>
-      <c r="BO3" s="135"/>
-      <c r="BP3" s="135"/>
-      <c r="BQ3" s="135"/>
-      <c r="BR3" s="135"/>
-      <c r="BS3" s="135"/>
-      <c r="BT3" s="135"/>
-      <c r="BU3" s="135"/>
-      <c r="BV3" s="135"/>
-      <c r="BW3" s="135"/>
-      <c r="BX3" s="135"/>
-      <c r="BY3" s="135"/>
-      <c r="BZ3" s="135"/>
-      <c r="CA3" s="135"/>
-      <c r="CB3" s="135"/>
-      <c r="CC3" s="135"/>
-      <c r="CD3" s="135"/>
-      <c r="CE3" s="135"/>
-      <c r="CF3" s="135"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="102"/>
+      <c r="AL3" s="102"/>
+      <c r="AM3" s="102"/>
+      <c r="AN3" s="102"/>
+      <c r="AO3" s="102"/>
+      <c r="AP3" s="102"/>
+      <c r="AQ3" s="102"/>
+      <c r="AR3" s="102"/>
+      <c r="AS3" s="102"/>
+      <c r="AT3" s="102"/>
+      <c r="AU3" s="102"/>
+      <c r="AV3" s="102"/>
+      <c r="AW3" s="102"/>
+      <c r="AX3" s="102"/>
+      <c r="AY3" s="102"/>
+      <c r="AZ3" s="102"/>
+      <c r="BA3" s="102"/>
+      <c r="BB3" s="102"/>
+      <c r="BC3" s="102"/>
+      <c r="BD3" s="102"/>
+      <c r="BE3" s="102"/>
+      <c r="BF3" s="102"/>
+      <c r="BG3" s="102"/>
+      <c r="BH3" s="102"/>
+      <c r="BI3" s="102"/>
+      <c r="BJ3" s="102"/>
+      <c r="BK3" s="102"/>
+      <c r="BL3" s="102"/>
+      <c r="BM3" s="102"/>
+      <c r="BN3" s="102"/>
+      <c r="BO3" s="102"/>
+      <c r="BP3" s="102"/>
+      <c r="BQ3" s="102"/>
+      <c r="BR3" s="102"/>
+      <c r="BS3" s="102"/>
+      <c r="BT3" s="102"/>
+      <c r="BU3" s="102"/>
+      <c r="BV3" s="102"/>
+      <c r="BW3" s="102"/>
+      <c r="BX3" s="102"/>
+      <c r="BY3" s="102"/>
+      <c r="BZ3" s="102"/>
+      <c r="CA3" s="102"/>
+      <c r="CB3" s="102"/>
+      <c r="CC3" s="102"/>
+      <c r="CD3" s="102"/>
+      <c r="CE3" s="102"/>
+      <c r="CF3" s="102"/>
     </row>
     <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="140"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="88">
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99">
         <v>45995</v>
       </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="90" t="s">
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="88">
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="99">
         <v>45996</v>
       </c>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="90" t="s">
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="91"/>
-      <c r="W4" s="91"/>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="88">
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="99">
         <v>46002</v>
       </c>
-      <c r="Z4" s="88"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90" t="s">
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="91"/>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="88">
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="99">
         <v>46003</v>
       </c>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="88"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="90" t="s">
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="88">
+      <c r="AL4" s="98"/>
+      <c r="AM4" s="98"/>
+      <c r="AN4" s="98"/>
+      <c r="AO4" s="99">
         <v>46009</v>
       </c>
-      <c r="AP4" s="88"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="90" t="s">
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="99"/>
+      <c r="AR4" s="100"/>
+      <c r="AS4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="88">
+      <c r="AT4" s="98"/>
+      <c r="AU4" s="98"/>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="99">
         <v>46010</v>
       </c>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="88"/>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="90" t="s">
+      <c r="AX4" s="99"/>
+      <c r="AY4" s="99"/>
+      <c r="AZ4" s="100"/>
+      <c r="BA4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="88">
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="98"/>
+      <c r="BE4" s="99">
         <v>46030</v>
       </c>
-      <c r="BF4" s="88"/>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="90" t="s">
+      <c r="BF4" s="99"/>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="100"/>
+      <c r="BI4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="91"/>
-      <c r="BM4" s="88">
+      <c r="BJ4" s="98"/>
+      <c r="BK4" s="98"/>
+      <c r="BL4" s="98"/>
+      <c r="BM4" s="99">
         <v>46031</v>
       </c>
-      <c r="BN4" s="88"/>
-      <c r="BO4" s="88"/>
-      <c r="BP4" s="89"/>
-      <c r="BQ4" s="90" t="s">
+      <c r="BN4" s="99"/>
+      <c r="BO4" s="99"/>
+      <c r="BP4" s="100"/>
+      <c r="BQ4" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="BR4" s="91"/>
-      <c r="BS4" s="91"/>
-      <c r="BT4" s="91"/>
-      <c r="BU4" s="88">
+      <c r="BR4" s="98"/>
+      <c r="BS4" s="98"/>
+      <c r="BT4" s="98"/>
+      <c r="BU4" s="99">
         <v>46037</v>
       </c>
-      <c r="BV4" s="88"/>
-      <c r="BW4" s="88"/>
-      <c r="BX4" s="89"/>
-      <c r="BY4" s="90" t="s">
+      <c r="BV4" s="99"/>
+      <c r="BW4" s="99"/>
+      <c r="BX4" s="100"/>
+      <c r="BY4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="BZ4" s="91"/>
-      <c r="CA4" s="91"/>
-      <c r="CB4" s="91"/>
-      <c r="CC4" s="88">
+      <c r="BZ4" s="98"/>
+      <c r="CA4" s="98"/>
+      <c r="CB4" s="98"/>
+      <c r="CC4" s="99">
         <v>46038</v>
       </c>
-      <c r="CD4" s="88"/>
-      <c r="CE4" s="88"/>
-      <c r="CF4" s="89"/>
+      <c r="CD4" s="99"/>
+      <c r="CE4" s="99"/>
+      <c r="CF4" s="100"/>
     </row>
     <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139"/>
-      <c r="B5" s="140"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2663,7 +2663,7 @@
       </c>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="137" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -2673,12 +2673,12 @@
         <v>23</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="96"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="17"/>
@@ -2691,16 +2691,16 @@
       <c r="R6" s="30"/>
       <c r="S6" s="30"/>
       <c r="T6" s="31"/>
-      <c r="U6" s="103" t="s">
+      <c r="U6" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="105"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="121"/>
       <c r="AC6" s="32"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
@@ -2709,12 +2709,12 @@
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="31"/>
-      <c r="AK6" s="112" t="s">
+      <c r="AK6" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="114"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="89"/>
+      <c r="AN6" s="90"/>
       <c r="AO6" s="30"/>
       <c r="AP6" s="30"/>
       <c r="AQ6" s="30"/>
@@ -2727,12 +2727,12 @@
       <c r="AX6" s="30"/>
       <c r="AY6" s="30"/>
       <c r="AZ6" s="31"/>
-      <c r="BA6" s="112" t="s">
+      <c r="BA6" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="BB6" s="113"/>
-      <c r="BC6" s="113"/>
-      <c r="BD6" s="114"/>
+      <c r="BB6" s="89"/>
+      <c r="BC6" s="89"/>
+      <c r="BD6" s="90"/>
       <c r="BE6" s="30"/>
       <c r="BF6" s="30"/>
       <c r="BG6" s="30"/>
@@ -2745,12 +2745,12 @@
       <c r="BN6" s="30"/>
       <c r="BO6" s="30"/>
       <c r="BP6" s="31"/>
-      <c r="BQ6" s="112" t="s">
+      <c r="BQ6" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="BR6" s="113"/>
-      <c r="BS6" s="113"/>
-      <c r="BT6" s="114"/>
+      <c r="BR6" s="89"/>
+      <c r="BS6" s="89"/>
+      <c r="BT6" s="90"/>
       <c r="BU6" s="71"/>
       <c r="BV6" s="71"/>
       <c r="BW6" s="30"/>
@@ -2765,7 +2765,7 @@
       <c r="CF6" s="31"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A7" s="130"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="28" t="s">
         <v>11</v>
       </c>
@@ -2773,10 +2773,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="99"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="115"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
@@ -2789,14 +2789,14 @@
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
       <c r="T7" s="34"/>
-      <c r="U7" s="106"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="108"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="124"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="33"/>
       <c r="AE7" s="33"/>
@@ -2805,10 +2805,10 @@
       <c r="AH7" s="33"/>
       <c r="AI7" s="33"/>
       <c r="AJ7" s="34"/>
-      <c r="AK7" s="115"/>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="116"/>
-      <c r="AN7" s="117"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="92"/>
+      <c r="AM7" s="92"/>
+      <c r="AN7" s="93"/>
       <c r="AO7" s="33"/>
       <c r="AP7" s="33"/>
       <c r="AQ7" s="33"/>
@@ -2821,10 +2821,10 @@
       <c r="AX7" s="33"/>
       <c r="AY7" s="33"/>
       <c r="AZ7" s="34"/>
-      <c r="BA7" s="115"/>
-      <c r="BB7" s="116"/>
-      <c r="BC7" s="116"/>
-      <c r="BD7" s="117"/>
+      <c r="BA7" s="91"/>
+      <c r="BB7" s="92"/>
+      <c r="BC7" s="92"/>
+      <c r="BD7" s="93"/>
       <c r="BE7" s="33"/>
       <c r="BF7" s="33"/>
       <c r="BG7" s="33"/>
@@ -2837,10 +2837,10 @@
       <c r="BN7" s="33"/>
       <c r="BO7" s="33"/>
       <c r="BP7" s="34"/>
-      <c r="BQ7" s="115"/>
-      <c r="BR7" s="116"/>
-      <c r="BS7" s="116"/>
-      <c r="BT7" s="117"/>
+      <c r="BQ7" s="91"/>
+      <c r="BR7" s="92"/>
+      <c r="BS7" s="92"/>
+      <c r="BT7" s="93"/>
       <c r="BU7" s="33"/>
       <c r="BV7" s="33"/>
       <c r="BW7" s="33"/>
@@ -2855,7 +2855,7 @@
       <c r="CF7" s="34"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A8" s="130"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
@@ -2863,10 +2863,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="25"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -2879,14 +2879,14 @@
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
       <c r="T8" s="34"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="108"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
+      <c r="Z8" s="123"/>
+      <c r="AA8" s="123"/>
+      <c r="AB8" s="124"/>
       <c r="AC8" s="35"/>
       <c r="AD8" s="33"/>
       <c r="AE8" s="33"/>
@@ -2895,10 +2895,10 @@
       <c r="AH8" s="33"/>
       <c r="AI8" s="33"/>
       <c r="AJ8" s="34"/>
-      <c r="AK8" s="115"/>
-      <c r="AL8" s="116"/>
-      <c r="AM8" s="116"/>
-      <c r="AN8" s="117"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="92"/>
+      <c r="AN8" s="93"/>
       <c r="AO8" s="33"/>
       <c r="AP8" s="33"/>
       <c r="AQ8" s="33"/>
@@ -2911,10 +2911,10 @@
       <c r="AX8" s="33"/>
       <c r="AY8" s="33"/>
       <c r="AZ8" s="34"/>
-      <c r="BA8" s="115"/>
-      <c r="BB8" s="116"/>
-      <c r="BC8" s="116"/>
-      <c r="BD8" s="117"/>
+      <c r="BA8" s="91"/>
+      <c r="BB8" s="92"/>
+      <c r="BC8" s="92"/>
+      <c r="BD8" s="93"/>
       <c r="BE8" s="33"/>
       <c r="BF8" s="33"/>
       <c r="BG8" s="33"/>
@@ -2927,10 +2927,10 @@
       <c r="BN8" s="33"/>
       <c r="BO8" s="33"/>
       <c r="BP8" s="34"/>
-      <c r="BQ8" s="115"/>
-      <c r="BR8" s="116"/>
-      <c r="BS8" s="116"/>
-      <c r="BT8" s="117"/>
+      <c r="BQ8" s="91"/>
+      <c r="BR8" s="92"/>
+      <c r="BS8" s="92"/>
+      <c r="BT8" s="93"/>
       <c r="BU8" s="33"/>
       <c r="BV8" s="33"/>
       <c r="BW8" s="33"/>
@@ -2945,7 +2945,7 @@
       <c r="CF8" s="34"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="138" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -2955,10 +2955,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="99"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="115"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -2971,14 +2971,14 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="38"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="108"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="123"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="124"/>
       <c r="AC9" s="39"/>
       <c r="AD9" s="37"/>
       <c r="AE9" s="37"/>
@@ -2987,10 +2987,10 @@
       <c r="AH9" s="37"/>
       <c r="AI9" s="37"/>
       <c r="AJ9" s="38"/>
-      <c r="AK9" s="115"/>
-      <c r="AL9" s="116"/>
-      <c r="AM9" s="116"/>
-      <c r="AN9" s="117"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="92"/>
+      <c r="AN9" s="93"/>
       <c r="AO9" s="37"/>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -3003,10 +3003,10 @@
       <c r="AX9" s="37"/>
       <c r="AY9" s="37"/>
       <c r="AZ9" s="38"/>
-      <c r="BA9" s="115"/>
-      <c r="BB9" s="116"/>
-      <c r="BC9" s="116"/>
-      <c r="BD9" s="117"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="92"/>
+      <c r="BC9" s="92"/>
+      <c r="BD9" s="93"/>
       <c r="BE9" s="37"/>
       <c r="BF9" s="37"/>
       <c r="BG9" s="37"/>
@@ -3019,10 +3019,10 @@
       <c r="BN9" s="37"/>
       <c r="BO9" s="37"/>
       <c r="BP9" s="38"/>
-      <c r="BQ9" s="115"/>
-      <c r="BR9" s="116"/>
-      <c r="BS9" s="116"/>
-      <c r="BT9" s="117"/>
+      <c r="BQ9" s="91"/>
+      <c r="BR9" s="92"/>
+      <c r="BS9" s="92"/>
+      <c r="BT9" s="93"/>
       <c r="BU9" s="37"/>
       <c r="BV9" s="37"/>
       <c r="BW9" s="37"/>
@@ -3037,7 +3037,7 @@
       <c r="CF9" s="38"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A10" s="132"/>
+      <c r="A10" s="139"/>
       <c r="B10" s="36" t="s">
         <v>15</v>
       </c>
@@ -3045,10 +3045,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="25"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="115"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
@@ -3061,14 +3061,14 @@
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="38"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="107"/>
-      <c r="AB10" s="108"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="123"/>
+      <c r="W10" s="123"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="123"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="123"/>
+      <c r="AB10" s="124"/>
       <c r="AC10" s="39"/>
       <c r="AD10" s="37"/>
       <c r="AE10" s="37"/>
@@ -3077,10 +3077,10 @@
       <c r="AH10" s="37"/>
       <c r="AI10" s="37"/>
       <c r="AJ10" s="38"/>
-      <c r="AK10" s="115"/>
-      <c r="AL10" s="116"/>
-      <c r="AM10" s="116"/>
-      <c r="AN10" s="117"/>
+      <c r="AK10" s="91"/>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="92"/>
+      <c r="AN10" s="93"/>
       <c r="AO10" s="37"/>
       <c r="AP10" s="37"/>
       <c r="AQ10" s="37"/>
@@ -3093,10 +3093,10 @@
       <c r="AX10" s="37"/>
       <c r="AY10" s="37"/>
       <c r="AZ10" s="38"/>
-      <c r="BA10" s="115"/>
-      <c r="BB10" s="116"/>
-      <c r="BC10" s="116"/>
-      <c r="BD10" s="117"/>
+      <c r="BA10" s="91"/>
+      <c r="BB10" s="92"/>
+      <c r="BC10" s="92"/>
+      <c r="BD10" s="93"/>
       <c r="BE10" s="37"/>
       <c r="BF10" s="37"/>
       <c r="BG10" s="37"/>
@@ -3109,10 +3109,10 @@
       <c r="BN10" s="37"/>
       <c r="BO10" s="37"/>
       <c r="BP10" s="38"/>
-      <c r="BQ10" s="115"/>
-      <c r="BR10" s="116"/>
-      <c r="BS10" s="116"/>
-      <c r="BT10" s="117"/>
+      <c r="BQ10" s="91"/>
+      <c r="BR10" s="92"/>
+      <c r="BS10" s="92"/>
+      <c r="BT10" s="93"/>
       <c r="BU10" s="37"/>
       <c r="BV10" s="37"/>
       <c r="BW10" s="37"/>
@@ -3127,7 +3127,7 @@
       <c r="CF10" s="38"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A11" s="133"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="36" t="s">
         <v>16</v>
       </c>
@@ -3135,10 +3135,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="25"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="99"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
@@ -3151,14 +3151,14 @@
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="108"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="123"/>
+      <c r="Z11" s="123"/>
+      <c r="AA11" s="123"/>
+      <c r="AB11" s="124"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="37"/>
       <c r="AE11" s="37"/>
@@ -3167,10 +3167,10 @@
       <c r="AH11" s="37"/>
       <c r="AI11" s="37"/>
       <c r="AJ11" s="38"/>
-      <c r="AK11" s="115"/>
-      <c r="AL11" s="116"/>
-      <c r="AM11" s="116"/>
-      <c r="AN11" s="117"/>
+      <c r="AK11" s="91"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="93"/>
       <c r="AO11" s="37"/>
       <c r="AP11" s="37"/>
       <c r="AQ11" s="37"/>
@@ -3183,10 +3183,10 @@
       <c r="AX11" s="37"/>
       <c r="AY11" s="37"/>
       <c r="AZ11" s="38"/>
-      <c r="BA11" s="115"/>
-      <c r="BB11" s="116"/>
-      <c r="BC11" s="116"/>
-      <c r="BD11" s="117"/>
+      <c r="BA11" s="91"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="93"/>
       <c r="BE11" s="37"/>
       <c r="BF11" s="37"/>
       <c r="BG11" s="37"/>
@@ -3199,10 +3199,10 @@
       <c r="BN11" s="37"/>
       <c r="BO11" s="37"/>
       <c r="BP11" s="38"/>
-      <c r="BQ11" s="115"/>
-      <c r="BR11" s="116"/>
-      <c r="BS11" s="116"/>
-      <c r="BT11" s="117"/>
+      <c r="BQ11" s="91"/>
+      <c r="BR11" s="92"/>
+      <c r="BS11" s="92"/>
+      <c r="BT11" s="93"/>
       <c r="BU11" s="37"/>
       <c r="BV11" s="37"/>
       <c r="BW11" s="37"/>
@@ -3217,7 +3217,7 @@
       <c r="CF11" s="38"/>
     </row>
     <row r="12" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="132" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="74" t="s">
@@ -3227,10 +3227,10 @@
         <v>23</v>
       </c>
       <c r="D12" s="25"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="99"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -3243,14 +3243,14 @@
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="108"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="123"/>
+      <c r="W12" s="123"/>
+      <c r="X12" s="123"/>
+      <c r="Y12" s="123"/>
+      <c r="Z12" s="123"/>
+      <c r="AA12" s="123"/>
+      <c r="AB12" s="124"/>
       <c r="AC12" s="42"/>
       <c r="AD12" s="20"/>
       <c r="AE12" s="40"/>
@@ -3259,10 +3259,10 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="20"/>
       <c r="AJ12" s="41"/>
-      <c r="AK12" s="115"/>
-      <c r="AL12" s="116"/>
-      <c r="AM12" s="116"/>
-      <c r="AN12" s="117"/>
+      <c r="AK12" s="91"/>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="92"/>
+      <c r="AN12" s="93"/>
       <c r="AO12" s="20"/>
       <c r="AP12" s="20"/>
       <c r="AQ12" s="20"/>
@@ -3275,10 +3275,10 @@
       <c r="AX12" s="40"/>
       <c r="AY12" s="40"/>
       <c r="AZ12" s="41"/>
-      <c r="BA12" s="115"/>
-      <c r="BB12" s="116"/>
-      <c r="BC12" s="116"/>
-      <c r="BD12" s="117"/>
+      <c r="BA12" s="91"/>
+      <c r="BB12" s="92"/>
+      <c r="BC12" s="92"/>
+      <c r="BD12" s="93"/>
       <c r="BE12" s="40"/>
       <c r="BF12" s="40"/>
       <c r="BG12" s="40"/>
@@ -3291,10 +3291,10 @@
       <c r="BN12" s="40"/>
       <c r="BO12" s="40"/>
       <c r="BP12" s="41"/>
-      <c r="BQ12" s="115"/>
-      <c r="BR12" s="116"/>
-      <c r="BS12" s="116"/>
-      <c r="BT12" s="117"/>
+      <c r="BQ12" s="91"/>
+      <c r="BR12" s="92"/>
+      <c r="BS12" s="92"/>
+      <c r="BT12" s="93"/>
       <c r="BU12" s="40"/>
       <c r="BV12" s="40"/>
       <c r="BW12" s="40"/>
@@ -3309,7 +3309,7 @@
       <c r="CF12" s="41"/>
     </row>
     <row r="13" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="126"/>
+      <c r="A13" s="133"/>
       <c r="B13" s="75" t="s">
         <v>30</v>
       </c>
@@ -3317,10 +3317,10 @@
         <v>23</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="99"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -3333,14 +3333,14 @@
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="108"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="123"/>
+      <c r="W13" s="123"/>
+      <c r="X13" s="123"/>
+      <c r="Y13" s="123"/>
+      <c r="Z13" s="123"/>
+      <c r="AA13" s="123"/>
+      <c r="AB13" s="124"/>
       <c r="AC13" s="42"/>
       <c r="AD13" s="40"/>
       <c r="AE13" s="20"/>
@@ -3349,10 +3349,10 @@
       <c r="AH13" s="40"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="69"/>
-      <c r="AK13" s="115"/>
-      <c r="AL13" s="116"/>
-      <c r="AM13" s="116"/>
-      <c r="AN13" s="117"/>
+      <c r="AK13" s="91"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="93"/>
       <c r="AO13" s="40"/>
       <c r="AP13" s="40"/>
       <c r="AQ13" s="40"/>
@@ -3365,10 +3365,10 @@
       <c r="AX13" s="40"/>
       <c r="AY13" s="40"/>
       <c r="AZ13" s="41"/>
-      <c r="BA13" s="115"/>
-      <c r="BB13" s="116"/>
-      <c r="BC13" s="116"/>
-      <c r="BD13" s="117"/>
+      <c r="BA13" s="91"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="92"/>
+      <c r="BD13" s="93"/>
       <c r="BE13" s="40"/>
       <c r="BF13" s="40"/>
       <c r="BG13" s="40"/>
@@ -3381,10 +3381,10 @@
       <c r="BN13" s="40"/>
       <c r="BO13" s="40"/>
       <c r="BP13" s="41"/>
-      <c r="BQ13" s="115"/>
-      <c r="BR13" s="116"/>
-      <c r="BS13" s="116"/>
-      <c r="BT13" s="117"/>
+      <c r="BQ13" s="91"/>
+      <c r="BR13" s="92"/>
+      <c r="BS13" s="92"/>
+      <c r="BT13" s="93"/>
       <c r="BU13" s="40"/>
       <c r="BV13" s="40"/>
       <c r="BW13" s="40"/>
@@ -3399,7 +3399,7 @@
       <c r="CF13" s="41"/>
     </row>
     <row r="14" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="127"/>
+      <c r="A14" s="134"/>
       <c r="B14" s="78" t="s">
         <v>31</v>
       </c>
@@ -3407,10 +3407,10 @@
         <v>23</v>
       </c>
       <c r="D14" s="25"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -3423,14 +3423,14 @@
       <c r="R14" s="40"/>
       <c r="S14" s="40"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="107"/>
-      <c r="AB14" s="108"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="123"/>
+      <c r="W14" s="123"/>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="123"/>
+      <c r="Z14" s="123"/>
+      <c r="AA14" s="123"/>
+      <c r="AB14" s="124"/>
       <c r="AC14" s="42"/>
       <c r="AD14" s="40"/>
       <c r="AE14" s="40"/>
@@ -3439,10 +3439,10 @@
       <c r="AH14" s="40"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="70"/>
-      <c r="AK14" s="115"/>
-      <c r="AL14" s="116"/>
-      <c r="AM14" s="116"/>
-      <c r="AN14" s="117"/>
+      <c r="AK14" s="91"/>
+      <c r="AL14" s="92"/>
+      <c r="AM14" s="92"/>
+      <c r="AN14" s="93"/>
       <c r="AO14" s="40"/>
       <c r="AP14" s="40"/>
       <c r="AQ14" s="40"/>
@@ -3455,10 +3455,10 @@
       <c r="AX14" s="40"/>
       <c r="AY14" s="40"/>
       <c r="AZ14" s="41"/>
-      <c r="BA14" s="115"/>
-      <c r="BB14" s="116"/>
-      <c r="BC14" s="116"/>
-      <c r="BD14" s="117"/>
+      <c r="BA14" s="91"/>
+      <c r="BB14" s="92"/>
+      <c r="BC14" s="92"/>
+      <c r="BD14" s="93"/>
       <c r="BE14" s="40"/>
       <c r="BF14" s="40"/>
       <c r="BG14" s="40"/>
@@ -3471,10 +3471,10 @@
       <c r="BN14" s="40"/>
       <c r="BO14" s="40"/>
       <c r="BP14" s="41"/>
-      <c r="BQ14" s="115"/>
-      <c r="BR14" s="116"/>
-      <c r="BS14" s="116"/>
-      <c r="BT14" s="117"/>
+      <c r="BQ14" s="91"/>
+      <c r="BR14" s="92"/>
+      <c r="BS14" s="92"/>
+      <c r="BT14" s="93"/>
       <c r="BU14" s="40"/>
       <c r="BV14" s="40"/>
       <c r="BW14" s="40"/>
@@ -3489,7 +3489,7 @@
       <c r="CF14" s="41"/>
     </row>
     <row r="15" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="128" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="73" t="s">
@@ -3499,10 +3499,10 @@
         <v>23</v>
       </c>
       <c r="D15" s="25"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
@@ -3515,14 +3515,14 @@
       <c r="R15" s="43"/>
       <c r="S15" s="43"/>
       <c r="T15" s="44"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="108"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="123"/>
+      <c r="W15" s="123"/>
+      <c r="X15" s="123"/>
+      <c r="Y15" s="123"/>
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="123"/>
+      <c r="AB15" s="124"/>
       <c r="AC15" s="45"/>
       <c r="AD15" s="43"/>
       <c r="AE15" s="43"/>
@@ -3531,10 +3531,10 @@
       <c r="AH15" s="43"/>
       <c r="AI15" s="43"/>
       <c r="AJ15" s="44"/>
-      <c r="AK15" s="115"/>
-      <c r="AL15" s="116"/>
-      <c r="AM15" s="116"/>
-      <c r="AN15" s="117"/>
+      <c r="AK15" s="91"/>
+      <c r="AL15" s="92"/>
+      <c r="AM15" s="92"/>
+      <c r="AN15" s="93"/>
       <c r="AO15" s="43"/>
       <c r="AP15" s="43"/>
       <c r="AQ15" s="43"/>
@@ -3547,10 +3547,10 @@
       <c r="AX15" s="20"/>
       <c r="AY15" s="20"/>
       <c r="AZ15" s="44"/>
-      <c r="BA15" s="115"/>
-      <c r="BB15" s="116"/>
-      <c r="BC15" s="116"/>
-      <c r="BD15" s="117"/>
+      <c r="BA15" s="91"/>
+      <c r="BB15" s="92"/>
+      <c r="BC15" s="92"/>
+      <c r="BD15" s="93"/>
       <c r="BE15" s="43"/>
       <c r="BF15" s="43"/>
       <c r="BG15" s="43"/>
@@ -3563,10 +3563,10 @@
       <c r="BN15" s="43"/>
       <c r="BO15" s="43"/>
       <c r="BP15" s="44"/>
-      <c r="BQ15" s="115"/>
-      <c r="BR15" s="116"/>
-      <c r="BS15" s="116"/>
-      <c r="BT15" s="117"/>
+      <c r="BQ15" s="91"/>
+      <c r="BR15" s="92"/>
+      <c r="BS15" s="92"/>
+      <c r="BT15" s="93"/>
       <c r="BU15" s="43"/>
       <c r="BV15" s="43"/>
       <c r="BW15" s="43"/>
@@ -3581,7 +3581,7 @@
       <c r="CF15" s="44"/>
     </row>
     <row r="16" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="122"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="80" t="s">
         <v>31</v>
       </c>
@@ -3589,10 +3589,10 @@
         <v>23</v>
       </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
@@ -3605,14 +3605,14 @@
       <c r="R16" s="43"/>
       <c r="S16" s="43"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="108"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="123"/>
+      <c r="W16" s="123"/>
+      <c r="X16" s="123"/>
+      <c r="Y16" s="123"/>
+      <c r="Z16" s="123"/>
+      <c r="AA16" s="123"/>
+      <c r="AB16" s="124"/>
       <c r="AC16" s="45"/>
       <c r="AD16" s="43"/>
       <c r="AE16" s="43"/>
@@ -3621,10 +3621,10 @@
       <c r="AH16" s="43"/>
       <c r="AI16" s="43"/>
       <c r="AJ16" s="44"/>
-      <c r="AK16" s="115"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="117"/>
+      <c r="AK16" s="91"/>
+      <c r="AL16" s="92"/>
+      <c r="AM16" s="92"/>
+      <c r="AN16" s="93"/>
       <c r="AO16" s="43"/>
       <c r="AP16" s="43"/>
       <c r="AQ16" s="43"/>
@@ -3637,10 +3637,10 @@
       <c r="AX16" s="43"/>
       <c r="AY16" s="43"/>
       <c r="AZ16" s="70"/>
-      <c r="BA16" s="115"/>
-      <c r="BB16" s="116"/>
-      <c r="BC16" s="116"/>
-      <c r="BD16" s="117"/>
+      <c r="BA16" s="91"/>
+      <c r="BB16" s="92"/>
+      <c r="BC16" s="92"/>
+      <c r="BD16" s="93"/>
       <c r="BE16" s="43"/>
       <c r="BF16" s="43"/>
       <c r="BG16" s="43"/>
@@ -3653,10 +3653,10 @@
       <c r="BN16" s="43"/>
       <c r="BO16" s="43"/>
       <c r="BP16" s="44"/>
-      <c r="BQ16" s="115"/>
-      <c r="BR16" s="116"/>
-      <c r="BS16" s="116"/>
-      <c r="BT16" s="117"/>
+      <c r="BQ16" s="91"/>
+      <c r="BR16" s="92"/>
+      <c r="BS16" s="92"/>
+      <c r="BT16" s="93"/>
       <c r="BU16" s="43"/>
       <c r="BV16" s="43"/>
       <c r="BW16" s="43"/>
@@ -3671,7 +3671,7 @@
       <c r="CF16" s="44"/>
     </row>
     <row r="17" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="130" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="72" t="s">
@@ -3681,10 +3681,10 @@
         <v>24</v>
       </c>
       <c r="D17" s="25"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="99"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="115"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
@@ -3697,14 +3697,14 @@
       <c r="R17" s="46"/>
       <c r="S17" s="46"/>
       <c r="T17" s="47"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="108"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="123"/>
+      <c r="X17" s="123"/>
+      <c r="Y17" s="123"/>
+      <c r="Z17" s="123"/>
+      <c r="AA17" s="123"/>
+      <c r="AB17" s="124"/>
       <c r="AC17" s="48"/>
       <c r="AD17" s="46"/>
       <c r="AE17" s="46"/>
@@ -3713,10 +3713,10 @@
       <c r="AH17" s="46"/>
       <c r="AI17" s="46"/>
       <c r="AJ17" s="47"/>
-      <c r="AK17" s="115"/>
-      <c r="AL17" s="116"/>
-      <c r="AM17" s="116"/>
-      <c r="AN17" s="117"/>
+      <c r="AK17" s="91"/>
+      <c r="AL17" s="92"/>
+      <c r="AM17" s="92"/>
+      <c r="AN17" s="93"/>
       <c r="AO17" s="46"/>
       <c r="AP17" s="46"/>
       <c r="AQ17" s="46"/>
@@ -3729,10 +3729,10 @@
       <c r="AX17" s="46"/>
       <c r="AY17" s="46"/>
       <c r="AZ17" s="47"/>
-      <c r="BA17" s="115"/>
-      <c r="BB17" s="116"/>
-      <c r="BC17" s="116"/>
-      <c r="BD17" s="117"/>
+      <c r="BA17" s="91"/>
+      <c r="BB17" s="92"/>
+      <c r="BC17" s="92"/>
+      <c r="BD17" s="93"/>
       <c r="BE17" s="20"/>
       <c r="BF17" s="20"/>
       <c r="BG17" s="20"/>
@@ -3745,10 +3745,10 @@
       <c r="BN17" s="20"/>
       <c r="BO17" s="20"/>
       <c r="BP17" s="47"/>
-      <c r="BQ17" s="115"/>
-      <c r="BR17" s="116"/>
-      <c r="BS17" s="116"/>
-      <c r="BT17" s="117"/>
+      <c r="BQ17" s="91"/>
+      <c r="BR17" s="92"/>
+      <c r="BS17" s="92"/>
+      <c r="BT17" s="93"/>
       <c r="BU17" s="46"/>
       <c r="BV17" s="46"/>
       <c r="BW17" s="46"/>
@@ -3763,16 +3763,16 @@
       <c r="CF17" s="47"/>
     </row>
     <row r="18" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="124"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="79" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="25"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="115"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
@@ -3785,14 +3785,14 @@
       <c r="R18" s="46"/>
       <c r="S18" s="46"/>
       <c r="T18" s="47"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="108"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="123"/>
+      <c r="W18" s="123"/>
+      <c r="X18" s="123"/>
+      <c r="Y18" s="123"/>
+      <c r="Z18" s="123"/>
+      <c r="AA18" s="123"/>
+      <c r="AB18" s="124"/>
       <c r="AC18" s="48"/>
       <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
@@ -3801,10 +3801,10 @@
       <c r="AH18" s="46"/>
       <c r="AI18" s="46"/>
       <c r="AJ18" s="47"/>
-      <c r="AK18" s="115"/>
-      <c r="AL18" s="116"/>
-      <c r="AM18" s="116"/>
-      <c r="AN18" s="117"/>
+      <c r="AK18" s="91"/>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="92"/>
+      <c r="AN18" s="93"/>
       <c r="AO18" s="46"/>
       <c r="AP18" s="46"/>
       <c r="AQ18" s="46"/>
@@ -3817,10 +3817,10 @@
       <c r="AX18" s="46"/>
       <c r="AY18" s="46"/>
       <c r="AZ18" s="47"/>
-      <c r="BA18" s="115"/>
-      <c r="BB18" s="116"/>
-      <c r="BC18" s="116"/>
-      <c r="BD18" s="117"/>
+      <c r="BA18" s="91"/>
+      <c r="BB18" s="92"/>
+      <c r="BC18" s="92"/>
+      <c r="BD18" s="93"/>
       <c r="BE18" s="46"/>
       <c r="BF18" s="46"/>
       <c r="BG18" s="46"/>
@@ -3833,10 +3833,10 @@
       <c r="BN18" s="46"/>
       <c r="BO18" s="46"/>
       <c r="BP18" s="21"/>
-      <c r="BQ18" s="115"/>
-      <c r="BR18" s="116"/>
-      <c r="BS18" s="116"/>
-      <c r="BT18" s="117"/>
+      <c r="BQ18" s="91"/>
+      <c r="BR18" s="92"/>
+      <c r="BS18" s="92"/>
+      <c r="BT18" s="93"/>
       <c r="BU18" s="46"/>
       <c r="BV18" s="46"/>
       <c r="BW18" s="46"/>
@@ -3851,7 +3851,7 @@
       <c r="CF18" s="47"/>
     </row>
     <row r="19" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="128" t="s">
+      <c r="A19" s="135" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="77" t="s">
@@ -3859,10 +3859,10 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="115"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
@@ -3875,14 +3875,14 @@
       <c r="R19" s="49"/>
       <c r="S19" s="49"/>
       <c r="T19" s="50"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107"/>
-      <c r="AB19" s="108"/>
+      <c r="U19" s="122"/>
+      <c r="V19" s="123"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="123"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="123"/>
+      <c r="AA19" s="123"/>
+      <c r="AB19" s="124"/>
       <c r="AC19" s="51"/>
       <c r="AD19" s="49"/>
       <c r="AE19" s="49"/>
@@ -3891,10 +3891,10 @@
       <c r="AH19" s="49"/>
       <c r="AI19" s="49"/>
       <c r="AJ19" s="50"/>
-      <c r="AK19" s="115"/>
-      <c r="AL19" s="116"/>
-      <c r="AM19" s="116"/>
-      <c r="AN19" s="117"/>
+      <c r="AK19" s="91"/>
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="92"/>
+      <c r="AN19" s="93"/>
       <c r="AO19" s="49"/>
       <c r="AP19" s="49"/>
       <c r="AQ19" s="49"/>
@@ -3907,10 +3907,10 @@
       <c r="AX19" s="49"/>
       <c r="AY19" s="49"/>
       <c r="AZ19" s="50"/>
-      <c r="BA19" s="115"/>
-      <c r="BB19" s="116"/>
-      <c r="BC19" s="116"/>
-      <c r="BD19" s="117"/>
+      <c r="BA19" s="91"/>
+      <c r="BB19" s="92"/>
+      <c r="BC19" s="92"/>
+      <c r="BD19" s="93"/>
       <c r="BE19" s="49"/>
       <c r="BF19" s="49"/>
       <c r="BG19" s="49"/>
@@ -3923,10 +3923,10 @@
       <c r="BN19" s="49"/>
       <c r="BO19" s="49"/>
       <c r="BP19" s="50"/>
-      <c r="BQ19" s="115"/>
-      <c r="BR19" s="116"/>
-      <c r="BS19" s="116"/>
-      <c r="BT19" s="117"/>
+      <c r="BQ19" s="91"/>
+      <c r="BR19" s="92"/>
+      <c r="BS19" s="92"/>
+      <c r="BT19" s="93"/>
       <c r="BU19" s="20"/>
       <c r="BV19" s="20"/>
       <c r="BW19" s="20"/>
@@ -3941,16 +3941,16 @@
       <c r="CF19" s="50"/>
     </row>
     <row r="20" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="129"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="81" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="115"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
@@ -3963,14 +3963,14 @@
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
       <c r="T20" s="66"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="107"/>
-      <c r="AB20" s="108"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123"/>
+      <c r="X20" s="123"/>
+      <c r="Y20" s="123"/>
+      <c r="Z20" s="123"/>
+      <c r="AA20" s="123"/>
+      <c r="AB20" s="124"/>
       <c r="AC20" s="67"/>
       <c r="AD20" s="65"/>
       <c r="AE20" s="65"/>
@@ -3979,10 +3979,10 @@
       <c r="AH20" s="65"/>
       <c r="AI20" s="65"/>
       <c r="AJ20" s="66"/>
-      <c r="AK20" s="115"/>
-      <c r="AL20" s="116"/>
-      <c r="AM20" s="116"/>
-      <c r="AN20" s="117"/>
+      <c r="AK20" s="91"/>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="92"/>
+      <c r="AN20" s="93"/>
       <c r="AO20" s="65"/>
       <c r="AP20" s="65"/>
       <c r="AQ20" s="65"/>
@@ -3995,10 +3995,10 @@
       <c r="AX20" s="65"/>
       <c r="AY20" s="65"/>
       <c r="AZ20" s="66"/>
-      <c r="BA20" s="115"/>
-      <c r="BB20" s="116"/>
-      <c r="BC20" s="116"/>
-      <c r="BD20" s="117"/>
+      <c r="BA20" s="91"/>
+      <c r="BB20" s="92"/>
+      <c r="BC20" s="92"/>
+      <c r="BD20" s="93"/>
       <c r="BE20" s="65"/>
       <c r="BF20" s="65"/>
       <c r="BG20" s="65"/>
@@ -4011,10 +4011,10 @@
       <c r="BN20" s="65"/>
       <c r="BO20" s="65"/>
       <c r="BP20" s="66"/>
-      <c r="BQ20" s="115"/>
-      <c r="BR20" s="116"/>
-      <c r="BS20" s="116"/>
-      <c r="BT20" s="117"/>
+      <c r="BQ20" s="91"/>
+      <c r="BR20" s="92"/>
+      <c r="BS20" s="92"/>
+      <c r="BT20" s="93"/>
       <c r="BU20" s="65"/>
       <c r="BV20" s="65"/>
       <c r="BW20" s="65"/>
@@ -4037,10 +4037,10 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="115"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
@@ -4053,14 +4053,14 @@
       <c r="R21" s="53"/>
       <c r="S21" s="53"/>
       <c r="T21" s="54"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="107"/>
-      <c r="AB21" s="108"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="123"/>
+      <c r="X21" s="123"/>
+      <c r="Y21" s="123"/>
+      <c r="Z21" s="123"/>
+      <c r="AA21" s="123"/>
+      <c r="AB21" s="124"/>
       <c r="AC21" s="55"/>
       <c r="AD21" s="53"/>
       <c r="AE21" s="53"/>
@@ -4069,10 +4069,10 @@
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="54"/>
-      <c r="AK21" s="115"/>
-      <c r="AL21" s="116"/>
-      <c r="AM21" s="116"/>
-      <c r="AN21" s="117"/>
+      <c r="AK21" s="91"/>
+      <c r="AL21" s="92"/>
+      <c r="AM21" s="92"/>
+      <c r="AN21" s="93"/>
       <c r="AO21" s="53"/>
       <c r="AP21" s="53"/>
       <c r="AQ21" s="53"/>
@@ -4085,10 +4085,10 @@
       <c r="AX21" s="53"/>
       <c r="AY21" s="53"/>
       <c r="AZ21" s="54"/>
-      <c r="BA21" s="115"/>
-      <c r="BB21" s="116"/>
-      <c r="BC21" s="116"/>
-      <c r="BD21" s="117"/>
+      <c r="BA21" s="91"/>
+      <c r="BB21" s="92"/>
+      <c r="BC21" s="92"/>
+      <c r="BD21" s="93"/>
       <c r="BE21" s="53"/>
       <c r="BF21" s="53"/>
       <c r="BG21" s="53"/>
@@ -4101,10 +4101,10 @@
       <c r="BN21" s="53"/>
       <c r="BO21" s="53"/>
       <c r="BP21" s="54"/>
-      <c r="BQ21" s="115"/>
-      <c r="BR21" s="116"/>
-      <c r="BS21" s="116"/>
-      <c r="BT21" s="117"/>
+      <c r="BQ21" s="91"/>
+      <c r="BR21" s="92"/>
+      <c r="BS21" s="92"/>
+      <c r="BT21" s="93"/>
       <c r="BU21" s="53"/>
       <c r="BV21" s="53"/>
       <c r="BW21" s="53"/>
@@ -4119,7 +4119,7 @@
       <c r="CF21" s="23"/>
     </row>
     <row r="22" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="108" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="57" t="s">
@@ -4128,10 +4128,10 @@
       <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="97"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="99"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="115"/>
       <c r="I22" s="59"/>
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
@@ -4144,14 +4144,14 @@
       <c r="R22" s="59"/>
       <c r="S22" s="59"/>
       <c r="T22" s="60"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="107"/>
-      <c r="AB22" s="108"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="123"/>
+      <c r="W22" s="123"/>
+      <c r="X22" s="123"/>
+      <c r="Y22" s="123"/>
+      <c r="Z22" s="123"/>
+      <c r="AA22" s="123"/>
+      <c r="AB22" s="124"/>
       <c r="AC22" s="58"/>
       <c r="AD22" s="59"/>
       <c r="AE22" s="59"/>
@@ -4160,10 +4160,10 @@
       <c r="AH22" s="59"/>
       <c r="AI22" s="82"/>
       <c r="AJ22" s="83"/>
-      <c r="AK22" s="115"/>
-      <c r="AL22" s="116"/>
-      <c r="AM22" s="116"/>
-      <c r="AN22" s="117"/>
+      <c r="AK22" s="91"/>
+      <c r="AL22" s="92"/>
+      <c r="AM22" s="92"/>
+      <c r="AN22" s="93"/>
       <c r="AO22" s="82"/>
       <c r="AP22" s="82"/>
       <c r="AQ22" s="59"/>
@@ -4176,10 +4176,10 @@
       <c r="AX22" s="82"/>
       <c r="AY22" s="82"/>
       <c r="AZ22" s="83"/>
-      <c r="BA22" s="115"/>
-      <c r="BB22" s="116"/>
-      <c r="BC22" s="116"/>
-      <c r="BD22" s="117"/>
+      <c r="BA22" s="91"/>
+      <c r="BB22" s="92"/>
+      <c r="BC22" s="92"/>
+      <c r="BD22" s="93"/>
       <c r="BE22" s="82"/>
       <c r="BF22" s="82"/>
       <c r="BG22" s="82"/>
@@ -4192,10 +4192,10 @@
       <c r="BN22" s="82"/>
       <c r="BO22" s="82"/>
       <c r="BP22" s="83"/>
-      <c r="BQ22" s="115"/>
-      <c r="BR22" s="116"/>
-      <c r="BS22" s="116"/>
-      <c r="BT22" s="117"/>
+      <c r="BQ22" s="91"/>
+      <c r="BR22" s="92"/>
+      <c r="BS22" s="92"/>
+      <c r="BT22" s="93"/>
       <c r="BU22" s="82"/>
       <c r="BV22" s="82"/>
       <c r="BW22" s="82"/>
@@ -4210,17 +4210,17 @@
       <c r="CF22" s="60"/>
     </row>
     <row r="23" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="100"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="102"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
       <c r="I23" s="64"/>
       <c r="J23" s="64"/>
       <c r="K23" s="62"/>
@@ -4233,14 +4233,14 @@
       <c r="R23" s="62"/>
       <c r="S23" s="62"/>
       <c r="T23" s="63"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
-      <c r="X23" s="110"/>
-      <c r="Y23" s="110"/>
-      <c r="Z23" s="110"/>
-      <c r="AA23" s="110"/>
-      <c r="AB23" s="111"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="126"/>
+      <c r="X23" s="126"/>
+      <c r="Y23" s="126"/>
+      <c r="Z23" s="126"/>
+      <c r="AA23" s="126"/>
+      <c r="AB23" s="127"/>
       <c r="AC23" s="61"/>
       <c r="AD23" s="62"/>
       <c r="AE23" s="62"/>
@@ -4249,10 +4249,10 @@
       <c r="AH23" s="62"/>
       <c r="AI23" s="62"/>
       <c r="AJ23" s="63"/>
-      <c r="AK23" s="118"/>
-      <c r="AL23" s="119"/>
-      <c r="AM23" s="119"/>
-      <c r="AN23" s="120"/>
+      <c r="AK23" s="94"/>
+      <c r="AL23" s="95"/>
+      <c r="AM23" s="95"/>
+      <c r="AN23" s="96"/>
       <c r="AO23" s="62"/>
       <c r="AP23" s="62"/>
       <c r="AQ23" s="62"/>
@@ -4265,10 +4265,10 @@
       <c r="AX23" s="62"/>
       <c r="AY23" s="62"/>
       <c r="AZ23" s="63"/>
-      <c r="BA23" s="118"/>
-      <c r="BB23" s="119"/>
-      <c r="BC23" s="119"/>
-      <c r="BD23" s="120"/>
+      <c r="BA23" s="94"/>
+      <c r="BB23" s="95"/>
+      <c r="BC23" s="95"/>
+      <c r="BD23" s="96"/>
       <c r="BE23" s="62"/>
       <c r="BF23" s="62"/>
       <c r="BG23" s="62"/>
@@ -4281,10 +4281,10 @@
       <c r="BN23" s="62"/>
       <c r="BO23" s="62"/>
       <c r="BP23" s="63"/>
-      <c r="BQ23" s="118"/>
-      <c r="BR23" s="119"/>
-      <c r="BS23" s="119"/>
-      <c r="BT23" s="120"/>
+      <c r="BQ23" s="94"/>
+      <c r="BR23" s="95"/>
+      <c r="BS23" s="95"/>
+      <c r="BT23" s="96"/>
       <c r="BU23" s="62"/>
       <c r="BV23" s="62"/>
       <c r="BW23" s="62"/>
@@ -4300,11 +4300,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="BQ6:BT23"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="BU4:BX4"/>
+    <mergeCell ref="BQ4:BT4"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E6:H23"/>
+    <mergeCell ref="U6:AB23"/>
+    <mergeCell ref="AK6:AN23"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="BA6:BD23"/>
     <mergeCell ref="E2:AR3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -4321,22 +4332,11 @@
     <mergeCell ref="AW4:AZ4"/>
     <mergeCell ref="BY4:CB4"/>
     <mergeCell ref="CC4:CF4"/>
-    <mergeCell ref="BU4:BX4"/>
-    <mergeCell ref="BQ4:BT4"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E6:H23"/>
-    <mergeCell ref="U6:AB23"/>
-    <mergeCell ref="AK6:AN23"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="BA6:BD23"/>
+    <mergeCell ref="BQ6:BT23"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="C6:C23">
@@ -4374,17 +4374,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -4597,6 +4586,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
@@ -4606,19 +4606,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C334E08-C15B-4283-B082-739F59C9FCA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4635,4 +4622,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{366F4357-08F8-4E9F-A3C5-B113CF5B64C1}"/>
+  <xr:revisionPtr revIDLastSave="641" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BECB9F6-FC4B-405E-947A-370FACADBC38}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Tâches</t>
   </si>
@@ -798,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1351,6 +1351,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1404,7 +1408,7 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -1423,7 +1427,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="5076824" y="685800"/>
-          <a:ext cx="8734426" cy="3990975"/>
+          <a:ext cx="9591676" cy="3990975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2048,7 +2052,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AS2" sqref="AS2:CF3"/>
+      <selection pane="bottomRight" activeCell="BP30" sqref="BP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3678,7 +3682,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="113"/>
@@ -3767,7 +3771,9 @@
       <c r="B18" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="D18" s="25"/>
       <c r="E18" s="113"/>
       <c r="F18" s="114"/>
@@ -4184,9 +4190,9 @@
       <c r="BF22" s="82"/>
       <c r="BG22" s="82"/>
       <c r="BH22" s="83"/>
-      <c r="BI22" s="58"/>
-      <c r="BJ22" s="59"/>
-      <c r="BK22" s="59"/>
+      <c r="BI22" s="141"/>
+      <c r="BJ22" s="82"/>
+      <c r="BK22" s="82"/>
       <c r="BL22" s="59"/>
       <c r="BM22" s="59"/>
       <c r="BN22" s="82"/>

--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="641" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BECB9F6-FC4B-405E-947A-370FACADBC38}"/>
+  <xr:revisionPtr revIDLastSave="656" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D71A33-19F0-42F2-BF47-69AF63088B71}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Tâches</t>
   </si>
@@ -1141,40 +1141,16 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1185,12 +1161,172 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1219,142 +1355,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1404,14 +1404,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>771524</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1426,8 +1426,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5076824" y="685800"/>
-          <a:ext cx="9591676" cy="3990975"/>
+          <a:off x="5076824" y="1504950"/>
+          <a:ext cx="10734676" cy="3257550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2052,7 +2052,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BP30" sqref="BP30"/>
+      <selection pane="bottomRight" activeCell="BS37" sqref="BS37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2067,10 +2067,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="137"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="1"/>
@@ -2115,310 +2115,310 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="105"/>
+      <c r="B2" s="139"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="101"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="101"/>
-      <c r="BA2" s="101"/>
-      <c r="BB2" s="101"/>
-      <c r="BC2" s="101"/>
-      <c r="BD2" s="101"/>
-      <c r="BE2" s="101"/>
-      <c r="BF2" s="101"/>
-      <c r="BG2" s="101"/>
-      <c r="BH2" s="101"/>
-      <c r="BI2" s="101"/>
-      <c r="BJ2" s="101"/>
-      <c r="BK2" s="101"/>
-      <c r="BL2" s="101"/>
-      <c r="BM2" s="101"/>
-      <c r="BN2" s="101"/>
-      <c r="BO2" s="101"/>
-      <c r="BP2" s="101"/>
-      <c r="BQ2" s="101"/>
-      <c r="BR2" s="101"/>
-      <c r="BS2" s="101"/>
-      <c r="BT2" s="101"/>
-      <c r="BU2" s="101"/>
-      <c r="BV2" s="101"/>
-      <c r="BW2" s="101"/>
-      <c r="BX2" s="101"/>
-      <c r="BY2" s="101"/>
-      <c r="BZ2" s="101"/>
-      <c r="CA2" s="101"/>
-      <c r="CB2" s="101"/>
-      <c r="CC2" s="101"/>
-      <c r="CD2" s="101"/>
-      <c r="CE2" s="101"/>
-      <c r="CF2" s="101"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
+      <c r="AX2" s="135"/>
+      <c r="AY2" s="135"/>
+      <c r="AZ2" s="135"/>
+      <c r="BA2" s="135"/>
+      <c r="BB2" s="135"/>
+      <c r="BC2" s="135"/>
+      <c r="BD2" s="135"/>
+      <c r="BE2" s="135"/>
+      <c r="BF2" s="135"/>
+      <c r="BG2" s="135"/>
+      <c r="BH2" s="135"/>
+      <c r="BI2" s="135"/>
+      <c r="BJ2" s="135"/>
+      <c r="BK2" s="135"/>
+      <c r="BL2" s="135"/>
+      <c r="BM2" s="135"/>
+      <c r="BN2" s="135"/>
+      <c r="BO2" s="135"/>
+      <c r="BP2" s="135"/>
+      <c r="BQ2" s="135"/>
+      <c r="BR2" s="135"/>
+      <c r="BS2" s="135"/>
+      <c r="BT2" s="135"/>
+      <c r="BU2" s="135"/>
+      <c r="BV2" s="135"/>
+      <c r="BW2" s="135"/>
+      <c r="BX2" s="135"/>
+      <c r="BY2" s="135"/>
+      <c r="BZ2" s="135"/>
+      <c r="CA2" s="135"/>
+      <c r="CB2" s="135"/>
+      <c r="CC2" s="135"/>
+      <c r="CD2" s="135"/>
+      <c r="CE2" s="135"/>
+      <c r="CF2" s="135"/>
     </row>
     <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="102"/>
-      <c r="AL3" s="102"/>
-      <c r="AM3" s="102"/>
-      <c r="AN3" s="102"/>
-      <c r="AO3" s="102"/>
-      <c r="AP3" s="102"/>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="102"/>
-      <c r="AS3" s="102"/>
-      <c r="AT3" s="102"/>
-      <c r="AU3" s="102"/>
-      <c r="AV3" s="102"/>
-      <c r="AW3" s="102"/>
-      <c r="AX3" s="102"/>
-      <c r="AY3" s="102"/>
-      <c r="AZ3" s="102"/>
-      <c r="BA3" s="102"/>
-      <c r="BB3" s="102"/>
-      <c r="BC3" s="102"/>
-      <c r="BD3" s="102"/>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="102"/>
-      <c r="BG3" s="102"/>
-      <c r="BH3" s="102"/>
-      <c r="BI3" s="102"/>
-      <c r="BJ3" s="102"/>
-      <c r="BK3" s="102"/>
-      <c r="BL3" s="102"/>
-      <c r="BM3" s="102"/>
-      <c r="BN3" s="102"/>
-      <c r="BO3" s="102"/>
-      <c r="BP3" s="102"/>
-      <c r="BQ3" s="102"/>
-      <c r="BR3" s="102"/>
-      <c r="BS3" s="102"/>
-      <c r="BT3" s="102"/>
-      <c r="BU3" s="102"/>
-      <c r="BV3" s="102"/>
-      <c r="BW3" s="102"/>
-      <c r="BX3" s="102"/>
-      <c r="BY3" s="102"/>
-      <c r="BZ3" s="102"/>
-      <c r="CA3" s="102"/>
-      <c r="CB3" s="102"/>
-      <c r="CC3" s="102"/>
-      <c r="CD3" s="102"/>
-      <c r="CE3" s="102"/>
-      <c r="CF3" s="102"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136"/>
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136"/>
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="136"/>
+      <c r="BA3" s="136"/>
+      <c r="BB3" s="136"/>
+      <c r="BC3" s="136"/>
+      <c r="BD3" s="136"/>
+      <c r="BE3" s="136"/>
+      <c r="BF3" s="136"/>
+      <c r="BG3" s="136"/>
+      <c r="BH3" s="136"/>
+      <c r="BI3" s="136"/>
+      <c r="BJ3" s="136"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
+      <c r="BR3" s="136"/>
+      <c r="BS3" s="136"/>
+      <c r="BT3" s="136"/>
+      <c r="BU3" s="136"/>
+      <c r="BV3" s="136"/>
+      <c r="BW3" s="136"/>
+      <c r="BX3" s="136"/>
+      <c r="BY3" s="136"/>
+      <c r="BZ3" s="136"/>
+      <c r="CA3" s="136"/>
+      <c r="CB3" s="136"/>
+      <c r="CC3" s="136"/>
+      <c r="CD3" s="136"/>
+      <c r="CE3" s="136"/>
+      <c r="CF3" s="136"/>
     </row>
     <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="107"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99">
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="89">
         <v>45995</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="97" t="s">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="99">
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="89">
         <v>45996</v>
       </c>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="97" t="s">
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="98"/>
-      <c r="W4" s="98"/>
-      <c r="X4" s="98"/>
-      <c r="Y4" s="99">
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="89">
         <v>46002</v>
       </c>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="97" t="s">
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="98"/>
-      <c r="AE4" s="98"/>
-      <c r="AF4" s="98"/>
-      <c r="AG4" s="99">
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="89">
         <v>46003</v>
       </c>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="97" t="s">
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="98"/>
-      <c r="AM4" s="98"/>
-      <c r="AN4" s="98"/>
-      <c r="AO4" s="99">
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="89">
         <v>46009</v>
       </c>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="100"/>
-      <c r="AS4" s="97" t="s">
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AT4" s="98"/>
-      <c r="AU4" s="98"/>
-      <c r="AV4" s="98"/>
-      <c r="AW4" s="99">
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="89">
         <v>46010</v>
       </c>
-      <c r="AX4" s="99"/>
-      <c r="AY4" s="99"/>
-      <c r="AZ4" s="100"/>
-      <c r="BA4" s="97" t="s">
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="BB4" s="98"/>
-      <c r="BC4" s="98"/>
-      <c r="BD4" s="98"/>
-      <c r="BE4" s="99">
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="89">
         <v>46030</v>
       </c>
-      <c r="BF4" s="99"/>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="100"/>
-      <c r="BI4" s="97" t="s">
+      <c r="BF4" s="89"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="BJ4" s="98"/>
-      <c r="BK4" s="98"/>
-      <c r="BL4" s="98"/>
-      <c r="BM4" s="99">
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="92"/>
+      <c r="BM4" s="89">
         <v>46031</v>
       </c>
-      <c r="BN4" s="99"/>
-      <c r="BO4" s="99"/>
-      <c r="BP4" s="100"/>
-      <c r="BQ4" s="97" t="s">
+      <c r="BN4" s="89"/>
+      <c r="BO4" s="89"/>
+      <c r="BP4" s="90"/>
+      <c r="BQ4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="BR4" s="98"/>
-      <c r="BS4" s="98"/>
-      <c r="BT4" s="98"/>
-      <c r="BU4" s="99">
+      <c r="BR4" s="92"/>
+      <c r="BS4" s="92"/>
+      <c r="BT4" s="92"/>
+      <c r="BU4" s="89">
         <v>46037</v>
       </c>
-      <c r="BV4" s="99"/>
-      <c r="BW4" s="99"/>
-      <c r="BX4" s="100"/>
-      <c r="BY4" s="97" t="s">
+      <c r="BV4" s="89"/>
+      <c r="BW4" s="89"/>
+      <c r="BX4" s="90"/>
+      <c r="BY4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="BZ4" s="98"/>
-      <c r="CA4" s="98"/>
-      <c r="CB4" s="98"/>
-      <c r="CC4" s="99">
+      <c r="BZ4" s="92"/>
+      <c r="CA4" s="92"/>
+      <c r="CB4" s="92"/>
+      <c r="CC4" s="89">
         <v>46038</v>
       </c>
-      <c r="CD4" s="99"/>
-      <c r="CE4" s="99"/>
-      <c r="CF4" s="100"/>
+      <c r="CD4" s="89"/>
+      <c r="CE4" s="89"/>
+      <c r="CF4" s="90"/>
     </row>
     <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2667,7 +2667,7 @@
       </c>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="131" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -2677,12 +2677,12 @@
         <v>23</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="112"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="17"/>
@@ -2695,16 +2695,16 @@
       <c r="R6" s="30"/>
       <c r="S6" s="30"/>
       <c r="T6" s="31"/>
-      <c r="U6" s="119" t="s">
+      <c r="U6" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="121"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="106"/>
       <c r="AC6" s="32"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
@@ -2713,12 +2713,12 @@
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="31"/>
-      <c r="AK6" s="88" t="s">
+      <c r="AK6" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="AL6" s="89"/>
-      <c r="AM6" s="89"/>
-      <c r="AN6" s="90"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="115"/>
       <c r="AO6" s="30"/>
       <c r="AP6" s="30"/>
       <c r="AQ6" s="30"/>
@@ -2731,12 +2731,12 @@
       <c r="AX6" s="30"/>
       <c r="AY6" s="30"/>
       <c r="AZ6" s="31"/>
-      <c r="BA6" s="88" t="s">
+      <c r="BA6" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="BB6" s="89"/>
-      <c r="BC6" s="89"/>
-      <c r="BD6" s="90"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="115"/>
       <c r="BE6" s="30"/>
       <c r="BF6" s="30"/>
       <c r="BG6" s="30"/>
@@ -2749,12 +2749,12 @@
       <c r="BN6" s="30"/>
       <c r="BO6" s="30"/>
       <c r="BP6" s="31"/>
-      <c r="BQ6" s="88" t="s">
+      <c r="BQ6" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="BR6" s="89"/>
-      <c r="BS6" s="89"/>
-      <c r="BT6" s="90"/>
+      <c r="BR6" s="114"/>
+      <c r="BS6" s="114"/>
+      <c r="BT6" s="115"/>
       <c r="BU6" s="71"/>
       <c r="BV6" s="71"/>
       <c r="BW6" s="30"/>
@@ -2769,7 +2769,7 @@
       <c r="CF6" s="31"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A7" s="137"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="28" t="s">
         <v>11</v>
       </c>
@@ -2777,10 +2777,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="115"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="100"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
@@ -2793,14 +2793,14 @@
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
       <c r="T7" s="34"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="124"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="109"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="33"/>
       <c r="AE7" s="33"/>
@@ -2809,10 +2809,10 @@
       <c r="AH7" s="33"/>
       <c r="AI7" s="33"/>
       <c r="AJ7" s="34"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="93"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="117"/>
+      <c r="AM7" s="117"/>
+      <c r="AN7" s="118"/>
       <c r="AO7" s="33"/>
       <c r="AP7" s="33"/>
       <c r="AQ7" s="33"/>
@@ -2825,10 +2825,10 @@
       <c r="AX7" s="33"/>
       <c r="AY7" s="33"/>
       <c r="AZ7" s="34"/>
-      <c r="BA7" s="91"/>
-      <c r="BB7" s="92"/>
-      <c r="BC7" s="92"/>
-      <c r="BD7" s="93"/>
+      <c r="BA7" s="116"/>
+      <c r="BB7" s="117"/>
+      <c r="BC7" s="117"/>
+      <c r="BD7" s="118"/>
       <c r="BE7" s="33"/>
       <c r="BF7" s="33"/>
       <c r="BG7" s="33"/>
@@ -2841,10 +2841,10 @@
       <c r="BN7" s="33"/>
       <c r="BO7" s="33"/>
       <c r="BP7" s="34"/>
-      <c r="BQ7" s="91"/>
-      <c r="BR7" s="92"/>
-      <c r="BS7" s="92"/>
-      <c r="BT7" s="93"/>
+      <c r="BQ7" s="116"/>
+      <c r="BR7" s="117"/>
+      <c r="BS7" s="117"/>
+      <c r="BT7" s="118"/>
       <c r="BU7" s="33"/>
       <c r="BV7" s="33"/>
       <c r="BW7" s="33"/>
@@ -2859,7 +2859,7 @@
       <c r="CF7" s="34"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A8" s="137"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
@@ -2867,10 +2867,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="25"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="100"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -2883,14 +2883,14 @@
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
       <c r="T8" s="34"/>
-      <c r="U8" s="122"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="123"/>
-      <c r="X8" s="123"/>
-      <c r="Y8" s="123"/>
-      <c r="Z8" s="123"/>
-      <c r="AA8" s="123"/>
-      <c r="AB8" s="124"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="109"/>
       <c r="AC8" s="35"/>
       <c r="AD8" s="33"/>
       <c r="AE8" s="33"/>
@@ -2899,10 +2899,10 @@
       <c r="AH8" s="33"/>
       <c r="AI8" s="33"/>
       <c r="AJ8" s="34"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="93"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="117"/>
+      <c r="AM8" s="117"/>
+      <c r="AN8" s="118"/>
       <c r="AO8" s="33"/>
       <c r="AP8" s="33"/>
       <c r="AQ8" s="33"/>
@@ -2915,10 +2915,10 @@
       <c r="AX8" s="33"/>
       <c r="AY8" s="33"/>
       <c r="AZ8" s="34"/>
-      <c r="BA8" s="91"/>
-      <c r="BB8" s="92"/>
-      <c r="BC8" s="92"/>
-      <c r="BD8" s="93"/>
+      <c r="BA8" s="116"/>
+      <c r="BB8" s="117"/>
+      <c r="BC8" s="117"/>
+      <c r="BD8" s="118"/>
       <c r="BE8" s="33"/>
       <c r="BF8" s="33"/>
       <c r="BG8" s="33"/>
@@ -2931,10 +2931,10 @@
       <c r="BN8" s="33"/>
       <c r="BO8" s="33"/>
       <c r="BP8" s="34"/>
-      <c r="BQ8" s="91"/>
-      <c r="BR8" s="92"/>
-      <c r="BS8" s="92"/>
-      <c r="BT8" s="93"/>
+      <c r="BQ8" s="116"/>
+      <c r="BR8" s="117"/>
+      <c r="BS8" s="117"/>
+      <c r="BT8" s="118"/>
       <c r="BU8" s="33"/>
       <c r="BV8" s="33"/>
       <c r="BW8" s="33"/>
@@ -2949,7 +2949,7 @@
       <c r="CF8" s="34"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="132" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -2959,10 +2959,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="100"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -2975,14 +2975,14 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="38"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="123"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="123"/>
-      <c r="Y9" s="123"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="124"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="108"/>
+      <c r="Z9" s="108"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="109"/>
       <c r="AC9" s="39"/>
       <c r="AD9" s="37"/>
       <c r="AE9" s="37"/>
@@ -2991,10 +2991,10 @@
       <c r="AH9" s="37"/>
       <c r="AI9" s="37"/>
       <c r="AJ9" s="38"/>
-      <c r="AK9" s="91"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="92"/>
-      <c r="AN9" s="93"/>
+      <c r="AK9" s="116"/>
+      <c r="AL9" s="117"/>
+      <c r="AM9" s="117"/>
+      <c r="AN9" s="118"/>
       <c r="AO9" s="37"/>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -3007,10 +3007,10 @@
       <c r="AX9" s="37"/>
       <c r="AY9" s="37"/>
       <c r="AZ9" s="38"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="92"/>
-      <c r="BC9" s="92"/>
-      <c r="BD9" s="93"/>
+      <c r="BA9" s="116"/>
+      <c r="BB9" s="117"/>
+      <c r="BC9" s="117"/>
+      <c r="BD9" s="118"/>
       <c r="BE9" s="37"/>
       <c r="BF9" s="37"/>
       <c r="BG9" s="37"/>
@@ -3023,10 +3023,10 @@
       <c r="BN9" s="37"/>
       <c r="BO9" s="37"/>
       <c r="BP9" s="38"/>
-      <c r="BQ9" s="91"/>
-      <c r="BR9" s="92"/>
-      <c r="BS9" s="92"/>
-      <c r="BT9" s="93"/>
+      <c r="BQ9" s="116"/>
+      <c r="BR9" s="117"/>
+      <c r="BS9" s="117"/>
+      <c r="BT9" s="118"/>
       <c r="BU9" s="37"/>
       <c r="BV9" s="37"/>
       <c r="BW9" s="37"/>
@@ -3041,7 +3041,7 @@
       <c r="CF9" s="38"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A10" s="139"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="36" t="s">
         <v>15</v>
       </c>
@@ -3049,10 +3049,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="25"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="115"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
@@ -3065,14 +3065,14 @@
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="38"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="123"/>
-      <c r="X10" s="123"/>
-      <c r="Y10" s="123"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="123"/>
-      <c r="AB10" s="124"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="109"/>
       <c r="AC10" s="39"/>
       <c r="AD10" s="37"/>
       <c r="AE10" s="37"/>
@@ -3081,10 +3081,10 @@
       <c r="AH10" s="37"/>
       <c r="AI10" s="37"/>
       <c r="AJ10" s="38"/>
-      <c r="AK10" s="91"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="93"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="117"/>
+      <c r="AM10" s="117"/>
+      <c r="AN10" s="118"/>
       <c r="AO10" s="37"/>
       <c r="AP10" s="37"/>
       <c r="AQ10" s="37"/>
@@ -3097,10 +3097,10 @@
       <c r="AX10" s="37"/>
       <c r="AY10" s="37"/>
       <c r="AZ10" s="38"/>
-      <c r="BA10" s="91"/>
-      <c r="BB10" s="92"/>
-      <c r="BC10" s="92"/>
-      <c r="BD10" s="93"/>
+      <c r="BA10" s="116"/>
+      <c r="BB10" s="117"/>
+      <c r="BC10" s="117"/>
+      <c r="BD10" s="118"/>
       <c r="BE10" s="37"/>
       <c r="BF10" s="37"/>
       <c r="BG10" s="37"/>
@@ -3113,10 +3113,10 @@
       <c r="BN10" s="37"/>
       <c r="BO10" s="37"/>
       <c r="BP10" s="38"/>
-      <c r="BQ10" s="91"/>
-      <c r="BR10" s="92"/>
-      <c r="BS10" s="92"/>
-      <c r="BT10" s="93"/>
+      <c r="BQ10" s="116"/>
+      <c r="BR10" s="117"/>
+      <c r="BS10" s="117"/>
+      <c r="BT10" s="118"/>
       <c r="BU10" s="37"/>
       <c r="BV10" s="37"/>
       <c r="BW10" s="37"/>
@@ -3131,7 +3131,7 @@
       <c r="CF10" s="38"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A11" s="140"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="36" t="s">
         <v>16</v>
       </c>
@@ -3139,10 +3139,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="25"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="115"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
@@ -3155,14 +3155,14 @@
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="123"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="124"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="108"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="109"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="37"/>
       <c r="AE11" s="37"/>
@@ -3171,10 +3171,10 @@
       <c r="AH11" s="37"/>
       <c r="AI11" s="37"/>
       <c r="AJ11" s="38"/>
-      <c r="AK11" s="91"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="93"/>
+      <c r="AK11" s="116"/>
+      <c r="AL11" s="117"/>
+      <c r="AM11" s="117"/>
+      <c r="AN11" s="118"/>
       <c r="AO11" s="37"/>
       <c r="AP11" s="37"/>
       <c r="AQ11" s="37"/>
@@ -3187,10 +3187,10 @@
       <c r="AX11" s="37"/>
       <c r="AY11" s="37"/>
       <c r="AZ11" s="38"/>
-      <c r="BA11" s="91"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="93"/>
+      <c r="BA11" s="116"/>
+      <c r="BB11" s="117"/>
+      <c r="BC11" s="117"/>
+      <c r="BD11" s="118"/>
       <c r="BE11" s="37"/>
       <c r="BF11" s="37"/>
       <c r="BG11" s="37"/>
@@ -3203,10 +3203,10 @@
       <c r="BN11" s="37"/>
       <c r="BO11" s="37"/>
       <c r="BP11" s="38"/>
-      <c r="BQ11" s="91"/>
-      <c r="BR11" s="92"/>
-      <c r="BS11" s="92"/>
-      <c r="BT11" s="93"/>
+      <c r="BQ11" s="116"/>
+      <c r="BR11" s="117"/>
+      <c r="BS11" s="117"/>
+      <c r="BT11" s="118"/>
       <c r="BU11" s="37"/>
       <c r="BV11" s="37"/>
       <c r="BW11" s="37"/>
@@ -3221,7 +3221,7 @@
       <c r="CF11" s="38"/>
     </row>
     <row r="12" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="126" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="74" t="s">
@@ -3231,10 +3231,10 @@
         <v>23</v>
       </c>
       <c r="D12" s="25"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="115"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="100"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -3247,14 +3247,14 @@
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="123"/>
-      <c r="X12" s="123"/>
-      <c r="Y12" s="123"/>
-      <c r="Z12" s="123"/>
-      <c r="AA12" s="123"/>
-      <c r="AB12" s="124"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="108"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="109"/>
       <c r="AC12" s="42"/>
       <c r="AD12" s="20"/>
       <c r="AE12" s="40"/>
@@ -3263,10 +3263,10 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="20"/>
       <c r="AJ12" s="41"/>
-      <c r="AK12" s="91"/>
-      <c r="AL12" s="92"/>
-      <c r="AM12" s="92"/>
-      <c r="AN12" s="93"/>
+      <c r="AK12" s="116"/>
+      <c r="AL12" s="117"/>
+      <c r="AM12" s="117"/>
+      <c r="AN12" s="118"/>
       <c r="AO12" s="20"/>
       <c r="AP12" s="20"/>
       <c r="AQ12" s="20"/>
@@ -3279,10 +3279,10 @@
       <c r="AX12" s="40"/>
       <c r="AY12" s="40"/>
       <c r="AZ12" s="41"/>
-      <c r="BA12" s="91"/>
-      <c r="BB12" s="92"/>
-      <c r="BC12" s="92"/>
-      <c r="BD12" s="93"/>
+      <c r="BA12" s="116"/>
+      <c r="BB12" s="117"/>
+      <c r="BC12" s="117"/>
+      <c r="BD12" s="118"/>
       <c r="BE12" s="40"/>
       <c r="BF12" s="40"/>
       <c r="BG12" s="40"/>
@@ -3295,10 +3295,10 @@
       <c r="BN12" s="40"/>
       <c r="BO12" s="40"/>
       <c r="BP12" s="41"/>
-      <c r="BQ12" s="91"/>
-      <c r="BR12" s="92"/>
-      <c r="BS12" s="92"/>
-      <c r="BT12" s="93"/>
+      <c r="BQ12" s="116"/>
+      <c r="BR12" s="117"/>
+      <c r="BS12" s="117"/>
+      <c r="BT12" s="118"/>
       <c r="BU12" s="40"/>
       <c r="BV12" s="40"/>
       <c r="BW12" s="40"/>
@@ -3313,7 +3313,7 @@
       <c r="CF12" s="41"/>
     </row>
     <row r="13" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="133"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="75" t="s">
         <v>30</v>
       </c>
@@ -3321,10 +3321,10 @@
         <v>23</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="115"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -3337,14 +3337,14 @@
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="123"/>
-      <c r="X13" s="123"/>
-      <c r="Y13" s="123"/>
-      <c r="Z13" s="123"/>
-      <c r="AA13" s="123"/>
-      <c r="AB13" s="124"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="108"/>
+      <c r="Y13" s="108"/>
+      <c r="Z13" s="108"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="109"/>
       <c r="AC13" s="42"/>
       <c r="AD13" s="40"/>
       <c r="AE13" s="20"/>
@@ -3353,10 +3353,10 @@
       <c r="AH13" s="40"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="69"/>
-      <c r="AK13" s="91"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="93"/>
+      <c r="AK13" s="116"/>
+      <c r="AL13" s="117"/>
+      <c r="AM13" s="117"/>
+      <c r="AN13" s="118"/>
       <c r="AO13" s="40"/>
       <c r="AP13" s="40"/>
       <c r="AQ13" s="40"/>
@@ -3369,10 +3369,10 @@
       <c r="AX13" s="40"/>
       <c r="AY13" s="40"/>
       <c r="AZ13" s="41"/>
-      <c r="BA13" s="91"/>
-      <c r="BB13" s="92"/>
-      <c r="BC13" s="92"/>
-      <c r="BD13" s="93"/>
+      <c r="BA13" s="116"/>
+      <c r="BB13" s="117"/>
+      <c r="BC13" s="117"/>
+      <c r="BD13" s="118"/>
       <c r="BE13" s="40"/>
       <c r="BF13" s="40"/>
       <c r="BG13" s="40"/>
@@ -3385,10 +3385,10 @@
       <c r="BN13" s="40"/>
       <c r="BO13" s="40"/>
       <c r="BP13" s="41"/>
-      <c r="BQ13" s="91"/>
-      <c r="BR13" s="92"/>
-      <c r="BS13" s="92"/>
-      <c r="BT13" s="93"/>
+      <c r="BQ13" s="116"/>
+      <c r="BR13" s="117"/>
+      <c r="BS13" s="117"/>
+      <c r="BT13" s="118"/>
       <c r="BU13" s="40"/>
       <c r="BV13" s="40"/>
       <c r="BW13" s="40"/>
@@ -3403,7 +3403,7 @@
       <c r="CF13" s="41"/>
     </row>
     <row r="14" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="134"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="78" t="s">
         <v>31</v>
       </c>
@@ -3411,10 +3411,10 @@
         <v>23</v>
       </c>
       <c r="D14" s="25"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="100"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -3427,14 +3427,14 @@
       <c r="R14" s="40"/>
       <c r="S14" s="40"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="123"/>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="123"/>
-      <c r="AA14" s="123"/>
-      <c r="AB14" s="124"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="108"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="108"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="109"/>
       <c r="AC14" s="42"/>
       <c r="AD14" s="40"/>
       <c r="AE14" s="40"/>
@@ -3443,10 +3443,10 @@
       <c r="AH14" s="40"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="70"/>
-      <c r="AK14" s="91"/>
-      <c r="AL14" s="92"/>
-      <c r="AM14" s="92"/>
-      <c r="AN14" s="93"/>
+      <c r="AK14" s="116"/>
+      <c r="AL14" s="117"/>
+      <c r="AM14" s="117"/>
+      <c r="AN14" s="118"/>
       <c r="AO14" s="40"/>
       <c r="AP14" s="40"/>
       <c r="AQ14" s="40"/>
@@ -3459,10 +3459,10 @@
       <c r="AX14" s="40"/>
       <c r="AY14" s="40"/>
       <c r="AZ14" s="41"/>
-      <c r="BA14" s="91"/>
-      <c r="BB14" s="92"/>
-      <c r="BC14" s="92"/>
-      <c r="BD14" s="93"/>
+      <c r="BA14" s="116"/>
+      <c r="BB14" s="117"/>
+      <c r="BC14" s="117"/>
+      <c r="BD14" s="118"/>
       <c r="BE14" s="40"/>
       <c r="BF14" s="40"/>
       <c r="BG14" s="40"/>
@@ -3475,10 +3475,10 @@
       <c r="BN14" s="40"/>
       <c r="BO14" s="40"/>
       <c r="BP14" s="41"/>
-      <c r="BQ14" s="91"/>
-      <c r="BR14" s="92"/>
-      <c r="BS14" s="92"/>
-      <c r="BT14" s="93"/>
+      <c r="BQ14" s="116"/>
+      <c r="BR14" s="117"/>
+      <c r="BS14" s="117"/>
+      <c r="BT14" s="118"/>
       <c r="BU14" s="40"/>
       <c r="BV14" s="40"/>
       <c r="BW14" s="40"/>
@@ -3493,7 +3493,7 @@
       <c r="CF14" s="41"/>
     </row>
     <row r="15" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="122" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="73" t="s">
@@ -3503,10 +3503,10 @@
         <v>23</v>
       </c>
       <c r="D15" s="25"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
@@ -3519,14 +3519,14 @@
       <c r="R15" s="43"/>
       <c r="S15" s="43"/>
       <c r="T15" s="44"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="123"/>
-      <c r="W15" s="123"/>
-      <c r="X15" s="123"/>
-      <c r="Y15" s="123"/>
-      <c r="Z15" s="123"/>
-      <c r="AA15" s="123"/>
-      <c r="AB15" s="124"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="108"/>
+      <c r="Y15" s="108"/>
+      <c r="Z15" s="108"/>
+      <c r="AA15" s="108"/>
+      <c r="AB15" s="109"/>
       <c r="AC15" s="45"/>
       <c r="AD15" s="43"/>
       <c r="AE15" s="43"/>
@@ -3535,10 +3535,10 @@
       <c r="AH15" s="43"/>
       <c r="AI15" s="43"/>
       <c r="AJ15" s="44"/>
-      <c r="AK15" s="91"/>
-      <c r="AL15" s="92"/>
-      <c r="AM15" s="92"/>
-      <c r="AN15" s="93"/>
+      <c r="AK15" s="116"/>
+      <c r="AL15" s="117"/>
+      <c r="AM15" s="117"/>
+      <c r="AN15" s="118"/>
       <c r="AO15" s="43"/>
       <c r="AP15" s="43"/>
       <c r="AQ15" s="43"/>
@@ -3551,10 +3551,10 @@
       <c r="AX15" s="20"/>
       <c r="AY15" s="20"/>
       <c r="AZ15" s="44"/>
-      <c r="BA15" s="91"/>
-      <c r="BB15" s="92"/>
-      <c r="BC15" s="92"/>
-      <c r="BD15" s="93"/>
+      <c r="BA15" s="116"/>
+      <c r="BB15" s="117"/>
+      <c r="BC15" s="117"/>
+      <c r="BD15" s="118"/>
       <c r="BE15" s="43"/>
       <c r="BF15" s="43"/>
       <c r="BG15" s="43"/>
@@ -3567,10 +3567,10 @@
       <c r="BN15" s="43"/>
       <c r="BO15" s="43"/>
       <c r="BP15" s="44"/>
-      <c r="BQ15" s="91"/>
-      <c r="BR15" s="92"/>
-      <c r="BS15" s="92"/>
-      <c r="BT15" s="93"/>
+      <c r="BQ15" s="116"/>
+      <c r="BR15" s="117"/>
+      <c r="BS15" s="117"/>
+      <c r="BT15" s="118"/>
       <c r="BU15" s="43"/>
       <c r="BV15" s="43"/>
       <c r="BW15" s="43"/>
@@ -3585,7 +3585,7 @@
       <c r="CF15" s="44"/>
     </row>
     <row r="16" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="129"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="80" t="s">
         <v>31</v>
       </c>
@@ -3593,10 +3593,10 @@
         <v>23</v>
       </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="115"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
@@ -3609,14 +3609,14 @@
       <c r="R16" s="43"/>
       <c r="S16" s="43"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="123"/>
-      <c r="W16" s="123"/>
-      <c r="X16" s="123"/>
-      <c r="Y16" s="123"/>
-      <c r="Z16" s="123"/>
-      <c r="AA16" s="123"/>
-      <c r="AB16" s="124"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="108"/>
+      <c r="W16" s="108"/>
+      <c r="X16" s="108"/>
+      <c r="Y16" s="108"/>
+      <c r="Z16" s="108"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="109"/>
       <c r="AC16" s="45"/>
       <c r="AD16" s="43"/>
       <c r="AE16" s="43"/>
@@ -3625,10 +3625,10 @@
       <c r="AH16" s="43"/>
       <c r="AI16" s="43"/>
       <c r="AJ16" s="44"/>
-      <c r="AK16" s="91"/>
-      <c r="AL16" s="92"/>
-      <c r="AM16" s="92"/>
-      <c r="AN16" s="93"/>
+      <c r="AK16" s="116"/>
+      <c r="AL16" s="117"/>
+      <c r="AM16" s="117"/>
+      <c r="AN16" s="118"/>
       <c r="AO16" s="43"/>
       <c r="AP16" s="43"/>
       <c r="AQ16" s="43"/>
@@ -3641,10 +3641,10 @@
       <c r="AX16" s="43"/>
       <c r="AY16" s="43"/>
       <c r="AZ16" s="70"/>
-      <c r="BA16" s="91"/>
-      <c r="BB16" s="92"/>
-      <c r="BC16" s="92"/>
-      <c r="BD16" s="93"/>
+      <c r="BA16" s="116"/>
+      <c r="BB16" s="117"/>
+      <c r="BC16" s="117"/>
+      <c r="BD16" s="118"/>
       <c r="BE16" s="43"/>
       <c r="BF16" s="43"/>
       <c r="BG16" s="43"/>
@@ -3657,10 +3657,10 @@
       <c r="BN16" s="43"/>
       <c r="BO16" s="43"/>
       <c r="BP16" s="44"/>
-      <c r="BQ16" s="91"/>
-      <c r="BR16" s="92"/>
-      <c r="BS16" s="92"/>
-      <c r="BT16" s="93"/>
+      <c r="BQ16" s="116"/>
+      <c r="BR16" s="117"/>
+      <c r="BS16" s="117"/>
+      <c r="BT16" s="118"/>
       <c r="BU16" s="43"/>
       <c r="BV16" s="43"/>
       <c r="BW16" s="43"/>
@@ -3675,7 +3675,7 @@
       <c r="CF16" s="44"/>
     </row>
     <row r="17" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="124" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="72" t="s">
@@ -3685,10 +3685,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="25"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="115"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
@@ -3701,14 +3701,14 @@
       <c r="R17" s="46"/>
       <c r="S17" s="46"/>
       <c r="T17" s="47"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="123"/>
-      <c r="W17" s="123"/>
-      <c r="X17" s="123"/>
-      <c r="Y17" s="123"/>
-      <c r="Z17" s="123"/>
-      <c r="AA17" s="123"/>
-      <c r="AB17" s="124"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="108"/>
+      <c r="X17" s="108"/>
+      <c r="Y17" s="108"/>
+      <c r="Z17" s="108"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="109"/>
       <c r="AC17" s="48"/>
       <c r="AD17" s="46"/>
       <c r="AE17" s="46"/>
@@ -3717,10 +3717,10 @@
       <c r="AH17" s="46"/>
       <c r="AI17" s="46"/>
       <c r="AJ17" s="47"/>
-      <c r="AK17" s="91"/>
-      <c r="AL17" s="92"/>
-      <c r="AM17" s="92"/>
-      <c r="AN17" s="93"/>
+      <c r="AK17" s="116"/>
+      <c r="AL17" s="117"/>
+      <c r="AM17" s="117"/>
+      <c r="AN17" s="118"/>
       <c r="AO17" s="46"/>
       <c r="AP17" s="46"/>
       <c r="AQ17" s="46"/>
@@ -3733,10 +3733,10 @@
       <c r="AX17" s="46"/>
       <c r="AY17" s="46"/>
       <c r="AZ17" s="47"/>
-      <c r="BA17" s="91"/>
-      <c r="BB17" s="92"/>
-      <c r="BC17" s="92"/>
-      <c r="BD17" s="93"/>
+      <c r="BA17" s="116"/>
+      <c r="BB17" s="117"/>
+      <c r="BC17" s="117"/>
+      <c r="BD17" s="118"/>
       <c r="BE17" s="20"/>
       <c r="BF17" s="20"/>
       <c r="BG17" s="20"/>
@@ -3749,10 +3749,10 @@
       <c r="BN17" s="20"/>
       <c r="BO17" s="20"/>
       <c r="BP17" s="47"/>
-      <c r="BQ17" s="91"/>
-      <c r="BR17" s="92"/>
-      <c r="BS17" s="92"/>
-      <c r="BT17" s="93"/>
+      <c r="BQ17" s="116"/>
+      <c r="BR17" s="117"/>
+      <c r="BS17" s="117"/>
+      <c r="BT17" s="118"/>
       <c r="BU17" s="46"/>
       <c r="BV17" s="46"/>
       <c r="BW17" s="46"/>
@@ -3767,7 +3767,7 @@
       <c r="CF17" s="47"/>
     </row>
     <row r="18" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="131"/>
+      <c r="A18" s="125"/>
       <c r="B18" s="79" t="s">
         <v>31</v>
       </c>
@@ -3775,10 +3775,10 @@
         <v>23</v>
       </c>
       <c r="D18" s="25"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="115"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
@@ -3791,14 +3791,14 @@
       <c r="R18" s="46"/>
       <c r="S18" s="46"/>
       <c r="T18" s="47"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="123"/>
-      <c r="W18" s="123"/>
-      <c r="X18" s="123"/>
-      <c r="Y18" s="123"/>
-      <c r="Z18" s="123"/>
-      <c r="AA18" s="123"/>
-      <c r="AB18" s="124"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="108"/>
+      <c r="X18" s="108"/>
+      <c r="Y18" s="108"/>
+      <c r="Z18" s="108"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="109"/>
       <c r="AC18" s="48"/>
       <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
@@ -3807,10 +3807,10 @@
       <c r="AH18" s="46"/>
       <c r="AI18" s="46"/>
       <c r="AJ18" s="47"/>
-      <c r="AK18" s="91"/>
-      <c r="AL18" s="92"/>
-      <c r="AM18" s="92"/>
-      <c r="AN18" s="93"/>
+      <c r="AK18" s="116"/>
+      <c r="AL18" s="117"/>
+      <c r="AM18" s="117"/>
+      <c r="AN18" s="118"/>
       <c r="AO18" s="46"/>
       <c r="AP18" s="46"/>
       <c r="AQ18" s="46"/>
@@ -3823,10 +3823,10 @@
       <c r="AX18" s="46"/>
       <c r="AY18" s="46"/>
       <c r="AZ18" s="47"/>
-      <c r="BA18" s="91"/>
-      <c r="BB18" s="92"/>
-      <c r="BC18" s="92"/>
-      <c r="BD18" s="93"/>
+      <c r="BA18" s="116"/>
+      <c r="BB18" s="117"/>
+      <c r="BC18" s="117"/>
+      <c r="BD18" s="118"/>
       <c r="BE18" s="46"/>
       <c r="BF18" s="46"/>
       <c r="BG18" s="46"/>
@@ -3839,10 +3839,10 @@
       <c r="BN18" s="46"/>
       <c r="BO18" s="46"/>
       <c r="BP18" s="21"/>
-      <c r="BQ18" s="91"/>
-      <c r="BR18" s="92"/>
-      <c r="BS18" s="92"/>
-      <c r="BT18" s="93"/>
+      <c r="BQ18" s="116"/>
+      <c r="BR18" s="117"/>
+      <c r="BS18" s="117"/>
+      <c r="BT18" s="118"/>
       <c r="BU18" s="46"/>
       <c r="BV18" s="46"/>
       <c r="BW18" s="46"/>
@@ -3857,18 +3857,20 @@
       <c r="CF18" s="47"/>
     </row>
     <row r="19" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="129" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="D19" s="25"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="115"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="100"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
@@ -3881,14 +3883,14 @@
       <c r="R19" s="49"/>
       <c r="S19" s="49"/>
       <c r="T19" s="50"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="123"/>
-      <c r="W19" s="123"/>
-      <c r="X19" s="123"/>
-      <c r="Y19" s="123"/>
-      <c r="Z19" s="123"/>
-      <c r="AA19" s="123"/>
-      <c r="AB19" s="124"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="108"/>
+      <c r="X19" s="108"/>
+      <c r="Y19" s="108"/>
+      <c r="Z19" s="108"/>
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="109"/>
       <c r="AC19" s="51"/>
       <c r="AD19" s="49"/>
       <c r="AE19" s="49"/>
@@ -3897,10 +3899,10 @@
       <c r="AH19" s="49"/>
       <c r="AI19" s="49"/>
       <c r="AJ19" s="50"/>
-      <c r="AK19" s="91"/>
-      <c r="AL19" s="92"/>
-      <c r="AM19" s="92"/>
-      <c r="AN19" s="93"/>
+      <c r="AK19" s="116"/>
+      <c r="AL19" s="117"/>
+      <c r="AM19" s="117"/>
+      <c r="AN19" s="118"/>
       <c r="AO19" s="49"/>
       <c r="AP19" s="49"/>
       <c r="AQ19" s="49"/>
@@ -3913,10 +3915,10 @@
       <c r="AX19" s="49"/>
       <c r="AY19" s="49"/>
       <c r="AZ19" s="50"/>
-      <c r="BA19" s="91"/>
-      <c r="BB19" s="92"/>
-      <c r="BC19" s="92"/>
-      <c r="BD19" s="93"/>
+      <c r="BA19" s="116"/>
+      <c r="BB19" s="117"/>
+      <c r="BC19" s="117"/>
+      <c r="BD19" s="118"/>
       <c r="BE19" s="49"/>
       <c r="BF19" s="49"/>
       <c r="BG19" s="49"/>
@@ -3929,10 +3931,10 @@
       <c r="BN19" s="49"/>
       <c r="BO19" s="49"/>
       <c r="BP19" s="50"/>
-      <c r="BQ19" s="91"/>
-      <c r="BR19" s="92"/>
-      <c r="BS19" s="92"/>
-      <c r="BT19" s="93"/>
+      <c r="BQ19" s="116"/>
+      <c r="BR19" s="117"/>
+      <c r="BS19" s="117"/>
+      <c r="BT19" s="118"/>
       <c r="BU19" s="20"/>
       <c r="BV19" s="20"/>
       <c r="BW19" s="20"/>
@@ -3947,16 +3949,16 @@
       <c r="CF19" s="50"/>
     </row>
     <row r="20" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="136"/>
+      <c r="A20" s="130"/>
       <c r="B20" s="81" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="115"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="100"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
@@ -3969,14 +3971,14 @@
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
       <c r="T20" s="66"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="123"/>
-      <c r="X20" s="123"/>
-      <c r="Y20" s="123"/>
-      <c r="Z20" s="123"/>
-      <c r="AA20" s="123"/>
-      <c r="AB20" s="124"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="109"/>
       <c r="AC20" s="67"/>
       <c r="AD20" s="65"/>
       <c r="AE20" s="65"/>
@@ -3985,10 +3987,10 @@
       <c r="AH20" s="65"/>
       <c r="AI20" s="65"/>
       <c r="AJ20" s="66"/>
-      <c r="AK20" s="91"/>
-      <c r="AL20" s="92"/>
-      <c r="AM20" s="92"/>
-      <c r="AN20" s="93"/>
+      <c r="AK20" s="116"/>
+      <c r="AL20" s="117"/>
+      <c r="AM20" s="117"/>
+      <c r="AN20" s="118"/>
       <c r="AO20" s="65"/>
       <c r="AP20" s="65"/>
       <c r="AQ20" s="65"/>
@@ -4001,10 +4003,10 @@
       <c r="AX20" s="65"/>
       <c r="AY20" s="65"/>
       <c r="AZ20" s="66"/>
-      <c r="BA20" s="91"/>
-      <c r="BB20" s="92"/>
-      <c r="BC20" s="92"/>
-      <c r="BD20" s="93"/>
+      <c r="BA20" s="116"/>
+      <c r="BB20" s="117"/>
+      <c r="BC20" s="117"/>
+      <c r="BD20" s="118"/>
       <c r="BE20" s="65"/>
       <c r="BF20" s="65"/>
       <c r="BG20" s="65"/>
@@ -4017,10 +4019,10 @@
       <c r="BN20" s="65"/>
       <c r="BO20" s="65"/>
       <c r="BP20" s="66"/>
-      <c r="BQ20" s="91"/>
-      <c r="BR20" s="92"/>
-      <c r="BS20" s="92"/>
-      <c r="BT20" s="93"/>
+      <c r="BQ20" s="116"/>
+      <c r="BR20" s="117"/>
+      <c r="BS20" s="117"/>
+      <c r="BT20" s="118"/>
       <c r="BU20" s="65"/>
       <c r="BV20" s="65"/>
       <c r="BW20" s="65"/>
@@ -4043,10 +4045,10 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="115"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="100"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
@@ -4059,14 +4061,14 @@
       <c r="R21" s="53"/>
       <c r="S21" s="53"/>
       <c r="T21" s="54"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="123"/>
-      <c r="Y21" s="123"/>
-      <c r="Z21" s="123"/>
-      <c r="AA21" s="123"/>
-      <c r="AB21" s="124"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="108"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="108"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="109"/>
       <c r="AC21" s="55"/>
       <c r="AD21" s="53"/>
       <c r="AE21" s="53"/>
@@ -4075,10 +4077,10 @@
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="54"/>
-      <c r="AK21" s="91"/>
-      <c r="AL21" s="92"/>
-      <c r="AM21" s="92"/>
-      <c r="AN21" s="93"/>
+      <c r="AK21" s="116"/>
+      <c r="AL21" s="117"/>
+      <c r="AM21" s="117"/>
+      <c r="AN21" s="118"/>
       <c r="AO21" s="53"/>
       <c r="AP21" s="53"/>
       <c r="AQ21" s="53"/>
@@ -4091,10 +4093,10 @@
       <c r="AX21" s="53"/>
       <c r="AY21" s="53"/>
       <c r="AZ21" s="54"/>
-      <c r="BA21" s="91"/>
-      <c r="BB21" s="92"/>
-      <c r="BC21" s="92"/>
-      <c r="BD21" s="93"/>
+      <c r="BA21" s="116"/>
+      <c r="BB21" s="117"/>
+      <c r="BC21" s="117"/>
+      <c r="BD21" s="118"/>
       <c r="BE21" s="53"/>
       <c r="BF21" s="53"/>
       <c r="BG21" s="53"/>
@@ -4107,10 +4109,10 @@
       <c r="BN21" s="53"/>
       <c r="BO21" s="53"/>
       <c r="BP21" s="54"/>
-      <c r="BQ21" s="91"/>
-      <c r="BR21" s="92"/>
-      <c r="BS21" s="92"/>
-      <c r="BT21" s="93"/>
+      <c r="BQ21" s="116"/>
+      <c r="BR21" s="117"/>
+      <c r="BS21" s="117"/>
+      <c r="BT21" s="118"/>
       <c r="BU21" s="53"/>
       <c r="BV21" s="53"/>
       <c r="BW21" s="53"/>
@@ -4125,7 +4127,7 @@
       <c r="CF21" s="23"/>
     </row>
     <row r="22" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="93" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="57" t="s">
@@ -4134,10 +4136,10 @@
       <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="115"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="100"/>
       <c r="I22" s="59"/>
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
@@ -4150,14 +4152,14 @@
       <c r="R22" s="59"/>
       <c r="S22" s="59"/>
       <c r="T22" s="60"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="123"/>
-      <c r="W22" s="123"/>
-      <c r="X22" s="123"/>
-      <c r="Y22" s="123"/>
-      <c r="Z22" s="123"/>
-      <c r="AA22" s="123"/>
-      <c r="AB22" s="124"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="108"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="108"/>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="109"/>
       <c r="AC22" s="58"/>
       <c r="AD22" s="59"/>
       <c r="AE22" s="59"/>
@@ -4166,10 +4168,10 @@
       <c r="AH22" s="59"/>
       <c r="AI22" s="82"/>
       <c r="AJ22" s="83"/>
-      <c r="AK22" s="91"/>
-      <c r="AL22" s="92"/>
-      <c r="AM22" s="92"/>
-      <c r="AN22" s="93"/>
+      <c r="AK22" s="116"/>
+      <c r="AL22" s="117"/>
+      <c r="AM22" s="117"/>
+      <c r="AN22" s="118"/>
       <c r="AO22" s="82"/>
       <c r="AP22" s="82"/>
       <c r="AQ22" s="59"/>
@@ -4182,15 +4184,15 @@
       <c r="AX22" s="82"/>
       <c r="AY22" s="82"/>
       <c r="AZ22" s="83"/>
-      <c r="BA22" s="91"/>
-      <c r="BB22" s="92"/>
-      <c r="BC22" s="92"/>
-      <c r="BD22" s="93"/>
+      <c r="BA22" s="116"/>
+      <c r="BB22" s="117"/>
+      <c r="BC22" s="117"/>
+      <c r="BD22" s="118"/>
       <c r="BE22" s="82"/>
       <c r="BF22" s="82"/>
       <c r="BG22" s="82"/>
       <c r="BH22" s="83"/>
-      <c r="BI22" s="141"/>
+      <c r="BI22" s="88"/>
       <c r="BJ22" s="82"/>
       <c r="BK22" s="82"/>
       <c r="BL22" s="59"/>
@@ -4198,10 +4200,10 @@
       <c r="BN22" s="82"/>
       <c r="BO22" s="82"/>
       <c r="BP22" s="83"/>
-      <c r="BQ22" s="91"/>
-      <c r="BR22" s="92"/>
-      <c r="BS22" s="92"/>
-      <c r="BT22" s="93"/>
+      <c r="BQ22" s="116"/>
+      <c r="BR22" s="117"/>
+      <c r="BS22" s="117"/>
+      <c r="BT22" s="118"/>
       <c r="BU22" s="82"/>
       <c r="BV22" s="82"/>
       <c r="BW22" s="82"/>
@@ -4215,18 +4217,18 @@
       <c r="CE22" s="59"/>
       <c r="CF22" s="60"/>
     </row>
-    <row r="23" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
+    <row r="23" spans="1:84" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="94"/>
       <c r="B23" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="64"/>
       <c r="J23" s="64"/>
       <c r="K23" s="62"/>
@@ -4239,14 +4241,14 @@
       <c r="R23" s="62"/>
       <c r="S23" s="62"/>
       <c r="T23" s="63"/>
-      <c r="U23" s="125"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
-      <c r="X23" s="126"/>
-      <c r="Y23" s="126"/>
-      <c r="Z23" s="126"/>
-      <c r="AA23" s="126"/>
-      <c r="AB23" s="127"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="111"/>
+      <c r="AA23" s="111"/>
+      <c r="AB23" s="112"/>
       <c r="AC23" s="61"/>
       <c r="AD23" s="62"/>
       <c r="AE23" s="62"/>
@@ -4255,10 +4257,10 @@
       <c r="AH23" s="62"/>
       <c r="AI23" s="62"/>
       <c r="AJ23" s="63"/>
-      <c r="AK23" s="94"/>
-      <c r="AL23" s="95"/>
-      <c r="AM23" s="95"/>
-      <c r="AN23" s="96"/>
+      <c r="AK23" s="119"/>
+      <c r="AL23" s="120"/>
+      <c r="AM23" s="120"/>
+      <c r="AN23" s="121"/>
       <c r="AO23" s="62"/>
       <c r="AP23" s="62"/>
       <c r="AQ23" s="62"/>
@@ -4271,10 +4273,10 @@
       <c r="AX23" s="62"/>
       <c r="AY23" s="62"/>
       <c r="AZ23" s="63"/>
-      <c r="BA23" s="94"/>
-      <c r="BB23" s="95"/>
-      <c r="BC23" s="95"/>
-      <c r="BD23" s="96"/>
+      <c r="BA23" s="119"/>
+      <c r="BB23" s="120"/>
+      <c r="BC23" s="120"/>
+      <c r="BD23" s="121"/>
       <c r="BE23" s="62"/>
       <c r="BF23" s="62"/>
       <c r="BG23" s="62"/>
@@ -4287,10 +4289,10 @@
       <c r="BN23" s="62"/>
       <c r="BO23" s="62"/>
       <c r="BP23" s="63"/>
-      <c r="BQ23" s="94"/>
-      <c r="BR23" s="95"/>
-      <c r="BS23" s="95"/>
-      <c r="BT23" s="96"/>
+      <c r="BQ23" s="119"/>
+      <c r="BR23" s="120"/>
+      <c r="BS23" s="120"/>
+      <c r="BT23" s="121"/>
       <c r="BU23" s="62"/>
       <c r="BV23" s="62"/>
       <c r="BW23" s="62"/>
@@ -4306,6 +4308,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="BQ6:BT23"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="E2:AR3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="AS2:CF3"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="BY4:CB4"/>
+    <mergeCell ref="CC4:CF4"/>
     <mergeCell ref="BU4:BX4"/>
     <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="A22:A23"/>
@@ -4322,27 +4345,6 @@
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="Y4:AB4"/>
     <mergeCell ref="BA6:BD23"/>
-    <mergeCell ref="E2:AR3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="AS2:CF3"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="AS4:AV4"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="BY4:CB4"/>
-    <mergeCell ref="CC4:CF4"/>
-    <mergeCell ref="BQ6:BT23"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="C6:C23">
@@ -4380,6 +4382,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -4592,17 +4605,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
@@ -4612,6 +4614,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C334E08-C15B-4283-B082-739F59C9FCA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4628,17 +4643,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="656" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D71A33-19F0-42F2-BF47-69AF63088B71}"/>
+  <xr:revisionPtr revIDLastSave="657" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE4BA11E-9A13-46C1-A3DB-5AB0E59D0E07}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1145,6 +1145,50 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1153,12 +1197,32 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1241,42 +1305,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1327,34 +1355,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2052,7 +2052,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BS37" sqref="BS37"/>
+      <selection pane="bottomRight" activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2067,10 +2067,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="137"/>
+      <c r="B1" s="104"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="1"/>
@@ -2115,310 +2115,310 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="139"/>
+      <c r="B2" s="106"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="135"/>
-      <c r="AY2" s="135"/>
-      <c r="AZ2" s="135"/>
-      <c r="BA2" s="135"/>
-      <c r="BB2" s="135"/>
-      <c r="BC2" s="135"/>
-      <c r="BD2" s="135"/>
-      <c r="BE2" s="135"/>
-      <c r="BF2" s="135"/>
-      <c r="BG2" s="135"/>
-      <c r="BH2" s="135"/>
-      <c r="BI2" s="135"/>
-      <c r="BJ2" s="135"/>
-      <c r="BK2" s="135"/>
-      <c r="BL2" s="135"/>
-      <c r="BM2" s="135"/>
-      <c r="BN2" s="135"/>
-      <c r="BO2" s="135"/>
-      <c r="BP2" s="135"/>
-      <c r="BQ2" s="135"/>
-      <c r="BR2" s="135"/>
-      <c r="BS2" s="135"/>
-      <c r="BT2" s="135"/>
-      <c r="BU2" s="135"/>
-      <c r="BV2" s="135"/>
-      <c r="BW2" s="135"/>
-      <c r="BX2" s="135"/>
-      <c r="BY2" s="135"/>
-      <c r="BZ2" s="135"/>
-      <c r="CA2" s="135"/>
-      <c r="CB2" s="135"/>
-      <c r="CC2" s="135"/>
-      <c r="CD2" s="135"/>
-      <c r="CE2" s="135"/>
-      <c r="CF2" s="135"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="102"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="102"/>
+      <c r="AP2" s="102"/>
+      <c r="AQ2" s="102"/>
+      <c r="AR2" s="102"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="102"/>
+      <c r="AY2" s="102"/>
+      <c r="AZ2" s="102"/>
+      <c r="BA2" s="102"/>
+      <c r="BB2" s="102"/>
+      <c r="BC2" s="102"/>
+      <c r="BD2" s="102"/>
+      <c r="BE2" s="102"/>
+      <c r="BF2" s="102"/>
+      <c r="BG2" s="102"/>
+      <c r="BH2" s="102"/>
+      <c r="BI2" s="102"/>
+      <c r="BJ2" s="102"/>
+      <c r="BK2" s="102"/>
+      <c r="BL2" s="102"/>
+      <c r="BM2" s="102"/>
+      <c r="BN2" s="102"/>
+      <c r="BO2" s="102"/>
+      <c r="BP2" s="102"/>
+      <c r="BQ2" s="102"/>
+      <c r="BR2" s="102"/>
+      <c r="BS2" s="102"/>
+      <c r="BT2" s="102"/>
+      <c r="BU2" s="102"/>
+      <c r="BV2" s="102"/>
+      <c r="BW2" s="102"/>
+      <c r="BX2" s="102"/>
+      <c r="BY2" s="102"/>
+      <c r="BZ2" s="102"/>
+      <c r="CA2" s="102"/>
+      <c r="CB2" s="102"/>
+      <c r="CC2" s="102"/>
+      <c r="CD2" s="102"/>
+      <c r="CE2" s="102"/>
+      <c r="CF2" s="102"/>
     </row>
     <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136"/>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136"/>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
-      <c r="AX3" s="136"/>
-      <c r="AY3" s="136"/>
-      <c r="AZ3" s="136"/>
-      <c r="BA3" s="136"/>
-      <c r="BB3" s="136"/>
-      <c r="BC3" s="136"/>
-      <c r="BD3" s="136"/>
-      <c r="BE3" s="136"/>
-      <c r="BF3" s="136"/>
-      <c r="BG3" s="136"/>
-      <c r="BH3" s="136"/>
-      <c r="BI3" s="136"/>
-      <c r="BJ3" s="136"/>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="136"/>
-      <c r="BP3" s="136"/>
-      <c r="BQ3" s="136"/>
-      <c r="BR3" s="136"/>
-      <c r="BS3" s="136"/>
-      <c r="BT3" s="136"/>
-      <c r="BU3" s="136"/>
-      <c r="BV3" s="136"/>
-      <c r="BW3" s="136"/>
-      <c r="BX3" s="136"/>
-      <c r="BY3" s="136"/>
-      <c r="BZ3" s="136"/>
-      <c r="CA3" s="136"/>
-      <c r="CB3" s="136"/>
-      <c r="CC3" s="136"/>
-      <c r="CD3" s="136"/>
-      <c r="CE3" s="136"/>
-      <c r="CF3" s="136"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="103"/>
+      <c r="AO3" s="103"/>
+      <c r="AP3" s="103"/>
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="103"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="103"/>
+      <c r="BC3" s="103"/>
+      <c r="BD3" s="103"/>
+      <c r="BE3" s="103"/>
+      <c r="BF3" s="103"/>
+      <c r="BG3" s="103"/>
+      <c r="BH3" s="103"/>
+      <c r="BI3" s="103"/>
+      <c r="BJ3" s="103"/>
+      <c r="BK3" s="103"/>
+      <c r="BL3" s="103"/>
+      <c r="BM3" s="103"/>
+      <c r="BN3" s="103"/>
+      <c r="BO3" s="103"/>
+      <c r="BP3" s="103"/>
+      <c r="BQ3" s="103"/>
+      <c r="BR3" s="103"/>
+      <c r="BS3" s="103"/>
+      <c r="BT3" s="103"/>
+      <c r="BU3" s="103"/>
+      <c r="BV3" s="103"/>
+      <c r="BW3" s="103"/>
+      <c r="BX3" s="103"/>
+      <c r="BY3" s="103"/>
+      <c r="BZ3" s="103"/>
+      <c r="CA3" s="103"/>
+      <c r="CB3" s="103"/>
+      <c r="CC3" s="103"/>
+      <c r="CD3" s="103"/>
+      <c r="CE3" s="103"/>
+      <c r="CF3" s="103"/>
     </row>
     <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="141"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="89">
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="100">
         <v>45995</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91" t="s">
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="89">
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="100">
         <v>45996</v>
       </c>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="91" t="s">
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="89">
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="100">
         <v>46002</v>
       </c>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91" t="s">
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="89">
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="100">
         <v>46003</v>
       </c>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="91" t="s">
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="89">
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="100">
         <v>46009</v>
       </c>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="91" t="s">
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="101"/>
+      <c r="AS4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="89">
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="100">
         <v>46010</v>
       </c>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="89"/>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="91" t="s">
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="100"/>
+      <c r="AZ4" s="101"/>
+      <c r="BA4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="89">
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="100">
         <v>46030</v>
       </c>
-      <c r="BF4" s="89"/>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="91" t="s">
+      <c r="BF4" s="100"/>
+      <c r="BG4" s="100"/>
+      <c r="BH4" s="101"/>
+      <c r="BI4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="92"/>
-      <c r="BM4" s="89">
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="99"/>
+      <c r="BM4" s="100">
         <v>46031</v>
       </c>
-      <c r="BN4" s="89"/>
-      <c r="BO4" s="89"/>
-      <c r="BP4" s="90"/>
-      <c r="BQ4" s="91" t="s">
+      <c r="BN4" s="100"/>
+      <c r="BO4" s="100"/>
+      <c r="BP4" s="101"/>
+      <c r="BQ4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="BR4" s="92"/>
-      <c r="BS4" s="92"/>
-      <c r="BT4" s="92"/>
-      <c r="BU4" s="89">
+      <c r="BR4" s="99"/>
+      <c r="BS4" s="99"/>
+      <c r="BT4" s="99"/>
+      <c r="BU4" s="100">
         <v>46037</v>
       </c>
-      <c r="BV4" s="89"/>
-      <c r="BW4" s="89"/>
-      <c r="BX4" s="90"/>
-      <c r="BY4" s="91" t="s">
+      <c r="BV4" s="100"/>
+      <c r="BW4" s="100"/>
+      <c r="BX4" s="101"/>
+      <c r="BY4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="BZ4" s="92"/>
-      <c r="CA4" s="92"/>
-      <c r="CB4" s="92"/>
-      <c r="CC4" s="89">
+      <c r="BZ4" s="99"/>
+      <c r="CA4" s="99"/>
+      <c r="CB4" s="99"/>
+      <c r="CC4" s="100">
         <v>46038</v>
       </c>
-      <c r="CD4" s="89"/>
-      <c r="CE4" s="89"/>
-      <c r="CF4" s="90"/>
+      <c r="CD4" s="100"/>
+      <c r="CE4" s="100"/>
+      <c r="CF4" s="101"/>
     </row>
     <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="141"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2667,7 +2667,7 @@
       </c>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="138" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -2677,12 +2677,12 @@
         <v>23</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="113"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="17"/>
@@ -2695,16 +2695,16 @@
       <c r="R6" s="30"/>
       <c r="S6" s="30"/>
       <c r="T6" s="31"/>
-      <c r="U6" s="104" t="s">
+      <c r="U6" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="105"/>
-      <c r="W6" s="105"/>
-      <c r="X6" s="105"/>
-      <c r="Y6" s="105"/>
-      <c r="Z6" s="105"/>
-      <c r="AA6" s="105"/>
-      <c r="AB6" s="106"/>
+      <c r="V6" s="121"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="122"/>
       <c r="AC6" s="32"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
@@ -2713,12 +2713,12 @@
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="31"/>
-      <c r="AK6" s="113" t="s">
+      <c r="AK6" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="AL6" s="114"/>
-      <c r="AM6" s="114"/>
-      <c r="AN6" s="115"/>
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="91"/>
       <c r="AO6" s="30"/>
       <c r="AP6" s="30"/>
       <c r="AQ6" s="30"/>
@@ -2731,12 +2731,12 @@
       <c r="AX6" s="30"/>
       <c r="AY6" s="30"/>
       <c r="AZ6" s="31"/>
-      <c r="BA6" s="113" t="s">
+      <c r="BA6" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="BB6" s="114"/>
-      <c r="BC6" s="114"/>
-      <c r="BD6" s="115"/>
+      <c r="BB6" s="90"/>
+      <c r="BC6" s="90"/>
+      <c r="BD6" s="91"/>
       <c r="BE6" s="30"/>
       <c r="BF6" s="30"/>
       <c r="BG6" s="30"/>
@@ -2749,12 +2749,12 @@
       <c r="BN6" s="30"/>
       <c r="BO6" s="30"/>
       <c r="BP6" s="31"/>
-      <c r="BQ6" s="113" t="s">
+      <c r="BQ6" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="BR6" s="114"/>
-      <c r="BS6" s="114"/>
-      <c r="BT6" s="115"/>
+      <c r="BR6" s="90"/>
+      <c r="BS6" s="90"/>
+      <c r="BT6" s="91"/>
       <c r="BU6" s="71"/>
       <c r="BV6" s="71"/>
       <c r="BW6" s="30"/>
@@ -2769,7 +2769,7 @@
       <c r="CF6" s="31"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A7" s="131"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="28" t="s">
         <v>11</v>
       </c>
@@ -2777,10 +2777,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="100"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="116"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
@@ -2793,14 +2793,14 @@
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
       <c r="T7" s="34"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="108"/>
-      <c r="Z7" s="108"/>
-      <c r="AA7" s="108"/>
-      <c r="AB7" s="109"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="124"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="124"/>
+      <c r="AB7" s="125"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="33"/>
       <c r="AE7" s="33"/>
@@ -2809,10 +2809,10 @@
       <c r="AH7" s="33"/>
       <c r="AI7" s="33"/>
       <c r="AJ7" s="34"/>
-      <c r="AK7" s="116"/>
-      <c r="AL7" s="117"/>
-      <c r="AM7" s="117"/>
-      <c r="AN7" s="118"/>
+      <c r="AK7" s="92"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="94"/>
       <c r="AO7" s="33"/>
       <c r="AP7" s="33"/>
       <c r="AQ7" s="33"/>
@@ -2825,10 +2825,10 @@
       <c r="AX7" s="33"/>
       <c r="AY7" s="33"/>
       <c r="AZ7" s="34"/>
-      <c r="BA7" s="116"/>
-      <c r="BB7" s="117"/>
-      <c r="BC7" s="117"/>
-      <c r="BD7" s="118"/>
+      <c r="BA7" s="92"/>
+      <c r="BB7" s="93"/>
+      <c r="BC7" s="93"/>
+      <c r="BD7" s="94"/>
       <c r="BE7" s="33"/>
       <c r="BF7" s="33"/>
       <c r="BG7" s="33"/>
@@ -2841,10 +2841,10 @@
       <c r="BN7" s="33"/>
       <c r="BO7" s="33"/>
       <c r="BP7" s="34"/>
-      <c r="BQ7" s="116"/>
-      <c r="BR7" s="117"/>
-      <c r="BS7" s="117"/>
-      <c r="BT7" s="118"/>
+      <c r="BQ7" s="92"/>
+      <c r="BR7" s="93"/>
+      <c r="BS7" s="93"/>
+      <c r="BT7" s="94"/>
       <c r="BU7" s="33"/>
       <c r="BV7" s="33"/>
       <c r="BW7" s="33"/>
@@ -2859,7 +2859,7 @@
       <c r="CF7" s="34"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A8" s="131"/>
+      <c r="A8" s="138"/>
       <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
@@ -2867,10 +2867,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="25"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="100"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="116"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -2883,14 +2883,14 @@
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
       <c r="T8" s="34"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="109"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="124"/>
+      <c r="Z8" s="124"/>
+      <c r="AA8" s="124"/>
+      <c r="AB8" s="125"/>
       <c r="AC8" s="35"/>
       <c r="AD8" s="33"/>
       <c r="AE8" s="33"/>
@@ -2899,10 +2899,10 @@
       <c r="AH8" s="33"/>
       <c r="AI8" s="33"/>
       <c r="AJ8" s="34"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="117"/>
-      <c r="AM8" s="117"/>
-      <c r="AN8" s="118"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="94"/>
       <c r="AO8" s="33"/>
       <c r="AP8" s="33"/>
       <c r="AQ8" s="33"/>
@@ -2915,10 +2915,10 @@
       <c r="AX8" s="33"/>
       <c r="AY8" s="33"/>
       <c r="AZ8" s="34"/>
-      <c r="BA8" s="116"/>
-      <c r="BB8" s="117"/>
-      <c r="BC8" s="117"/>
-      <c r="BD8" s="118"/>
+      <c r="BA8" s="92"/>
+      <c r="BB8" s="93"/>
+      <c r="BC8" s="93"/>
+      <c r="BD8" s="94"/>
       <c r="BE8" s="33"/>
       <c r="BF8" s="33"/>
       <c r="BG8" s="33"/>
@@ -2931,10 +2931,10 @@
       <c r="BN8" s="33"/>
       <c r="BO8" s="33"/>
       <c r="BP8" s="34"/>
-      <c r="BQ8" s="116"/>
-      <c r="BR8" s="117"/>
-      <c r="BS8" s="117"/>
-      <c r="BT8" s="118"/>
+      <c r="BQ8" s="92"/>
+      <c r="BR8" s="93"/>
+      <c r="BS8" s="93"/>
+      <c r="BT8" s="94"/>
       <c r="BU8" s="33"/>
       <c r="BV8" s="33"/>
       <c r="BW8" s="33"/>
@@ -2949,7 +2949,7 @@
       <c r="CF8" s="34"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="139" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -2959,10 +2959,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="100"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -2975,14 +2975,14 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="38"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="109"/>
+      <c r="U9" s="123"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
+      <c r="AB9" s="125"/>
       <c r="AC9" s="39"/>
       <c r="AD9" s="37"/>
       <c r="AE9" s="37"/>
@@ -2991,10 +2991,10 @@
       <c r="AH9" s="37"/>
       <c r="AI9" s="37"/>
       <c r="AJ9" s="38"/>
-      <c r="AK9" s="116"/>
-      <c r="AL9" s="117"/>
-      <c r="AM9" s="117"/>
-      <c r="AN9" s="118"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="94"/>
       <c r="AO9" s="37"/>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -3007,10 +3007,10 @@
       <c r="AX9" s="37"/>
       <c r="AY9" s="37"/>
       <c r="AZ9" s="38"/>
-      <c r="BA9" s="116"/>
-      <c r="BB9" s="117"/>
-      <c r="BC9" s="117"/>
-      <c r="BD9" s="118"/>
+      <c r="BA9" s="92"/>
+      <c r="BB9" s="93"/>
+      <c r="BC9" s="93"/>
+      <c r="BD9" s="94"/>
       <c r="BE9" s="37"/>
       <c r="BF9" s="37"/>
       <c r="BG9" s="37"/>
@@ -3023,10 +3023,10 @@
       <c r="BN9" s="37"/>
       <c r="BO9" s="37"/>
       <c r="BP9" s="38"/>
-      <c r="BQ9" s="116"/>
-      <c r="BR9" s="117"/>
-      <c r="BS9" s="117"/>
-      <c r="BT9" s="118"/>
+      <c r="BQ9" s="92"/>
+      <c r="BR9" s="93"/>
+      <c r="BS9" s="93"/>
+      <c r="BT9" s="94"/>
       <c r="BU9" s="37"/>
       <c r="BV9" s="37"/>
       <c r="BW9" s="37"/>
@@ -3041,7 +3041,7 @@
       <c r="CF9" s="38"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A10" s="133"/>
+      <c r="A10" s="140"/>
       <c r="B10" s="36" t="s">
         <v>15</v>
       </c>
@@ -3049,10 +3049,10 @@
         <v>23</v>
       </c>
       <c r="D10" s="25"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="100"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="116"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
@@ -3065,14 +3065,14 @@
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="38"/>
-      <c r="U10" s="107"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="108"/>
-      <c r="AA10" s="108"/>
-      <c r="AB10" s="109"/>
+      <c r="U10" s="123"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="124"/>
+      <c r="AA10" s="124"/>
+      <c r="AB10" s="125"/>
       <c r="AC10" s="39"/>
       <c r="AD10" s="37"/>
       <c r="AE10" s="37"/>
@@ -3081,10 +3081,10 @@
       <c r="AH10" s="37"/>
       <c r="AI10" s="37"/>
       <c r="AJ10" s="38"/>
-      <c r="AK10" s="116"/>
-      <c r="AL10" s="117"/>
-      <c r="AM10" s="117"/>
-      <c r="AN10" s="118"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="93"/>
+      <c r="AN10" s="94"/>
       <c r="AO10" s="37"/>
       <c r="AP10" s="37"/>
       <c r="AQ10" s="37"/>
@@ -3097,10 +3097,10 @@
       <c r="AX10" s="37"/>
       <c r="AY10" s="37"/>
       <c r="AZ10" s="38"/>
-      <c r="BA10" s="116"/>
-      <c r="BB10" s="117"/>
-      <c r="BC10" s="117"/>
-      <c r="BD10" s="118"/>
+      <c r="BA10" s="92"/>
+      <c r="BB10" s="93"/>
+      <c r="BC10" s="93"/>
+      <c r="BD10" s="94"/>
       <c r="BE10" s="37"/>
       <c r="BF10" s="37"/>
       <c r="BG10" s="37"/>
@@ -3113,10 +3113,10 @@
       <c r="BN10" s="37"/>
       <c r="BO10" s="37"/>
       <c r="BP10" s="38"/>
-      <c r="BQ10" s="116"/>
-      <c r="BR10" s="117"/>
-      <c r="BS10" s="117"/>
-      <c r="BT10" s="118"/>
+      <c r="BQ10" s="92"/>
+      <c r="BR10" s="93"/>
+      <c r="BS10" s="93"/>
+      <c r="BT10" s="94"/>
       <c r="BU10" s="37"/>
       <c r="BV10" s="37"/>
       <c r="BW10" s="37"/>
@@ -3131,7 +3131,7 @@
       <c r="CF10" s="38"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A11" s="134"/>
+      <c r="A11" s="141"/>
       <c r="B11" s="36" t="s">
         <v>16</v>
       </c>
@@ -3139,10 +3139,10 @@
         <v>23</v>
       </c>
       <c r="D11" s="25"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="100"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="116"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
@@ -3155,14 +3155,14 @@
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="108"/>
-      <c r="AB11" s="109"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="124"/>
+      <c r="AA11" s="124"/>
+      <c r="AB11" s="125"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="37"/>
       <c r="AE11" s="37"/>
@@ -3171,10 +3171,10 @@
       <c r="AH11" s="37"/>
       <c r="AI11" s="37"/>
       <c r="AJ11" s="38"/>
-      <c r="AK11" s="116"/>
-      <c r="AL11" s="117"/>
-      <c r="AM11" s="117"/>
-      <c r="AN11" s="118"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="94"/>
       <c r="AO11" s="37"/>
       <c r="AP11" s="37"/>
       <c r="AQ11" s="37"/>
@@ -3187,10 +3187,10 @@
       <c r="AX11" s="37"/>
       <c r="AY11" s="37"/>
       <c r="AZ11" s="38"/>
-      <c r="BA11" s="116"/>
-      <c r="BB11" s="117"/>
-      <c r="BC11" s="117"/>
-      <c r="BD11" s="118"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="93"/>
+      <c r="BC11" s="93"/>
+      <c r="BD11" s="94"/>
       <c r="BE11" s="37"/>
       <c r="BF11" s="37"/>
       <c r="BG11" s="37"/>
@@ -3203,10 +3203,10 @@
       <c r="BN11" s="37"/>
       <c r="BO11" s="37"/>
       <c r="BP11" s="38"/>
-      <c r="BQ11" s="116"/>
-      <c r="BR11" s="117"/>
-      <c r="BS11" s="117"/>
-      <c r="BT11" s="118"/>
+      <c r="BQ11" s="92"/>
+      <c r="BR11" s="93"/>
+      <c r="BS11" s="93"/>
+      <c r="BT11" s="94"/>
       <c r="BU11" s="37"/>
       <c r="BV11" s="37"/>
       <c r="BW11" s="37"/>
@@ -3221,7 +3221,7 @@
       <c r="CF11" s="38"/>
     </row>
     <row r="12" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="133" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="74" t="s">
@@ -3231,10 +3231,10 @@
         <v>23</v>
       </c>
       <c r="D12" s="25"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="100"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -3247,14 +3247,14 @@
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="109"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="124"/>
+      <c r="AB12" s="125"/>
       <c r="AC12" s="42"/>
       <c r="AD12" s="20"/>
       <c r="AE12" s="40"/>
@@ -3263,10 +3263,10 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="20"/>
       <c r="AJ12" s="41"/>
-      <c r="AK12" s="116"/>
-      <c r="AL12" s="117"/>
-      <c r="AM12" s="117"/>
-      <c r="AN12" s="118"/>
+      <c r="AK12" s="92"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="94"/>
       <c r="AO12" s="20"/>
       <c r="AP12" s="20"/>
       <c r="AQ12" s="20"/>
@@ -3279,10 +3279,10 @@
       <c r="AX12" s="40"/>
       <c r="AY12" s="40"/>
       <c r="AZ12" s="41"/>
-      <c r="BA12" s="116"/>
-      <c r="BB12" s="117"/>
-      <c r="BC12" s="117"/>
-      <c r="BD12" s="118"/>
+      <c r="BA12" s="92"/>
+      <c r="BB12" s="93"/>
+      <c r="BC12" s="93"/>
+      <c r="BD12" s="94"/>
       <c r="BE12" s="40"/>
       <c r="BF12" s="40"/>
       <c r="BG12" s="40"/>
@@ -3295,10 +3295,10 @@
       <c r="BN12" s="40"/>
       <c r="BO12" s="40"/>
       <c r="BP12" s="41"/>
-      <c r="BQ12" s="116"/>
-      <c r="BR12" s="117"/>
-      <c r="BS12" s="117"/>
-      <c r="BT12" s="118"/>
+      <c r="BQ12" s="92"/>
+      <c r="BR12" s="93"/>
+      <c r="BS12" s="93"/>
+      <c r="BT12" s="94"/>
       <c r="BU12" s="40"/>
       <c r="BV12" s="40"/>
       <c r="BW12" s="40"/>
@@ -3313,7 +3313,7 @@
       <c r="CF12" s="41"/>
     </row>
     <row r="13" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="127"/>
+      <c r="A13" s="134"/>
       <c r="B13" s="75" t="s">
         <v>30</v>
       </c>
@@ -3321,10 +3321,10 @@
         <v>23</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="100"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="116"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -3337,14 +3337,14 @@
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="108"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="108"/>
-      <c r="AB13" s="109"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="125"/>
       <c r="AC13" s="42"/>
       <c r="AD13" s="40"/>
       <c r="AE13" s="20"/>
@@ -3353,10 +3353,10 @@
       <c r="AH13" s="40"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="69"/>
-      <c r="AK13" s="116"/>
-      <c r="AL13" s="117"/>
-      <c r="AM13" s="117"/>
-      <c r="AN13" s="118"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="94"/>
       <c r="AO13" s="40"/>
       <c r="AP13" s="40"/>
       <c r="AQ13" s="40"/>
@@ -3369,10 +3369,10 @@
       <c r="AX13" s="40"/>
       <c r="AY13" s="40"/>
       <c r="AZ13" s="41"/>
-      <c r="BA13" s="116"/>
-      <c r="BB13" s="117"/>
-      <c r="BC13" s="117"/>
-      <c r="BD13" s="118"/>
+      <c r="BA13" s="92"/>
+      <c r="BB13" s="93"/>
+      <c r="BC13" s="93"/>
+      <c r="BD13" s="94"/>
       <c r="BE13" s="40"/>
       <c r="BF13" s="40"/>
       <c r="BG13" s="40"/>
@@ -3385,10 +3385,10 @@
       <c r="BN13" s="40"/>
       <c r="BO13" s="40"/>
       <c r="BP13" s="41"/>
-      <c r="BQ13" s="116"/>
-      <c r="BR13" s="117"/>
-      <c r="BS13" s="117"/>
-      <c r="BT13" s="118"/>
+      <c r="BQ13" s="92"/>
+      <c r="BR13" s="93"/>
+      <c r="BS13" s="93"/>
+      <c r="BT13" s="94"/>
       <c r="BU13" s="40"/>
       <c r="BV13" s="40"/>
       <c r="BW13" s="40"/>
@@ -3403,7 +3403,7 @@
       <c r="CF13" s="41"/>
     </row>
     <row r="14" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="128"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="78" t="s">
         <v>31</v>
       </c>
@@ -3411,10 +3411,10 @@
         <v>23</v>
       </c>
       <c r="D14" s="25"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="100"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="116"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -3427,14 +3427,14 @@
       <c r="R14" s="40"/>
       <c r="S14" s="40"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="108"/>
-      <c r="Z14" s="108"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="109"/>
+      <c r="U14" s="123"/>
+      <c r="V14" s="124"/>
+      <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="124"/>
+      <c r="AA14" s="124"/>
+      <c r="AB14" s="125"/>
       <c r="AC14" s="42"/>
       <c r="AD14" s="40"/>
       <c r="AE14" s="40"/>
@@ -3443,10 +3443,10 @@
       <c r="AH14" s="40"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="70"/>
-      <c r="AK14" s="116"/>
-      <c r="AL14" s="117"/>
-      <c r="AM14" s="117"/>
-      <c r="AN14" s="118"/>
+      <c r="AK14" s="92"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="94"/>
       <c r="AO14" s="40"/>
       <c r="AP14" s="40"/>
       <c r="AQ14" s="40"/>
@@ -3459,10 +3459,10 @@
       <c r="AX14" s="40"/>
       <c r="AY14" s="40"/>
       <c r="AZ14" s="41"/>
-      <c r="BA14" s="116"/>
-      <c r="BB14" s="117"/>
-      <c r="BC14" s="117"/>
-      <c r="BD14" s="118"/>
+      <c r="BA14" s="92"/>
+      <c r="BB14" s="93"/>
+      <c r="BC14" s="93"/>
+      <c r="BD14" s="94"/>
       <c r="BE14" s="40"/>
       <c r="BF14" s="40"/>
       <c r="BG14" s="40"/>
@@ -3475,10 +3475,10 @@
       <c r="BN14" s="40"/>
       <c r="BO14" s="40"/>
       <c r="BP14" s="41"/>
-      <c r="BQ14" s="116"/>
-      <c r="BR14" s="117"/>
-      <c r="BS14" s="117"/>
-      <c r="BT14" s="118"/>
+      <c r="BQ14" s="92"/>
+      <c r="BR14" s="93"/>
+      <c r="BS14" s="93"/>
+      <c r="BT14" s="94"/>
       <c r="BU14" s="40"/>
       <c r="BV14" s="40"/>
       <c r="BW14" s="40"/>
@@ -3493,7 +3493,7 @@
       <c r="CF14" s="41"/>
     </row>
     <row r="15" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="129" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="73" t="s">
@@ -3503,10 +3503,10 @@
         <v>23</v>
       </c>
       <c r="D15" s="25"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="100"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="116"/>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
@@ -3519,14 +3519,14 @@
       <c r="R15" s="43"/>
       <c r="S15" s="43"/>
       <c r="T15" s="44"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="108"/>
-      <c r="W15" s="108"/>
-      <c r="X15" s="108"/>
-      <c r="Y15" s="108"/>
-      <c r="Z15" s="108"/>
-      <c r="AA15" s="108"/>
-      <c r="AB15" s="109"/>
+      <c r="U15" s="123"/>
+      <c r="V15" s="124"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="124"/>
+      <c r="Y15" s="124"/>
+      <c r="Z15" s="124"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="125"/>
       <c r="AC15" s="45"/>
       <c r="AD15" s="43"/>
       <c r="AE15" s="43"/>
@@ -3535,10 +3535,10 @@
       <c r="AH15" s="43"/>
       <c r="AI15" s="43"/>
       <c r="AJ15" s="44"/>
-      <c r="AK15" s="116"/>
-      <c r="AL15" s="117"/>
-      <c r="AM15" s="117"/>
-      <c r="AN15" s="118"/>
+      <c r="AK15" s="92"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="94"/>
       <c r="AO15" s="43"/>
       <c r="AP15" s="43"/>
       <c r="AQ15" s="43"/>
@@ -3551,10 +3551,10 @@
       <c r="AX15" s="20"/>
       <c r="AY15" s="20"/>
       <c r="AZ15" s="44"/>
-      <c r="BA15" s="116"/>
-      <c r="BB15" s="117"/>
-      <c r="BC15" s="117"/>
-      <c r="BD15" s="118"/>
+      <c r="BA15" s="92"/>
+      <c r="BB15" s="93"/>
+      <c r="BC15" s="93"/>
+      <c r="BD15" s="94"/>
       <c r="BE15" s="43"/>
       <c r="BF15" s="43"/>
       <c r="BG15" s="43"/>
@@ -3567,10 +3567,10 @@
       <c r="BN15" s="43"/>
       <c r="BO15" s="43"/>
       <c r="BP15" s="44"/>
-      <c r="BQ15" s="116"/>
-      <c r="BR15" s="117"/>
-      <c r="BS15" s="117"/>
-      <c r="BT15" s="118"/>
+      <c r="BQ15" s="92"/>
+      <c r="BR15" s="93"/>
+      <c r="BS15" s="93"/>
+      <c r="BT15" s="94"/>
       <c r="BU15" s="43"/>
       <c r="BV15" s="43"/>
       <c r="BW15" s="43"/>
@@ -3585,7 +3585,7 @@
       <c r="CF15" s="44"/>
     </row>
     <row r="16" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="123"/>
+      <c r="A16" s="130"/>
       <c r="B16" s="80" t="s">
         <v>31</v>
       </c>
@@ -3593,10 +3593,10 @@
         <v>23</v>
       </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="116"/>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
@@ -3609,14 +3609,14 @@
       <c r="R16" s="43"/>
       <c r="S16" s="43"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="108"/>
-      <c r="W16" s="108"/>
-      <c r="X16" s="108"/>
-      <c r="Y16" s="108"/>
-      <c r="Z16" s="108"/>
-      <c r="AA16" s="108"/>
-      <c r="AB16" s="109"/>
+      <c r="U16" s="123"/>
+      <c r="V16" s="124"/>
+      <c r="W16" s="124"/>
+      <c r="X16" s="124"/>
+      <c r="Y16" s="124"/>
+      <c r="Z16" s="124"/>
+      <c r="AA16" s="124"/>
+      <c r="AB16" s="125"/>
       <c r="AC16" s="45"/>
       <c r="AD16" s="43"/>
       <c r="AE16" s="43"/>
@@ -3625,10 +3625,10 @@
       <c r="AH16" s="43"/>
       <c r="AI16" s="43"/>
       <c r="AJ16" s="44"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="117"/>
-      <c r="AM16" s="117"/>
-      <c r="AN16" s="118"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="94"/>
       <c r="AO16" s="43"/>
       <c r="AP16" s="43"/>
       <c r="AQ16" s="43"/>
@@ -3641,10 +3641,10 @@
       <c r="AX16" s="43"/>
       <c r="AY16" s="43"/>
       <c r="AZ16" s="70"/>
-      <c r="BA16" s="116"/>
-      <c r="BB16" s="117"/>
-      <c r="BC16" s="117"/>
-      <c r="BD16" s="118"/>
+      <c r="BA16" s="92"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="93"/>
+      <c r="BD16" s="94"/>
       <c r="BE16" s="43"/>
       <c r="BF16" s="43"/>
       <c r="BG16" s="43"/>
@@ -3657,10 +3657,10 @@
       <c r="BN16" s="43"/>
       <c r="BO16" s="43"/>
       <c r="BP16" s="44"/>
-      <c r="BQ16" s="116"/>
-      <c r="BR16" s="117"/>
-      <c r="BS16" s="117"/>
-      <c r="BT16" s="118"/>
+      <c r="BQ16" s="92"/>
+      <c r="BR16" s="93"/>
+      <c r="BS16" s="93"/>
+      <c r="BT16" s="94"/>
       <c r="BU16" s="43"/>
       <c r="BV16" s="43"/>
       <c r="BW16" s="43"/>
@@ -3675,7 +3675,7 @@
       <c r="CF16" s="44"/>
     </row>
     <row r="17" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="131" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="72" t="s">
@@ -3685,10 +3685,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="25"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="116"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
@@ -3701,14 +3701,14 @@
       <c r="R17" s="46"/>
       <c r="S17" s="46"/>
       <c r="T17" s="47"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="108"/>
-      <c r="X17" s="108"/>
-      <c r="Y17" s="108"/>
-      <c r="Z17" s="108"/>
-      <c r="AA17" s="108"/>
-      <c r="AB17" s="109"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="124"/>
+      <c r="AB17" s="125"/>
       <c r="AC17" s="48"/>
       <c r="AD17" s="46"/>
       <c r="AE17" s="46"/>
@@ -3717,10 +3717,10 @@
       <c r="AH17" s="46"/>
       <c r="AI17" s="46"/>
       <c r="AJ17" s="47"/>
-      <c r="AK17" s="116"/>
-      <c r="AL17" s="117"/>
-      <c r="AM17" s="117"/>
-      <c r="AN17" s="118"/>
+      <c r="AK17" s="92"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="94"/>
       <c r="AO17" s="46"/>
       <c r="AP17" s="46"/>
       <c r="AQ17" s="46"/>
@@ -3733,10 +3733,10 @@
       <c r="AX17" s="46"/>
       <c r="AY17" s="46"/>
       <c r="AZ17" s="47"/>
-      <c r="BA17" s="116"/>
-      <c r="BB17" s="117"/>
-      <c r="BC17" s="117"/>
-      <c r="BD17" s="118"/>
+      <c r="BA17" s="92"/>
+      <c r="BB17" s="93"/>
+      <c r="BC17" s="93"/>
+      <c r="BD17" s="94"/>
       <c r="BE17" s="20"/>
       <c r="BF17" s="20"/>
       <c r="BG17" s="20"/>
@@ -3749,10 +3749,10 @@
       <c r="BN17" s="20"/>
       <c r="BO17" s="20"/>
       <c r="BP17" s="47"/>
-      <c r="BQ17" s="116"/>
-      <c r="BR17" s="117"/>
-      <c r="BS17" s="117"/>
-      <c r="BT17" s="118"/>
+      <c r="BQ17" s="92"/>
+      <c r="BR17" s="93"/>
+      <c r="BS17" s="93"/>
+      <c r="BT17" s="94"/>
       <c r="BU17" s="46"/>
       <c r="BV17" s="46"/>
       <c r="BW17" s="46"/>
@@ -3767,7 +3767,7 @@
       <c r="CF17" s="47"/>
     </row>
     <row r="18" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="125"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="79" t="s">
         <v>31</v>
       </c>
@@ -3775,10 +3775,10 @@
         <v>23</v>
       </c>
       <c r="D18" s="25"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="100"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="116"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
@@ -3791,14 +3791,14 @@
       <c r="R18" s="46"/>
       <c r="S18" s="46"/>
       <c r="T18" s="47"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="108"/>
-      <c r="W18" s="108"/>
-      <c r="X18" s="108"/>
-      <c r="Y18" s="108"/>
-      <c r="Z18" s="108"/>
-      <c r="AA18" s="108"/>
-      <c r="AB18" s="109"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="124"/>
+      <c r="W18" s="124"/>
+      <c r="X18" s="124"/>
+      <c r="Y18" s="124"/>
+      <c r="Z18" s="124"/>
+      <c r="AA18" s="124"/>
+      <c r="AB18" s="125"/>
       <c r="AC18" s="48"/>
       <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
@@ -3807,10 +3807,10 @@
       <c r="AH18" s="46"/>
       <c r="AI18" s="46"/>
       <c r="AJ18" s="47"/>
-      <c r="AK18" s="116"/>
-      <c r="AL18" s="117"/>
-      <c r="AM18" s="117"/>
-      <c r="AN18" s="118"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="94"/>
       <c r="AO18" s="46"/>
       <c r="AP18" s="46"/>
       <c r="AQ18" s="46"/>
@@ -3823,10 +3823,10 @@
       <c r="AX18" s="46"/>
       <c r="AY18" s="46"/>
       <c r="AZ18" s="47"/>
-      <c r="BA18" s="116"/>
-      <c r="BB18" s="117"/>
-      <c r="BC18" s="117"/>
-      <c r="BD18" s="118"/>
+      <c r="BA18" s="92"/>
+      <c r="BB18" s="93"/>
+      <c r="BC18" s="93"/>
+      <c r="BD18" s="94"/>
       <c r="BE18" s="46"/>
       <c r="BF18" s="46"/>
       <c r="BG18" s="46"/>
@@ -3839,10 +3839,10 @@
       <c r="BN18" s="46"/>
       <c r="BO18" s="46"/>
       <c r="BP18" s="21"/>
-      <c r="BQ18" s="116"/>
-      <c r="BR18" s="117"/>
-      <c r="BS18" s="117"/>
-      <c r="BT18" s="118"/>
+      <c r="BQ18" s="92"/>
+      <c r="BR18" s="93"/>
+      <c r="BS18" s="93"/>
+      <c r="BT18" s="94"/>
       <c r="BU18" s="46"/>
       <c r="BV18" s="46"/>
       <c r="BW18" s="46"/>
@@ -3857,7 +3857,7 @@
       <c r="CF18" s="47"/>
     </row>
     <row r="19" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="136" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="77" t="s">
@@ -3867,10 +3867,10 @@
         <v>24</v>
       </c>
       <c r="D19" s="25"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="100"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
@@ -3883,14 +3883,14 @@
       <c r="R19" s="49"/>
       <c r="S19" s="49"/>
       <c r="T19" s="50"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="108"/>
-      <c r="W19" s="108"/>
-      <c r="X19" s="108"/>
-      <c r="Y19" s="108"/>
-      <c r="Z19" s="108"/>
-      <c r="AA19" s="108"/>
-      <c r="AB19" s="109"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="125"/>
       <c r="AC19" s="51"/>
       <c r="AD19" s="49"/>
       <c r="AE19" s="49"/>
@@ -3899,10 +3899,10 @@
       <c r="AH19" s="49"/>
       <c r="AI19" s="49"/>
       <c r="AJ19" s="50"/>
-      <c r="AK19" s="116"/>
-      <c r="AL19" s="117"/>
-      <c r="AM19" s="117"/>
-      <c r="AN19" s="118"/>
+      <c r="AK19" s="92"/>
+      <c r="AL19" s="93"/>
+      <c r="AM19" s="93"/>
+      <c r="AN19" s="94"/>
       <c r="AO19" s="49"/>
       <c r="AP19" s="49"/>
       <c r="AQ19" s="49"/>
@@ -3915,10 +3915,10 @@
       <c r="AX19" s="49"/>
       <c r="AY19" s="49"/>
       <c r="AZ19" s="50"/>
-      <c r="BA19" s="116"/>
-      <c r="BB19" s="117"/>
-      <c r="BC19" s="117"/>
-      <c r="BD19" s="118"/>
+      <c r="BA19" s="92"/>
+      <c r="BB19" s="93"/>
+      <c r="BC19" s="93"/>
+      <c r="BD19" s="94"/>
       <c r="BE19" s="49"/>
       <c r="BF19" s="49"/>
       <c r="BG19" s="49"/>
@@ -3931,10 +3931,10 @@
       <c r="BN19" s="49"/>
       <c r="BO19" s="49"/>
       <c r="BP19" s="50"/>
-      <c r="BQ19" s="116"/>
-      <c r="BR19" s="117"/>
-      <c r="BS19" s="117"/>
-      <c r="BT19" s="118"/>
+      <c r="BQ19" s="92"/>
+      <c r="BR19" s="93"/>
+      <c r="BS19" s="93"/>
+      <c r="BT19" s="94"/>
       <c r="BU19" s="20"/>
       <c r="BV19" s="20"/>
       <c r="BW19" s="20"/>
@@ -3949,16 +3949,16 @@
       <c r="CF19" s="50"/>
     </row>
     <row r="20" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="130"/>
+      <c r="A20" s="137"/>
       <c r="B20" s="81" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="100"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
@@ -3971,14 +3971,14 @@
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
       <c r="T20" s="66"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="108"/>
-      <c r="W20" s="108"/>
-      <c r="X20" s="108"/>
-      <c r="Y20" s="108"/>
-      <c r="Z20" s="108"/>
-      <c r="AA20" s="108"/>
-      <c r="AB20" s="109"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="124"/>
+      <c r="W20" s="124"/>
+      <c r="X20" s="124"/>
+      <c r="Y20" s="124"/>
+      <c r="Z20" s="124"/>
+      <c r="AA20" s="124"/>
+      <c r="AB20" s="125"/>
       <c r="AC20" s="67"/>
       <c r="AD20" s="65"/>
       <c r="AE20" s="65"/>
@@ -3987,10 +3987,10 @@
       <c r="AH20" s="65"/>
       <c r="AI20" s="65"/>
       <c r="AJ20" s="66"/>
-      <c r="AK20" s="116"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="117"/>
-      <c r="AN20" s="118"/>
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="93"/>
+      <c r="AM20" s="93"/>
+      <c r="AN20" s="94"/>
       <c r="AO20" s="65"/>
       <c r="AP20" s="65"/>
       <c r="AQ20" s="65"/>
@@ -4003,10 +4003,10 @@
       <c r="AX20" s="65"/>
       <c r="AY20" s="65"/>
       <c r="AZ20" s="66"/>
-      <c r="BA20" s="116"/>
-      <c r="BB20" s="117"/>
-      <c r="BC20" s="117"/>
-      <c r="BD20" s="118"/>
+      <c r="BA20" s="92"/>
+      <c r="BB20" s="93"/>
+      <c r="BC20" s="93"/>
+      <c r="BD20" s="94"/>
       <c r="BE20" s="65"/>
       <c r="BF20" s="65"/>
       <c r="BG20" s="65"/>
@@ -4019,10 +4019,10 @@
       <c r="BN20" s="65"/>
       <c r="BO20" s="65"/>
       <c r="BP20" s="66"/>
-      <c r="BQ20" s="116"/>
-      <c r="BR20" s="117"/>
-      <c r="BS20" s="117"/>
-      <c r="BT20" s="118"/>
+      <c r="BQ20" s="92"/>
+      <c r="BR20" s="93"/>
+      <c r="BS20" s="93"/>
+      <c r="BT20" s="94"/>
       <c r="BU20" s="65"/>
       <c r="BV20" s="65"/>
       <c r="BW20" s="65"/>
@@ -4045,10 +4045,10 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="25"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="100"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
@@ -4061,14 +4061,14 @@
       <c r="R21" s="53"/>
       <c r="S21" s="53"/>
       <c r="T21" s="54"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="108"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="108"/>
-      <c r="Y21" s="108"/>
-      <c r="Z21" s="108"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="109"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="124"/>
+      <c r="AA21" s="124"/>
+      <c r="AB21" s="125"/>
       <c r="AC21" s="55"/>
       <c r="AD21" s="53"/>
       <c r="AE21" s="53"/>
@@ -4077,10 +4077,10 @@
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="54"/>
-      <c r="AK21" s="116"/>
-      <c r="AL21" s="117"/>
-      <c r="AM21" s="117"/>
-      <c r="AN21" s="118"/>
+      <c r="AK21" s="92"/>
+      <c r="AL21" s="93"/>
+      <c r="AM21" s="93"/>
+      <c r="AN21" s="94"/>
       <c r="AO21" s="53"/>
       <c r="AP21" s="53"/>
       <c r="AQ21" s="53"/>
@@ -4093,10 +4093,10 @@
       <c r="AX21" s="53"/>
       <c r="AY21" s="53"/>
       <c r="AZ21" s="54"/>
-      <c r="BA21" s="116"/>
-      <c r="BB21" s="117"/>
-      <c r="BC21" s="117"/>
-      <c r="BD21" s="118"/>
+      <c r="BA21" s="92"/>
+      <c r="BB21" s="93"/>
+      <c r="BC21" s="93"/>
+      <c r="BD21" s="94"/>
       <c r="BE21" s="53"/>
       <c r="BF21" s="53"/>
       <c r="BG21" s="53"/>
@@ -4109,10 +4109,10 @@
       <c r="BN21" s="53"/>
       <c r="BO21" s="53"/>
       <c r="BP21" s="54"/>
-      <c r="BQ21" s="116"/>
-      <c r="BR21" s="117"/>
-      <c r="BS21" s="117"/>
-      <c r="BT21" s="118"/>
+      <c r="BQ21" s="92"/>
+      <c r="BR21" s="93"/>
+      <c r="BS21" s="93"/>
+      <c r="BT21" s="94"/>
       <c r="BU21" s="53"/>
       <c r="BV21" s="53"/>
       <c r="BW21" s="53"/>
@@ -4127,7 +4127,7 @@
       <c r="CF21" s="23"/>
     </row>
     <row r="22" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="109" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="57" t="s">
@@ -4136,10 +4136,10 @@
       <c r="C22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
       <c r="I22" s="59"/>
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
@@ -4152,14 +4152,14 @@
       <c r="R22" s="59"/>
       <c r="S22" s="59"/>
       <c r="T22" s="60"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="108"/>
-      <c r="W22" s="108"/>
-      <c r="X22" s="108"/>
-      <c r="Y22" s="108"/>
-      <c r="Z22" s="108"/>
-      <c r="AA22" s="108"/>
-      <c r="AB22" s="109"/>
+      <c r="U22" s="123"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="124"/>
+      <c r="X22" s="124"/>
+      <c r="Y22" s="124"/>
+      <c r="Z22" s="124"/>
+      <c r="AA22" s="124"/>
+      <c r="AB22" s="125"/>
       <c r="AC22" s="58"/>
       <c r="AD22" s="59"/>
       <c r="AE22" s="59"/>
@@ -4168,10 +4168,10 @@
       <c r="AH22" s="59"/>
       <c r="AI22" s="82"/>
       <c r="AJ22" s="83"/>
-      <c r="AK22" s="116"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="117"/>
-      <c r="AN22" s="118"/>
+      <c r="AK22" s="92"/>
+      <c r="AL22" s="93"/>
+      <c r="AM22" s="93"/>
+      <c r="AN22" s="94"/>
       <c r="AO22" s="82"/>
       <c r="AP22" s="82"/>
       <c r="AQ22" s="59"/>
@@ -4184,10 +4184,10 @@
       <c r="AX22" s="82"/>
       <c r="AY22" s="82"/>
       <c r="AZ22" s="83"/>
-      <c r="BA22" s="116"/>
-      <c r="BB22" s="117"/>
-      <c r="BC22" s="117"/>
-      <c r="BD22" s="118"/>
+      <c r="BA22" s="92"/>
+      <c r="BB22" s="93"/>
+      <c r="BC22" s="93"/>
+      <c r="BD22" s="94"/>
       <c r="BE22" s="82"/>
       <c r="BF22" s="82"/>
       <c r="BG22" s="82"/>
@@ -4200,17 +4200,17 @@
       <c r="BN22" s="82"/>
       <c r="BO22" s="82"/>
       <c r="BP22" s="83"/>
-      <c r="BQ22" s="116"/>
-      <c r="BR22" s="117"/>
-      <c r="BS22" s="117"/>
-      <c r="BT22" s="118"/>
+      <c r="BQ22" s="92"/>
+      <c r="BR22" s="93"/>
+      <c r="BS22" s="93"/>
+      <c r="BT22" s="94"/>
       <c r="BU22" s="82"/>
       <c r="BV22" s="82"/>
       <c r="BW22" s="82"/>
       <c r="BX22" s="83"/>
-      <c r="BY22" s="58"/>
-      <c r="BZ22" s="59"/>
-      <c r="CA22" s="59"/>
+      <c r="BY22" s="88"/>
+      <c r="BZ22" s="82"/>
+      <c r="CA22" s="82"/>
       <c r="CB22" s="59"/>
       <c r="CC22" s="59"/>
       <c r="CD22" s="59"/>
@@ -4218,17 +4218,17 @@
       <c r="CF22" s="60"/>
     </row>
     <row r="23" spans="1:84" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
+      <c r="A23" s="110"/>
       <c r="B23" s="56" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="101"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="103"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="119"/>
       <c r="I23" s="64"/>
       <c r="J23" s="64"/>
       <c r="K23" s="62"/>
@@ -4241,14 +4241,14 @@
       <c r="R23" s="62"/>
       <c r="S23" s="62"/>
       <c r="T23" s="63"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="111"/>
-      <c r="W23" s="111"/>
-      <c r="X23" s="111"/>
-      <c r="Y23" s="111"/>
-      <c r="Z23" s="111"/>
-      <c r="AA23" s="111"/>
-      <c r="AB23" s="112"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="128"/>
       <c r="AC23" s="61"/>
       <c r="AD23" s="62"/>
       <c r="AE23" s="62"/>
@@ -4257,10 +4257,10 @@
       <c r="AH23" s="62"/>
       <c r="AI23" s="62"/>
       <c r="AJ23" s="63"/>
-      <c r="AK23" s="119"/>
-      <c r="AL23" s="120"/>
-      <c r="AM23" s="120"/>
-      <c r="AN23" s="121"/>
+      <c r="AK23" s="95"/>
+      <c r="AL23" s="96"/>
+      <c r="AM23" s="96"/>
+      <c r="AN23" s="97"/>
       <c r="AO23" s="62"/>
       <c r="AP23" s="62"/>
       <c r="AQ23" s="62"/>
@@ -4273,10 +4273,10 @@
       <c r="AX23" s="62"/>
       <c r="AY23" s="62"/>
       <c r="AZ23" s="63"/>
-      <c r="BA23" s="119"/>
-      <c r="BB23" s="120"/>
-      <c r="BC23" s="120"/>
-      <c r="BD23" s="121"/>
+      <c r="BA23" s="95"/>
+      <c r="BB23" s="96"/>
+      <c r="BC23" s="96"/>
+      <c r="BD23" s="97"/>
       <c r="BE23" s="62"/>
       <c r="BF23" s="62"/>
       <c r="BG23" s="62"/>
@@ -4289,10 +4289,10 @@
       <c r="BN23" s="62"/>
       <c r="BO23" s="62"/>
       <c r="BP23" s="63"/>
-      <c r="BQ23" s="119"/>
-      <c r="BR23" s="120"/>
-      <c r="BS23" s="120"/>
-      <c r="BT23" s="121"/>
+      <c r="BQ23" s="95"/>
+      <c r="BR23" s="96"/>
+      <c r="BS23" s="96"/>
+      <c r="BT23" s="97"/>
       <c r="BU23" s="62"/>
       <c r="BV23" s="62"/>
       <c r="BW23" s="62"/>
@@ -4308,11 +4308,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="BQ6:BT23"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="BU4:BX4"/>
+    <mergeCell ref="BQ4:BT4"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E6:H23"/>
+    <mergeCell ref="U6:AB23"/>
+    <mergeCell ref="AK6:AN23"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="Y4:AB4"/>
+    <mergeCell ref="BA6:BD23"/>
     <mergeCell ref="E2:AR3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -4329,22 +4340,11 @@
     <mergeCell ref="AW4:AZ4"/>
     <mergeCell ref="BY4:CB4"/>
     <mergeCell ref="CC4:CF4"/>
-    <mergeCell ref="BU4:BX4"/>
-    <mergeCell ref="BQ4:BT4"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E6:H23"/>
-    <mergeCell ref="U6:AB23"/>
-    <mergeCell ref="AK6:AN23"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="Y4:AB4"/>
-    <mergeCell ref="BA6:BD23"/>
+    <mergeCell ref="BQ6:BT23"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="C6:C23">
@@ -4382,17 +4382,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -4605,6 +4594,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
@@ -4614,19 +4614,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C334E08-C15B-4283-B082-739F59C9FCA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4643,4 +4630,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="657" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE4BA11E-9A13-46C1-A3DB-5AB0E59D0E07}"/>
+  <xr:revisionPtr revIDLastSave="660" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB4B5D71-95EF-4608-8C94-FE808DAD7275}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>Journée culturelle</t>
   </si>
   <si>
-    <t>Pasquier Théo</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Sprint review</t>
+  </si>
+  <si>
+    <t>Pasquier Théo, Pires Donose Andrei &amp; Müller Luuk</t>
   </si>
 </sst>
 </file>
@@ -1403,12 +1403,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>771524</xdr:colOff>
+      <xdr:colOff>771523</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
+      <xdr:col>80</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1426,8 +1426,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5076824" y="1504950"/>
-          <a:ext cx="10734676" cy="3257550"/>
+          <a:off x="5076823" y="1504950"/>
+          <a:ext cx="11306177" cy="3257550"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2052,7 +2052,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Y27" sqref="Y27"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2068,7 +2068,7 @@
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="12"/>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="2" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B2" s="106"/>
       <c r="C2" s="13"/>
@@ -2668,17 +2668,17 @@
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="112"/>
       <c r="G6" s="112"/>
@@ -2714,7 +2714,7 @@
       <c r="AI6" s="30"/>
       <c r="AJ6" s="31"/>
       <c r="AK6" s="89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL6" s="90"/>
       <c r="AM6" s="90"/>
@@ -2732,7 +2732,7 @@
       <c r="AY6" s="30"/>
       <c r="AZ6" s="31"/>
       <c r="BA6" s="89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB6" s="90"/>
       <c r="BC6" s="90"/>
@@ -2750,7 +2750,7 @@
       <c r="BO6" s="30"/>
       <c r="BP6" s="31"/>
       <c r="BQ6" s="89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BR6" s="90"/>
       <c r="BS6" s="90"/>
@@ -2771,10 +2771,10 @@
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A7" s="138"/>
       <c r="B7" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="114"/>
@@ -2861,10 +2861,10 @@
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" s="138"/>
       <c r="B8" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="114"/>
@@ -2950,13 +2950,13 @@
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="114"/>
@@ -3043,10 +3043,10 @@
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" s="140"/>
       <c r="B10" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="114"/>
@@ -3133,10 +3133,10 @@
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11" s="141"/>
       <c r="B11" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="114"/>
@@ -3222,13 +3222,13 @@
     </row>
     <row r="12" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="114"/>
@@ -3315,10 +3315,10 @@
     <row r="13" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="134"/>
       <c r="B13" s="75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="114"/>
@@ -3405,10 +3405,10 @@
     <row r="14" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="135"/>
       <c r="B14" s="78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="114"/>
@@ -3494,13 +3494,13 @@
     </row>
     <row r="15" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="114"/>
@@ -3587,10 +3587,10 @@
     <row r="16" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="130"/>
       <c r="B16" s="80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="114"/>
@@ -3676,13 +3676,13 @@
     </row>
     <row r="17" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="114"/>
@@ -3769,10 +3769,10 @@
     <row r="18" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="132"/>
       <c r="B18" s="79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="114"/>
@@ -3858,13 +3858,13 @@
     </row>
     <row r="19" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="114"/>
@@ -3951,7 +3951,7 @@
     <row r="20" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="137"/>
       <c r="B20" s="81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="25"/>
@@ -4038,10 +4038,10 @@
     </row>
     <row r="21" spans="1:84" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="25"/>
@@ -4128,13 +4128,13 @@
     </row>
     <row r="22" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="114"/>
       <c r="F22" s="115"/>
@@ -4220,10 +4220,10 @@
     <row r="23" spans="1:84" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="110"/>
       <c r="B23" s="56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="117"/>
       <c r="F23" s="118"/>

--- a/documentation/3_2_PlanningJeudiVendredi.xlsx
+++ b/documentation/3_2_PlanningJeudiVendredi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/theo_pasquier_studentfr_ch/Documents/3eme année/306/projet/306-G1-Piloter_un_robot_phidget_a_distance/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="660" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB4B5D71-95EF-4608-8C94-FE808DAD7275}"/>
+  <xr:revisionPtr revIDLastSave="665" documentId="8_{3242CAA9-CE1B-4AB7-A89C-0F9BBFF89D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E86255-5355-4825-8EEC-C240C853E325}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>Tâches</t>
   </si>
@@ -1145,40 +1145,12 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1189,12 +1161,172 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1223,138 +1355,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2052,7 +2052,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2067,10 +2067,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="104"/>
+      <c r="B1" s="137"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="1"/>
@@ -2115,310 +2115,310 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="106"/>
+      <c r="B2" s="139"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="102"/>
-      <c r="AP2" s="102"/>
-      <c r="AQ2" s="102"/>
-      <c r="AR2" s="102"/>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="102"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="102"/>
-      <c r="AY2" s="102"/>
-      <c r="AZ2" s="102"/>
-      <c r="BA2" s="102"/>
-      <c r="BB2" s="102"/>
-      <c r="BC2" s="102"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
-      <c r="BH2" s="102"/>
-      <c r="BI2" s="102"/>
-      <c r="BJ2" s="102"/>
-      <c r="BK2" s="102"/>
-      <c r="BL2" s="102"/>
-      <c r="BM2" s="102"/>
-      <c r="BN2" s="102"/>
-      <c r="BO2" s="102"/>
-      <c r="BP2" s="102"/>
-      <c r="BQ2" s="102"/>
-      <c r="BR2" s="102"/>
-      <c r="BS2" s="102"/>
-      <c r="BT2" s="102"/>
-      <c r="BU2" s="102"/>
-      <c r="BV2" s="102"/>
-      <c r="BW2" s="102"/>
-      <c r="BX2" s="102"/>
-      <c r="BY2" s="102"/>
-      <c r="BZ2" s="102"/>
-      <c r="CA2" s="102"/>
-      <c r="CB2" s="102"/>
-      <c r="CC2" s="102"/>
-      <c r="CD2" s="102"/>
-      <c r="CE2" s="102"/>
-      <c r="CF2" s="102"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
+      <c r="AX2" s="135"/>
+      <c r="AY2" s="135"/>
+      <c r="AZ2" s="135"/>
+      <c r="BA2" s="135"/>
+      <c r="BB2" s="135"/>
+      <c r="BC2" s="135"/>
+      <c r="BD2" s="135"/>
+      <c r="BE2" s="135"/>
+      <c r="BF2" s="135"/>
+      <c r="BG2" s="135"/>
+      <c r="BH2" s="135"/>
+      <c r="BI2" s="135"/>
+      <c r="BJ2" s="135"/>
+      <c r="BK2" s="135"/>
+      <c r="BL2" s="135"/>
+      <c r="BM2" s="135"/>
+      <c r="BN2" s="135"/>
+      <c r="BO2" s="135"/>
+      <c r="BP2" s="135"/>
+      <c r="BQ2" s="135"/>
+      <c r="BR2" s="135"/>
+      <c r="BS2" s="135"/>
+      <c r="BT2" s="135"/>
+      <c r="BU2" s="135"/>
+      <c r="BV2" s="135"/>
+      <c r="BW2" s="135"/>
+      <c r="BX2" s="135"/>
+      <c r="BY2" s="135"/>
+      <c r="BZ2" s="135"/>
+      <c r="CA2" s="135"/>
+      <c r="CB2" s="135"/>
+      <c r="CC2" s="135"/>
+      <c r="CD2" s="135"/>
+      <c r="CE2" s="135"/>
+      <c r="CF2" s="135"/>
     </row>
     <row r="3" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="103"/>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="103"/>
-      <c r="AP3" s="103"/>
-      <c r="AQ3" s="103"/>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="103"/>
-      <c r="AU3" s="103"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="103"/>
-      <c r="BC3" s="103"/>
-      <c r="BD3" s="103"/>
-      <c r="BE3" s="103"/>
-      <c r="BF3" s="103"/>
-      <c r="BG3" s="103"/>
-      <c r="BH3" s="103"/>
-      <c r="BI3" s="103"/>
-      <c r="BJ3" s="103"/>
-      <c r="BK3" s="103"/>
-      <c r="BL3" s="103"/>
-      <c r="BM3" s="103"/>
-      <c r="BN3" s="103"/>
-      <c r="BO3" s="103"/>
-      <c r="BP3" s="103"/>
-      <c r="BQ3" s="103"/>
-      <c r="BR3" s="103"/>
-      <c r="BS3" s="103"/>
-      <c r="BT3" s="103"/>
-      <c r="BU3" s="103"/>
-      <c r="BV3" s="103"/>
-      <c r="BW3" s="103"/>
-      <c r="BX3" s="103"/>
-      <c r="BY3" s="103"/>
-      <c r="BZ3" s="103"/>
-      <c r="CA3" s="103"/>
-      <c r="CB3" s="103"/>
-      <c r="CC3" s="103"/>
-      <c r="CD3" s="103"/>
-      <c r="CE3" s="103"/>
-      <c r="CF3" s="103"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136"/>
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136"/>
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="136"/>
+      <c r="BA3" s="136"/>
+      <c r="BB3" s="136"/>
+      <c r="BC3" s="136"/>
+      <c r="BD3" s="136"/>
+      <c r="BE3" s="136"/>
+      <c r="BF3" s="136"/>
+      <c r="BG3" s="136"/>
+      <c r="BH3" s="136"/>
+      <c r="BI3" s="136"/>
+      <c r="BJ3" s="136"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
+      <c r="BR3" s="136"/>
+      <c r="BS3" s="136"/>
+      <c r="BT3" s="136"/>
+      <c r="BU3" s="136"/>
+      <c r="BV3" s="136"/>
+      <c r="BW3" s="136"/>
+      <c r="BX3" s="136"/>
+      <c r="BY3" s="136"/>
+      <c r="BZ3" s="136"/>
+      <c r="CA3" s="136"/>
+      <c r="CB3" s="136"/>
+      <c r="CC3" s="136"/>
+      <c r="CD3" s="136"/>
+      <c r="CE3" s="136"/>
+      <c r="CF3" s="136"/>
     </row>
     <row r="4" spans="1:84" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="100">
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="89">
         <v>45995</v>
       </c>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="98" t="s">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="100">
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="89">
         <v>45996</v>
       </c>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="98" t="s">
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="100">
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="89">
         <v>46002</v>
       </c>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="98" t="s">
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="100">
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="89">
         <v>46003</v>
       </c>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="98" t="s">
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="100">
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="89">
         <v>46009</v>
       </c>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="98" t="s">
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="100">
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="89">
         <v>46010</v>
       </c>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="100"/>
-      <c r="AZ4" s="101"/>
-      <c r="BA4" s="98" t="s">
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="100">
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="89">
         <v>46030</v>
       </c>
-      <c r="BF4" s="100"/>
-      <c r="BG4" s="100"/>
-      <c r="BH4" s="101"/>
-      <c r="BI4" s="98" t="s">
+      <c r="BF4" s="89"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="99"/>
-      <c r="BM4" s="100">
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="92"/>
+      <c r="BM4" s="89">
         <v>46031</v>
       </c>
-      <c r="BN4" s="100"/>
-      <c r="BO4" s="100"/>
-      <c r="BP4" s="101"/>
-      <c r="BQ4" s="98" t="s">
+      <c r="BN4" s="89"/>
+      <c r="BO4" s="89"/>
+      <c r="BP4" s="90"/>
+      <c r="BQ4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="BR4" s="99"/>
-      <c r="BS4" s="99"/>
-      <c r="BT4" s="99"/>
-      <c r="BU4" s="100">
+      <c r="BR4" s="92"/>
+      <c r="BS4" s="92"/>
+      <c r="BT4" s="92"/>
+      <c r="BU4" s="89">
         <v>46037</v>
       </c>
-      <c r="BV4" s="100"/>
-      <c r="BW4" s="100"/>
-      <c r="BX4" s="101"/>
-      <c r="BY4" s="98" t="s">
+      <c r="BV4" s="89"/>
+      <c r="BW4" s="89"/>
+      <c r="BX4" s="90"/>
+      <c r="BY4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="BZ4" s="99"/>
-      <c r="CA4" s="99"/>
-      <c r="CB4" s="99"/>
-      <c r="CC4" s="100">
+      <c r="BZ4" s="92"/>
+      <c r="CA4" s="92"/>
+      <c r="CB4" s="92"/>
+      <c r="CC4" s="89">
         <v>46038</v>
       </c>
-      <c r="CD4" s="100"/>
-      <c r="CE4" s="100"/>
-      <c r="CF4" s="101"/>
+      <c r="CD4" s="89"/>
+      <c r="CE4" s="89"/>
+      <c r="CF4" s="90"/>
     </row>
     <row r="5" spans="1:84" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="108"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -2667,7 +2667,7 @@
       </c>
     </row>
     <row r="6" spans="1:84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="131" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -2677,12 +2677,12 @@
         <v>22</v>
       </c>
       <c r="D6" s="24"/>
-      <c r="E6" s="111" t="s">
+      <c r="E6" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="113"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="17"/>
@@ -2695,16 +2695,16 @@
       <c r="R6" s="30"/>
       <c r="S6" s="30"/>
       <c r="T6" s="31"/>
-      <c r="U6" s="120" t="s">
+      <c r="U6" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="122"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="106"/>
       <c r="AC6" s="32"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
@@ -2713,12 +2713,12 @@
       <c r="AH6" s="30"/>
       <c r="AI6" s="30"/>
       <c r="AJ6" s="31"/>
-      <c r="AK6" s="89" t="s">
+      <c r="AK6" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="90"/>
-      <c r="AN6" s="91"/>
+      <c r="AL6" s="114"/>
+      <c r="AM6" s="114"/>
+      <c r="AN6" s="115"/>
       <c r="AO6" s="30"/>
       <c r="AP6" s="30"/>
       <c r="AQ6" s="30"/>
@@ -2731,12 +2731,12 @@
       <c r="AX6" s="30"/>
       <c r="AY6" s="30"/>
       <c r="AZ6" s="31"/>
-      <c r="BA6" s="89" t="s">
+      <c r="BA6" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="BB6" s="90"/>
-      <c r="BC6" s="90"/>
-      <c r="BD6" s="91"/>
+      <c r="BB6" s="114"/>
+      <c r="BC6" s="114"/>
+      <c r="BD6" s="115"/>
       <c r="BE6" s="30"/>
       <c r="BF6" s="30"/>
       <c r="BG6" s="30"/>
@@ -2749,12 +2749,12 @@
       <c r="BN6" s="30"/>
       <c r="BO6" s="30"/>
       <c r="BP6" s="31"/>
-      <c r="BQ6" s="89" t="s">
+      <c r="BQ6" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="BR6" s="90"/>
-      <c r="BS6" s="90"/>
-      <c r="BT6" s="91"/>
+      <c r="BR6" s="114"/>
+      <c r="BS6" s="114"/>
+      <c r="BT6" s="115"/>
       <c r="BU6" s="71"/>
       <c r="BV6" s="71"/>
       <c r="BW6" s="30"/>
@@ -2769,7 +2769,7 @@
       <c r="CF6" s="31"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A7" s="138"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="28" t="s">
         <v>10</v>
       </c>
@@ -2777,10 +2777,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="116"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="100"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
@@ -2793,14 +2793,14 @@
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
       <c r="T7" s="34"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="125"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="109"/>
       <c r="AC7" s="35"/>
       <c r="AD7" s="33"/>
       <c r="AE7" s="33"/>
@@ -2809,10 +2809,10 @@
       <c r="AH7" s="33"/>
       <c r="AI7" s="33"/>
       <c r="AJ7" s="34"/>
-      <c r="AK7" s="92"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="94"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="117"/>
+      <c r="AM7" s="117"/>
+      <c r="AN7" s="118"/>
       <c r="AO7" s="33"/>
       <c r="AP7" s="33"/>
       <c r="AQ7" s="33"/>
@@ -2825,10 +2825,10 @@
       <c r="AX7" s="33"/>
       <c r="AY7" s="33"/>
       <c r="AZ7" s="34"/>
-      <c r="BA7" s="92"/>
-      <c r="BB7" s="93"/>
-      <c r="BC7" s="93"/>
-      <c r="BD7" s="94"/>
+      <c r="BA7" s="116"/>
+      <c r="BB7" s="117"/>
+      <c r="BC7" s="117"/>
+      <c r="BD7" s="118"/>
       <c r="BE7" s="33"/>
       <c r="BF7" s="33"/>
       <c r="BG7" s="33"/>
@@ -2841,10 +2841,10 @@
       <c r="BN7" s="33"/>
       <c r="BO7" s="33"/>
       <c r="BP7" s="34"/>
-      <c r="BQ7" s="92"/>
-      <c r="BR7" s="93"/>
-      <c r="BS7" s="93"/>
-      <c r="BT7" s="94"/>
+      <c r="BQ7" s="116"/>
+      <c r="BR7" s="117"/>
+      <c r="BS7" s="117"/>
+      <c r="BT7" s="118"/>
       <c r="BU7" s="33"/>
       <c r="BV7" s="33"/>
       <c r="BW7" s="33"/>
@@ -2859,7 +2859,7 @@
       <c r="CF7" s="34"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A8" s="138"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
@@ -2867,10 +2867,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="25"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="116"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="100"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -2883,14 +2883,14 @@
       <c r="R8" s="33"/>
       <c r="S8" s="33"/>
       <c r="T8" s="34"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="124"/>
-      <c r="Z8" s="124"/>
-      <c r="AA8" s="124"/>
-      <c r="AB8" s="125"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="108"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="109"/>
       <c r="AC8" s="35"/>
       <c r="AD8" s="33"/>
       <c r="AE8" s="33"/>
@@ -2899,10 +2899,10 @@
       <c r="AH8" s="33"/>
       <c r="AI8" s="33"/>
       <c r="AJ8" s="34"/>
-      <c r="AK8" s="92"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="94"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="117"/>
+      <c r="AM8" s="117"/>
+      <c r="AN8" s="118"/>
       <c r="AO8" s="33"/>
       <c r="AP8" s="33"/>
       <c r="AQ8" s="33"/>
@@ -2915,10 +2915,10 @@
       <c r="AX8" s="33"/>
       <c r="AY8" s="33"/>
       <c r="AZ8" s="34"/>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="93"/>
-      <c r="BC8" s="93"/>
-      <c r="BD8" s="94"/>
+      <c r="BA8" s="116"/>
+      <c r="BB8" s="117"/>
+      <c r="BC8" s="117"/>
+      <c r="BD8" s="118"/>
       <c r="BE8" s="33"/>
       <c r="BF8" s="33"/>
       <c r="BG8" s="33"/>
@@ -2931,10 +2931,10 @@
       <c r="BN8" s="33"/>
       <c r="BO8" s="33"/>
       <c r="BP8" s="34"/>
-      <c r="BQ8" s="92"/>
-      <c r="BR8" s="93"/>
-      <c r="BS8" s="93"/>
-      <c r="BT8" s="94"/>
+      <c r="BQ8" s="116"/>
+      <c r="BR8" s="117"/>
+      <c r="BS8" s="117"/>
+      <c r="BT8" s="118"/>
       <c r="BU8" s="33"/>
       <c r="BV8" s="33"/>
       <c r="BW8" s="33"/>
@@ -2949,7 +2949,7 @@
       <c r="CF8" s="34"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="132" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -2959,10 +2959,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="25"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="100"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -2975,14 +2975,14 @@
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
       <c r="T9" s="38"/>
-      <c r="U9" s="123"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="124"/>
-      <c r="AB9" s="125"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="108"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="108"/>
+      <c r="Z9" s="108"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="109"/>
       <c r="AC9" s="39"/>
       <c r="AD9" s="37"/>
       <c r="AE9" s="37"/>
@@ -2991,10 +2991,10 @@
       <c r="AH9" s="37"/>
       <c r="AI9" s="37"/>
       <c r="AJ9" s="38"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="94"/>
+      <c r="AK9" s="116"/>
+      <c r="AL9" s="117"/>
+      <c r="AM9" s="117"/>
+      <c r="AN9" s="118"/>
       <c r="AO9" s="37"/>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
@@ -3007,10 +3007,10 @@
       <c r="AX9" s="37"/>
       <c r="AY9" s="37"/>
       <c r="AZ9" s="38"/>
-      <c r="BA9" s="92"/>
-      <c r="BB9" s="93"/>
-      <c r="BC9" s="93"/>
-      <c r="BD9" s="94"/>
+      <c r="BA9" s="116"/>
+      <c r="BB9" s="117"/>
+      <c r="BC9" s="117"/>
+      <c r="BD9" s="118"/>
       <c r="BE9" s="37"/>
       <c r="BF9" s="37"/>
       <c r="BG9" s="37"/>
@@ -3023,10 +3023,10 @@
       <c r="BN9" s="37"/>
       <c r="BO9" s="37"/>
       <c r="BP9" s="38"/>
-      <c r="BQ9" s="92"/>
-      <c r="BR9" s="93"/>
-      <c r="BS9" s="93"/>
-      <c r="BT9" s="94"/>
+      <c r="BQ9" s="116"/>
+      <c r="BR9" s="117"/>
+      <c r="BS9" s="117"/>
+      <c r="BT9" s="118"/>
       <c r="BU9" s="37"/>
       <c r="BV9" s="37"/>
       <c r="BW9" s="37"/>
@@ -3041,7 +3041,7 @@
       <c r="CF9" s="38"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A10" s="140"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="36" t="s">
         <v>14</v>
       </c>
@@ -3049,10 +3049,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="25"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
@@ -3065,14 +3065,14 @@
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
       <c r="T10" s="38"/>
-      <c r="U10" s="123"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-      <c r="Z10" s="124"/>
-      <c r="AA10" s="124"/>
-      <c r="AB10" s="125"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="109"/>
       <c r="AC10" s="39"/>
       <c r="AD10" s="37"/>
       <c r="AE10" s="37"/>
@@ -3081,10 +3081,10 @@
       <c r="AH10" s="37"/>
       <c r="AI10" s="37"/>
       <c r="AJ10" s="38"/>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="93"/>
-      <c r="AN10" s="94"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="117"/>
+      <c r="AM10" s="117"/>
+      <c r="AN10" s="118"/>
       <c r="AO10" s="37"/>
       <c r="AP10" s="37"/>
       <c r="AQ10" s="37"/>
@@ -3097,10 +3097,10 @@
       <c r="AX10" s="37"/>
       <c r="AY10" s="37"/>
       <c r="AZ10" s="38"/>
-      <c r="BA10" s="92"/>
-      <c r="BB10" s="93"/>
-      <c r="BC10" s="93"/>
-      <c r="BD10" s="94"/>
+      <c r="BA10" s="116"/>
+      <c r="BB10" s="117"/>
+      <c r="BC10" s="117"/>
+      <c r="BD10" s="118"/>
       <c r="BE10" s="37"/>
       <c r="BF10" s="37"/>
       <c r="BG10" s="37"/>
@@ -3113,10 +3113,10 @@
       <c r="BN10" s="37"/>
       <c r="BO10" s="37"/>
       <c r="BP10" s="38"/>
-      <c r="BQ10" s="92"/>
-      <c r="BR10" s="93"/>
-      <c r="BS10" s="93"/>
-      <c r="BT10" s="94"/>
+      <c r="BQ10" s="116"/>
+      <c r="BR10" s="117"/>
+      <c r="BS10" s="117"/>
+      <c r="BT10" s="118"/>
       <c r="BU10" s="37"/>
       <c r="BV10" s="37"/>
       <c r="BW10" s="37"/>
@@ -3131,7 +3131,7 @@
       <c r="CF10" s="38"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A11" s="141"/>
+      <c r="A11" s="134"/>
       <c r="B11" s="36" t="s">
         <v>15</v>
       </c>
@@ -3139,10 +3139,10 @@
         <v>22</v>
       </c>
       <c r="D11" s="25"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="116"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
@@ -3155,14 +3155,14 @@
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="124"/>
-      <c r="AA11" s="124"/>
-      <c r="AB11" s="125"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="108"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="109"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="37"/>
       <c r="AE11" s="37"/>
@@ -3171,10 +3171,10 @@
       <c r="AH11" s="37"/>
       <c r="AI11" s="37"/>
       <c r="AJ11" s="38"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="94"/>
+      <c r="AK11" s="116"/>
+      <c r="AL11" s="117"/>
+      <c r="AM11" s="117"/>
+      <c r="AN11" s="118"/>
       <c r="AO11" s="37"/>
       <c r="AP11" s="37"/>
       <c r="AQ11" s="37"/>
@@ -3187,10 +3187,10 @@
       <c r="AX11" s="37"/>
       <c r="AY11" s="37"/>
       <c r="AZ11" s="38"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="93"/>
-      <c r="BC11" s="93"/>
-      <c r="BD11" s="94"/>
+      <c r="BA11" s="116"/>
+      <c r="BB11" s="117"/>
+      <c r="BC11" s="117"/>
+      <c r="BD11" s="118"/>
       <c r="BE11" s="37"/>
       <c r="BF11" s="37"/>
       <c r="BG11" s="37"/>
@@ -3203,10 +3203,10 @@
       <c r="BN11" s="37"/>
       <c r="BO11" s="37"/>
       <c r="BP11" s="38"/>
-      <c r="BQ11" s="92"/>
-      <c r="BR11" s="93"/>
-      <c r="BS11" s="93"/>
-      <c r="BT11" s="94"/>
+      <c r="BQ11" s="116"/>
+      <c r="BR11" s="117"/>
+      <c r="BS11" s="117"/>
+      <c r="BT11" s="118"/>
       <c r="BU11" s="37"/>
       <c r="BV11" s="37"/>
       <c r="BW11" s="37"/>
@@ -3221,7 +3221,7 @@
       <c r="CF11" s="38"/>
     </row>
     <row r="12" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="126" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="74" t="s">
@@ -3231,10 +3231,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="25"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="116"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="100"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -3247,14 +3247,14 @@
       <c r="R12" s="40"/>
       <c r="S12" s="40"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="124"/>
-      <c r="W12" s="124"/>
-      <c r="X12" s="124"/>
-      <c r="Y12" s="124"/>
-      <c r="Z12" s="124"/>
-      <c r="AA12" s="124"/>
-      <c r="AB12" s="125"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="108"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="109"/>
       <c r="AC12" s="42"/>
       <c r="AD12" s="20"/>
       <c r="AE12" s="40"/>
@@ -3263,10 +3263,10 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="20"/>
       <c r="AJ12" s="41"/>
-      <c r="AK12" s="92"/>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="93"/>
-      <c r="AN12" s="94"/>
+      <c r="AK12" s="116"/>
+      <c r="AL12" s="117"/>
+      <c r="AM12" s="117"/>
+      <c r="AN12" s="118"/>
       <c r="AO12" s="20"/>
       <c r="AP12" s="20"/>
       <c r="AQ12" s="20"/>
@@ -3279,10 +3279,10 @@
       <c r="AX12" s="40"/>
       <c r="AY12" s="40"/>
       <c r="AZ12" s="41"/>
-      <c r="BA12" s="92"/>
-      <c r="BB12" s="93"/>
-      <c r="BC12" s="93"/>
-      <c r="BD12" s="94"/>
+      <c r="BA12" s="116"/>
+      <c r="BB12" s="117"/>
+      <c r="BC12" s="117"/>
+      <c r="BD12" s="118"/>
       <c r="BE12" s="40"/>
       <c r="BF12" s="40"/>
       <c r="BG12" s="40"/>
@@ -3295,10 +3295,10 @@
       <c r="BN12" s="40"/>
       <c r="BO12" s="40"/>
       <c r="BP12" s="41"/>
-      <c r="BQ12" s="92"/>
-      <c r="BR12" s="93"/>
-      <c r="BS12" s="93"/>
-      <c r="BT12" s="94"/>
+      <c r="BQ12" s="116"/>
+      <c r="BR12" s="117"/>
+      <c r="BS12" s="117"/>
+      <c r="BT12" s="118"/>
       <c r="BU12" s="40"/>
       <c r="BV12" s="40"/>
       <c r="BW12" s="40"/>
@@ -3313,7 +3313,7 @@
       <c r="CF12" s="41"/>
     </row>
     <row r="13" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="134"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="75" t="s">
         <v>29</v>
       </c>
@@ -3321,10 +3321,10 @@
         <v>22</v>
       </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="116"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -3337,14 +3337,14 @@
       <c r="R13" s="40"/>
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="124"/>
-      <c r="W13" s="124"/>
-      <c r="X13" s="124"/>
-      <c r="Y13" s="124"/>
-      <c r="Z13" s="124"/>
-      <c r="AA13" s="124"/>
-      <c r="AB13" s="125"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="108"/>
+      <c r="Y13" s="108"/>
+      <c r="Z13" s="108"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="109"/>
       <c r="AC13" s="42"/>
       <c r="AD13" s="40"/>
       <c r="AE13" s="20"/>
@@ -3353,10 +3353,10 @@
       <c r="AH13" s="40"/>
       <c r="AI13" s="40"/>
       <c r="AJ13" s="69"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="93"/>
-      <c r="AN13" s="94"/>
+      <c r="AK13" s="116"/>
+      <c r="AL13" s="117"/>
+      <c r="AM13" s="117"/>
+      <c r="AN13" s="118"/>
       <c r="AO13" s="40"/>
       <c r="AP13" s="40"/>
       <c r="AQ13" s="40"/>
@@ -3369,10 +3369,10 @@
       <c r="AX13" s="40"/>
       <c r="AY13" s="40"/>
       <c r="AZ13" s="41"/>
-      <c r="BA13" s="92"/>
-      <c r="BB13" s="93"/>
-      <c r="BC13" s="93"/>
-      <c r="BD13" s="94"/>
+      <c r="BA13" s="116"/>
+      <c r="BB13" s="117"/>
+      <c r="BC13" s="117"/>
+      <c r="BD13" s="118"/>
       <c r="BE13" s="40"/>
       <c r="BF13" s="40"/>
       <c r="BG13" s="40"/>
@@ -3385,10 +3385,10 @@
       <c r="BN13" s="40"/>
       <c r="BO13" s="40"/>
       <c r="BP13" s="41"/>
-      <c r="BQ13" s="92"/>
-      <c r="BR13" s="93"/>
-      <c r="BS13" s="93"/>
-      <c r="BT13" s="94"/>
+      <c r="BQ13" s="116"/>
+      <c r="BR13" s="117"/>
+      <c r="BS13" s="117"/>
+      <c r="BT13" s="118"/>
       <c r="BU13" s="40"/>
       <c r="BV13" s="40"/>
       <c r="BW13" s="40"/>
@@ -3403,7 +3403,7 @@
       <c r="CF13" s="41"/>
     </row>
     <row r="14" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135"/>
+      <c r="A14" s="128"/>
       <c r="B14" s="78" t="s">
         <v>30</v>
       </c>
@@ -3411,10 +3411,10 @@
         <v>22</v>
       </c>
       <c r="D14" s="25"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="116"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="100"/>
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -3427,14 +3427,14 @@
       <c r="R14" s="40"/>
       <c r="S14" s="40"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="124"/>
-      <c r="W14" s="124"/>
-      <c r="X14" s="124"/>
-      <c r="Y14" s="124"/>
-      <c r="Z14" s="124"/>
-      <c r="AA14" s="124"/>
-      <c r="AB14" s="125"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="108"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="108"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="109"/>
       <c r="AC14" s="42"/>
       <c r="AD14" s="40"/>
       <c r="AE14" s="40"/>
@@ -3443,10 +3443,10 @@
       <c r="AH14" s="40"/>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="70"/>
-      <c r="AK14" s="92"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="94"/>
+      <c r="AK14" s="116"/>
+      <c r="AL14" s="117"/>
+      <c r="AM14" s="117"/>
+      <c r="AN14" s="118"/>
       <c r="AO14" s="40"/>
       <c r="AP14" s="40"/>
       <c r="AQ14" s="40"/>
@@ -3459,10 +3459,10 @@
       <c r="AX14" s="40"/>
       <c r="AY14" s="40"/>
       <c r="AZ14" s="41"/>
-      <c r="BA14" s="92"/>
-      <c r="BB14" s="93"/>
-      <c r="BC14" s="93"/>
-      <c r="BD14" s="94"/>
+      <c r="BA14" s="116"/>
+      <c r="BB14" s="117"/>
+      <c r="BC14" s="117"/>
+      <c r="BD14" s="118"/>
       <c r="BE14" s="40"/>
       <c r="BF14" s="40"/>
       <c r="BG14" s="40"/>
@@ -3475,10 +3475,10 @@
       <c r="BN14" s="40"/>
       <c r="BO14" s="40"/>
       <c r="BP14" s="41"/>
-      <c r="BQ14" s="92"/>
-      <c r="BR14" s="93"/>
-      <c r="BS14" s="93"/>
-      <c r="BT14" s="94"/>
+      <c r="BQ14" s="116"/>
+      <c r="BR14" s="117"/>
+      <c r="BS14" s="117"/>
+      <c r="BT14" s="118"/>
       <c r="BU14" s="40"/>
       <c r="BV14" s="40"/>
       <c r="BW14" s="40"/>
@@ -3493,7 +3493,7 @@
       <c r="CF14" s="41"/>
     </row>
     <row r="15" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="122" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="73" t="s">
@@ -3503,10 +3503,10 @@
         <v>22</v>
       </c>
       <c r="D15" s="25"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="116"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="100"/>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
@@ -3519,14 +3519,14 @@
       <c r="R15" s="43"/>
       <c r="S15" s="43"/>
       <c r="T15" s="44"/>
-      <c r="U15" s="123"/>
-      <c r="V15" s="124"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="124"/>
-      <c r="Y15" s="124"/>
-      <c r="Z15" s="124"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="125"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="108"/>
+      <c r="Y15" s="108"/>
+      <c r="Z15" s="108"/>
+      <c r="AA15" s="108"/>
+      <c r="AB15" s="109"/>
       <c r="AC15" s="45"/>
       <c r="AD15" s="43"/>
       <c r="AE15" s="43"/>
@@ -3535,10 +3535,10 @@
       <c r="AH15" s="43"/>
       <c r="AI15" s="43"/>
       <c r="AJ15" s="44"/>
-      <c r="AK15" s="92"/>
-      <c r="AL15" s="93"/>
-      <c r="AM15" s="93"/>
-      <c r="AN15" s="94"/>
+      <c r="AK15" s="116"/>
+      <c r="AL15" s="117"/>
+      <c r="AM15" s="117"/>
+      <c r="AN15" s="118"/>
       <c r="AO15" s="43"/>
       <c r="AP15" s="43"/>
       <c r="AQ15" s="43"/>
@@ -3551,10 +3551,10 @@
       <c r="AX15" s="20"/>
       <c r="AY15" s="20"/>
       <c r="AZ15" s="44"/>
-      <c r="BA15" s="92"/>
-      <c r="BB15" s="93"/>
-      <c r="BC15" s="93"/>
-      <c r="BD15" s="94"/>
+      <c r="BA15" s="116"/>
+      <c r="BB15" s="117"/>
+      <c r="BC15" s="117"/>
+      <c r="BD15" s="118"/>
       <c r="BE15" s="43"/>
       <c r="BF15" s="43"/>
       <c r="BG15" s="43"/>
@@ -3567,10 +3567,10 @@
       <c r="BN15" s="43"/>
       <c r="BO15" s="43"/>
       <c r="BP15" s="44"/>
-      <c r="BQ15" s="92"/>
-      <c r="BR15" s="93"/>
-      <c r="BS15" s="93"/>
-      <c r="BT15" s="94"/>
+      <c r="BQ15" s="116"/>
+      <c r="BR15" s="117"/>
+      <c r="BS15" s="117"/>
+      <c r="BT15" s="118"/>
       <c r="BU15" s="43"/>
       <c r="BV15" s="43"/>
       <c r="BW15" s="43"/>
@@ -3585,7 +3585,7 @@
       <c r="CF15" s="44"/>
     </row>
     <row r="16" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="130"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="80" t="s">
         <v>30</v>
       </c>
@@ -3593,10 +3593,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="25"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="116"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
@@ -3609,14 +3609,14 @@
       <c r="R16" s="43"/>
       <c r="S16" s="43"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="124"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="124"/>
-      <c r="Z16" s="124"/>
-      <c r="AA16" s="124"/>
-      <c r="AB16" s="125"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="108"/>
+      <c r="W16" s="108"/>
+      <c r="X16" s="108"/>
+      <c r="Y16" s="108"/>
+      <c r="Z16" s="108"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="109"/>
       <c r="AC16" s="45"/>
       <c r="AD16" s="43"/>
       <c r="AE16" s="43"/>
@@ -3625,10 +3625,10 @@
       <c r="AH16" s="43"/>
       <c r="AI16" s="43"/>
       <c r="AJ16" s="44"/>
-      <c r="AK16" s="92"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="94"/>
+      <c r="AK16" s="116"/>
+      <c r="AL16" s="117"/>
+      <c r="AM16" s="117"/>
+      <c r="AN16" s="118"/>
       <c r="AO16" s="43"/>
       <c r="AP16" s="43"/>
       <c r="AQ16" s="43"/>
@@ -3641,10 +3641,10 @@
       <c r="AX16" s="43"/>
       <c r="AY16" s="43"/>
       <c r="AZ16" s="70"/>
-      <c r="BA16" s="92"/>
-      <c r="BB16" s="93"/>
-      <c r="BC16" s="93"/>
-      <c r="BD16" s="94"/>
+      <c r="BA16" s="116"/>
+      <c r="BB16" s="117"/>
+      <c r="BC16" s="117"/>
+      <c r="BD16" s="118"/>
       <c r="BE16" s="43"/>
       <c r="BF16" s="43"/>
       <c r="BG16" s="43"/>
@@ -3657,10 +3657,10 @@
       <c r="BN16" s="43"/>
       <c r="BO16" s="43"/>
       <c r="BP16" s="44"/>
-      <c r="BQ16" s="92"/>
-      <c r="BR16" s="93"/>
-      <c r="BS16" s="93"/>
-      <c r="BT16" s="94"/>
+      <c r="BQ16" s="116"/>
+      <c r="BR16" s="117"/>
+      <c r="BS16" s="117"/>
+      <c r="BT16" s="118"/>
       <c r="BU16" s="43"/>
       <c r="BV16" s="43"/>
       <c r="BW16" s="43"/>
@@ -3675,7 +3675,7 @@
       <c r="CF16" s="44"/>
     </row>
     <row r="17" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="124" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="72" t="s">
@@ -3685,10 +3685,10 @@
         <v>22</v>
       </c>
       <c r="D17" s="25"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="116"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
@@ -3701,14 +3701,14 @@
       <c r="R17" s="46"/>
       <c r="S17" s="46"/>
       <c r="T17" s="47"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="124"/>
-      <c r="AB17" s="125"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="108"/>
+      <c r="X17" s="108"/>
+      <c r="Y17" s="108"/>
+      <c r="Z17" s="108"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="109"/>
       <c r="AC17" s="48"/>
       <c r="AD17" s="46"/>
       <c r="AE17" s="46"/>
@@ -3717,10 +3717,10 @@
       <c r="AH17" s="46"/>
       <c r="AI17" s="46"/>
       <c r="AJ17" s="47"/>
-      <c r="AK17" s="92"/>
-      <c r="AL17" s="93"/>
-      <c r="AM17" s="93"/>
-      <c r="AN17" s="94"/>
+      <c r="AK17" s="116"/>
+      <c r="AL17" s="117"/>
+      <c r="AM17" s="117"/>
+      <c r="AN17" s="118"/>
       <c r="AO17" s="46"/>
       <c r="AP17" s="46"/>
       <c r="AQ17" s="46"/>
@@ -3733,10 +3733,10 @@
       <c r="AX17" s="46"/>
       <c r="AY17" s="46"/>
       <c r="AZ17" s="47"/>
-      <c r="BA17" s="92"/>
-      <c r="BB17" s="93"/>
-      <c r="BC17" s="93"/>
-      <c r="BD17" s="94"/>
+      <c r="BA17" s="116"/>
+      <c r="BB17" s="117"/>
+      <c r="BC17" s="117"/>
+      <c r="BD17" s="118"/>
       <c r="BE17" s="20"/>
       <c r="BF17" s="20"/>
       <c r="BG17" s="20"/>
@@ -3749,10 +3749,10 @@
       <c r="BN17" s="20"/>
       <c r="BO17" s="20"/>
       <c r="BP17" s="47"/>
-      <c r="BQ17" s="92"/>
-      <c r="BR17" s="93"/>
-      <c r="BS17" s="93"/>
-      <c r="BT17" s="94"/>
+      <c r="BQ17" s="116"/>
+      <c r="BR17" s="117"/>
+      <c r="BS17" s="117"/>
+      <c r="BT17" s="118"/>
       <c r="BU17" s="46"/>
       <c r="BV17" s="46"/>
       <c r="BW17" s="46"/>
@@ -3767,7 +3767,7 @@
       <c r="CF17" s="47"/>
     </row>
     <row r="18" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="132"/>
+      <c r="A18" s="125"/>
       <c r="B18" s="79" t="s">
         <v>30</v>
       </c>
@@ -3775,10 +3775,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="25"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="116"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="100"/>
       <c r="I18" s="46"/>
       <c r="J18" s="46"/>
       <c r="K18" s="46"/>
@@ -3791,14 +3791,14 @@
       <c r="R18" s="46"/>
       <c r="S18" s="46"/>
       <c r="T18" s="47"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="124"/>
-      <c r="W18" s="124"/>
-      <c r="X18" s="124"/>
-      <c r="Y18" s="124"/>
-      <c r="Z18" s="124"/>
-      <c r="AA18" s="124"/>
-      <c r="AB18" s="125"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="108"/>
+      <c r="X18" s="108"/>
+      <c r="Y18" s="108"/>
+      <c r="Z18" s="108"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="109"/>
       <c r="AC18" s="48"/>
       <c r="AD18" s="46"/>
       <c r="AE18" s="46"/>
@@ -3807,10 +3807,10 @@
       <c r="AH18" s="46"/>
       <c r="AI18" s="46"/>
       <c r="AJ18" s="47"/>
-      <c r="AK18" s="92"/>
-      <c r="AL18" s="93"/>
-      <c r="AM18" s="93"/>
-      <c r="AN18" s="94"/>
+      <c r="AK18" s="116"/>
+      <c r="AL18" s="117"/>
+      <c r="AM18" s="117"/>
+      <c r="AN18" s="118"/>
       <c r="AO18" s="46"/>
       <c r="AP18" s="46"/>
       <c r="AQ18" s="46"/>
@@ -3823,10 +3823,10 @@
       <c r="AX18" s="46"/>
       <c r="AY18" s="46"/>
       <c r="AZ18" s="47"/>
-      <c r="BA18" s="92"/>
-      <c r="BB18" s="93"/>
-      <c r="BC18" s="93"/>
-      <c r="BD18" s="94"/>
+      <c r="BA18" s="116"/>
+      <c r="BB18" s="117"/>
+      <c r="BC18" s="117"/>
+      <c r="BD18" s="118"/>
       <c r="BE18" s="46"/>
       <c r="BF18" s="46"/>
       <c r="BG18" s="46"/>
@@ -3839,10 +3839,10 @@
       <c r="BN18" s="46"/>
       <c r="BO18" s="46"/>
       <c r="BP18" s="21"/>
-      <c r="BQ18" s="92"/>
-      <c r="BR18" s="93"/>
-      <c r="BS18" s="93"/>
-      <c r="BT18" s="94"/>
+      <c r="BQ18" s="116"/>
+      <c r="BR18" s="117"/>
+      <c r="BS18" s="117"/>
+      <c r="BT18" s="118"/>
       <c r="BU18" s="46"/>
       <c r="BV18" s="46"/>
       <c r="BW18" s="46"/>
@@ -3857,20 +3857,20 @@
       <c r="CF18" s="47"/>
     </row>
     <row r="19" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="136" t="s">
+      <c r="A19" s="129" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="77" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="25"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="116"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="100"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
@@ -3883,14 +3883,14 @@
       <c r="R19" s="49"/>
       <c r="S19" s="49"/>
       <c r="T19" s="50"/>
-      <c r="U19" s="123"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="124"/>
-      <c r="X19" s="124"/>
-      <c r="Y19" s="124"/>
-      <c r="Z19" s="124"/>
-      <c r="AA19" s="124"/>
-      <c r="AB19" s="125"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="108"/>
+      <c r="X19" s="108"/>
+      <c r="Y19" s="108"/>
+      <c r="Z19" s="108"/>
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="109"/>
       <c r="AC19" s="51"/>
       <c r="AD19" s="49"/>
       <c r="AE19" s="49"/>
@@ -3899,10 +3899,10 @@
       <c r="AH19" s="49"/>
       <c r="AI19" s="49"/>
       <c r="AJ19" s="50"/>
-      <c r="AK19" s="92"/>
-      <c r="AL19" s="93"/>
-      <c r="AM19" s="93"/>
-      <c r="AN19" s="94"/>
+      <c r="AK19" s="116"/>
+      <c r="AL19" s="117"/>
+      <c r="AM19" s="117"/>
+      <c r="AN19" s="118"/>
       <c r="AO19" s="49"/>
       <c r="AP19" s="49"/>
       <c r="AQ19" s="49"/>
@@ -3915,10 +3915,10 @@
       <c r="AX19" s="49"/>
       <c r="AY19" s="49"/>
       <c r="AZ19" s="50"/>
-      <c r="BA19" s="92"/>
-      <c r="BB19" s="93"/>
-      <c r="BC19" s="93"/>
-      <c r="BD19" s="94"/>
+      <c r="BA19" s="116"/>
+      <c r="BB19" s="117"/>
+      <c r="BC19" s="117"/>
+      <c r="BD19" s="118"/>
       <c r="BE19" s="49"/>
       <c r="BF19" s="49"/>
       <c r="BG19" s="49"/>
@@ -3931,10 +3931,10 @@
       <c r="BN19" s="49"/>
       <c r="BO19" s="49"/>
       <c r="BP19" s="50"/>
-      <c r="BQ19" s="92"/>
-      <c r="BR19" s="93"/>
-      <c r="BS19" s="93"/>
-      <c r="BT19" s="94"/>
+      <c r="BQ19" s="116"/>
+      <c r="BR19" s="117"/>
+      <c r="BS19" s="117"/>
+      <c r="BT19" s="118"/>
       <c r="BU19" s="20"/>
       <c r="BV19" s="20"/>
       <c r="BW19" s="20"/>
@@ -3949,16 +3949,18 @@
       <c r="CF19" s="50"/>
     </row>
     <row r="20" spans="1:84" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="137"/>
+      <c r="A20" s="130"/>
       <c r="B20" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="D20" s="25"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="100"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
@@ -3971,14 +3973,14 @@
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
       <c r="T20" s="66"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="124"/>
-      <c r="W20" s="124"/>
-      <c r="X20" s="124"/>
-      <c r="Y20" s="124"/>
-      <c r="Z20" s="124"/>
-      <c r="AA20" s="124"/>
-      <c r="AB20" s="125"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="109"/>
       <c r="AC20" s="67"/>
       <c r="AD20" s="65"/>
       <c r="AE20" s="65"/>
@@ -3987,10 +3989,10 @@
       <c r="AH20" s="65"/>
       <c r="AI20" s="65"/>
       <c r="AJ20" s="66"/>
-      <c r="AK20" s="92"/>
-      <c r="AL20" s="93"/>
-      <c r="AM20" s="93"/>
-      <c r="AN20" s="94"/>
+      <c r="AK20" s="116"/>
+      <c r="AL20" s="117"/>
+      <c r="AM20" s="117"/>
+      <c r="AN20" s="118"/>
       <c r="AO20" s="65"/>
       <c r="AP20" s="65"/>
       <c r="AQ20" s="65"/>
@@ -4003,10 +4005,10 @@
       <c r="AX20" s="65"/>
       <c r="AY20" s="65"/>
       <c r="AZ20" s="66"/>
-      <c r="BA20" s="92"/>
-      <c r="BB20" s="93"/>
-      <c r="BC20" s="93"/>
-      <c r="BD20" s="94"/>
+      <c r="BA20" s="116"/>
+      <c r="BB20" s="117"/>
+      <c r="BC20" s="117"/>
+      <c r="BD20" s="118"/>
       <c r="BE20" s="65"/>
       <c r="BF20" s="65"/>
       <c r="BG20" s="65"/>
@@ -4019,10 +4021,10 @@
       <c r="BN20" s="65"/>
       <c r="BO20" s="65"/>
       <c r="BP20" s="66"/>
-      <c r="BQ20" s="92"/>
-      <c r="BR20" s="93"/>
-      <c r="BS20" s="93"/>
-      <c r="BT20" s="94"/>
+      <c r="BQ20" s="116"/>
+      <c r="BR20" s="117"/>
+      <c r="BS20" s="117"/>
+      <c r="BT20" s="118"/>
       <c r="BU20" s="65"/>
       <c r="BV20" s="65"/>
       <c r="BW20" s="65"/>
@@ -4043,12 +4045,14 @@
       <c r="B21" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="D21" s="25"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="116"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="100"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
@@ -4061,14 +4065,14 @@
       <c r="R21" s="53"/>
       <c r="S21" s="53"/>
       <c r="T21" s="54"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="124"/>
-      <c r="Z21" s="124"/>
-      <c r="AA21" s="124"/>
-      <c r="AB21" s="125"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="108"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="108"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="109"/>
       <c r="AC21" s="55"/>
       <c r="AD21" s="53"/>
       <c r="AE21" s="53"/>
@@ -4077,10 +4081,10 @@
       <c r="AH21" s="53"/>
       <c r="AI21" s="53"/>
       <c r="AJ21" s="54"/>
-      <c r="AK21" s="92"/>
-      <c r="AL21" s="93"/>
-      <c r="AM21" s="93"/>
-      <c r="AN21" s="94"/>
+      <c r="AK21" s="116"/>
+      <c r="AL21" s="117"/>
+      <c r="AM21" s="117"/>
+      <c r="AN21" s="118"/>
       <c r="AO21" s="53"/>
       <c r="AP21" s="53"/>
       <c r="AQ21" s="53"/>
@@ -4093,10 +4097,10 @@
       <c r="AX21" s="53"/>
       <c r="AY21" s="53"/>
       <c r="AZ21" s="54"/>
-      <c r="BA21" s="92"/>
-      <c r="BB21" s="93"/>
-      <c r="BC21" s="93"/>
-      <c r="BD21" s="94"/>
+      <c r="BA21" s="116"/>
+      <c r="BB21" s="117"/>
+      <c r="BC21" s="117"/>
+      <c r="BD21" s="118"/>
       <c r="BE21" s="53"/>
       <c r="BF21" s="53"/>
       <c r="BG21" s="53"/>
@@ -4109,10 +4113,10 @@
       <c r="BN21" s="53"/>
       <c r="BO21" s="53"/>
       <c r="BP21" s="54"/>
-      <c r="BQ21" s="92"/>
-      <c r="BR21" s="93"/>
-      <c r="BS21" s="93"/>
-      <c r="BT21" s="94"/>
+      <c r="BQ21" s="116"/>
+      <c r="BR21" s="117"/>
+      <c r="BS21" s="117"/>
+      <c r="BT21" s="118"/>
       <c r="BU21" s="53"/>
       <c r="BV21" s="53"/>
       <c r="BW21" s="53"/>
@@ -4127,19 +4131,19 @@
       <c r="CF21" s="23"/>
     </row>
     <row r="22" spans="1:84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="109" t="s">
+      <c r="A22" s="93" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="57" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="114"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="116"/>
+        <v>22</v>
+      </c>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="100"/>
       <c r="I22" s="59"/>
       <c r="J22" s="59"/>
       <c r="K22" s="59"/>
@@ -4152,14 +4156,14 @@
       <c r="R22" s="59"/>
       <c r="S22" s="59"/>
       <c r="T22" s="60"/>
-      <c r="U22" s="123"/>
-      <c r="V22" s="124"/>
-      <c r="W22" s="124"/>
-      <c r="X22" s="124"/>
-      <c r="Y22" s="124"/>
-      <c r="Z22" s="124"/>
-      <c r="AA22" s="124"/>
-      <c r="AB22" s="125"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="108"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="108"/>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="109"/>
       <c r="AC22" s="58"/>
       <c r="AD22" s="59"/>
       <c r="AE22" s="59"/>
@@ -4168,10 +4172,10 @@
       <c r="AH22" s="59"/>
       <c r="AI22" s="82"/>
       <c r="AJ22" s="83"/>
-      <c r="AK22" s="92"/>
-      <c r="AL22" s="93"/>
-      <c r="AM22" s="93"/>
-      <c r="AN22" s="94"/>
+      <c r="AK22" s="116"/>
+      <c r="AL22" s="117"/>
+      <c r="AM22" s="117"/>
+      <c r="AN22" s="118"/>
       <c r="AO22" s="82"/>
       <c r="AP22" s="82"/>
       <c r="AQ22" s="59"/>
@@ -4184,10 +4188,10 @@
       <c r="AX22" s="82"/>
       <c r="AY22" s="82"/>
       <c r="AZ22" s="83"/>
-      <c r="BA22" s="92"/>
-      <c r="BB22" s="93"/>
-      <c r="BC22" s="93"/>
-      <c r="BD22" s="94"/>
+      <c r="BA22" s="116"/>
+      <c r="BB22" s="117"/>
+      <c r="BC22" s="117"/>
+      <c r="BD22" s="118"/>
       <c r="BE22" s="82"/>
       <c r="BF22" s="82"/>
       <c r="BG22" s="82"/>
@@ -4200,10 +4204,10 @@
       <c r="BN22" s="82"/>
       <c r="BO22" s="82"/>
       <c r="BP22" s="83"/>
-      <c r="BQ22" s="92"/>
-      <c r="BR22" s="93"/>
-      <c r="BS22" s="93"/>
-      <c r="BT22" s="94"/>
+      <c r="BQ22" s="116"/>
+      <c r="BR22" s="117"/>
+      <c r="BS22" s="117"/>
+      <c r="BT22" s="118"/>
       <c r="BU22" s="82"/>
       <c r="BV22" s="82"/>
       <c r="BW22" s="82"/>
@@ -4218,17 +4222,17 @@
       <c r="CF22" s="60"/>
     </row>
     <row r="23" spans="1:84" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="56" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="117"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="119"/>
+        <v>22</v>
+      </c>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="64"/>
       <c r="J23" s="64"/>
       <c r="K23" s="62"/>
@@ -4241,14 +4245,14 @@
       <c r="R23" s="62"/>
       <c r="S23" s="62"/>
       <c r="T23" s="63"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="127"/>
-      <c r="W23" s="127"/>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="128"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="111"/>
+      <c r="W23" s="111"/>
+      <c r="X23" s="111"/>
+      <c r="Y23" s="111"/>
+      <c r="Z23" s="111"/>
+      <c r="AA23" s="111"/>
+      <c r="AB23" s="112"/>
       <c r="AC23" s="61"/>
       <c r="AD23" s="62"/>
       <c r="AE23" s="62"/>
@@ -4257,10 +4261,10 @@
       <c r="AH23" s="62"/>
       <c r="AI23" s="62"/>
       <c r="AJ23" s="63"/>
-      <c r="AK23" s="95"/>
-      <c r="AL23" s="96"/>
-      <c r="AM23" s="96"/>
-      <c r="AN23" s="97"/>
+      <c r="AK23" s="119"/>
+      <c r="AL23" s="120"/>
+      <c r="AM23" s="120"/>
+      <c r="AN23" s="121"/>
       <c r="AO23" s="62"/>
       <c r="AP23" s="62"/>
       <c r="AQ23" s="62"/>
@@ -4273,10 +4277,10 @@
       <c r="AX23" s="62"/>
       <c r="AY23" s="62"/>
       <c r="AZ23" s="63"/>
-      <c r="BA23" s="95"/>
-      <c r="BB23" s="96"/>
-      <c r="BC23" s="96"/>
-      <c r="BD23" s="97"/>
+      <c r="BA23" s="119"/>
+      <c r="BB23" s="120"/>
+      <c r="BC23" s="120"/>
+      <c r="BD23" s="121"/>
       <c r="BE23" s="62"/>
       <c r="BF23" s="62"/>
       <c r="BG23" s="62"/>
@@ -4289,10 +4293,10 @@
       <c r="BN23" s="62"/>
       <c r="BO23" s="62"/>
       <c r="BP23" s="63"/>
-      <c r="BQ23" s="95"/>
-      <c r="BR23" s="96"/>
-      <c r="BS23" s="96"/>
-      <c r="BT23" s="97"/>
+      <c r="BQ23" s="119"/>
+      <c r="BR23" s="120"/>
+      <c r="BS23" s="120"/>
+      <c r="BT23" s="121"/>
       <c r="BU23" s="62"/>
       <c r="BV23" s="62"/>
       <c r="BW23" s="62"/>
@@ -4308,6 +4312,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="BQ6:BT23"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="E2:AR3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="AS2:CF3"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="BY4:CB4"/>
+    <mergeCell ref="CC4:CF4"/>
     <mergeCell ref="BU4:BX4"/>
     <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="A22:A23"/>
@@ -4324,27 +4349,6 @@
     <mergeCell ref="U4:X4"/>
     <mergeCell ref="Y4:AB4"/>
     <mergeCell ref="BA6:BD23"/>
-    <mergeCell ref="E2:AR3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="AS2:CF3"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="AS4:AV4"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="BY4:CB4"/>
-    <mergeCell ref="CC4:CF4"/>
-    <mergeCell ref="BQ6:BT23"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="C6:C23">
@@ -4382,6 +4386,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BD0882D7B13D249A8B88997E24B9140" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2041c0d2b30335279095007fcb0a9d7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8afaa137-8a18-4908-97f4-35fc924e5a91" xmlns:ns3="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b9c1bb8339570eda07374d036e5caf" ns2:_="" ns3:_="">
     <xsd:import namespace="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
@@ -4594,17 +4609,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8afaa137-8a18-4908-97f4-35fc924e5a91">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762EB85F-E28B-44CA-8330-7878EE38D3E4}">
   <ds:schemaRefs>
@@ -4614,6 +4618,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
+    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
+    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
+    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C334E08-C15B-4283-B082-739F59C9FCA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4630,17 +4647,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F2702F0-3EB0-496B-8166-A9BB237AECA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b54f96d8-6138-4ba9-8b5a-da1062324abb"/>
-    <ds:schemaRef ds:uri="0ecde9c3-6951-4ee0-98d0-295e535ef6cd"/>
-    <ds:schemaRef ds:uri="8afaa137-8a18-4908-97f4-35fc924e5a91"/>
-    <ds:schemaRef ds:uri="3b60234b-33e6-42ae-ae88-ba7d4a3eedfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>